--- a/Rozklad_2zaizd.xlsx
+++ b/Rozklad_2zaizd.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="55">
   <si>
     <t>І</t>
   </si>
@@ -179,11 +179,17 @@
   <si>
     <t>Понеділок, 19 грудня</t>
   </si>
+  <si>
+    <t>Історія та культура України</t>
+  </si>
+  <si>
+    <t>Іноземна</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,21 +439,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,17 +453,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -528,7 +552,7 @@
     </a:clrScheme>
     <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -563,7 +587,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -740,7 +764,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -750,11 +774,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N91" sqref="N91"/>
+      <selection pane="bottomRight" activeCell="P47" sqref="P47:X48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,196 +944,196 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="22" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24" t="s">
+      <c r="N2" s="30"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="22" t="s">
+      <c r="T2" s="30"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="24" t="s">
+      <c r="W2" s="30"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="22" t="s">
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="22" t="s">
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="24" t="s">
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="22" t="s">
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="22" t="s">
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="24" t="s">
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="22" t="s">
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="22" t="s">
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="24" t="s">
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="22"/>
-      <c r="BC2" s="22"/>
-      <c r="BD2" s="22"/>
-      <c r="BE2" s="25"/>
-      <c r="BF2" s="26" t="s">
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="22"/>
-      <c r="BH2" s="22"/>
-      <c r="BI2" s="22"/>
-      <c r="BJ2" s="22"/>
-      <c r="BK2" s="25"/>
-      <c r="BL2" s="22" t="s">
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="30"/>
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="22"/>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="22"/>
-      <c r="BP2" s="22"/>
-      <c r="BQ2" s="23"/>
+      <c r="BM2" s="30"/>
+      <c r="BN2" s="30"/>
+      <c r="BO2" s="30"/>
+      <c r="BP2" s="30"/>
+      <c r="BQ2" s="32"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="D3" s="24"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="22"/>
-      <c r="AU3" s="22"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="22"/>
-      <c r="AX3" s="22"/>
-      <c r="AY3" s="23"/>
-      <c r="AZ3" s="24" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="22" t="s">
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="22"/>
-      <c r="BE3" s="25"/>
-      <c r="BF3" s="26" t="s">
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="22"/>
-      <c r="BH3" s="31"/>
-      <c r="BI3" s="22" t="s">
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="22"/>
-      <c r="BK3" s="25"/>
-      <c r="BL3" s="22" t="s">
+      <c r="BJ3" s="30"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="BM3" s="22"/>
-      <c r="BN3" s="31"/>
-      <c r="BO3" s="22" t="s">
+      <c r="BM3" s="30"/>
+      <c r="BN3" s="36"/>
+      <c r="BO3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="BP3" s="22"/>
-      <c r="BQ3" s="23"/>
-      <c r="BR3" s="30"/>
-      <c r="BS3" s="30"/>
-      <c r="BT3" s="30"/>
-      <c r="BU3" s="30"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
+      <c r="BP3" s="30"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="34"/>
+      <c r="BU3" s="34"/>
+      <c r="BV3" s="34"/>
+      <c r="BW3" s="34"/>
     </row>
     <row r="4" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1375,7 +1399,9 @@
       <c r="AQ5" s="3"/>
       <c r="AR5" s="4"/>
       <c r="AS5" s="14"/>
-      <c r="AT5" s="4"/>
+      <c r="AT5" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="AU5" s="4"/>
       <c r="AV5" s="14"/>
       <c r="AW5" s="4"/>
@@ -1450,7 +1476,9 @@
       <c r="AQ6" s="3"/>
       <c r="AR6" s="4"/>
       <c r="AS6" s="14"/>
-      <c r="AT6" s="4"/>
+      <c r="AT6" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="AU6" s="4"/>
       <c r="AV6" s="14"/>
       <c r="AW6" s="4"/>
@@ -1525,7 +1553,9 @@
       <c r="AQ7" s="3"/>
       <c r="AR7" s="4"/>
       <c r="AS7" s="14"/>
-      <c r="AT7" s="4"/>
+      <c r="AT7" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="AU7" s="4"/>
       <c r="AV7" s="14"/>
       <c r="AW7" s="4"/>
@@ -1558,18 +1588,20 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5"/>
+      <c r="D8" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="42"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="14"/>
@@ -1703,18 +1735,20 @@
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
+      <c r="D10" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="39"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="15"/>
@@ -1778,18 +1812,20 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
+      <c r="D11" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="15"/>
@@ -1841,7 +1877,9 @@
       <c r="BL11" s="7"/>
       <c r="BM11" s="7"/>
       <c r="BN11" s="19"/>
-      <c r="BO11" s="7"/>
+      <c r="BO11" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="BP11" s="7"/>
       <c r="BQ11" s="8"/>
     </row>
@@ -1916,7 +1954,9 @@
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
       <c r="BN12" s="19"/>
-      <c r="BO12" s="7"/>
+      <c r="BO12" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="BP12" s="7"/>
       <c r="BQ12" s="8"/>
     </row>
@@ -2813,18 +2853,20 @@
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="8"/>
+      <c r="D25" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="39"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="15"/>
@@ -3923,18 +3965,20 @@
       <c r="C40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="8"/>
+      <c r="D40" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="39"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="15"/>
@@ -3998,18 +4042,20 @@
       <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="8"/>
+      <c r="D41" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="39"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="15"/>
@@ -4115,7 +4161,9 @@
       <c r="AQ42" s="6"/>
       <c r="AR42" s="7"/>
       <c r="AS42" s="15"/>
-      <c r="AT42" s="7"/>
+      <c r="AT42" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="AU42" s="7"/>
       <c r="AV42" s="15"/>
       <c r="AW42" s="7"/>
@@ -4190,7 +4238,9 @@
       <c r="AQ43" s="6"/>
       <c r="AR43" s="7"/>
       <c r="AS43" s="15"/>
-      <c r="AT43" s="7"/>
+      <c r="AT43" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="AU43" s="7"/>
       <c r="AV43" s="15"/>
       <c r="AW43" s="7"/>
@@ -4410,7 +4460,9 @@
       <c r="AQ46" s="6"/>
       <c r="AR46" s="7"/>
       <c r="AS46" s="15"/>
-      <c r="AT46" s="7"/>
+      <c r="AT46" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="AU46" s="7"/>
       <c r="AV46" s="15"/>
       <c r="AW46" s="7"/>
@@ -4431,7 +4483,9 @@
       <c r="BL46" s="7"/>
       <c r="BM46" s="7"/>
       <c r="BN46" s="19"/>
-      <c r="BO46" s="7"/>
+      <c r="BO46" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="BP46" s="7"/>
       <c r="BQ46" s="8"/>
     </row>
@@ -4455,15 +4509,17 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="8"/>
+      <c r="P47" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="39"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="15"/>
@@ -4506,7 +4562,7 @@
       <c r="BL47" s="7"/>
       <c r="BM47" s="7"/>
       <c r="BN47" s="7"/>
-      <c r="BO47" s="34"/>
+      <c r="BO47" s="24"/>
       <c r="BP47" s="7"/>
       <c r="BQ47" s="8"/>
     </row>
@@ -4530,15 +4586,17 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="8"/>
+      <c r="P48" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="39"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
@@ -4551,10 +4609,10 @@
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="15"/>
-      <c r="AK48" s="32"/>
+      <c r="AK48" s="22"/>
       <c r="AL48" s="7"/>
       <c r="AM48" s="15"/>
-      <c r="AN48" s="32"/>
+      <c r="AN48" s="22"/>
       <c r="AO48" s="7"/>
       <c r="AP48" s="8"/>
       <c r="AQ48" s="7"/>
@@ -4569,19 +4627,19 @@
       <c r="AZ48" s="7"/>
       <c r="BA48" s="7"/>
       <c r="BB48" s="19"/>
-      <c r="BC48" s="33"/>
+      <c r="BC48" s="23"/>
       <c r="BD48" s="7"/>
       <c r="BE48" s="15"/>
-      <c r="BF48" s="32"/>
+      <c r="BF48" s="22"/>
       <c r="BG48" s="7"/>
       <c r="BH48" s="19"/>
-      <c r="BI48" s="33"/>
+      <c r="BI48" s="23"/>
       <c r="BJ48" s="7"/>
       <c r="BK48" s="15"/>
       <c r="BL48" s="7"/>
       <c r="BM48" s="7"/>
       <c r="BN48" s="7"/>
-      <c r="BO48" s="35"/>
+      <c r="BO48" s="25"/>
       <c r="BP48" s="7"/>
       <c r="BQ48" s="8"/>
     </row>
@@ -4610,7 +4668,7 @@
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
-      <c r="AB49" s="32"/>
+      <c r="AB49" s="22"/>
       <c r="AC49" s="7"/>
       <c r="AD49" s="15"/>
       <c r="AE49" s="7"/>
@@ -4649,7 +4707,7 @@
       <c r="BL49" s="7"/>
       <c r="BM49" s="7"/>
       <c r="BN49" s="7"/>
-      <c r="BO49" s="35"/>
+      <c r="BO49" s="25"/>
       <c r="BP49" s="7"/>
       <c r="BQ49" s="8"/>
     </row>
@@ -4687,7 +4745,7 @@
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
-      <c r="AB50" s="32"/>
+      <c r="AB50" s="22"/>
       <c r="AC50" s="7"/>
       <c r="AD50" s="15"/>
       <c r="AE50" s="7"/>
@@ -4726,7 +4784,7 @@
       <c r="BL50" s="7"/>
       <c r="BM50" s="7"/>
       <c r="BN50" s="7"/>
-      <c r="BO50" s="35"/>
+      <c r="BO50" s="25"/>
       <c r="BP50" s="7"/>
       <c r="BQ50" s="8"/>
     </row>
@@ -4762,7 +4820,7 @@
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
-      <c r="AB51" s="32"/>
+      <c r="AB51" s="22"/>
       <c r="AC51" s="7"/>
       <c r="AD51" s="15"/>
       <c r="AE51" s="7"/>
@@ -4801,7 +4859,7 @@
       <c r="BL51" s="7"/>
       <c r="BM51" s="7"/>
       <c r="BN51" s="7"/>
-      <c r="BO51" s="35"/>
+      <c r="BO51" s="25"/>
       <c r="BP51" s="7"/>
       <c r="BQ51" s="8"/>
     </row>
@@ -4837,7 +4895,7 @@
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
-      <c r="AB52" s="32"/>
+      <c r="AB52" s="22"/>
       <c r="AC52" s="7"/>
       <c r="AD52" s="15"/>
       <c r="AE52" s="7"/>
@@ -4876,7 +4934,7 @@
       <c r="BL52" s="7"/>
       <c r="BM52" s="7"/>
       <c r="BN52" s="7"/>
-      <c r="BO52" s="35"/>
+      <c r="BO52" s="25"/>
       <c r="BP52" s="7"/>
       <c r="BQ52" s="8"/>
     </row>
@@ -4912,7 +4970,7 @@
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
-      <c r="AB53" s="32"/>
+      <c r="AB53" s="22"/>
       <c r="AC53" s="7"/>
       <c r="AD53" s="15"/>
       <c r="AE53" s="7"/>
@@ -4951,7 +5009,7 @@
       <c r="BL53" s="7"/>
       <c r="BM53" s="7"/>
       <c r="BN53" s="7"/>
-      <c r="BO53" s="35"/>
+      <c r="BO53" s="25"/>
       <c r="BP53" s="7"/>
       <c r="BQ53" s="8"/>
     </row>
@@ -4980,7 +5038,7 @@
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
-      <c r="AB54" s="32"/>
+      <c r="AB54" s="22"/>
       <c r="AC54" s="7"/>
       <c r="AD54" s="15"/>
       <c r="AE54" s="7"/>
@@ -5019,7 +5077,7 @@
       <c r="BL54" s="7"/>
       <c r="BM54" s="7"/>
       <c r="BN54" s="7"/>
-      <c r="BO54" s="35"/>
+      <c r="BO54" s="25"/>
       <c r="BP54" s="7"/>
       <c r="BQ54" s="8"/>
     </row>
@@ -5057,7 +5115,7 @@
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
-      <c r="AB55" s="32"/>
+      <c r="AB55" s="22"/>
       <c r="AC55" s="7"/>
       <c r="AD55" s="15"/>
       <c r="AE55" s="7"/>
@@ -5096,7 +5154,7 @@
       <c r="BL55" s="7"/>
       <c r="BM55" s="7"/>
       <c r="BN55" s="7"/>
-      <c r="BO55" s="35"/>
+      <c r="BO55" s="25"/>
       <c r="BP55" s="7"/>
       <c r="BQ55" s="8"/>
     </row>
@@ -5132,7 +5190,7 @@
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
       <c r="AA56" s="7"/>
-      <c r="AB56" s="32"/>
+      <c r="AB56" s="22"/>
       <c r="AC56" s="7"/>
       <c r="AD56" s="15"/>
       <c r="AE56" s="7"/>
@@ -5171,7 +5229,7 @@
       <c r="BL56" s="7"/>
       <c r="BM56" s="7"/>
       <c r="BN56" s="7"/>
-      <c r="BO56" s="35"/>
+      <c r="BO56" s="25"/>
       <c r="BP56" s="7"/>
       <c r="BQ56" s="8"/>
     </row>
@@ -5207,7 +5265,7 @@
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
-      <c r="AB57" s="32"/>
+      <c r="AB57" s="22"/>
       <c r="AC57" s="7"/>
       <c r="AD57" s="15"/>
       <c r="AE57" s="7"/>
@@ -5246,7 +5304,7 @@
       <c r="BL57" s="7"/>
       <c r="BM57" s="7"/>
       <c r="BN57" s="7"/>
-      <c r="BO57" s="35"/>
+      <c r="BO57" s="25"/>
       <c r="BP57" s="7"/>
       <c r="BQ57" s="8"/>
     </row>
@@ -5282,7 +5340,7 @@
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
       <c r="AA58" s="7"/>
-      <c r="AB58" s="32"/>
+      <c r="AB58" s="22"/>
       <c r="AC58" s="7"/>
       <c r="AD58" s="15"/>
       <c r="AE58" s="7"/>
@@ -5321,7 +5379,7 @@
       <c r="BL58" s="7"/>
       <c r="BM58" s="7"/>
       <c r="BN58" s="7"/>
-      <c r="BO58" s="35"/>
+      <c r="BO58" s="25"/>
       <c r="BP58" s="7"/>
       <c r="BQ58" s="8"/>
     </row>
@@ -5350,7 +5408,7 @@
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
       <c r="AA59" s="7"/>
-      <c r="AB59" s="32"/>
+      <c r="AB59" s="22"/>
       <c r="AC59" s="7"/>
       <c r="AD59" s="15"/>
       <c r="AE59" s="7"/>
@@ -5389,7 +5447,7 @@
       <c r="BL59" s="7"/>
       <c r="BM59" s="7"/>
       <c r="BN59" s="7"/>
-      <c r="BO59" s="35"/>
+      <c r="BO59" s="25"/>
       <c r="BP59" s="7"/>
       <c r="BQ59" s="8"/>
     </row>
@@ -5427,7 +5485,7 @@
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
-      <c r="AB60" s="32"/>
+      <c r="AB60" s="22"/>
       <c r="AC60" s="7"/>
       <c r="AD60" s="15"/>
       <c r="AE60" s="7"/>
@@ -5466,7 +5524,7 @@
       <c r="BL60" s="7"/>
       <c r="BM60" s="7"/>
       <c r="BN60" s="7"/>
-      <c r="BO60" s="35"/>
+      <c r="BO60" s="25"/>
       <c r="BP60" s="7"/>
       <c r="BQ60" s="8"/>
     </row>
@@ -5502,7 +5560,7 @@
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
       <c r="AA61" s="7"/>
-      <c r="AB61" s="32"/>
+      <c r="AB61" s="22"/>
       <c r="AC61" s="7"/>
       <c r="AD61" s="15"/>
       <c r="AE61" s="7"/>
@@ -5541,7 +5599,7 @@
       <c r="BL61" s="7"/>
       <c r="BM61" s="7"/>
       <c r="BN61" s="7"/>
-      <c r="BO61" s="35"/>
+      <c r="BO61" s="25"/>
       <c r="BP61" s="7"/>
       <c r="BQ61" s="8"/>
     </row>
@@ -5577,7 +5635,7 @@
       <c r="Y62" s="7"/>
       <c r="Z62" s="7"/>
       <c r="AA62" s="7"/>
-      <c r="AB62" s="32"/>
+      <c r="AB62" s="22"/>
       <c r="AC62" s="7"/>
       <c r="AD62" s="15"/>
       <c r="AE62" s="7"/>
@@ -5616,7 +5674,7 @@
       <c r="BL62" s="7"/>
       <c r="BM62" s="7"/>
       <c r="BN62" s="7"/>
-      <c r="BO62" s="35"/>
+      <c r="BO62" s="25"/>
       <c r="BP62" s="7"/>
       <c r="BQ62" s="8"/>
     </row>
@@ -5652,7 +5710,7 @@
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
       <c r="AA63" s="7"/>
-      <c r="AB63" s="32"/>
+      <c r="AB63" s="22"/>
       <c r="AC63" s="7"/>
       <c r="AD63" s="15"/>
       <c r="AE63" s="7"/>
@@ -5691,7 +5749,7 @@
       <c r="BL63" s="7"/>
       <c r="BM63" s="7"/>
       <c r="BN63" s="7"/>
-      <c r="BO63" s="35"/>
+      <c r="BO63" s="25"/>
       <c r="BP63" s="7"/>
       <c r="BQ63" s="8"/>
     </row>
@@ -5720,7 +5778,7 @@
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
       <c r="AA64" s="7"/>
-      <c r="AB64" s="32"/>
+      <c r="AB64" s="22"/>
       <c r="AC64" s="7"/>
       <c r="AD64" s="15"/>
       <c r="AE64" s="7"/>
@@ -5759,7 +5817,7 @@
       <c r="BL64" s="7"/>
       <c r="BM64" s="7"/>
       <c r="BN64" s="7"/>
-      <c r="BO64" s="35"/>
+      <c r="BO64" s="25"/>
       <c r="BP64" s="7"/>
       <c r="BQ64" s="8"/>
     </row>
@@ -5797,7 +5855,7 @@
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
-      <c r="AB65" s="32"/>
+      <c r="AB65" s="22"/>
       <c r="AC65" s="7"/>
       <c r="AD65" s="15"/>
       <c r="AE65" s="7"/>
@@ -5836,7 +5894,7 @@
       <c r="BL65" s="7"/>
       <c r="BM65" s="7"/>
       <c r="BN65" s="7"/>
-      <c r="BO65" s="35"/>
+      <c r="BO65" s="25"/>
       <c r="BP65" s="7"/>
       <c r="BQ65" s="8"/>
     </row>
@@ -5872,7 +5930,7 @@
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
-      <c r="AB66" s="32"/>
+      <c r="AB66" s="22"/>
       <c r="AC66" s="7"/>
       <c r="AD66" s="15"/>
       <c r="AE66" s="7"/>
@@ -5911,7 +5969,7 @@
       <c r="BL66" s="7"/>
       <c r="BM66" s="7"/>
       <c r="BN66" s="7"/>
-      <c r="BO66" s="35"/>
+      <c r="BO66" s="25"/>
       <c r="BP66" s="7"/>
       <c r="BQ66" s="8"/>
     </row>
@@ -5947,7 +6005,7 @@
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
-      <c r="AB67" s="32"/>
+      <c r="AB67" s="22"/>
       <c r="AC67" s="7"/>
       <c r="AD67" s="15"/>
       <c r="AE67" s="7"/>
@@ -5986,7 +6044,7 @@
       <c r="BL67" s="7"/>
       <c r="BM67" s="7"/>
       <c r="BN67" s="7"/>
-      <c r="BO67" s="35"/>
+      <c r="BO67" s="25"/>
       <c r="BP67" s="7"/>
       <c r="BQ67" s="8"/>
     </row>
@@ -6022,7 +6080,7 @@
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
       <c r="AA68" s="7"/>
-      <c r="AB68" s="32"/>
+      <c r="AB68" s="22"/>
       <c r="AC68" s="7"/>
       <c r="AD68" s="15"/>
       <c r="AE68" s="7"/>
@@ -6061,7 +6119,7 @@
       <c r="BL68" s="7"/>
       <c r="BM68" s="7"/>
       <c r="BN68" s="7"/>
-      <c r="BO68" s="35"/>
+      <c r="BO68" s="25"/>
       <c r="BP68" s="7"/>
       <c r="BQ68" s="8"/>
     </row>
@@ -6090,7 +6148,7 @@
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
       <c r="AA69" s="7"/>
-      <c r="AB69" s="32"/>
+      <c r="AB69" s="22"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="15"/>
       <c r="AE69" s="7"/>
@@ -6129,7 +6187,7 @@
       <c r="BL69" s="7"/>
       <c r="BM69" s="7"/>
       <c r="BN69" s="7"/>
-      <c r="BO69" s="35"/>
+      <c r="BO69" s="25"/>
       <c r="BP69" s="7"/>
       <c r="BQ69" s="8"/>
     </row>
@@ -6167,7 +6225,7 @@
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
       <c r="AA70" s="7"/>
-      <c r="AB70" s="32"/>
+      <c r="AB70" s="22"/>
       <c r="AC70" s="7"/>
       <c r="AD70" s="15"/>
       <c r="AE70" s="7"/>
@@ -6206,7 +6264,7 @@
       <c r="BL70" s="7"/>
       <c r="BM70" s="7"/>
       <c r="BN70" s="7"/>
-      <c r="BO70" s="35"/>
+      <c r="BO70" s="25"/>
       <c r="BP70" s="7"/>
       <c r="BQ70" s="8"/>
     </row>
@@ -6242,7 +6300,7 @@
       <c r="Y71" s="7"/>
       <c r="Z71" s="7"/>
       <c r="AA71" s="7"/>
-      <c r="AB71" s="32"/>
+      <c r="AB71" s="22"/>
       <c r="AC71" s="7"/>
       <c r="AD71" s="15"/>
       <c r="AE71" s="7"/>
@@ -6281,7 +6339,7 @@
       <c r="BL71" s="7"/>
       <c r="BM71" s="7"/>
       <c r="BN71" s="7"/>
-      <c r="BO71" s="35"/>
+      <c r="BO71" s="25"/>
       <c r="BP71" s="7"/>
       <c r="BQ71" s="8"/>
     </row>
@@ -6317,7 +6375,7 @@
       <c r="Y72" s="7"/>
       <c r="Z72" s="7"/>
       <c r="AA72" s="7"/>
-      <c r="AB72" s="32"/>
+      <c r="AB72" s="22"/>
       <c r="AC72" s="7"/>
       <c r="AD72" s="15"/>
       <c r="AE72" s="7"/>
@@ -6356,7 +6414,7 @@
       <c r="BL72" s="7"/>
       <c r="BM72" s="7"/>
       <c r="BN72" s="7"/>
-      <c r="BO72" s="35"/>
+      <c r="BO72" s="25"/>
       <c r="BP72" s="7"/>
       <c r="BQ72" s="8"/>
     </row>
@@ -6392,7 +6450,7 @@
       <c r="Y73" s="7"/>
       <c r="Z73" s="7"/>
       <c r="AA73" s="7"/>
-      <c r="AB73" s="32"/>
+      <c r="AB73" s="22"/>
       <c r="AC73" s="7"/>
       <c r="AD73" s="15"/>
       <c r="AE73" s="7"/>
@@ -6431,7 +6489,7 @@
       <c r="BL73" s="7"/>
       <c r="BM73" s="7"/>
       <c r="BN73" s="7"/>
-      <c r="BO73" s="35"/>
+      <c r="BO73" s="25"/>
       <c r="BP73" s="7"/>
       <c r="BQ73" s="8"/>
     </row>
@@ -6460,7 +6518,7 @@
       <c r="Y74" s="7"/>
       <c r="Z74" s="7"/>
       <c r="AA74" s="7"/>
-      <c r="AB74" s="32"/>
+      <c r="AB74" s="22"/>
       <c r="AC74" s="7"/>
       <c r="AD74" s="15"/>
       <c r="AE74" s="7"/>
@@ -6499,7 +6557,7 @@
       <c r="BL74" s="7"/>
       <c r="BM74" s="7"/>
       <c r="BN74" s="7"/>
-      <c r="BO74" s="35"/>
+      <c r="BO74" s="25"/>
       <c r="BP74" s="7"/>
       <c r="BQ74" s="8"/>
     </row>
@@ -6537,7 +6595,7 @@
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
       <c r="AA75" s="7"/>
-      <c r="AB75" s="32"/>
+      <c r="AB75" s="22"/>
       <c r="AC75" s="7"/>
       <c r="AD75" s="15"/>
       <c r="AE75" s="7"/>
@@ -6576,7 +6634,7 @@
       <c r="BL75" s="7"/>
       <c r="BM75" s="7"/>
       <c r="BN75" s="7"/>
-      <c r="BO75" s="35"/>
+      <c r="BO75" s="25"/>
       <c r="BP75" s="7"/>
       <c r="BQ75" s="8"/>
     </row>
@@ -6612,7 +6670,7 @@
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
       <c r="AA76" s="7"/>
-      <c r="AB76" s="32"/>
+      <c r="AB76" s="22"/>
       <c r="AC76" s="7"/>
       <c r="AD76" s="15"/>
       <c r="AE76" s="7"/>
@@ -6651,7 +6709,7 @@
       <c r="BL76" s="7"/>
       <c r="BM76" s="7"/>
       <c r="BN76" s="7"/>
-      <c r="BO76" s="35"/>
+      <c r="BO76" s="25"/>
       <c r="BP76" s="7"/>
       <c r="BQ76" s="8"/>
     </row>
@@ -6687,7 +6745,7 @@
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
       <c r="AA77" s="7"/>
-      <c r="AB77" s="32"/>
+      <c r="AB77" s="22"/>
       <c r="AC77" s="7"/>
       <c r="AD77" s="15"/>
       <c r="AE77" s="7"/>
@@ -6726,7 +6784,7 @@
       <c r="BL77" s="7"/>
       <c r="BM77" s="7"/>
       <c r="BN77" s="7"/>
-      <c r="BO77" s="35"/>
+      <c r="BO77" s="25"/>
       <c r="BP77" s="7"/>
       <c r="BQ77" s="8"/>
     </row>
@@ -6762,7 +6820,7 @@
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
       <c r="AA78" s="7"/>
-      <c r="AB78" s="32"/>
+      <c r="AB78" s="22"/>
       <c r="AC78" s="7"/>
       <c r="AD78" s="15"/>
       <c r="AE78" s="7"/>
@@ -6801,7 +6859,7 @@
       <c r="BL78" s="7"/>
       <c r="BM78" s="7"/>
       <c r="BN78" s="7"/>
-      <c r="BO78" s="35"/>
+      <c r="BO78" s="25"/>
       <c r="BP78" s="7"/>
       <c r="BQ78" s="8"/>
     </row>
@@ -6830,7 +6888,7 @@
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="7"/>
-      <c r="AB79" s="32"/>
+      <c r="AB79" s="22"/>
       <c r="AC79" s="7"/>
       <c r="AD79" s="15"/>
       <c r="AE79" s="7"/>
@@ -6869,7 +6927,7 @@
       <c r="BL79" s="7"/>
       <c r="BM79" s="7"/>
       <c r="BN79" s="7"/>
-      <c r="BO79" s="35"/>
+      <c r="BO79" s="25"/>
       <c r="BP79" s="7"/>
       <c r="BQ79" s="8"/>
     </row>
@@ -6907,7 +6965,7 @@
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="7"/>
-      <c r="AB80" s="32"/>
+      <c r="AB80" s="22"/>
       <c r="AC80" s="7"/>
       <c r="AD80" s="15"/>
       <c r="AE80" s="7"/>
@@ -6946,7 +7004,7 @@
       <c r="BL80" s="7"/>
       <c r="BM80" s="7"/>
       <c r="BN80" s="7"/>
-      <c r="BO80" s="35"/>
+      <c r="BO80" s="25"/>
       <c r="BP80" s="7"/>
       <c r="BQ80" s="8"/>
     </row>
@@ -6982,7 +7040,7 @@
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="7"/>
-      <c r="AB81" s="32"/>
+      <c r="AB81" s="22"/>
       <c r="AC81" s="7"/>
       <c r="AD81" s="15"/>
       <c r="AE81" s="7"/>
@@ -7021,7 +7079,7 @@
       <c r="BL81" s="7"/>
       <c r="BM81" s="7"/>
       <c r="BN81" s="7"/>
-      <c r="BO81" s="35"/>
+      <c r="BO81" s="25"/>
       <c r="BP81" s="7"/>
       <c r="BQ81" s="8"/>
     </row>
@@ -7057,7 +7115,7 @@
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="7"/>
-      <c r="AB82" s="32"/>
+      <c r="AB82" s="22"/>
       <c r="AC82" s="7"/>
       <c r="AD82" s="15"/>
       <c r="AE82" s="7"/>
@@ -7096,7 +7154,7 @@
       <c r="BL82" s="7"/>
       <c r="BM82" s="7"/>
       <c r="BN82" s="7"/>
-      <c r="BO82" s="35"/>
+      <c r="BO82" s="25"/>
       <c r="BP82" s="7"/>
       <c r="BQ82" s="8"/>
     </row>
@@ -7132,7 +7190,7 @@
       <c r="Y83" s="7"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="7"/>
-      <c r="AB83" s="32"/>
+      <c r="AB83" s="22"/>
       <c r="AC83" s="7"/>
       <c r="AD83" s="15"/>
       <c r="AE83" s="7"/>
@@ -7171,7 +7229,7 @@
       <c r="BL83" s="7"/>
       <c r="BM83" s="7"/>
       <c r="BN83" s="7"/>
-      <c r="BO83" s="35"/>
+      <c r="BO83" s="25"/>
       <c r="BP83" s="7"/>
       <c r="BQ83" s="8"/>
     </row>
@@ -7200,7 +7258,7 @@
       <c r="Y84" s="7"/>
       <c r="Z84" s="7"/>
       <c r="AA84" s="7"/>
-      <c r="AB84" s="32"/>
+      <c r="AB84" s="22"/>
       <c r="AC84" s="7"/>
       <c r="AD84" s="15"/>
       <c r="AE84" s="7"/>
@@ -7239,7 +7297,7 @@
       <c r="BL84" s="7"/>
       <c r="BM84" s="7"/>
       <c r="BN84" s="7"/>
-      <c r="BO84" s="35"/>
+      <c r="BO84" s="25"/>
       <c r="BP84" s="7"/>
       <c r="BQ84" s="8"/>
     </row>
@@ -7277,7 +7335,7 @@
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
       <c r="AA85" s="7"/>
-      <c r="AB85" s="32"/>
+      <c r="AB85" s="22"/>
       <c r="AC85" s="7"/>
       <c r="AD85" s="15"/>
       <c r="AE85" s="7"/>
@@ -7316,7 +7374,7 @@
       <c r="BL85" s="7"/>
       <c r="BM85" s="7"/>
       <c r="BN85" s="7"/>
-      <c r="BO85" s="35"/>
+      <c r="BO85" s="25"/>
       <c r="BP85" s="7"/>
       <c r="BQ85" s="8"/>
     </row>
@@ -7352,7 +7410,7 @@
       <c r="Y86" s="7"/>
       <c r="Z86" s="7"/>
       <c r="AA86" s="7"/>
-      <c r="AB86" s="32"/>
+      <c r="AB86" s="22"/>
       <c r="AC86" s="7"/>
       <c r="AD86" s="15"/>
       <c r="AE86" s="7"/>
@@ -7391,7 +7449,7 @@
       <c r="BL86" s="7"/>
       <c r="BM86" s="7"/>
       <c r="BN86" s="7"/>
-      <c r="BO86" s="35"/>
+      <c r="BO86" s="25"/>
       <c r="BP86" s="7"/>
       <c r="BQ86" s="8"/>
     </row>
@@ -7427,7 +7485,7 @@
       <c r="Y87" s="7"/>
       <c r="Z87" s="7"/>
       <c r="AA87" s="7"/>
-      <c r="AB87" s="32"/>
+      <c r="AB87" s="22"/>
       <c r="AC87" s="7"/>
       <c r="AD87" s="15"/>
       <c r="AE87" s="7"/>
@@ -7466,7 +7524,7 @@
       <c r="BL87" s="7"/>
       <c r="BM87" s="7"/>
       <c r="BN87" s="7"/>
-      <c r="BO87" s="35"/>
+      <c r="BO87" s="25"/>
       <c r="BP87" s="7"/>
       <c r="BQ87" s="8"/>
     </row>
@@ -7541,7 +7599,7 @@
       <c r="BL88" s="10"/>
       <c r="BM88" s="10"/>
       <c r="BN88" s="10"/>
-      <c r="BO88" s="36"/>
+      <c r="BO88" s="26"/>
       <c r="BP88" s="10"/>
       <c r="BQ88" s="11"/>
     </row>
@@ -7559,18 +7617,21 @@
       <c r="AB90" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="AT2:AV3"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
+  <mergeCells count="41">
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P47:X47"/>
+    <mergeCell ref="P48:X48"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D40:O40"/>
+    <mergeCell ref="D41:O41"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="AZ1:BQ1"/>
+    <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="BU3:BW3"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="G2:I3"/>
@@ -7587,12 +7648,17 @@
     <mergeCell ref="BL3:BN3"/>
     <mergeCell ref="BO3:BQ3"/>
     <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BQ2"/>
-    <mergeCell ref="AZ1:BQ1"/>
-    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="AT2:AV3"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="AQ1:AY1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rozklad_2zaizd.xlsx
+++ b/Rozklad_2zaizd.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="57">
   <si>
     <t>І</t>
   </si>
@@ -183,7 +183,13 @@
     <t>Історія та культура України</t>
   </si>
   <si>
-    <t>Іноземна</t>
+    <t>Іноземна мова</t>
+  </si>
+  <si>
+    <t>Підготовчий курс з іноземної мови</t>
+  </si>
+  <si>
+    <t>Ділова іноземна мова</t>
   </si>
 </sst>
 </file>
@@ -444,35 +450,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -483,14 +468,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,7 +770,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -775,10 +781,10 @@
   <dimension ref="A1:BW90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P47" sqref="P47:X48"/>
+      <selection pane="bottomRight" activeCell="BP15" sqref="BP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,279 +867,279 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="27" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="27" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="27" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="27" t="s">
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="27" t="s">
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="28"/>
-      <c r="BM1" s="28"/>
-      <c r="BN1" s="28"/>
-      <c r="BO1" s="28"/>
-      <c r="BP1" s="28"/>
-      <c r="BQ1" s="29"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="39"/>
+      <c r="BJ1" s="39"/>
+      <c r="BK1" s="39"/>
+      <c r="BL1" s="39"/>
+      <c r="BM1" s="39"/>
+      <c r="BN1" s="39"/>
+      <c r="BO1" s="39"/>
+      <c r="BP1" s="39"/>
+      <c r="BQ1" s="40"/>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="30" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="30" t="s">
+      <c r="H2" s="33"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="30" t="s">
+      <c r="Q2" s="33"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="30" t="s">
+      <c r="T2" s="33"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="33" t="s">
+      <c r="W2" s="33"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="30" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="30" t="s">
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="33" t="s">
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="30" t="s">
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="30" t="s">
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="33" t="s">
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="30" t="s">
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="30" t="s">
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="33" t="s">
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="31"/>
-      <c r="BF2" s="35" t="s">
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="30"/>
-      <c r="BK2" s="31"/>
-      <c r="BL2" s="30" t="s">
+      <c r="BG2" s="33"/>
+      <c r="BH2" s="33"/>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="33"/>
+      <c r="BK2" s="36"/>
+      <c r="BL2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="30"/>
-      <c r="BN2" s="30"/>
-      <c r="BO2" s="30"/>
-      <c r="BP2" s="30"/>
-      <c r="BQ2" s="32"/>
+      <c r="BM2" s="33"/>
+      <c r="BN2" s="33"/>
+      <c r="BO2" s="33"/>
+      <c r="BP2" s="33"/>
+      <c r="BQ2" s="34"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="D3" s="33"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="33"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="33" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="30" t="s">
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="41"/>
+      <c r="BC3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="35" t="s">
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="36"/>
+      <c r="BF3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="30" t="s">
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="41"/>
+      <c r="BI3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="30" t="s">
+      <c r="BJ3" s="33"/>
+      <c r="BK3" s="36"/>
+      <c r="BL3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="36"/>
-      <c r="BO3" s="30" t="s">
+      <c r="BM3" s="33"/>
+      <c r="BN3" s="41"/>
+      <c r="BO3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="BP3" s="30"/>
-      <c r="BQ3" s="32"/>
-      <c r="BR3" s="34"/>
-      <c r="BS3" s="34"/>
-      <c r="BT3" s="34"/>
-      <c r="BU3" s="34"/>
-      <c r="BV3" s="34"/>
-      <c r="BW3" s="34"/>
+      <c r="BP3" s="33"/>
+      <c r="BQ3" s="34"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
     </row>
     <row r="4" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1399,8 +1405,8 @@
       <c r="AQ5" s="3"/>
       <c r="AR5" s="4"/>
       <c r="AS5" s="14"/>
-      <c r="AT5" s="4" t="s">
-        <v>54</v>
+      <c r="AT5" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="AU5" s="4"/>
       <c r="AV5" s="14"/>
@@ -1476,8 +1482,8 @@
       <c r="AQ6" s="3"/>
       <c r="AR6" s="4"/>
       <c r="AS6" s="14"/>
-      <c r="AT6" s="4" t="s">
-        <v>54</v>
+      <c r="AT6" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="AU6" s="4"/>
       <c r="AV6" s="14"/>
@@ -1553,8 +1559,8 @@
       <c r="AQ7" s="3"/>
       <c r="AR7" s="4"/>
       <c r="AS7" s="14"/>
-      <c r="AT7" s="4" t="s">
-        <v>54</v>
+      <c r="AT7" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="AU7" s="4"/>
       <c r="AV7" s="14"/>
@@ -1588,20 +1594,20 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="42"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="29"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="14"/>
@@ -1735,20 +1741,20 @@
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="39"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="32"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="15"/>
@@ -1812,20 +1818,20 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="15"/>
@@ -1878,7 +1884,7 @@
       <c r="BM11" s="7"/>
       <c r="BN11" s="19"/>
       <c r="BO11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="BP11" s="7"/>
       <c r="BQ11" s="8"/>
@@ -1955,7 +1961,7 @@
       <c r="BM12" s="7"/>
       <c r="BN12" s="19"/>
       <c r="BO12" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="BP12" s="7"/>
       <c r="BQ12" s="8"/>
@@ -2853,20 +2859,20 @@
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="39"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="32"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="15"/>
@@ -3965,20 +3971,20 @@
       <c r="C40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="39"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="29"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="15"/>
@@ -4042,20 +4048,20 @@
       <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="39"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="29"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="15"/>
@@ -4162,7 +4168,7 @@
       <c r="AR42" s="7"/>
       <c r="AS42" s="15"/>
       <c r="AT42" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU42" s="7"/>
       <c r="AV42" s="15"/>
@@ -4239,7 +4245,7 @@
       <c r="AR43" s="7"/>
       <c r="AS43" s="15"/>
       <c r="AT43" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU43" s="7"/>
       <c r="AV43" s="15"/>
@@ -4461,7 +4467,7 @@
       <c r="AR46" s="7"/>
       <c r="AS46" s="15"/>
       <c r="AT46" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU46" s="7"/>
       <c r="AV46" s="15"/>
@@ -4484,7 +4490,7 @@
       <c r="BM46" s="7"/>
       <c r="BN46" s="19"/>
       <c r="BO46" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="BP46" s="7"/>
       <c r="BQ46" s="8"/>
@@ -4509,17 +4515,17 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="37" t="s">
+      <c r="P47" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="39"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="32"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="15"/>
@@ -4586,17 +4592,17 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="37" t="s">
+      <c r="P48" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="39"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="32"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
@@ -7618,20 +7624,17 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P47:X47"/>
-    <mergeCell ref="P48:X48"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="D40:O40"/>
-    <mergeCell ref="D41:O41"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BQ2"/>
-    <mergeCell ref="AZ1:BQ1"/>
-    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="AQ1:AY1"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="AT2:AV3"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
     <mergeCell ref="BU3:BW3"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="G2:I3"/>
@@ -7648,17 +7651,20 @@
     <mergeCell ref="BL3:BN3"/>
     <mergeCell ref="BO3:BQ3"/>
     <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="AT2:AV3"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="AQ1:AY1"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="AZ1:BQ1"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P47:X47"/>
+    <mergeCell ref="P48:X48"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D40:O40"/>
+    <mergeCell ref="D41:O41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rozklad_2zaizd.xlsx
+++ b/Rozklad_2zaizd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="75">
   <si>
     <t>І</t>
   </si>
@@ -190,6 +190,60 @@
   </si>
   <si>
     <t>Ділова іноземна мова</t>
+  </si>
+  <si>
+    <t>Ділова українська мова</t>
+  </si>
+  <si>
+    <t>12:00 - 13: 35</t>
+  </si>
+  <si>
+    <t>Хімія з основами геохімії</t>
+  </si>
+  <si>
+    <t>Хімія з основами геохімії залік</t>
+  </si>
+  <si>
+    <t>Вища математика з основами математичної статистики</t>
+  </si>
+  <si>
+    <t>Вища математика</t>
+  </si>
+  <si>
+    <t>доц. Маляр М.М.</t>
+  </si>
+  <si>
+    <t>Вища математика з основами математичної статистики (іспит)</t>
+  </si>
+  <si>
+    <t>Креслення</t>
+  </si>
+  <si>
+    <t>доц. Штодна І.Ю.</t>
+  </si>
+  <si>
+    <t>Філософія</t>
+  </si>
+  <si>
+    <t>Філософія науки</t>
+  </si>
+  <si>
+    <t>доц. Хоменко Т.І.</t>
+  </si>
+  <si>
+    <t>Основи педагогіки та психології</t>
+  </si>
+  <si>
+    <t>Основи педагогіки та психології (залік)</t>
+  </si>
+  <si>
+    <t>Психологія</t>
+  </si>
+  <si>
+    <t>ст. викл. Марчук Л.М.</t>
+  </si>
+  <si>
+    <t>Психологія (залік)</t>
   </si>
 </sst>
 </file>
@@ -400,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,6 +504,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -498,6 +555,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -781,10 +850,10 @@
   <dimension ref="A1:BW90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BP15" sqref="BP15"/>
+      <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +870,7 @@
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -867,279 +936,277 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="38" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="38" t="s">
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="38" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="38" t="s">
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="38" t="s">
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="39"/>
-      <c r="BJ1" s="39"/>
-      <c r="BK1" s="39"/>
-      <c r="BL1" s="39"/>
-      <c r="BM1" s="39"/>
-      <c r="BN1" s="39"/>
-      <c r="BO1" s="39"/>
-      <c r="BP1" s="39"/>
-      <c r="BQ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="40"/>
+      <c r="BE1" s="40"/>
+      <c r="BF1" s="40"/>
+      <c r="BG1" s="40"/>
+      <c r="BH1" s="40"/>
+      <c r="BI1" s="40"/>
+      <c r="BJ1" s="40"/>
+      <c r="BK1" s="40"/>
+      <c r="BL1" s="40"/>
+      <c r="BM1" s="40"/>
+      <c r="BN1" s="40"/>
+      <c r="BO1" s="40"/>
+      <c r="BP1" s="40"/>
+      <c r="BQ1" s="41"/>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="33" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="33" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="33" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="35" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="33" t="s">
+      <c r="Q2" s="34"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="33" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="33"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="35" t="s">
+      <c r="W2" s="34"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="33" t="s">
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="33" t="s">
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35" t="s">
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="33" t="s">
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="33" t="s">
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="35" t="s">
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="33" t="s">
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="33" t="s">
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="35" t="s">
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="33"/>
-      <c r="BD2" s="33"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="37" t="s">
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="34"/>
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="33"/>
-      <c r="BH2" s="33"/>
-      <c r="BI2" s="33"/>
-      <c r="BJ2" s="33"/>
-      <c r="BK2" s="36"/>
-      <c r="BL2" s="33" t="s">
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="34"/>
+      <c r="BK2" s="37"/>
+      <c r="BL2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="33"/>
-      <c r="BN2" s="33"/>
-      <c r="BO2" s="33"/>
-      <c r="BP2" s="33"/>
-      <c r="BQ2" s="34"/>
+      <c r="BM2" s="34"/>
+      <c r="BN2" s="34"/>
+      <c r="BO2" s="34"/>
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="35"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="D3" s="35"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="33"/>
-      <c r="AX3" s="33"/>
-      <c r="AY3" s="34"/>
-      <c r="AZ3" s="35" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="35"/>
+      <c r="AZ3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="33" t="s">
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="37" t="s">
+      <c r="BD3" s="34"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="33"/>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="33" t="s">
+      <c r="BG3" s="34"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="33"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="BM3" s="33"/>
-      <c r="BN3" s="41"/>
-      <c r="BO3" s="33" t="s">
+      <c r="BJ3" s="34"/>
+      <c r="BK3" s="37"/>
+      <c r="BL3" s="34"/>
+      <c r="BM3" s="34"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="BP3" s="33"/>
-      <c r="BQ3" s="34"/>
-      <c r="BR3" s="42"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="42"/>
-      <c r="BW3" s="42"/>
+      <c r="BP3" s="34"/>
+      <c r="BQ3" s="35"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="43"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43"/>
     </row>
     <row r="4" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1331,15 +1398,9 @@
       <c r="BK4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="BL4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="BM4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BN4" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="18"/>
       <c r="BO4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1353,7 +1414,7 @@
       <c r="BS4" s="2"/>
       <c r="BT4" s="2"/>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -1363,17 +1424,23 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="14"/>
+      <c r="D5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="4"/>
@@ -1390,8 +1457,12 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="14"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
+      <c r="AE5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="AG5" s="5"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="4"/>
@@ -1432,7 +1503,7 @@
       <c r="BP5" s="7"/>
       <c r="BQ5" s="8"/>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -1440,17 +1511,23 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="14"/>
+      <c r="D6" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="4"/>
@@ -1517,12 +1594,14 @@
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="14"/>
+      <c r="D7" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="14"/>
@@ -1594,20 +1673,20 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="14"/>
@@ -1741,20 +1820,20 @@
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="33"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="15"/>
@@ -1818,20 +1897,20 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="33"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="15"/>
@@ -2194,19 +2273,23 @@
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="6"/>
+      <c r="D16" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="15"/>
       <c r="S16" s="7"/>
@@ -2269,19 +2352,23 @@
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="6"/>
+      <c r="D17" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="15"/>
       <c r="S17" s="7"/>
@@ -2564,17 +2651,23 @@
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="15"/>
+      <c r="D21" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="M21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="O21" s="8"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="7"/>
@@ -2639,12 +2732,14 @@
       <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="15"/>
+      <c r="D22" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="15"/>
@@ -2859,20 +2954,20 @@
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="33"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="15"/>
@@ -2936,36 +3031,46 @@
       <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="15"/>
+      <c r="D26" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="M26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" t="s">
+        <v>66</v>
+      </c>
       <c r="O26" s="8"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="8"/>
+      <c r="P26" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="33"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="8"/>
+      <c r="AB26" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="49"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="15"/>
@@ -2981,7 +3086,9 @@
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
       <c r="AV26" s="15"/>
-      <c r="AW26" s="7"/>
+      <c r="AW26" s="47" t="s">
+        <v>70</v>
+      </c>
       <c r="AX26" s="7"/>
       <c r="AY26" s="8"/>
       <c r="AZ26" s="6"/>
@@ -3011,27 +3118,35 @@
       <c r="C27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="15"/>
+      <c r="D27" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="45"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="M27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="O27" s="8"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="8"/>
+      <c r="P27" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="33"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="15"/>
@@ -3306,19 +3421,23 @@
       <c r="C31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="6"/>
+      <c r="D31" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="15"/>
       <c r="S31" s="7"/>
@@ -3369,8 +3488,12 @@
       <c r="BL31" s="7"/>
       <c r="BM31" s="7"/>
       <c r="BN31" s="19"/>
-      <c r="BO31" s="7"/>
-      <c r="BP31" s="7"/>
+      <c r="BO31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP31" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="BQ31" s="8"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.25">
@@ -3381,19 +3504,23 @@
       <c r="C32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="6"/>
+      <c r="D32" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="15"/>
       <c r="S32" s="7"/>
@@ -3444,8 +3571,12 @@
       <c r="BL32" s="7"/>
       <c r="BM32" s="7"/>
       <c r="BN32" s="19"/>
-      <c r="BO32" s="7"/>
-      <c r="BP32" s="7"/>
+      <c r="BO32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP32" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="BQ32" s="8"/>
     </row>
     <row r="33" spans="1:69" x14ac:dyDescent="0.25">
@@ -3524,12 +3655,17 @@
       <c r="BQ33" s="8"/>
     </row>
     <row r="34" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="15"/>
+      <c r="C34" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="15"/>
@@ -3676,27 +3812,35 @@
       <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="15"/>
+      <c r="D36" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
+      <c r="M36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="O36" s="8"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="8"/>
+      <c r="P36" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="33"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="15"/>
@@ -3751,12 +3895,14 @@
       <c r="C37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="15"/>
+      <c r="D37" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="15"/>
@@ -3971,20 +4117,20 @@
       <c r="C40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="30"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="15"/>
@@ -4048,20 +4194,20 @@
       <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="30"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="15"/>
@@ -4515,17 +4661,17 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="30" t="s">
+      <c r="P47" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="33"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="15"/>
@@ -4592,17 +4738,17 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="30" t="s">
+      <c r="P48" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="33"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
@@ -4794,7 +4940,7 @@
       <c r="BP50" s="7"/>
       <c r="BQ50" s="8"/>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:69" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>1</v>
@@ -4829,8 +4975,12 @@
       <c r="AB51" s="22"/>
       <c r="AC51" s="7"/>
       <c r="AD51" s="15"/>
-      <c r="AE51" s="7"/>
-      <c r="AF51" s="7"/>
+      <c r="AE51" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF51" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="AG51" s="8"/>
       <c r="AH51" s="7"/>
       <c r="AI51" s="7"/>
@@ -5542,19 +5692,15 @@
       <c r="C61" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="15"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="15"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="6"/>
+      <c r="P61" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="Q61" s="7"/>
       <c r="R61" s="15"/>
       <c r="S61" s="7"/>
@@ -5566,12 +5712,14 @@
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
       <c r="AA61" s="7"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="7"/>
-      <c r="AD61" s="15"/>
-      <c r="AE61" s="7"/>
-      <c r="AF61" s="7"/>
-      <c r="AG61" s="8"/>
+      <c r="AB61" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC61" s="48"/>
+      <c r="AD61" s="48"/>
+      <c r="AE61" s="48"/>
+      <c r="AF61" s="48"/>
+      <c r="AG61" s="49"/>
       <c r="AH61" s="7"/>
       <c r="AI61" s="7"/>
       <c r="AJ61" s="15"/>
@@ -5587,7 +5735,9 @@
       <c r="AT61" s="7"/>
       <c r="AU61" s="7"/>
       <c r="AV61" s="15"/>
-      <c r="AW61" s="7"/>
+      <c r="AW61" s="47" t="s">
+        <v>71</v>
+      </c>
       <c r="AX61" s="7"/>
       <c r="AY61" s="8"/>
       <c r="AZ61" s="7"/>
@@ -5618,18 +5768,19 @@
         <v>22</v>
       </c>
       <c r="D62" s="6"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="7"/>
+      <c r="E62" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="45"/>
       <c r="K62" s="7"/>
       <c r="L62" s="15"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
       <c r="O62" s="8"/>
-      <c r="P62" s="6"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="15"/>
       <c r="S62" s="7"/>
@@ -5924,7 +6075,9 @@
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
       <c r="O66" s="8"/>
-      <c r="P66" s="6"/>
+      <c r="P66" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="Q66" s="7"/>
       <c r="R66" s="15"/>
       <c r="S66" s="7"/>
@@ -7623,7 +7776,19 @@
       <c r="AB90" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="59">
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="P26:X26"/>
+    <mergeCell ref="P27:X27"/>
+    <mergeCell ref="P36:X36"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
     <mergeCell ref="D1:O1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="Y1:AG1"/>
@@ -7665,6 +7830,12 @@
     <mergeCell ref="D25:O25"/>
     <mergeCell ref="D40:O40"/>
     <mergeCell ref="D41:O41"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rozklad_2zaizd.xlsx
+++ b/Rozklad_2zaizd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20730" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20730" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="216">
   <si>
     <t>І</t>
   </si>
@@ -534,6 +534,201 @@
   </si>
   <si>
     <t>ст. викл. Мельничук В.П.</t>
+  </si>
+  <si>
+    <t>Лісова ентомологія</t>
+  </si>
+  <si>
+    <t>Недеревні ресурси</t>
+  </si>
+  <si>
+    <t>доц. Мірутенко В.В.</t>
+  </si>
+  <si>
+    <t>Технічна механіка</t>
+  </si>
+  <si>
+    <t>Грунтознавство</t>
+  </si>
+  <si>
+    <t>Технічна механіка (залік)</t>
+  </si>
+  <si>
+    <t>Генетика</t>
+  </si>
+  <si>
+    <t>Генетика (іспит)</t>
+  </si>
+  <si>
+    <t>доц. Мигаль А.В.; ст.викл. Смужаниця Я.В.</t>
+  </si>
+  <si>
+    <t>Дендрологія</t>
+  </si>
+  <si>
+    <t>Фізіологія рослин</t>
+  </si>
+  <si>
+    <t>ст. викл. Смужаниця Я.В.</t>
+  </si>
+  <si>
+    <t>Лісознавство</t>
+  </si>
+  <si>
+    <t>викл. Бубенко С.П.</t>
+  </si>
+  <si>
+    <t>Загальна гідрологія і океанологія</t>
+  </si>
+  <si>
+    <t>Палеогеографія плейстоцену</t>
+  </si>
+  <si>
+    <t>Палеогеографія плейстоцену (залік)</t>
+  </si>
+  <si>
+    <t>Загальна гідрологія і океанологія (іспит)</t>
+  </si>
+  <si>
+    <t>Методи географічних досліджень</t>
+  </si>
+  <si>
+    <t>Методи географічних досліджень (іспит)</t>
+  </si>
+  <si>
+    <t>Ландшафтознавство з основами  ландшафтної екології</t>
+  </si>
+  <si>
+    <t>викл. Корчинська Ж.М.</t>
+  </si>
+  <si>
+    <t>викл. Корчинська Ж.М., викл. Лета В.В.</t>
+  </si>
+  <si>
+    <t>Регіональна економічна і соціальна географія</t>
+  </si>
+  <si>
+    <t>ст. викл. Антонюк О.С.</t>
+  </si>
+  <si>
+    <t>Основи менеджменту та маркетингу</t>
+  </si>
+  <si>
+    <t>ст. викл. Жулканич Б.М.</t>
+  </si>
+  <si>
+    <t>Науково-дослідна робота студентів</t>
+  </si>
+  <si>
+    <t>Науково-дослідна робота студентів (залік)</t>
+  </si>
+  <si>
+    <t>Географія сільського і лісового господарства Закарпаття</t>
+  </si>
+  <si>
+    <t>Географія сільського і лісового господарства Закарпаття (іспит)</t>
+  </si>
+  <si>
+    <t>Фізична географія України (кр)</t>
+  </si>
+  <si>
+    <t>ст. викл. Яцко О.В.</t>
+  </si>
+  <si>
+    <t>ст. викл Жиган М.В.</t>
+  </si>
+  <si>
+    <t>ст.викл. Лахоцька Е.Я.</t>
+  </si>
+  <si>
+    <t>ГІС і бази даних</t>
+  </si>
+  <si>
+    <t>доц. Радиш І.П.</t>
+  </si>
+  <si>
+    <t>Математична обробка геодезичних вимірювань</t>
+  </si>
+  <si>
+    <t>ст. викл. Ничвид М.Р.</t>
+  </si>
+  <si>
+    <t>Математичні методи в землевпорядкуванні</t>
+  </si>
+  <si>
+    <t>ПРП Закарпаття</t>
+  </si>
+  <si>
+    <t>проф. Поп С.С.</t>
+  </si>
+  <si>
+    <t>ПРП Закарпаття (іспит)</t>
+  </si>
+  <si>
+    <t>Законодавчі основи землевпорядкування та кадастру</t>
+  </si>
+  <si>
+    <t>ст. викл. Марухнич Т.Б.; викл. Бубенко С.П.</t>
+  </si>
+  <si>
+    <t>Основи GPS-технологій</t>
+  </si>
+  <si>
+    <t>Інвестиційний аналіз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Інвестиційний аналіз (залік) </t>
+  </si>
+  <si>
+    <t>доц. Славік Р.В.</t>
+  </si>
+  <si>
+    <t>Землеробство з основами рослинництва (залік)</t>
+  </si>
+  <si>
+    <t>Землеустрій</t>
+  </si>
+  <si>
+    <t>доц. Пересоляк В.Ю.</t>
+  </si>
+  <si>
+    <t>Геодезичні роботи в землеустрої</t>
+  </si>
+  <si>
+    <t>Квітникарство</t>
+  </si>
+  <si>
+    <t>Землеробство</t>
+  </si>
+  <si>
+    <t>Образотворча грамота</t>
+  </si>
+  <si>
+    <t>ст. викл. Кіс Н.Ю.</t>
+  </si>
+  <si>
+    <t>Фітопатологія</t>
+  </si>
+  <si>
+    <t>Озеленення населених місць</t>
+  </si>
+  <si>
+    <t>доц. Чепур С.С.; ст. викл. Мойш Н.І.</t>
+  </si>
+  <si>
+    <t>Декоративне луківництво</t>
+  </si>
+  <si>
+    <t>Лісові культури (кп)</t>
+  </si>
+  <si>
+    <t>Лісова селекція 3 курс</t>
+  </si>
+  <si>
+    <t>ст. викл. Задорожний А.І.</t>
+  </si>
+  <si>
+    <t>Лісова пірологія</t>
   </si>
 </sst>
 </file>
@@ -766,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -843,43 +1038,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -891,10 +1068,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1169,7 +1370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1180,10 +1381,10 @@
   <dimension ref="A1:BW90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V62" sqref="V62:W62"/>
+      <selection pane="bottomRight" activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,277 +1468,277 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="39" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="39" t="s">
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="39" t="s">
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="39" t="s">
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="39" t="s">
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="40"/>
-      <c r="BI1" s="40"/>
-      <c r="BJ1" s="40"/>
-      <c r="BK1" s="40"/>
-      <c r="BL1" s="40"/>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="40"/>
-      <c r="BQ1" s="41"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="35"/>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="35" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="37" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="Q2" s="28"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="35" t="s">
+      <c r="T2" s="28"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="35"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="37" t="s">
+      <c r="W2" s="28"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="35" t="s">
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="37" t="s">
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="35" t="s">
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="35" t="s">
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="37" t="s">
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="35" t="s">
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="35" t="s">
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="37" t="s">
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="34" t="s">
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="35"/>
-      <c r="BH2" s="35"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="36"/>
-      <c r="BL2" s="35" t="s">
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="35"/>
-      <c r="BN2" s="35"/>
-      <c r="BO2" s="35"/>
-      <c r="BP2" s="35"/>
-      <c r="BQ2" s="38"/>
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="28"/>
+      <c r="BQ2" s="29"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="D3" s="37"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="38"/>
-      <c r="AZ3" s="37" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="29"/>
+      <c r="AZ3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="35"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="35" t="s">
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="35"/>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="34" t="s">
+      <c r="BD3" s="28"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="35"/>
-      <c r="BH3" s="43"/>
-      <c r="BI3" s="35" t="s">
+      <c r="BG3" s="28"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="35"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="35"/>
-      <c r="BM3" s="35"/>
-      <c r="BN3" s="43"/>
-      <c r="BO3" s="35" t="s">
+      <c r="BJ3" s="28"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="28"/>
+      <c r="BM3" s="28"/>
+      <c r="BN3" s="36"/>
+      <c r="BO3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="BP3" s="35"/>
-      <c r="BQ3" s="38"/>
-      <c r="BR3" s="42"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="42"/>
-      <c r="BW3" s="42"/>
+      <c r="BP3" s="28"/>
+      <c r="BQ3" s="29"/>
+      <c r="BR3" s="37"/>
+      <c r="BS3" s="37"/>
+      <c r="BT3" s="37"/>
+      <c r="BU3" s="37"/>
+      <c r="BV3" s="37"/>
+      <c r="BW3" s="37"/>
     </row>
     <row r="4" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1755,14 +1956,14 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="31"/>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
       <c r="M5" s="4" t="s">
@@ -1793,11 +1994,19 @@
         <v>148</v>
       </c>
       <c r="X5" s="6"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="4"/>
+      <c r="Y5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
+      <c r="AB5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="4" t="s">
         <v>69</v>
@@ -1812,8 +2021,12 @@
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="5"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
+      <c r="AN5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="AP5" s="6"/>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="4"/>
@@ -1832,14 +2045,14 @@
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="34" t="s">
+      <c r="BF5" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="BG5" s="35"/>
-      <c r="BH5" s="35"/>
-      <c r="BI5" s="35"/>
-      <c r="BJ5" s="35"/>
-      <c r="BK5" s="36"/>
+      <c r="BG5" s="28"/>
+      <c r="BH5" s="28"/>
+      <c r="BI5" s="28"/>
+      <c r="BJ5" s="28"/>
+      <c r="BK5" s="31"/>
       <c r="BL5" s="11"/>
       <c r="BM5" s="11"/>
       <c r="BN5" s="13"/>
@@ -1855,14 +2068,14 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
@@ -1894,11 +2107,19 @@
         <v>148</v>
       </c>
       <c r="X6" s="6"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="4"/>
+      <c r="Y6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
+      <c r="AB6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="4" t="s">
         <v>78</v>
@@ -1913,8 +2134,12 @@
       </c>
       <c r="AL6" s="4"/>
       <c r="AM6" s="5"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
+      <c r="AN6" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="AP6" s="6"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="4"/>
@@ -1933,14 +2158,14 @@
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="5"/>
-      <c r="BF6" s="34" t="s">
+      <c r="BF6" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="BG6" s="35"/>
-      <c r="BH6" s="35"/>
-      <c r="BI6" s="35"/>
-      <c r="BJ6" s="35"/>
-      <c r="BK6" s="36"/>
+      <c r="BG6" s="28"/>
+      <c r="BH6" s="28"/>
+      <c r="BI6" s="28"/>
+      <c r="BJ6" s="28"/>
+      <c r="BK6" s="31"/>
       <c r="BL6" s="11"/>
       <c r="BM6" s="11"/>
       <c r="BN6" s="13"/>
@@ -1956,14 +2181,14 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="4" t="s">
         <v>91</v>
       </c>
@@ -1992,14 +2217,26 @@
         <v>144</v>
       </c>
       <c r="U7" s="5"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
+      <c r="V7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="X7" s="6"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="4"/>
+      <c r="Y7" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
+      <c r="AB7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC7" s="26" t="s">
+        <v>134</v>
+      </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="4" t="s">
         <v>78</v>
@@ -2047,7 +2284,7 @@
       <c r="BP7" s="11"/>
       <c r="BQ7" s="14"/>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -2055,34 +2292,46 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="38"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="29"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
+      <c r="V8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="X8" s="6"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="4"/>
+      <c r="Y8" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
+      <c r="AB8" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC8" s="26" t="s">
+        <v>134</v>
+      </c>
       <c r="AD8" s="5"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
@@ -2202,20 +2451,20 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="33"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40"/>
       <c r="P10" s="9" t="s">
         <v>117</v>
       </c>
@@ -2230,17 +2479,33 @@
         <v>141</v>
       </c>
       <c r="U10" s="12"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
+      <c r="V10" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="X10" s="14"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="11"/>
+      <c r="Y10" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="AA10" s="12"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
+      <c r="AB10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="AD10" s="12"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
+      <c r="AE10" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF10" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="AG10" s="14"/>
       <c r="AH10" s="9"/>
       <c r="AI10" s="11"/>
@@ -2287,20 +2552,20 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="33"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
       <c r="P11" s="9" t="s">
         <v>117</v>
       </c>
@@ -2315,17 +2580,33 @@
         <v>141</v>
       </c>
       <c r="U11" s="12"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
+      <c r="V11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="X11" s="14"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="11"/>
+      <c r="Y11" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="AA11" s="12"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
+      <c r="AB11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="AD11" s="12"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
+      <c r="AE11" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF11" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="AG11" s="14"/>
       <c r="AH11" s="9"/>
       <c r="AI11" s="11"/>
@@ -2374,14 +2655,14 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="12"/>
@@ -2406,17 +2687,33 @@
         <v>118</v>
       </c>
       <c r="U12" s="12"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
+      <c r="V12" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="X12" s="14"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="11"/>
+      <c r="Y12" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="AA12" s="12"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
+      <c r="AB12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="AD12" s="12"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
+      <c r="AE12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="AG12" s="14"/>
       <c r="AH12" s="9"/>
       <c r="AI12" s="11"/>
@@ -2465,14 +2762,14 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
@@ -2493,17 +2790,33 @@
         <v>118</v>
       </c>
       <c r="U13" s="12"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
+      <c r="V13" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="X13" s="14"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="11"/>
+      <c r="Y13" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="AA13" s="12"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
+      <c r="AB13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="AD13" s="12"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
+      <c r="AE13" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF13" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="AG13" s="14"/>
       <c r="AH13" s="9"/>
       <c r="AI13" s="11"/>
@@ -2564,8 +2877,6 @@
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="14"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="11"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
@@ -2610,7 +2921,7 @@
       <c r="BP14" s="11"/>
       <c r="BQ14" s="14"/>
     </row>
-    <row r="15" spans="1:75" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -2641,8 +2952,12 @@
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="14"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="11"/>
+      <c r="Y15" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z15" s="26" t="s">
+        <v>94</v>
+      </c>
       <c r="AA15" s="12"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
@@ -2696,20 +3011,20 @@
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="33"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="40"/>
       <c r="P16" s="9" t="s">
         <v>58</v>
       </c>
@@ -2724,17 +3039,33 @@
         <v>139</v>
       </c>
       <c r="U16" s="12"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
+      <c r="V16" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="X16" s="14"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="11"/>
+      <c r="Y16" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z16" s="26" t="s">
+        <v>94</v>
+      </c>
       <c r="AA16" s="12"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
+      <c r="AB16" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC16" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="AD16" s="12"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
+      <c r="AE16" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF16" s="11" t="s">
+        <v>207</v>
+      </c>
       <c r="AG16" s="14"/>
       <c r="AH16" s="9" t="s">
         <v>80</v>
@@ -2782,20 +3113,20 @@
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="33"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="40"/>
       <c r="P17" s="9" t="s">
         <v>58</v>
       </c>
@@ -2810,17 +3141,33 @@
         <v>139</v>
       </c>
       <c r="U17" s="12"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="V17" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="X17" s="14"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="11"/>
+      <c r="Y17" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="AA17" s="12"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
+      <c r="AB17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC17" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="AD17" s="12"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
+      <c r="AE17" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF17" s="11" t="s">
+        <v>207</v>
+      </c>
       <c r="AG17" s="14"/>
       <c r="AH17" s="9"/>
       <c r="AI17" s="11"/>
@@ -3037,7 +3384,6 @@
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="14"/>
-      <c r="Z20" s="11"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
@@ -3091,14 +3437,14 @@
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="12"/>
@@ -3123,19 +3469,31 @@
         <v>137</v>
       </c>
       <c r="U21" s="12"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
+      <c r="V21" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="W21" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="X21" s="14"/>
       <c r="Y21" s="9" t="s">
         <v>79</v>
       </c>
       <c r="Z21" s="11"/>
       <c r="AA21" s="12"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
+      <c r="AB21" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC21" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="AD21" s="12"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
+      <c r="AE21" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF21" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AG21" s="14"/>
       <c r="AH21" s="9"/>
       <c r="AI21" s="11"/>
@@ -3155,14 +3513,14 @@
       <c r="AW21" s="11"/>
       <c r="AX21" s="11"/>
       <c r="AY21" s="14"/>
-      <c r="AZ21" s="28" t="s">
+      <c r="AZ21" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="BA21" s="29"/>
-      <c r="BB21" s="29"/>
-      <c r="BC21" s="29"/>
-      <c r="BD21" s="29"/>
-      <c r="BE21" s="30"/>
+      <c r="BA21" s="39"/>
+      <c r="BB21" s="39"/>
+      <c r="BC21" s="39"/>
+      <c r="BD21" s="39"/>
+      <c r="BE21" s="41"/>
       <c r="BF21" s="11"/>
       <c r="BG21" s="11"/>
       <c r="BH21" s="13"/>
@@ -3184,14 +3542,14 @@
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="41"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="12"/>
@@ -3216,19 +3574,31 @@
         <v>137</v>
       </c>
       <c r="U22" s="12"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
+      <c r="V22" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="X22" s="14"/>
       <c r="Y22" s="9" t="s">
         <v>79</v>
       </c>
       <c r="Z22" s="11"/>
       <c r="AA22" s="12"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
+      <c r="AB22" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC22" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="AD22" s="12"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
+      <c r="AE22" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF22" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AG22" s="14"/>
       <c r="AH22" s="9"/>
       <c r="AI22" s="11"/>
@@ -3292,8 +3662,12 @@
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="12"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
+      <c r="V23" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="X23" s="14"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="11"/>
@@ -3419,20 +3793,20 @@
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="33"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="40"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="12"/>
@@ -3496,14 +3870,14 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="11" t="s">
         <v>92</v>
       </c>
@@ -3518,27 +3892,35 @@
         <v>63</v>
       </c>
       <c r="O26" s="14"/>
-      <c r="P26" s="28" t="s">
+      <c r="P26" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="11"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z26" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="AA26" s="12"/>
       <c r="AB26" s="15" t="s">
         <v>67</v>
       </c>
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
+      <c r="AE26" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF26" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="AG26" s="14"/>
       <c r="AH26" s="9"/>
       <c r="AI26" s="11"/>
@@ -3587,14 +3969,14 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="12"/>
@@ -3605,25 +3987,37 @@
         <v>63</v>
       </c>
       <c r="O27" s="14"/>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="11"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="AA27" s="12"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
+      <c r="AB27" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC27" s="11" t="s">
+        <v>199</v>
+      </c>
       <c r="AD27" s="12"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
+      <c r="AE27" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF27" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="AG27" s="14"/>
       <c r="AH27" s="9"/>
       <c r="AI27" s="11"/>
@@ -3662,7 +4056,7 @@
       <c r="BP27" s="11"/>
       <c r="BQ27" s="14"/>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>3</v>
@@ -3694,8 +4088,12 @@
       <c r="Y28" s="9"/>
       <c r="Z28" s="11"/>
       <c r="AA28" s="12"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
+      <c r="AB28" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC28" s="11" t="s">
+        <v>199</v>
+      </c>
       <c r="AD28" s="12"/>
       <c r="AE28" s="11"/>
       <c r="AF28" s="11"/>
@@ -3737,7 +4135,7 @@
       <c r="BP28" s="11"/>
       <c r="BQ28" s="14"/>
     </row>
-    <row r="29" spans="1:69" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="9"/>
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
@@ -3898,20 +4296,20 @@
       <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="33"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="40"/>
       <c r="P31" s="9" t="s">
         <v>120</v>
       </c>
@@ -3926,29 +4324,45 @@
         <v>139</v>
       </c>
       <c r="U31" s="12"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
+      <c r="V31" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="W31" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="X31" s="14"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="11"/>
+      <c r="Y31" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z31" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="AA31" s="12"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
+      <c r="AB31" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC31" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="AD31" s="12"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
+      <c r="AE31" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF31" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AG31" s="14"/>
       <c r="AH31" s="9"/>
       <c r="AI31" s="11"/>
       <c r="AJ31" s="12"/>
-      <c r="AK31" s="32" t="s">
+      <c r="AK31" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AL31" s="29"/>
-      <c r="AM31" s="29"/>
-      <c r="AN31" s="29"/>
-      <c r="AO31" s="29"/>
-      <c r="AP31" s="33"/>
+      <c r="AL31" s="39"/>
+      <c r="AM31" s="39"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="40"/>
       <c r="AQ31" s="9"/>
       <c r="AR31" s="11"/>
       <c r="AS31" s="12"/>
@@ -3983,20 +4397,20 @@
       <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="33"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="40"/>
       <c r="P32" s="9" t="s">
         <v>58</v>
       </c>
@@ -4010,26 +4424,38 @@
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
       <c r="X32" s="14"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="11"/>
+      <c r="Y32" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z32" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="AA32" s="12"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
+      <c r="AB32" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC32" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="AD32" s="12"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
+      <c r="AE32" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF32" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AG32" s="14"/>
       <c r="AH32" s="9"/>
       <c r="AI32" s="11"/>
       <c r="AJ32" s="12"/>
-      <c r="AK32" s="32" t="s">
+      <c r="AK32" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AL32" s="29"/>
-      <c r="AM32" s="29"/>
-      <c r="AN32" s="29"/>
-      <c r="AO32" s="29"/>
-      <c r="AP32" s="33"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="40"/>
       <c r="AQ32" s="9"/>
       <c r="AR32" s="11"/>
       <c r="AS32" s="12"/>
@@ -4135,14 +4561,14 @@
       <c r="C34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="41"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="12"/>
@@ -4281,7 +4707,7 @@
       <c r="BP35" s="11"/>
       <c r="BQ35" s="14"/>
     </row>
-    <row r="36" spans="1:69" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>1</v>
@@ -4289,14 +4715,14 @@
       <c r="C36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="41"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="12"/>
@@ -4307,27 +4733,35 @@
         <v>63</v>
       </c>
       <c r="O36" s="14"/>
-      <c r="P36" s="28" t="s">
+      <c r="P36" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="33"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="40"/>
       <c r="Y36" s="9" t="s">
         <v>79</v>
       </c>
       <c r="Z36" s="11"/>
       <c r="AA36" s="12"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
+      <c r="AB36" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC36" s="11" t="s">
+        <v>192</v>
+      </c>
       <c r="AD36" s="12"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
+      <c r="AE36" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF36" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AG36" s="14"/>
       <c r="AH36" s="9"/>
       <c r="AI36" s="11"/>
@@ -4374,14 +4808,14 @@
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="30"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="41"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="12"/>
@@ -4396,17 +4830,33 @@
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
+      <c r="V37" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="W37" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="X37" s="14"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="11"/>
+      <c r="Y37" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="AA37" s="12"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
+      <c r="AB37" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC37" s="11" t="s">
+        <v>192</v>
+      </c>
       <c r="AD37" s="12"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
+      <c r="AE37" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF37" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="AG37" s="14"/>
       <c r="AH37" s="9"/>
       <c r="AI37" s="11"/>
@@ -4478,14 +4928,22 @@
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
       <c r="X38" s="14"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="11"/>
+      <c r="Y38" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z38" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="AA38" s="12"/>
       <c r="AB38" s="11"/>
       <c r="AC38" s="11"/>
       <c r="AD38" s="12"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
+      <c r="AE38" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF38" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="AG38" s="14"/>
       <c r="AH38" s="9"/>
       <c r="AI38" s="11"/>
@@ -4602,20 +5060,20 @@
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="38"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="29"/>
       <c r="P40" s="9" t="s">
         <v>128</v>
       </c>
@@ -4635,14 +5093,26 @@
       </c>
       <c r="W40" s="11"/>
       <c r="X40" s="14"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="11"/>
+      <c r="Y40" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z40" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="AA40" s="12"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="11"/>
+      <c r="AB40" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC40" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="AD40" s="12"/>
-      <c r="AE40" s="11"/>
-      <c r="AF40" s="11"/>
+      <c r="AE40" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF40" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="AG40" s="14"/>
       <c r="AH40" s="9"/>
       <c r="AI40" s="11"/>
@@ -4668,14 +5138,14 @@
       <c r="BC40" s="11"/>
       <c r="BD40" s="11"/>
       <c r="BE40" s="12"/>
-      <c r="BF40" s="34" t="s">
+      <c r="BF40" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="BG40" s="35"/>
-      <c r="BH40" s="35"/>
-      <c r="BI40" s="35"/>
-      <c r="BJ40" s="35"/>
-      <c r="BK40" s="36"/>
+      <c r="BG40" s="28"/>
+      <c r="BH40" s="28"/>
+      <c r="BI40" s="28"/>
+      <c r="BJ40" s="28"/>
+      <c r="BK40" s="31"/>
       <c r="BL40" s="11"/>
       <c r="BM40" s="11"/>
       <c r="BN40" s="13"/>
@@ -4691,20 +5161,20 @@
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="38"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="29"/>
       <c r="P41" s="9" t="s">
         <v>128</v>
       </c>
@@ -4724,14 +5194,26 @@
       </c>
       <c r="W41" s="11"/>
       <c r="X41" s="14"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="11"/>
+      <c r="Y41" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z41" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="AA41" s="12"/>
-      <c r="AB41" s="11"/>
-      <c r="AC41" s="11"/>
+      <c r="AB41" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC41" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="AD41" s="12"/>
-      <c r="AE41" s="11"/>
-      <c r="AF41" s="11"/>
+      <c r="AE41" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF41" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="AG41" s="14"/>
       <c r="AH41" s="9"/>
       <c r="AI41" s="11"/>
@@ -4778,14 +5260,14 @@
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="30"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="41"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="12"/>
@@ -4806,17 +5288,33 @@
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
+      <c r="V42" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="W42" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="X42" s="14"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="11"/>
+      <c r="Y42" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z42" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="AA42" s="12"/>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="11"/>
+      <c r="AB42" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC42" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="AD42" s="12"/>
-      <c r="AE42" s="11"/>
-      <c r="AF42" s="11"/>
+      <c r="AE42" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF42" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="AG42" s="14"/>
       <c r="AH42" s="9"/>
       <c r="AI42" s="11"/>
@@ -4865,14 +5363,14 @@
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="41"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="12"/>
@@ -4893,17 +5391,33 @@
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
       <c r="U43" s="12"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
+      <c r="V43" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="W43" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="X43" s="14"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="11"/>
+      <c r="Y43" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z43" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="AA43" s="12"/>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="11"/>
+      <c r="AB43" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC43" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="AD43" s="12"/>
-      <c r="AE43" s="11"/>
-      <c r="AF43" s="11"/>
+      <c r="AE43" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF43" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="AG43" s="14"/>
       <c r="AH43" s="9"/>
       <c r="AI43" s="11"/>
@@ -5022,14 +5536,14 @@
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="31"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="45"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="12"/>
@@ -5050,15 +5564,33 @@
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="12"/>
+      <c r="V45" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="W45" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="X45" s="14"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="11"/>
+      <c r="Y45" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z45" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="AA45" s="12"/>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="11"/>
+      <c r="AB45" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC45" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="AD45" s="12"/>
-      <c r="AE45" s="11"/>
-      <c r="AF45" s="11"/>
+      <c r="AE45" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF45" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="AG45" s="14"/>
       <c r="AH45" s="9"/>
       <c r="AI45" s="11"/>
@@ -5105,14 +5637,14 @@
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="31"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="12"/>
@@ -5133,15 +5665,33 @@
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
       <c r="U46" s="12"/>
+      <c r="V46" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="W46" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="X46" s="14"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="11"/>
+      <c r="Y46" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z46" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="AA46" s="12"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="11"/>
+      <c r="AB46" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC46" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="AD46" s="12"/>
-      <c r="AE46" s="11"/>
-      <c r="AF46" s="11"/>
+      <c r="AE46" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF46" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="AG46" s="14"/>
       <c r="AH46" s="9"/>
       <c r="AI46" s="11"/>
@@ -5184,7 +5734,7 @@
       <c r="BP46" s="11"/>
       <c r="BQ46" s="14"/>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>2</v>
@@ -5204,25 +5754,37 @@
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="14"/>
-      <c r="P47" s="28" t="s">
+      <c r="P47" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="11"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z47" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="AA47" s="12"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="11"/>
+      <c r="AB47" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC47" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="AD47" s="12"/>
-      <c r="AE47" s="11"/>
-      <c r="AF47" s="11"/>
+      <c r="AE47" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF47" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="AG47" s="14"/>
       <c r="AH47" s="9"/>
       <c r="AI47" s="11"/>
@@ -5261,7 +5823,7 @@
       <c r="BP47" s="11"/>
       <c r="BQ47" s="14"/>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>3</v>
@@ -5281,19 +5843,23 @@
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="14"/>
-      <c r="P48" s="28" t="s">
+      <c r="P48" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z48" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="AA48" s="11"/>
       <c r="AB48" s="11"/>
       <c r="AC48" s="11"/>
@@ -5413,7 +5979,7 @@
       <c r="BP49" s="11"/>
       <c r="BQ49" s="14"/>
     </row>
-    <row r="50" spans="1:69" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:69" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>45</v>
       </c>
@@ -5444,8 +6010,12 @@
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
       <c r="X50" s="14"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
+      <c r="Y50" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z50" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="AA50" s="11"/>
       <c r="AB50" s="15"/>
       <c r="AC50" s="11"/>
@@ -5471,14 +6041,14 @@
       <c r="AW50" s="11"/>
       <c r="AX50" s="11"/>
       <c r="AY50" s="14"/>
-      <c r="AZ50" s="28" t="s">
+      <c r="AZ50" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="BA50" s="29"/>
-      <c r="BB50" s="29"/>
-      <c r="BC50" s="29"/>
-      <c r="BD50" s="29"/>
-      <c r="BE50" s="30"/>
+      <c r="BA50" s="39"/>
+      <c r="BB50" s="39"/>
+      <c r="BC50" s="39"/>
+      <c r="BD50" s="39"/>
+      <c r="BE50" s="41"/>
       <c r="BF50" s="11"/>
       <c r="BG50" s="11"/>
       <c r="BH50" s="13"/>
@@ -5503,14 +6073,14 @@
       <c r="D51" s="9"/>
       <c r="E51" s="11"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="32" t="s">
+      <c r="G51" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="30"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="41"/>
       <c r="M51" s="10" t="s">
         <v>89</v>
       </c>
@@ -5532,14 +6102,26 @@
         <v>107</v>
       </c>
       <c r="U51" s="12"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
+      <c r="V51" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="W51" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="X51" s="14"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
+      <c r="Y51" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z51" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="AA51" s="11"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="11"/>
+      <c r="AB51" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC51" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="AD51" s="12"/>
       <c r="AE51" s="4" t="s">
         <v>71</v>
@@ -5551,14 +6133,14 @@
       <c r="AH51" s="11"/>
       <c r="AI51" s="11"/>
       <c r="AJ51" s="12"/>
-      <c r="AK51" s="32" t="s">
+      <c r="AK51" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="AL51" s="29"/>
-      <c r="AM51" s="29"/>
-      <c r="AN51" s="29"/>
-      <c r="AO51" s="29"/>
-      <c r="AP51" s="33"/>
+      <c r="AL51" s="39"/>
+      <c r="AM51" s="39"/>
+      <c r="AN51" s="39"/>
+      <c r="AO51" s="39"/>
+      <c r="AP51" s="40"/>
       <c r="AQ51" s="11"/>
       <c r="AR51" s="11"/>
       <c r="AS51" s="12"/>
@@ -5592,14 +6174,14 @@
       <c r="D52" s="9"/>
       <c r="E52" s="11"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="32" t="s">
+      <c r="G52" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="30"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="41"/>
       <c r="M52" s="10" t="s">
         <v>89</v>
       </c>
@@ -5621,14 +6203,26 @@
         <v>107</v>
       </c>
       <c r="U52" s="12"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
+      <c r="V52" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="X52" s="14"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
+      <c r="Y52" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z52" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="AA52" s="11"/>
-      <c r="AB52" s="15"/>
-      <c r="AC52" s="11"/>
+      <c r="AB52" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC52" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="AD52" s="12"/>
       <c r="AE52" s="11"/>
       <c r="AF52" s="11"/>
@@ -5755,14 +6349,14 @@
       <c r="D54" s="9"/>
       <c r="E54" s="11"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="32" t="s">
+      <c r="G54" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="30"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="41"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="14"/>
@@ -5834,14 +6428,14 @@
       <c r="D55" s="9"/>
       <c r="E55" s="11"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="32" t="s">
+      <c r="G55" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="30"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="41"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="14"/>
@@ -5908,14 +6502,14 @@
       <c r="C56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
       <c r="M56" s="11" t="s">
         <v>109</v>
       </c>
@@ -5940,14 +6534,26 @@
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
       <c r="X56" s="14"/>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="11"/>
+      <c r="Y56" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z56" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="AA56" s="11"/>
-      <c r="AB56" s="15"/>
-      <c r="AC56" s="11"/>
+      <c r="AB56" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC56" s="11" t="s">
+        <v>192</v>
+      </c>
       <c r="AD56" s="12"/>
-      <c r="AE56" s="11"/>
-      <c r="AF56" s="11"/>
+      <c r="AE56" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF56" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="AG56" s="14"/>
       <c r="AH56" s="11"/>
       <c r="AI56" s="11"/>
@@ -5994,14 +6600,14 @@
       <c r="C57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
       <c r="M57" s="11" t="s">
         <v>109</v>
       </c>
@@ -6018,17 +6624,33 @@
       <c r="R57" s="12"/>
       <c r="T57" s="11"/>
       <c r="U57" s="12"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
+      <c r="V57" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="W57" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="X57" s="14"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="11"/>
+      <c r="Y57" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z57" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="AA57" s="11"/>
-      <c r="AB57" s="15"/>
-      <c r="AC57" s="11"/>
+      <c r="AB57" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC57" s="11" t="s">
+        <v>192</v>
+      </c>
       <c r="AD57" s="12"/>
-      <c r="AE57" s="11"/>
-      <c r="AF57" s="11"/>
+      <c r="AE57" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF57" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="AG57" s="14"/>
       <c r="AH57" s="11"/>
       <c r="AI57" s="11"/>
@@ -6067,7 +6689,7 @@
       <c r="BP57" s="11"/>
       <c r="BQ57" s="14"/>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:69" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>3</v>
@@ -6093,8 +6715,12 @@
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
       <c r="U58" s="12"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
+      <c r="V58" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="W58" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="X58" s="14"/>
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
@@ -6234,14 +6860,14 @@
       <c r="D60" s="9"/>
       <c r="E60" s="11"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="32" t="s">
+      <c r="G60" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="30"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="41"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="14"/>
@@ -6308,14 +6934,14 @@
       <c r="C61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="32" t="s">
+      <c r="G61" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="30"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="41"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="14"/>
@@ -6336,8 +6962,12 @@
         <v>150</v>
       </c>
       <c r="X61" s="14"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
+      <c r="Y61" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z61" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="AA61" s="11"/>
       <c r="AB61" s="15" t="s">
         <v>68</v>
@@ -6394,14 +7024,14 @@
       <c r="C62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="30"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="41"/>
       <c r="K62" s="11"/>
       <c r="L62" s="12"/>
       <c r="M62" s="11"/>
@@ -6424,14 +7054,26 @@
         <v>150</v>
       </c>
       <c r="X62" s="14"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
+      <c r="Y62" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z62" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="AA62" s="11"/>
-      <c r="AB62" s="15"/>
-      <c r="AC62" s="11"/>
+      <c r="AB62" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC62" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="AD62" s="12"/>
-      <c r="AE62" s="11"/>
-      <c r="AF62" s="11"/>
+      <c r="AE62" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF62" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="AG62" s="14"/>
       <c r="AH62" s="11"/>
       <c r="AI62" s="11"/>
@@ -6470,7 +7112,7 @@
       <c r="BP62" s="11"/>
       <c r="BQ62" s="14"/>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:69" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>3</v>
@@ -6499,14 +7141,22 @@
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
       <c r="X63" s="14"/>
-      <c r="Y63" s="11"/>
-      <c r="Z63" s="11"/>
+      <c r="Y63" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z63" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="AA63" s="11"/>
       <c r="AB63" s="15"/>
       <c r="AC63" s="11"/>
       <c r="AD63" s="12"/>
-      <c r="AE63" s="11"/>
-      <c r="AF63" s="11"/>
+      <c r="AE63" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF63" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="AG63" s="14"/>
       <c r="AH63" s="11"/>
       <c r="AI63" s="11"/>
@@ -6662,11 +7312,19 @@
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
       <c r="AA65" s="11"/>
-      <c r="AB65" s="15"/>
-      <c r="AC65" s="11"/>
+      <c r="AB65" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC65" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="AD65" s="12"/>
-      <c r="AE65" s="11"/>
-      <c r="AF65" s="11"/>
+      <c r="AE65" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF65" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="AG65" s="14"/>
       <c r="AH65" s="11"/>
       <c r="AI65" s="11"/>
@@ -6720,12 +7378,12 @@
         <v>111</v>
       </c>
       <c r="F66" s="12"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="30"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="41"/>
       <c r="M66" s="11" t="s">
         <v>108</v>
       </c>
@@ -6747,17 +7405,33 @@
         <v>141</v>
       </c>
       <c r="U66" s="12"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
+      <c r="V66" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="W66" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="X66" s="14"/>
-      <c r="Y66" s="11"/>
-      <c r="Z66" s="11"/>
+      <c r="Y66" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z66" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="AA66" s="11"/>
-      <c r="AB66" s="15"/>
-      <c r="AC66" s="11"/>
+      <c r="AB66" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC66" s="11" t="s">
+        <v>192</v>
+      </c>
       <c r="AD66" s="12"/>
-      <c r="AE66" s="11"/>
-      <c r="AF66" s="11"/>
+      <c r="AE66" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF66" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="AG66" s="14"/>
       <c r="AH66" s="11"/>
       <c r="AI66" s="11"/>
@@ -6811,12 +7485,12 @@
         <v>111</v>
       </c>
       <c r="F67" s="12"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="30"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="41"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="14"/>
@@ -6828,11 +7502,13 @@
       </c>
       <c r="R67" s="12"/>
       <c r="U67" s="12"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="11"/>
+      <c r="V67" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="W67" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="X67" s="14"/>
-      <c r="Y67" s="11"/>
-      <c r="Z67" s="11"/>
       <c r="AA67" s="11"/>
       <c r="AB67" s="15"/>
       <c r="AC67" s="11"/>
@@ -7055,8 +7731,12 @@
       <c r="AB70" s="15"/>
       <c r="AC70" s="11"/>
       <c r="AD70" s="12"/>
-      <c r="AE70" s="11"/>
-      <c r="AF70" s="11"/>
+      <c r="AE70" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF70" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="AG70" s="14"/>
       <c r="AH70" s="11"/>
       <c r="AI70" s="11"/>
@@ -7103,14 +7783,14 @@
       <c r="C71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="30"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="41"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="12"/>
@@ -7131,17 +7811,29 @@
         <v>134</v>
       </c>
       <c r="U71" s="12"/>
-      <c r="V71" s="11"/>
-      <c r="W71" s="11"/>
+      <c r="V71" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="W71" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="X71" s="14"/>
-      <c r="Y71" s="11"/>
-      <c r="Z71" s="11"/>
+      <c r="Y71" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z71" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="AA71" s="11"/>
       <c r="AB71" s="15"/>
       <c r="AC71" s="11"/>
       <c r="AD71" s="12"/>
-      <c r="AE71" s="11"/>
-      <c r="AF71" s="11"/>
+      <c r="AE71" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF71" s="10" t="s">
+        <v>214</v>
+      </c>
       <c r="AG71" s="14"/>
       <c r="AH71" s="11"/>
       <c r="AI71" s="11"/>
@@ -7188,14 +7880,14 @@
       <c r="C72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="31"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="45"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="12"/>
@@ -7216,17 +7908,33 @@
         <v>141</v>
       </c>
       <c r="U72" s="12"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
+      <c r="V72" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="W72" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="X72" s="14"/>
-      <c r="Y72" s="11"/>
-      <c r="Z72" s="11"/>
+      <c r="Y72" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z72" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="AA72" s="11"/>
-      <c r="AB72" s="15"/>
-      <c r="AC72" s="11"/>
+      <c r="AB72" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC72" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="AD72" s="12"/>
-      <c r="AE72" s="11"/>
-      <c r="AF72" s="11"/>
+      <c r="AE72" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF72" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="AG72" s="14"/>
       <c r="AH72" s="11"/>
       <c r="AI72" s="11"/>
@@ -7273,14 +7981,14 @@
       <c r="C73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="31"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="45"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
       <c r="L73" s="12"/>
@@ -7424,14 +8132,14 @@
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D75" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="31"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="45"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="12"/>
@@ -7450,8 +8158,12 @@
       <c r="Y75" s="11"/>
       <c r="Z75" s="11"/>
       <c r="AA75" s="11"/>
-      <c r="AB75" s="15"/>
-      <c r="AC75" s="11"/>
+      <c r="AB75" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC75" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="AD75" s="12"/>
       <c r="AE75" s="11"/>
       <c r="AF75" s="11"/>
@@ -7501,14 +8213,14 @@
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="12"/>
@@ -7526,11 +8238,19 @@
         <v>150</v>
       </c>
       <c r="X76" s="14"/>
-      <c r="Y76" s="11"/>
-      <c r="Z76" s="11"/>
+      <c r="Y76" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z76" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="AA76" s="11"/>
-      <c r="AB76" s="15"/>
-      <c r="AC76" s="11"/>
+      <c r="AB76" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC76" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="AD76" s="12"/>
       <c r="AE76" s="11"/>
       <c r="AF76" s="11"/>
@@ -7580,14 +8300,14 @@
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
       <c r="L77" s="12"/>
@@ -7604,14 +8324,26 @@
       <c r="S77" s="11"/>
       <c r="T77" s="11"/>
       <c r="U77" s="12"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
+      <c r="V77" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="W77" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="X77" s="14"/>
-      <c r="Y77" s="11"/>
-      <c r="Z77" s="11"/>
+      <c r="Y77" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z77" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="AA77" s="11"/>
-      <c r="AB77" s="15"/>
-      <c r="AC77" s="11"/>
+      <c r="AB77" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC77" s="11" t="s">
+        <v>199</v>
+      </c>
       <c r="AD77" s="12"/>
       <c r="AE77" s="11"/>
       <c r="AF77" s="11"/>
@@ -7661,14 +8393,14 @@
       <c r="C78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D78" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="30"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="41"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
       <c r="L78" s="12"/>
@@ -7685,11 +8417,19 @@
       <c r="S78" s="11"/>
       <c r="T78" s="11"/>
       <c r="U78" s="12"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="11"/>
+      <c r="V78" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="W78" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="X78" s="14"/>
-      <c r="Y78" s="11"/>
-      <c r="Z78" s="11"/>
+      <c r="Y78" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z78" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="AA78" s="11"/>
       <c r="AB78" s="15"/>
       <c r="AC78" s="11"/>
@@ -7806,14 +8546,14 @@
       <c r="C80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="26" t="s">
+      <c r="D80" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
       <c r="L80" s="12"/>
@@ -7883,14 +8623,14 @@
       <c r="C81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="28" t="s">
+      <c r="D81" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="30"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="41"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="12"/>
@@ -7906,8 +8646,12 @@
       <c r="V81" s="11"/>
       <c r="W81" s="11"/>
       <c r="X81" s="14"/>
-      <c r="Y81" s="11"/>
-      <c r="Z81" s="11"/>
+      <c r="Y81" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z81" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="AA81" s="11"/>
       <c r="AB81" s="15"/>
       <c r="AC81" s="11"/>
@@ -7960,14 +8704,14 @@
       <c r="C82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="D82" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="30"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="41"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="12"/>
@@ -8037,14 +8781,14 @@
       <c r="C83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="31"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="45"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="12"/>
@@ -8483,12 +9227,78 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BQ2"/>
-    <mergeCell ref="AZ1:BQ1"/>
-    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="AK31:AP31"/>
+    <mergeCell ref="AK32:AP32"/>
+    <mergeCell ref="G66:L66"/>
+    <mergeCell ref="G67:L67"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="AK51:AP51"/>
+    <mergeCell ref="P47:X47"/>
+    <mergeCell ref="P48:X48"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="AZ21:BE21"/>
+    <mergeCell ref="AZ50:BE50"/>
+    <mergeCell ref="BF5:BK5"/>
+    <mergeCell ref="BF6:BK6"/>
+    <mergeCell ref="BF40:BK40"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D40:O40"/>
+    <mergeCell ref="D41:O41"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="P26:X26"/>
+    <mergeCell ref="P27:X27"/>
+    <mergeCell ref="P36:X36"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="AQ1:AY1"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="AT2:AV3"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
     <mergeCell ref="BU3:BW3"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="G2:I3"/>
@@ -8505,78 +9315,12 @@
     <mergeCell ref="BL3:BN3"/>
     <mergeCell ref="BO3:BQ3"/>
     <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="AT2:AV3"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="P26:X26"/>
-    <mergeCell ref="P27:X27"/>
-    <mergeCell ref="P36:X36"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D40:O40"/>
-    <mergeCell ref="D41:O41"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D32:O32"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="AZ21:BE21"/>
-    <mergeCell ref="AZ50:BE50"/>
-    <mergeCell ref="BF5:BK5"/>
-    <mergeCell ref="BF6:BK6"/>
-    <mergeCell ref="BF40:BK40"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="AK31:AP31"/>
-    <mergeCell ref="AK32:AP32"/>
-    <mergeCell ref="G66:L66"/>
-    <mergeCell ref="G67:L67"/>
-    <mergeCell ref="G60:L60"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="P47:X47"/>
-    <mergeCell ref="P48:X48"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="G54:L54"/>
-    <mergeCell ref="G55:L55"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="AZ1:BQ1"/>
+    <mergeCell ref="AZ3:BB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Rozklad_2zaizd.xlsx
+++ b/Rozklad_2zaizd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20730" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="20730" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="272">
   <si>
     <t>І</t>
   </si>
@@ -356,9 +356,6 @@
     <t>доц. Шишканинець І.Ф.</t>
   </si>
   <si>
-    <t>Геологія і геоморфологія</t>
-  </si>
-  <si>
     <t>Інженерна графіка в землеустрої</t>
   </si>
   <si>
@@ -371,24 +368,15 @@
     <t>Загальне землезнавство, ст. викл. Мельничук В.П.,</t>
   </si>
   <si>
-    <t>Геологія загальна та історична, доц Микита М.М.</t>
-  </si>
-  <si>
     <t>Топографія з основами геодезії, ст. викл. Стасюк В.І.</t>
   </si>
   <si>
-    <t>Геологія загальна та історична, доц. Микита М.М.</t>
-  </si>
-  <si>
     <t>Топографія з основами геодезії, ст. вилк. Стасюк В.І.</t>
   </si>
   <si>
     <t>Загальне землезнавство, ст. викл. Мельничук В.П. (іспит)</t>
   </si>
   <si>
-    <t>Геологія загальна та історична, доц. Микита М.М. (іспит)</t>
-  </si>
-  <si>
     <t>Основи екології, доц. Фекета І.Ю.</t>
   </si>
   <si>
@@ -729,6 +717,186 @@
   </si>
   <si>
     <t>Лісова пірологія</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Геологія загальна та історична, доц Микита М.М. </t>
+  </si>
+  <si>
+    <t>Геологія загальна та історична, доц Микита М.М. (іспит)</t>
+  </si>
+  <si>
+    <t>Геологія загальна та історична, доц. Микита М.М. з 10:00 344 2 пари</t>
+  </si>
+  <si>
+    <t>Економіка та географія природокористування</t>
+  </si>
+  <si>
+    <t>Економіка та географія природокористування (іспит)</t>
+  </si>
+  <si>
+    <t>Географічне прогнозування</t>
+  </si>
+  <si>
+    <t>Географічне прогнозування (іспит)</t>
+  </si>
+  <si>
+    <t>Географія населення з основами демографії</t>
+  </si>
+  <si>
+    <t>Географія населення з основами демографії (іспит)</t>
+  </si>
+  <si>
+    <t>Економічна і соціальна географія України</t>
+  </si>
+  <si>
+    <t>Економічна і соціальна географія України (іспит)</t>
+  </si>
+  <si>
+    <t>Основи викладання географії</t>
+  </si>
+  <si>
+    <t>Основи викладання географії (залік)</t>
+  </si>
+  <si>
+    <t>ст. викл. Роман С.І.</t>
+  </si>
+  <si>
+    <t>Ресурси Закарпаття (кр)</t>
+  </si>
+  <si>
+    <t>Соціально-економічна статистика</t>
+  </si>
+  <si>
+    <t>Економічна теорія</t>
+  </si>
+  <si>
+    <t>Кушнір Ю.Б.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основи районного планування та гідромеліорація </t>
+  </si>
+  <si>
+    <t>ІТФ 209</t>
+  </si>
+  <si>
+    <t>доц. Голик Й.М.</t>
+  </si>
+  <si>
+    <t>Вища геодезія</t>
+  </si>
+  <si>
+    <t>ст.викл. Ничвид М.Р.</t>
+  </si>
+  <si>
+    <t>Супутникова геодезія та сферична астрономія</t>
+  </si>
+  <si>
+    <t>проф. Каблак Н.І.; ас. Ваш Я.І.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Електронні геодезичні прилади </t>
+  </si>
+  <si>
+    <t>Організація і управління виробництвом</t>
+  </si>
+  <si>
+    <t>доц. Грубінко І.І.</t>
+  </si>
+  <si>
+    <t>Фінансово- економічна діяльність</t>
+  </si>
+  <si>
+    <t>Фінансово- економічна діяльність (залік)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зональні системи землеробства </t>
+  </si>
+  <si>
+    <t>ст. викл. Романко В.О.</t>
+  </si>
+  <si>
+    <t>Зональні системи землеробства (іспит)</t>
+  </si>
+  <si>
+    <t>Моніторинг та охорона земель (залік), ст. викл. Романко В.О.</t>
+  </si>
+  <si>
+    <t>Моніторинг та охорона земель, ст. викл. Романко В.О.</t>
+  </si>
+  <si>
+    <t>Основи реєстрації нерухомості та прав на неї</t>
+  </si>
+  <si>
+    <t>Основи реєстрації нерухомості та прав на неї (залік)</t>
+  </si>
+  <si>
+    <t>Практикум із землевпорядних робіт</t>
+  </si>
+  <si>
+    <t>Заповідна справа</t>
+  </si>
+  <si>
+    <t>Основи екології</t>
+  </si>
+  <si>
+    <t>Садово-паркове будівництво</t>
+  </si>
+  <si>
+    <t>Озеленення населених місць (де)</t>
+  </si>
+  <si>
+    <t>Лісова таксація (де)</t>
+  </si>
+  <si>
+    <t>Механізація лісогосподарських та садово-паркових робіт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основи лісоексплуатації </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лісове деревинознавство </t>
+  </si>
+  <si>
+    <t>Лісівництво в т.ч. рекреаційне (кп)</t>
+  </si>
+  <si>
+    <t>Географія грунтів і земельних ресурсів</t>
+  </si>
+  <si>
+    <t>Методика викладання географії в школі</t>
+  </si>
+  <si>
+    <t>Методика викладання географії в школі (залік)</t>
+  </si>
+  <si>
+    <t>Географічне країнознавство (де)</t>
+  </si>
+  <si>
+    <t>Географія світового господарства (де)</t>
+  </si>
+  <si>
+    <t>Основи педмайстерності</t>
+  </si>
+  <si>
+    <t>Теорія і методологія географічної науки</t>
+  </si>
+  <si>
+    <t>Історична географія з основами етнографії (де)</t>
+  </si>
+  <si>
+    <t>Прикладна фізична географія</t>
+  </si>
+  <si>
+    <t>викл. Лета В.В.</t>
+  </si>
+  <si>
+    <t>Методи  наукових досліджень</t>
+  </si>
+  <si>
+    <t>Методи  наукових досліджень (залік)</t>
+  </si>
+  <si>
+    <t>Державний земельний кадастр</t>
   </si>
 </sst>
 </file>
@@ -757,12 +925,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="19">
@@ -961,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1047,16 +1227,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1068,35 +1278,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1370,7 +1568,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1381,10 +1579,10 @@
   <dimension ref="A1:BW90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG8" sqref="AG8"/>
+      <selection pane="bottomRight" activeCell="AU12" sqref="AU12:AU13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1629,7 @@
     <col min="40" max="40" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.7109375" style="10" customWidth="1"/>
     <col min="44" max="44" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="5" style="10" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
@@ -1468,277 +1666,277 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="33" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="33" t="s">
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="33" t="s">
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="33" t="s">
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="33" t="s">
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="34"/>
-      <c r="BP1" s="34"/>
-      <c r="BQ1" s="35"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="44"/>
+      <c r="BF1" s="44"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="44"/>
+      <c r="BL1" s="44"/>
+      <c r="BM1" s="44"/>
+      <c r="BN1" s="44"/>
+      <c r="BO1" s="44"/>
+      <c r="BP1" s="44"/>
+      <c r="BQ1" s="45"/>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="28" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="28" t="s">
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="28" t="s">
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="30" t="s">
+      <c r="N2" s="39"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="28" t="s">
+      <c r="Q2" s="39"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="28" t="s">
+      <c r="T2" s="39"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="30" t="s">
+      <c r="W2" s="39"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="28" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="28" t="s">
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="30" t="s">
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="28" t="s">
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="28" t="s">
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="30" t="s">
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="28" t="s">
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="28" t="s">
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="30" t="s">
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="31"/>
-      <c r="BF2" s="32" t="s">
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="40"/>
+      <c r="BF2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="31"/>
-      <c r="BL2" s="28" t="s">
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="39"/>
+      <c r="BJ2" s="39"/>
+      <c r="BK2" s="40"/>
+      <c r="BL2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="28"/>
-      <c r="BN2" s="28"/>
-      <c r="BO2" s="28"/>
-      <c r="BP2" s="28"/>
-      <c r="BQ2" s="29"/>
+      <c r="BM2" s="39"/>
+      <c r="BN2" s="39"/>
+      <c r="BO2" s="39"/>
+      <c r="BP2" s="39"/>
+      <c r="BQ2" s="42"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="D3" s="30"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="29"/>
-      <c r="AZ3" s="30" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="39"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="39"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="28"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="28" t="s">
+      <c r="BA3" s="39"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="28"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="32" t="s">
+      <c r="BD3" s="39"/>
+      <c r="BE3" s="40"/>
+      <c r="BF3" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="28"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="28" t="s">
+      <c r="BG3" s="39"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="28"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="28"/>
-      <c r="BM3" s="28"/>
-      <c r="BN3" s="36"/>
-      <c r="BO3" s="28" t="s">
+      <c r="BJ3" s="39"/>
+      <c r="BK3" s="40"/>
+      <c r="BL3" s="39"/>
+      <c r="BM3" s="39"/>
+      <c r="BN3" s="47"/>
+      <c r="BO3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="BP3" s="28"/>
-      <c r="BQ3" s="29"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="37"/>
-      <c r="BV3" s="37"/>
-      <c r="BW3" s="37"/>
+      <c r="BP3" s="39"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="46"/>
+      <c r="BS3" s="46"/>
+      <c r="BT3" s="46"/>
+      <c r="BU3" s="46"/>
+      <c r="BV3" s="46"/>
+      <c r="BW3" s="46"/>
     </row>
     <row r="4" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1956,14 +2154,14 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="31"/>
+      <c r="D5" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
       <c r="M5" s="4" t="s">
@@ -1974,38 +2172,38 @@
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="4" t="s">
         <v>59</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X5" s="6"/>
       <c r="Y5" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA5" s="5"/>
       <c r="AB5" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="4" t="s">
@@ -2015,21 +2213,29 @@
         <v>70</v>
       </c>
       <c r="AG5" s="6"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="4"/>
+      <c r="AH5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AP5" s="6"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="4"/>
+      <c r="AQ5" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="AS5" s="5"/>
       <c r="AT5" s="9" t="s">
         <v>54</v>
@@ -2045,14 +2251,14 @@
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="32" t="s">
+      <c r="BF5" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="BG5" s="28"/>
-      <c r="BH5" s="28"/>
-      <c r="BI5" s="28"/>
-      <c r="BJ5" s="28"/>
-      <c r="BK5" s="31"/>
+      <c r="BG5" s="39"/>
+      <c r="BH5" s="39"/>
+      <c r="BI5" s="39"/>
+      <c r="BJ5" s="39"/>
+      <c r="BK5" s="40"/>
       <c r="BL5" s="11"/>
       <c r="BM5" s="11"/>
       <c r="BN5" s="13"/>
@@ -2068,14 +2274,14 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="31"/>
+      <c r="D6" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
@@ -2087,38 +2293,38 @@
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="7" t="s">
         <v>59</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X6" s="6"/>
       <c r="Y6" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="4" t="s">
@@ -2126,8 +2332,12 @@
       </c>
       <c r="AF6" s="4"/>
       <c r="AG6" s="6"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="4"/>
+      <c r="AH6" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="4" t="s">
         <v>78</v>
@@ -2135,14 +2345,18 @@
       <c r="AL6" s="4"/>
       <c r="AM6" s="5"/>
       <c r="AN6" s="26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AP6" s="6"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="4"/>
+      <c r="AQ6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="AS6" s="5"/>
       <c r="AT6" s="9" t="s">
         <v>54</v>
@@ -2158,14 +2372,14 @@
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="5"/>
-      <c r="BF6" s="32" t="s">
+      <c r="BF6" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="BG6" s="28"/>
-      <c r="BH6" s="28"/>
-      <c r="BI6" s="28"/>
-      <c r="BJ6" s="28"/>
-      <c r="BK6" s="31"/>
+      <c r="BG6" s="39"/>
+      <c r="BH6" s="39"/>
+      <c r="BI6" s="39"/>
+      <c r="BJ6" s="39"/>
+      <c r="BK6" s="40"/>
       <c r="BL6" s="11"/>
       <c r="BM6" s="11"/>
       <c r="BN6" s="13"/>
@@ -2181,61 +2395,57 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="D7" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="5"/>
       <c r="M7" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="X7" s="6"/>
       <c r="Y7" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>175</v>
+        <v>161</v>
+      </c>
+      <c r="Z7" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AC7" s="26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="4" t="s">
@@ -2251,8 +2461,12 @@
       </c>
       <c r="AL7" s="4"/>
       <c r="AM7" s="5"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
+      <c r="AN7" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="AP7" s="6"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="4"/>
@@ -2292,20 +2506,20 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="29"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="42"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
@@ -2313,24 +2527,24 @@
       <c r="T8" s="4"/>
       <c r="U8" s="5"/>
       <c r="V8" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="X8" s="6"/>
-      <c r="Y8" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>175</v>
+      <c r="Y8" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z8" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="AA8" s="5"/>
       <c r="AB8" s="26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AC8" s="26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AD8" s="5"/>
       <c r="AE8" s="4"/>
@@ -2342,8 +2556,12 @@
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="5"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
+      <c r="AN8" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO8" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="AP8" s="6"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="4"/>
@@ -2451,73 +2669,85 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="40"/>
+      <c r="D10" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="37"/>
       <c r="P10" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R10" s="12"/>
       <c r="S10" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="U10" s="12"/>
       <c r="V10" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="X10" s="14"/>
       <c r="Y10" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA10" s="12"/>
       <c r="AB10" s="11" t="s">
         <v>59</v>
       </c>
       <c r="AC10" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AD10" s="12"/>
       <c r="AE10" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AF10" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AG10" s="14"/>
       <c r="AH10" s="9"/>
       <c r="AI10" s="11"/>
       <c r="AJ10" s="12"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
+      <c r="AK10" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL10" s="11" t="s">
+        <v>236</v>
+      </c>
       <c r="AM10" s="12"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
+      <c r="AN10" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AO10" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="AP10" s="14"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="11"/>
+      <c r="AQ10" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR10" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="AS10" s="12"/>
       <c r="AT10" s="11"/>
       <c r="AU10" s="11"/>
@@ -2552,73 +2782,89 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="40"/>
+      <c r="D11" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="37"/>
       <c r="P11" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R11" s="12"/>
       <c r="S11" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="U11" s="12"/>
       <c r="V11" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="X11" s="14"/>
       <c r="Y11" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Z11" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA11" s="12"/>
       <c r="AB11" s="11" t="s">
         <v>59</v>
       </c>
       <c r="AC11" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AD11" s="12"/>
       <c r="AE11" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AF11" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AG11" s="14"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="11"/>
+      <c r="AH11" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="AJ11" s="12"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
+      <c r="AK11" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL11" s="11" t="s">
+        <v>236</v>
+      </c>
       <c r="AM11" s="12"/>
-      <c r="AN11" s="11"/>
-      <c r="AO11" s="11"/>
+      <c r="AN11" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO11" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="AP11" s="14"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="11"/>
+      <c r="AQ11" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR11" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="AS11" s="12"/>
       <c r="AT11" s="11"/>
       <c r="AU11" s="11"/>
@@ -2655,80 +2901,92 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="41"/>
+      <c r="D12" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="12"/>
       <c r="M12" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R12" s="12"/>
       <c r="S12" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="U12" s="12"/>
       <c r="V12" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="X12" s="14"/>
       <c r="Y12" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AA12" s="12"/>
       <c r="AB12" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AC12" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AD12" s="12"/>
       <c r="AE12" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AF12" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AG12" s="14"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="11"/>
+      <c r="AH12" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI12" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="AJ12" s="12"/>
       <c r="AK12" s="11"/>
       <c r="AL12" s="11"/>
       <c r="AM12" s="12"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="11"/>
+      <c r="AN12" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="AO12" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AP12" s="14"/>
       <c r="AQ12" s="9"/>
       <c r="AR12" s="11"/>
       <c r="AS12" s="12"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
+      <c r="AT12" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU12" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="AV12" s="12"/>
       <c r="AW12" s="11"/>
       <c r="AX12" s="11"/>
@@ -2762,14 +3020,14 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="41"/>
+      <c r="D13" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
@@ -2777,45 +3035,45 @@
       <c r="N13" s="11"/>
       <c r="O13" s="14"/>
       <c r="P13" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R13" s="12"/>
       <c r="S13" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="U13" s="12"/>
       <c r="V13" s="26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="X13" s="14"/>
       <c r="Y13" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AA13" s="12"/>
       <c r="AB13" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AC13" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AD13" s="12"/>
       <c r="AE13" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AF13" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AG13" s="14"/>
       <c r="AH13" s="9"/>
@@ -2824,14 +3082,22 @@
       <c r="AK13" s="11"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="12"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
+      <c r="AN13" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="AO13" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AP13" s="14"/>
       <c r="AQ13" s="9"/>
       <c r="AR13" s="11"/>
       <c r="AS13" s="12"/>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
+      <c r="AT13" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU13" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="AV13" s="12"/>
       <c r="AW13" s="11"/>
       <c r="AX13" s="11"/>
@@ -2856,6 +3122,9 @@
       <c r="BQ13" s="14"/>
     </row>
     <row r="14" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
@@ -2953,10 +3222,10 @@
       <c r="W15" s="11"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Z15" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA15" s="12"/>
       <c r="AB15" s="11"/>
@@ -2970,11 +3239,21 @@
       </c>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="12"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="11"/>
+      <c r="AK15" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL15" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM15" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN15" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO15" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="AP15" s="14"/>
       <c r="AR15" s="11"/>
       <c r="AS15" s="12"/>
@@ -3011,60 +3290,60 @@
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="40"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="37"/>
       <c r="P16" s="9" t="s">
         <v>58</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U16" s="12"/>
       <c r="V16" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="X16" s="14"/>
-      <c r="Y16" s="27" t="s">
-        <v>165</v>
+      <c r="Y16" s="29" t="s">
+        <v>161</v>
       </c>
       <c r="Z16" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA16" s="12"/>
       <c r="AB16" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AC16" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AD16" s="12"/>
       <c r="AE16" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AF16" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AG16" s="14"/>
       <c r="AH16" s="9" t="s">
@@ -3072,16 +3351,35 @@
       </c>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="12"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="11"/>
+      <c r="AK16" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL16" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM16" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN16" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO16" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AP16" s="14"/>
-      <c r="AR16" s="11"/>
+      <c r="AQ16" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR16" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="AS16" s="12"/>
-      <c r="AT16" s="11"/>
-      <c r="AU16" s="11"/>
+      <c r="AT16" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU16" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="AV16" s="12"/>
       <c r="AW16" s="11"/>
       <c r="AX16" s="11"/>
@@ -3113,75 +3411,96 @@
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="40"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="37"/>
       <c r="P17" s="9" t="s">
         <v>58</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U17" s="12"/>
       <c r="V17" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="X17" s="14"/>
-      <c r="Y17" s="11" t="s">
-        <v>166</v>
+      <c r="Y17" s="29" t="s">
+        <v>161</v>
       </c>
       <c r="Z17" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA17" s="12"/>
       <c r="AB17" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AC17" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AD17" s="12"/>
       <c r="AE17" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AF17" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AG17" s="14"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="11"/>
+      <c r="AH17" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="AJ17" s="12"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
+      <c r="AK17" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL17" s="11" t="s">
+        <v>234</v>
+      </c>
       <c r="AM17" s="12"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
+      <c r="AN17" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO17" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AP17" s="14"/>
-      <c r="AR17" s="11"/>
+      <c r="AQ17" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR17" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="AS17" s="12"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
+      <c r="AT17" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU17" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="AV17" s="12"/>
       <c r="AW17" s="11"/>
       <c r="AX17" s="11"/>
@@ -3205,7 +3524,7 @@
       <c r="BP17" s="11"/>
       <c r="BQ17" s="14"/>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -3234,8 +3553,12 @@
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="14"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="11"/>
+      <c r="Y18" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z18" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="AA18" s="12"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
@@ -3246,8 +3569,12 @@
       <c r="AH18" s="9"/>
       <c r="AI18" s="11"/>
       <c r="AJ18" s="12"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
+      <c r="AK18" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL18" s="11" t="s">
+        <v>234</v>
+      </c>
       <c r="AM18" s="12"/>
       <c r="AN18" s="11"/>
       <c r="AO18" s="11"/>
@@ -3363,7 +3690,7 @@
         <v>76</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="11"/>
@@ -3437,14 +3764,14 @@
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="41"/>
+      <c r="D21" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="12"/>
@@ -3456,24 +3783,24 @@
       </c>
       <c r="O21" s="14"/>
       <c r="P21" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="U21" s="12"/>
       <c r="V21" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="X21" s="14"/>
       <c r="Y21" s="9" t="s">
@@ -3482,30 +3809,46 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AC21" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AD21" s="12"/>
       <c r="AE21" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AF21" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG21" s="14"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="11"/>
+      <c r="AH21" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI21" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="AJ21" s="12"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
+      <c r="AK21" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL21" s="11" t="s">
+        <v>236</v>
+      </c>
       <c r="AM21" s="12"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="11"/>
+      <c r="AN21" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO21" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="AP21" s="14"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="11"/>
+      <c r="AQ21" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR21" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="AS21" s="12"/>
       <c r="AT21" s="11"/>
       <c r="AU21" s="11"/>
@@ -3513,14 +3856,14 @@
       <c r="AW21" s="11"/>
       <c r="AX21" s="11"/>
       <c r="AY21" s="14"/>
-      <c r="AZ21" s="38" t="s">
+      <c r="AZ21" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="BA21" s="39"/>
-      <c r="BB21" s="39"/>
-      <c r="BC21" s="39"/>
-      <c r="BD21" s="39"/>
-      <c r="BE21" s="41"/>
+      <c r="BA21" s="34"/>
+      <c r="BB21" s="34"/>
+      <c r="BC21" s="34"/>
+      <c r="BD21" s="34"/>
+      <c r="BE21" s="35"/>
       <c r="BF21" s="11"/>
       <c r="BG21" s="11"/>
       <c r="BH21" s="13"/>
@@ -3542,43 +3885,43 @@
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="41"/>
+      <c r="D22" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="12"/>
       <c r="M22" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O22" s="14"/>
       <c r="P22" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R22" s="12"/>
       <c r="S22" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="U22" s="12"/>
       <c r="V22" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="X22" s="14"/>
       <c r="Y22" s="9" t="s">
@@ -3587,30 +3930,46 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AC22" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AD22" s="12"/>
       <c r="AE22" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AF22" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG22" s="14"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="11"/>
+      <c r="AH22" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI22" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="AJ22" s="12"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
+      <c r="AK22" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL22" s="11" t="s">
+        <v>236</v>
+      </c>
       <c r="AM22" s="12"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
+      <c r="AN22" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO22" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="AP22" s="14"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="11"/>
+      <c r="AQ22" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR22" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="AS22" s="12"/>
       <c r="AT22" s="11"/>
       <c r="AU22" s="11"/>
@@ -3618,8 +3977,12 @@
       <c r="AW22" s="11"/>
       <c r="AX22" s="11"/>
       <c r="AY22" s="14"/>
-      <c r="AZ22" s="9"/>
-      <c r="BA22" s="11"/>
+      <c r="AZ22" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="BA22" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="BB22" s="13"/>
       <c r="BC22" s="11"/>
       <c r="BD22" s="11"/>
@@ -3663,10 +4026,10 @@
       <c r="T23" s="11"/>
       <c r="U23" s="12"/>
       <c r="V23" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="X23" s="14"/>
       <c r="Y23" s="9"/>
@@ -3684,8 +4047,12 @@
       <c r="AK23" s="11"/>
       <c r="AL23" s="11"/>
       <c r="AM23" s="12"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
+      <c r="AN23" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO23" s="28" t="s">
+        <v>144</v>
+      </c>
       <c r="AP23" s="14"/>
       <c r="AQ23" s="9"/>
       <c r="AR23" s="11"/>
@@ -3696,8 +4063,12 @@
       <c r="AW23" s="11"/>
       <c r="AX23" s="11"/>
       <c r="AY23" s="14"/>
-      <c r="AZ23" s="9"/>
-      <c r="BA23" s="11"/>
+      <c r="AZ23" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="BA23" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="BB23" s="13"/>
       <c r="BC23" s="11"/>
       <c r="BD23" s="11"/>
@@ -3793,20 +4164,20 @@
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="40"/>
+      <c r="D25" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="37"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="12"/>
@@ -3870,19 +4241,19 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="41"/>
+      <c r="D26" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="11" t="s">
@@ -3892,22 +4263,22 @@
         <v>63</v>
       </c>
       <c r="O26" s="14"/>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="40"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="37"/>
       <c r="Y26" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AA26" s="12"/>
       <c r="AB26" s="15" t="s">
@@ -3916,23 +4287,39 @@
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AF26" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AG26" s="14"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="11"/>
+      <c r="AH26" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI26" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="AJ26" s="12"/>
-      <c r="AK26" s="11"/>
-      <c r="AL26" s="11"/>
+      <c r="AK26" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL26" s="48" t="s">
+        <v>229</v>
+      </c>
       <c r="AM26" s="12"/>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="11"/>
+      <c r="AN26" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO26" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AP26" s="14"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="11"/>
+      <c r="AQ26" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR26" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="AS26" s="12"/>
       <c r="AT26" s="11"/>
       <c r="AU26" s="11"/>
@@ -3969,14 +4356,14 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="41"/>
+      <c r="D27" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="12"/>
@@ -3987,49 +4374,65 @@
         <v>63</v>
       </c>
       <c r="O27" s="14"/>
-      <c r="P27" s="38" t="s">
+      <c r="P27" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="40"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="37"/>
       <c r="Y27" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AA27" s="12"/>
       <c r="AB27" s="11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AC27" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AD27" s="12"/>
       <c r="AE27" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AF27" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AG27" s="14"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="11"/>
+      <c r="AH27" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI27" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="AJ27" s="12"/>
-      <c r="AK27" s="11"/>
-      <c r="AL27" s="11"/>
+      <c r="AK27" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL27" s="48" t="s">
+        <v>229</v>
+      </c>
       <c r="AM27" s="12"/>
-      <c r="AN27" s="11"/>
-      <c r="AO27" s="11"/>
+      <c r="AN27" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO27" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AP27" s="14"/>
-      <c r="AQ27" s="9"/>
-      <c r="AR27" s="11"/>
+      <c r="AQ27" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR27" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="AS27" s="12"/>
       <c r="AT27" s="11"/>
       <c r="AU27" s="11"/>
@@ -4089,10 +4492,10 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AC28" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AD28" s="12"/>
       <c r="AE28" s="11"/>
@@ -4136,12 +4539,14 @@
       <c r="BQ28" s="14"/>
     </row>
     <row r="29" spans="1:69" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="9"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
+      <c r="D29" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="12"/>
@@ -4155,7 +4560,7 @@
         <v>72</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="U29" s="12"/>
       <c r="V29" s="11"/>
@@ -4207,7 +4612,7 @@
       <c r="BP29" s="11"/>
       <c r="BQ29" s="14"/>
     </row>
-    <row r="30" spans="1:69" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -4217,12 +4622,6 @@
       <c r="C30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="12"/>
@@ -4236,14 +4635,12 @@
         <v>72</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="U30" s="12"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
       <c r="X30" s="14"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="11"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="11"/>
       <c r="AC30" s="11"/>
@@ -4260,8 +4657,12 @@
       <c r="AN30" s="11"/>
       <c r="AO30" s="11"/>
       <c r="AP30" s="14"/>
-      <c r="AQ30" s="9"/>
-      <c r="AR30" s="11"/>
+      <c r="AQ30" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR30" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="AS30" s="12"/>
       <c r="AT30" s="11"/>
       <c r="AU30" s="11"/>
@@ -4296,75 +4697,83 @@
       <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="40"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="37"/>
       <c r="P31" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="R31" s="12"/>
       <c r="S31" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U31" s="12"/>
       <c r="V31" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="W31" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="X31" s="14"/>
-      <c r="Y31" s="9" t="s">
-        <v>169</v>
+      <c r="Y31" s="29" t="s">
+        <v>164</v>
       </c>
       <c r="Z31" s="11" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="AA31" s="12"/>
       <c r="AB31" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AC31" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AD31" s="12"/>
       <c r="AE31" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AF31" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG31" s="14"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="11"/>
+      <c r="AH31" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI31" s="11" t="s">
+        <v>225</v>
+      </c>
       <c r="AJ31" s="12"/>
-      <c r="AK31" s="42" t="s">
+      <c r="AK31" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="AL31" s="39"/>
-      <c r="AM31" s="39"/>
-      <c r="AN31" s="39"/>
-      <c r="AO31" s="39"/>
-      <c r="AP31" s="40"/>
-      <c r="AQ31" s="9"/>
-      <c r="AR31" s="11"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="34"/>
+      <c r="AN31" s="34"/>
+      <c r="AO31" s="34"/>
+      <c r="AP31" s="37"/>
+      <c r="AQ31" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR31" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="AS31" s="12"/>
       <c r="AZ31" s="9"/>
       <c r="BA31" s="11"/>
@@ -4397,25 +4806,25 @@
       <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="40"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="37"/>
       <c r="P32" s="9" t="s">
         <v>58</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="R32" s="12"/>
       <c r="S32" s="11"/>
@@ -4425,39 +4834,43 @@
       <c r="W32" s="11"/>
       <c r="X32" s="14"/>
       <c r="Y32" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Z32" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AA32" s="12"/>
       <c r="AB32" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AC32" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AD32" s="12"/>
       <c r="AE32" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AF32" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG32" s="14"/>
       <c r="AH32" s="9"/>
       <c r="AI32" s="11"/>
       <c r="AJ32" s="12"/>
-      <c r="AK32" s="42" t="s">
+      <c r="AK32" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="AL32" s="39"/>
-      <c r="AM32" s="39"/>
-      <c r="AN32" s="39"/>
-      <c r="AO32" s="39"/>
-      <c r="AP32" s="40"/>
-      <c r="AQ32" s="9"/>
-      <c r="AR32" s="11"/>
+      <c r="AL32" s="34"/>
+      <c r="AM32" s="34"/>
+      <c r="AN32" s="34"/>
+      <c r="AO32" s="34"/>
+      <c r="AP32" s="37"/>
+      <c r="AQ32" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR32" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="AS32" s="12"/>
       <c r="AZ32" s="9"/>
       <c r="BA32" s="11"/>
@@ -4482,7 +4895,7 @@
       </c>
       <c r="BQ32" s="14"/>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>3</v>
@@ -4511,8 +4924,12 @@
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="14"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="11"/>
+      <c r="Y33" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z33" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="AA33" s="12"/>
       <c r="AB33" s="11"/>
       <c r="AC33" s="11"/>
@@ -4561,14 +4978,14 @@
       <c r="C34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="41"/>
+      <c r="D34" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="35"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="12"/>
@@ -4630,7 +5047,7 @@
       <c r="BP34" s="11"/>
       <c r="BQ34" s="14"/>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -4670,17 +5087,29 @@
       <c r="AE35" s="11"/>
       <c r="AF35" s="11"/>
       <c r="AG35" s="14"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="11"/>
+      <c r="AH35" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI35" s="11" t="s">
+        <v>225</v>
+      </c>
       <c r="AJ35" s="12"/>
-      <c r="AK35" s="11"/>
-      <c r="AL35" s="11"/>
+      <c r="AK35" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL35" s="10" t="s">
+        <v>243</v>
+      </c>
       <c r="AM35" s="12"/>
       <c r="AN35" s="11"/>
       <c r="AO35" s="11"/>
       <c r="AP35" s="14"/>
-      <c r="AQ35" s="9"/>
-      <c r="AR35" s="11"/>
+      <c r="AQ35" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR35" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="AS35" s="12"/>
       <c r="AT35" s="11"/>
       <c r="AU35" s="11"/>
@@ -4715,14 +5144,14 @@
       <c r="C36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="41"/>
+      <c r="D36" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="12"/>
@@ -4733,47 +5162,53 @@
         <v>63</v>
       </c>
       <c r="O36" s="14"/>
-      <c r="P36" s="38" t="s">
+      <c r="P36" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="40"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="37"/>
       <c r="Y36" s="9" t="s">
         <v>79</v>
       </c>
       <c r="Z36" s="11"/>
       <c r="AA36" s="12"/>
       <c r="AB36" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AC36" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AD36" s="12"/>
       <c r="AE36" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AF36" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG36" s="14"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="11"/>
+      <c r="AH36" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI36" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="AJ36" s="12"/>
-      <c r="AK36" s="11"/>
-      <c r="AL36" s="11"/>
       <c r="AM36" s="12"/>
       <c r="AN36" s="11"/>
       <c r="AO36" s="11"/>
       <c r="AP36" s="14"/>
-      <c r="AQ36" s="9"/>
-      <c r="AR36" s="11"/>
+      <c r="AQ36" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR36" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="AS36" s="12"/>
       <c r="AT36" s="11"/>
       <c r="AU36" s="11"/>
@@ -4808,64 +5243,70 @@
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="41"/>
+      <c r="D37" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="12"/>
       <c r="O37" s="14"/>
       <c r="P37" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R37" s="12"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
       <c r="U37" s="12"/>
       <c r="V37" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="W37" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="X37" s="14"/>
       <c r="Y37" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AA37" s="12"/>
       <c r="AB37" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AC37" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AD37" s="12"/>
       <c r="AE37" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF37" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AG37" s="14"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="11"/>
+      <c r="AH37" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI37" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="AJ37" s="12"/>
-      <c r="AK37" s="11"/>
-      <c r="AL37" s="11"/>
       <c r="AM37" s="12"/>
-      <c r="AN37" s="11"/>
-      <c r="AO37" s="11"/>
+      <c r="AN37" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="AO37" s="28" t="s">
+        <v>144</v>
+      </c>
       <c r="AP37" s="14"/>
       <c r="AQ37" s="9"/>
       <c r="AR37" s="11"/>
@@ -4916,10 +5357,10 @@
       <c r="N38" s="11"/>
       <c r="O38" s="14"/>
       <c r="P38" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R38" s="12"/>
       <c r="S38" s="11"/>
@@ -4929,20 +5370,20 @@
       <c r="W38" s="11"/>
       <c r="X38" s="14"/>
       <c r="Y38" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AA38" s="12"/>
       <c r="AB38" s="11"/>
       <c r="AC38" s="11"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF38" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AG38" s="14"/>
       <c r="AH38" s="9"/>
@@ -4951,8 +5392,12 @@
       <c r="AK38" s="11"/>
       <c r="AL38" s="11"/>
       <c r="AM38" s="12"/>
-      <c r="AN38" s="11"/>
-      <c r="AO38" s="11"/>
+      <c r="AN38" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO38" s="28" t="s">
+        <v>144</v>
+      </c>
       <c r="AP38" s="14"/>
       <c r="AQ38" s="9"/>
       <c r="AR38" s="11"/>
@@ -5060,32 +5505,32 @@
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="29"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="42"/>
       <c r="P40" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R40" s="12"/>
       <c r="S40" s="11" t="s">
         <v>72</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="U40" s="12"/>
       <c r="V40" s="11" t="s">
@@ -5094,37 +5539,49 @@
       <c r="W40" s="11"/>
       <c r="X40" s="14"/>
       <c r="Y40" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Z40" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AA40" s="12"/>
       <c r="AB40" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AC40" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AF40" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AG40" s="14"/>
       <c r="AH40" s="9"/>
       <c r="AI40" s="11"/>
       <c r="AJ40" s="12"/>
-      <c r="AK40" s="11"/>
-      <c r="AL40" s="11"/>
+      <c r="AK40" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL40" s="11" t="s">
+        <v>239</v>
+      </c>
       <c r="AM40" s="12"/>
-      <c r="AN40" s="11"/>
-      <c r="AO40" s="11"/>
+      <c r="AN40" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO40" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AP40" s="14"/>
-      <c r="AQ40" s="9"/>
-      <c r="AR40" s="11"/>
+      <c r="AQ40" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR40" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="AS40" s="12"/>
       <c r="AT40" s="11"/>
       <c r="AU40" s="11"/>
@@ -5138,14 +5595,14 @@
       <c r="BC40" s="11"/>
       <c r="BD40" s="11"/>
       <c r="BE40" s="12"/>
-      <c r="BF40" s="32" t="s">
+      <c r="BF40" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="BG40" s="28"/>
-      <c r="BH40" s="28"/>
-      <c r="BI40" s="28"/>
-      <c r="BJ40" s="28"/>
-      <c r="BK40" s="31"/>
+      <c r="BG40" s="39"/>
+      <c r="BH40" s="39"/>
+      <c r="BI40" s="39"/>
+      <c r="BJ40" s="39"/>
+      <c r="BK40" s="40"/>
       <c r="BL40" s="11"/>
       <c r="BM40" s="11"/>
       <c r="BN40" s="13"/>
@@ -5161,32 +5618,32 @@
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="29"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="42"/>
       <c r="P41" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R41" s="12"/>
       <c r="S41" s="11" t="s">
         <v>72</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="U41" s="12"/>
       <c r="V41" s="11" t="s">
@@ -5195,37 +5652,49 @@
       <c r="W41" s="11"/>
       <c r="X41" s="14"/>
       <c r="Y41" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Z41" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AA41" s="12"/>
       <c r="AB41" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AC41" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AD41" s="12"/>
       <c r="AE41" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AF41" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AG41" s="14"/>
       <c r="AH41" s="9"/>
       <c r="AI41" s="11"/>
       <c r="AJ41" s="12"/>
-      <c r="AK41" s="11"/>
-      <c r="AL41" s="11"/>
+      <c r="AK41" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL41" s="11" t="s">
+        <v>239</v>
+      </c>
       <c r="AM41" s="12"/>
-      <c r="AN41" s="11"/>
-      <c r="AO41" s="11"/>
+      <c r="AN41" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO41" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AP41" s="14"/>
-      <c r="AQ41" s="9"/>
-      <c r="AR41" s="11"/>
+      <c r="AQ41" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR41" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="AS41" s="12"/>
       <c r="AT41" s="11"/>
       <c r="AU41" s="11"/>
@@ -5239,7 +5708,6 @@
       <c r="BC41" s="11"/>
       <c r="BD41" s="11"/>
       <c r="BE41" s="12"/>
-      <c r="BF41" s="11"/>
       <c r="BG41" s="11"/>
       <c r="BH41" s="13"/>
       <c r="BI41" s="11"/>
@@ -5252,7 +5720,7 @@
       <c r="BP41" s="11"/>
       <c r="BQ41" s="14"/>
     </row>
-    <row r="42" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>2</v>
@@ -5260,70 +5728,82 @@
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="41"/>
+      <c r="D42" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="35"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="12"/>
       <c r="M42" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O42" s="14"/>
       <c r="P42" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R42" s="12"/>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
       <c r="U42" s="12"/>
       <c r="V42" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="W42" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="X42" s="14"/>
       <c r="Y42" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Z42" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA42" s="12"/>
       <c r="AB42" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AC42" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AD42" s="12"/>
       <c r="AE42" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AF42" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AG42" s="14"/>
-      <c r="AH42" s="9"/>
-      <c r="AI42" s="11"/>
+      <c r="AH42" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI42" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="AJ42" s="12"/>
-      <c r="AK42" s="11"/>
-      <c r="AL42" s="11"/>
+      <c r="AK42" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL42" s="11" t="s">
+        <v>239</v>
+      </c>
       <c r="AM42" s="12"/>
-      <c r="AN42" s="11"/>
-      <c r="AO42" s="11"/>
+      <c r="AN42" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO42" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AP42" s="14"/>
       <c r="AQ42" s="9"/>
       <c r="AR42" s="11"/>
@@ -5342,12 +5822,14 @@
       <c r="BC42" s="11"/>
       <c r="BD42" s="11"/>
       <c r="BE42" s="12"/>
-      <c r="BF42" s="11"/>
-      <c r="BG42" s="11"/>
-      <c r="BH42" s="13"/>
-      <c r="BI42" s="11"/>
-      <c r="BJ42" s="11"/>
-      <c r="BK42" s="12"/>
+      <c r="BF42" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="BG42" s="34"/>
+      <c r="BH42" s="34"/>
+      <c r="BI42" s="34"/>
+      <c r="BJ42" s="34"/>
+      <c r="BK42" s="35"/>
       <c r="BL42" s="11"/>
       <c r="BM42" s="11"/>
       <c r="BN42" s="13"/>
@@ -5355,7 +5837,7 @@
       <c r="BP42" s="11"/>
       <c r="BQ42" s="14"/>
     </row>
-    <row r="43" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>3</v>
@@ -5363,70 +5845,72 @@
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="41"/>
+      <c r="D43" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="12"/>
       <c r="M43" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O43" s="14"/>
       <c r="P43" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R43" s="12"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
       <c r="U43" s="12"/>
       <c r="V43" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="W43" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="X43" s="14"/>
       <c r="Y43" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Z43" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA43" s="12"/>
       <c r="AB43" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AC43" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AD43" s="12"/>
       <c r="AE43" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AF43" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AG43" s="14"/>
       <c r="AH43" s="9"/>
       <c r="AI43" s="11"/>
       <c r="AJ43" s="12"/>
-      <c r="AK43" s="11"/>
-      <c r="AL43" s="11"/>
       <c r="AM43" s="12"/>
-      <c r="AN43" s="11"/>
-      <c r="AO43" s="11"/>
+      <c r="AN43" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO43" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AP43" s="14"/>
       <c r="AQ43" s="9"/>
       <c r="AR43" s="11"/>
@@ -5445,12 +5929,14 @@
       <c r="BC43" s="11"/>
       <c r="BD43" s="11"/>
       <c r="BE43" s="12"/>
-      <c r="BF43" s="11"/>
-      <c r="BG43" s="11"/>
-      <c r="BH43" s="13"/>
-      <c r="BI43" s="11"/>
-      <c r="BJ43" s="11"/>
-      <c r="BK43" s="12"/>
+      <c r="BF43" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="BG43" s="34"/>
+      <c r="BH43" s="34"/>
+      <c r="BI43" s="34"/>
+      <c r="BJ43" s="34"/>
+      <c r="BK43" s="35"/>
       <c r="BL43" s="11"/>
       <c r="BM43" s="11"/>
       <c r="BN43" s="13"/>
@@ -5536,67 +6022,67 @@
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="45"/>
+      <c r="D45" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="32"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="12"/>
       <c r="M45" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O45" s="14"/>
       <c r="P45" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R45" s="12"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="12"/>
-      <c r="V45" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="W45" s="10" t="s">
-        <v>164</v>
+      <c r="V45" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="W45" s="49" t="s">
+        <v>160</v>
       </c>
       <c r="X45" s="14"/>
       <c r="Y45" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Z45" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA45" s="12"/>
       <c r="AB45" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AC45" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD45" s="12"/>
       <c r="AE45" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AF45" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AG45" s="14"/>
       <c r="AH45" s="9"/>
       <c r="AI45" s="11"/>
       <c r="AJ45" s="12"/>
-      <c r="AK45" s="11"/>
-      <c r="AL45" s="11"/>
+      <c r="AK45" s="50"/>
+      <c r="AL45" s="50"/>
       <c r="AM45" s="12"/>
       <c r="AN45" s="11"/>
       <c r="AO45" s="11"/>
@@ -5637,67 +6123,67 @@
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="45"/>
+      <c r="D46" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="32"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="12"/>
       <c r="M46" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O46" s="14"/>
       <c r="P46" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R46" s="12"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
       <c r="U46" s="12"/>
-      <c r="V46" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="W46" s="10" t="s">
-        <v>164</v>
+      <c r="V46" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="W46" s="49" t="s">
+        <v>160</v>
       </c>
       <c r="X46" s="14"/>
       <c r="Y46" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Z46" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AA46" s="12"/>
       <c r="AB46" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AC46" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD46" s="12"/>
       <c r="AE46" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AF46" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AG46" s="14"/>
       <c r="AH46" s="9"/>
       <c r="AI46" s="11"/>
       <c r="AJ46" s="12"/>
-      <c r="AK46" s="11"/>
-      <c r="AL46" s="11"/>
+      <c r="AK46" s="50"/>
+      <c r="AL46" s="50"/>
       <c r="AM46" s="12"/>
       <c r="AN46" s="11"/>
       <c r="AO46" s="11"/>
@@ -5742,58 +6228,64 @@
       <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="12"/>
+      <c r="D47" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="32"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="12"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="14"/>
-      <c r="P47" s="38" t="s">
+      <c r="P47" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z47" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="11"/>
       <c r="AA47" s="12"/>
-      <c r="AB47" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC47" s="11" t="s">
-        <v>195</v>
+      <c r="AB47" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC47" s="48" t="s">
+        <v>191</v>
       </c>
       <c r="AD47" s="12"/>
       <c r="AE47" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AF47" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AG47" s="14"/>
-      <c r="AH47" s="9"/>
-      <c r="AI47" s="11"/>
+      <c r="AH47" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI47" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="AJ47" s="12"/>
-      <c r="AK47" s="11"/>
-      <c r="AL47" s="11"/>
+      <c r="AK47" s="50"/>
+      <c r="AL47" s="50"/>
       <c r="AM47" s="12"/>
-      <c r="AN47" s="11"/>
-      <c r="AO47" s="11"/>
+      <c r="AN47" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO47" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AP47" s="14"/>
       <c r="AQ47" s="9"/>
       <c r="AR47" s="11"/>
@@ -5831,35 +6323,33 @@
       <c r="C48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="12"/>
+      <c r="D48" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="32"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="12"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="14"/>
-      <c r="P48" s="38" t="s">
+      <c r="P48" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z48" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
       <c r="AB48" s="11"/>
       <c r="AC48" s="11"/>
@@ -5867,14 +6357,26 @@
       <c r="AE48" s="11"/>
       <c r="AF48" s="11"/>
       <c r="AG48" s="14"/>
-      <c r="AH48" s="11"/>
-      <c r="AI48" s="11"/>
+      <c r="AH48" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI48" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="AJ48" s="12"/>
-      <c r="AK48" s="15"/>
-      <c r="AL48" s="11"/>
+      <c r="AK48" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL48" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="AM48" s="12"/>
-      <c r="AN48" s="15"/>
-      <c r="AO48" s="11"/>
+      <c r="AN48" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO48" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="AP48" s="14"/>
       <c r="AQ48" s="11"/>
       <c r="AR48" s="11"/>
@@ -5912,7 +6414,7 @@
         <v>76</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="11"/>
@@ -6011,10 +6513,10 @@
       <c r="W50" s="11"/>
       <c r="X50" s="14"/>
       <c r="Y50" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Z50" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AA50" s="11"/>
       <c r="AB50" s="15"/>
@@ -6041,14 +6543,14 @@
       <c r="AW50" s="11"/>
       <c r="AX50" s="11"/>
       <c r="AY50" s="14"/>
-      <c r="AZ50" s="38" t="s">
+      <c r="AZ50" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="BA50" s="39"/>
-      <c r="BB50" s="39"/>
-      <c r="BC50" s="39"/>
-      <c r="BD50" s="39"/>
-      <c r="BE50" s="41"/>
+      <c r="BA50" s="34"/>
+      <c r="BB50" s="34"/>
+      <c r="BC50" s="34"/>
+      <c r="BD50" s="34"/>
+      <c r="BE50" s="35"/>
       <c r="BF50" s="11"/>
       <c r="BG50" s="11"/>
       <c r="BH50" s="13"/>
@@ -6073,14 +6575,14 @@
       <c r="D51" s="9"/>
       <c r="E51" s="11"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="42" t="s">
+      <c r="G51" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="41"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="35"/>
       <c r="M51" s="10" t="s">
         <v>89</v>
       </c>
@@ -6089,38 +6591,38 @@
       </c>
       <c r="O51" s="14"/>
       <c r="P51" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R51" s="12"/>
       <c r="S51" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="U51" s="12"/>
       <c r="V51" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="W51" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="X51" s="14"/>
       <c r="Y51" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z51" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AA51" s="11"/>
       <c r="AB51" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AC51" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AD51" s="12"/>
       <c r="AE51" s="4" t="s">
@@ -6133,14 +6635,14 @@
       <c r="AH51" s="11"/>
       <c r="AI51" s="11"/>
       <c r="AJ51" s="12"/>
-      <c r="AK51" s="42" t="s">
+      <c r="AK51" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AL51" s="39"/>
-      <c r="AM51" s="39"/>
-      <c r="AN51" s="39"/>
-      <c r="AO51" s="39"/>
-      <c r="AP51" s="40"/>
+      <c r="AL51" s="34"/>
+      <c r="AM51" s="34"/>
+      <c r="AN51" s="34"/>
+      <c r="AO51" s="34"/>
+      <c r="AP51" s="37"/>
       <c r="AQ51" s="11"/>
       <c r="AR51" s="11"/>
       <c r="AS51" s="12"/>
@@ -6174,14 +6676,14 @@
       <c r="D52" s="9"/>
       <c r="E52" s="11"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="41"/>
+      <c r="G52" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="35"/>
       <c r="M52" s="10" t="s">
         <v>89</v>
       </c>
@@ -6190,38 +6692,38 @@
       </c>
       <c r="O52" s="14"/>
       <c r="P52" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R52" s="12"/>
       <c r="S52" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="U52" s="12"/>
       <c r="V52" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="W52" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="X52" s="14"/>
       <c r="Y52" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z52" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AA52" s="11"/>
       <c r="AB52" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AC52" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AD52" s="12"/>
       <c r="AE52" s="11"/>
@@ -6264,7 +6766,7 @@
       <c r="BP52" s="11"/>
       <c r="BQ52" s="14"/>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:69" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>3</v>
@@ -6311,8 +6813,12 @@
       <c r="AN53" s="11"/>
       <c r="AO53" s="11"/>
       <c r="AP53" s="14"/>
-      <c r="AQ53" s="11"/>
-      <c r="AR53" s="11"/>
+      <c r="AQ53" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR53" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="AS53" s="12"/>
       <c r="AT53" s="11"/>
       <c r="AU53" s="11"/>
@@ -6349,14 +6855,14 @@
       <c r="D54" s="9"/>
       <c r="E54" s="11"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="41"/>
+      <c r="G54" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="35"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="14"/>
@@ -6428,14 +6934,14 @@
       <c r="D55" s="9"/>
       <c r="E55" s="11"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="41"/>
+      <c r="G55" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="35"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="14"/>
@@ -6502,64 +7008,72 @@
       <c r="C56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
+      <c r="D56" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
       <c r="M56" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O56" s="14"/>
       <c r="P56" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q56" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R56" s="12"/>
       <c r="S56" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="U56" s="12"/>
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
       <c r="X56" s="14"/>
       <c r="Y56" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AA56" s="11"/>
       <c r="AB56" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AC56" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AD56" s="12"/>
       <c r="AE56" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AF56" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AG56" s="14"/>
-      <c r="AH56" s="11"/>
-      <c r="AI56" s="11"/>
+      <c r="AH56" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI56" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="AJ56" s="12"/>
-      <c r="AK56" s="11"/>
-      <c r="AL56" s="11"/>
+      <c r="AK56" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL56" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="AM56" s="12"/>
       <c r="AN56" s="11"/>
       <c r="AO56" s="11"/>
@@ -6567,8 +7081,12 @@
       <c r="AQ56" s="11"/>
       <c r="AR56" s="11"/>
       <c r="AS56" s="12"/>
-      <c r="AT56" s="11"/>
-      <c r="AU56" s="11"/>
+      <c r="AT56" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="AU56" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="AV56" s="12"/>
       <c r="AW56" s="11"/>
       <c r="AX56" s="11"/>
@@ -6600,69 +7118,81 @@
       <c r="C57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
+      <c r="D57" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
       <c r="M57" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q57" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R57" s="12"/>
       <c r="T57" s="11"/>
       <c r="U57" s="12"/>
       <c r="V57" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="W57" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z57" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AA57" s="11"/>
       <c r="AB57" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AC57" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AD57" s="12"/>
       <c r="AE57" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AF57" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AG57" s="14"/>
-      <c r="AH57" s="11"/>
-      <c r="AI57" s="11"/>
+      <c r="AH57" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI57" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="AJ57" s="12"/>
-      <c r="AK57" s="11"/>
-      <c r="AL57" s="11"/>
+      <c r="AK57" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL57" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="AM57" s="12"/>
       <c r="AN57" s="11"/>
       <c r="AO57" s="11"/>
       <c r="AP57" s="14"/>
-      <c r="AQ57" s="11"/>
-      <c r="AR57" s="11"/>
+      <c r="AQ57" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR57" s="11" t="s">
+        <v>268</v>
+      </c>
       <c r="AS57" s="12"/>
       <c r="AT57" s="11"/>
       <c r="AU57" s="11"/>
@@ -6716,10 +7246,10 @@
       <c r="T58" s="11"/>
       <c r="U58" s="12"/>
       <c r="V58" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="W58" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="X58" s="14"/>
       <c r="Y58" s="11"/>
@@ -6740,8 +7270,12 @@
       <c r="AN58" s="11"/>
       <c r="AO58" s="11"/>
       <c r="AP58" s="14"/>
-      <c r="AQ58" s="11"/>
-      <c r="AR58" s="11"/>
+      <c r="AQ58" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR58" s="11" t="s">
+        <v>268</v>
+      </c>
       <c r="AS58" s="12"/>
       <c r="AT58" s="11"/>
       <c r="AU58" s="11"/>
@@ -6785,7 +7319,7 @@
         <v>73</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O59" s="14"/>
       <c r="P59" s="9"/>
@@ -6795,7 +7329,7 @@
         <v>77</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="U59" s="12"/>
       <c r="V59" s="11"/>
@@ -6847,7 +7381,7 @@
       <c r="BP59" s="11"/>
       <c r="BQ59" s="14"/>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:69" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>47</v>
       </c>
@@ -6860,14 +7394,14 @@
       <c r="D60" s="9"/>
       <c r="E60" s="11"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="41"/>
+      <c r="G60" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="35"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="14"/>
@@ -6892,8 +7426,12 @@
       <c r="AH60" s="11"/>
       <c r="AI60" s="11"/>
       <c r="AJ60" s="12"/>
-      <c r="AK60" s="11"/>
-      <c r="AL60" s="11"/>
+      <c r="AK60" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL60" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="AM60" s="12"/>
       <c r="AN60" s="11"/>
       <c r="AO60" s="11"/>
@@ -6934,14 +7472,14 @@
       <c r="C61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="41"/>
+      <c r="G61" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="35"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="14"/>
@@ -6949,24 +7487,24 @@
         <v>58</v>
       </c>
       <c r="Q61" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="R61" s="12"/>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
       <c r="U61" s="12"/>
       <c r="V61" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="W61" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="X61" s="14"/>
       <c r="Y61" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Z61" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AA61" s="11"/>
       <c r="AB61" s="15" t="s">
@@ -6977,11 +7515,19 @@
       <c r="AE61" s="11"/>
       <c r="AF61" s="11"/>
       <c r="AG61" s="14"/>
-      <c r="AH61" s="11"/>
-      <c r="AI61" s="11"/>
+      <c r="AH61" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI61" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="AJ61" s="12"/>
-      <c r="AK61" s="11"/>
-      <c r="AL61" s="11"/>
+      <c r="AK61" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL61" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="AM61" s="12"/>
       <c r="AN61" s="11"/>
       <c r="AO61" s="11"/>
@@ -6997,8 +7543,12 @@
       </c>
       <c r="AX61" s="11"/>
       <c r="AY61" s="14"/>
-      <c r="AZ61" s="11"/>
-      <c r="BA61" s="11"/>
+      <c r="AZ61" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="BA61" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="BB61" s="13"/>
       <c r="BC61" s="11"/>
       <c r="BD61" s="11"/>
@@ -7024,68 +7574,76 @@
       <c r="C62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="41"/>
+      <c r="D62" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="35"/>
       <c r="K62" s="11"/>
       <c r="L62" s="12"/>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
       <c r="O62" s="14"/>
       <c r="P62" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q62" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R62" s="12"/>
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
       <c r="U62" s="12"/>
       <c r="V62" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="W62" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="X62" s="14"/>
       <c r="Y62" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z62" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AA62" s="11"/>
       <c r="AB62" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AC62" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AD62" s="12"/>
       <c r="AE62" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AF62" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AG62" s="14"/>
       <c r="AH62" s="11"/>
       <c r="AI62" s="11"/>
       <c r="AJ62" s="12"/>
-      <c r="AK62" s="11"/>
-      <c r="AL62" s="11"/>
+      <c r="AK62" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL62" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="AM62" s="12"/>
       <c r="AN62" s="11"/>
       <c r="AO62" s="11"/>
       <c r="AP62" s="14"/>
-      <c r="AQ62" s="11"/>
-      <c r="AR62" s="11"/>
+      <c r="AQ62" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR62" s="11" t="s">
+        <v>268</v>
+      </c>
       <c r="AS62" s="12"/>
       <c r="AT62" s="11"/>
       <c r="AU62" s="11"/>
@@ -7142,27 +7700,25 @@
       <c r="W63" s="11"/>
       <c r="X63" s="14"/>
       <c r="Y63" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Z63" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AA63" s="11"/>
       <c r="AB63" s="15"/>
       <c r="AC63" s="11"/>
       <c r="AD63" s="12"/>
       <c r="AE63" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AF63" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AG63" s="14"/>
       <c r="AH63" s="11"/>
       <c r="AI63" s="11"/>
       <c r="AJ63" s="12"/>
-      <c r="AK63" s="11"/>
-      <c r="AL63" s="11"/>
       <c r="AM63" s="12"/>
       <c r="AN63" s="11"/>
       <c r="AO63" s="11"/>
@@ -7212,7 +7768,7 @@
         <v>73</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O64" s="14"/>
       <c r="P64" s="9"/>
@@ -7270,7 +7826,7 @@
       <c r="BP64" s="11"/>
       <c r="BQ64" s="14"/>
     </row>
-    <row r="65" spans="1:69" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:69" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>48</v>
       </c>
@@ -7293,17 +7849,17 @@
         <v>73</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O65" s="14"/>
       <c r="P65" s="9"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="12"/>
       <c r="S65" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="U65" s="12"/>
       <c r="V65" s="11"/>
@@ -7313,29 +7869,32 @@
       <c r="Z65" s="11"/>
       <c r="AA65" s="11"/>
       <c r="AB65" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AC65" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AD65" s="12"/>
       <c r="AE65" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AF65" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AG65" s="14"/>
       <c r="AH65" s="11"/>
       <c r="AI65" s="11"/>
       <c r="AJ65" s="12"/>
-      <c r="AK65" s="11"/>
-      <c r="AL65" s="11"/>
+      <c r="AK65" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL65" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="AM65" s="12"/>
       <c r="AN65" s="11"/>
       <c r="AO65" s="11"/>
       <c r="AP65" s="14"/>
-      <c r="AQ65" s="11"/>
       <c r="AR65" s="11"/>
       <c r="AS65" s="12"/>
       <c r="AT65" s="11"/>
@@ -7375,75 +7934,87 @@
         <v>76</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F66" s="12"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="41"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="35"/>
       <c r="M66" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O66" s="14"/>
       <c r="P66" s="9" t="s">
         <v>61</v>
       </c>
       <c r="Q66" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="R66" s="12"/>
       <c r="S66" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="U66" s="12"/>
       <c r="V66" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="W66" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="X66" s="14"/>
       <c r="Y66" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Z66" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AA66" s="11"/>
       <c r="AB66" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AC66" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AD66" s="12"/>
       <c r="AE66" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AF66" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AG66" s="14"/>
-      <c r="AH66" s="11"/>
-      <c r="AI66" s="11"/>
+      <c r="AH66" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI66" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="AJ66" s="12"/>
-      <c r="AK66" s="11"/>
-      <c r="AL66" s="11"/>
+      <c r="AK66" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL66" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="AM66" s="12"/>
       <c r="AN66" s="11"/>
       <c r="AO66" s="11"/>
       <c r="AP66" s="14"/>
-      <c r="AQ66" s="11"/>
-      <c r="AR66" s="11"/>
+      <c r="AQ66" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR66" s="11" t="s">
+        <v>225</v>
+      </c>
       <c r="AS66" s="12"/>
       <c r="AT66" s="11"/>
       <c r="AU66" s="11"/>
@@ -7482,31 +8053,31 @@
         <v>76</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F67" s="12"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="41"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="35"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="14"/>
       <c r="P67" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q67" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R67" s="12"/>
       <c r="U67" s="12"/>
       <c r="V67" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="W67" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="X67" s="14"/>
       <c r="AA67" s="11"/>
@@ -7519,17 +8090,29 @@
       <c r="AH67" s="11"/>
       <c r="AI67" s="11"/>
       <c r="AJ67" s="12"/>
-      <c r="AK67" s="11"/>
-      <c r="AL67" s="11"/>
+      <c r="AK67" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL67" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="AM67" s="12"/>
       <c r="AN67" s="11"/>
       <c r="AO67" s="11"/>
       <c r="AP67" s="14"/>
-      <c r="AQ67" s="11"/>
-      <c r="AR67" s="11"/>
+      <c r="AQ67" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR67" s="11" t="s">
+        <v>225</v>
+      </c>
       <c r="AS67" s="12"/>
-      <c r="AT67" s="11"/>
-      <c r="AU67" s="11"/>
+      <c r="AT67" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU67" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="AV67" s="12"/>
       <c r="AW67" s="11"/>
       <c r="AX67" s="11"/>
@@ -7732,10 +8315,10 @@
       <c r="AC70" s="11"/>
       <c r="AD70" s="12"/>
       <c r="AE70" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AF70" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AG70" s="14"/>
       <c r="AH70" s="11"/>
@@ -7750,8 +8333,12 @@
       <c r="AQ70" s="11"/>
       <c r="AR70" s="11"/>
       <c r="AS70" s="12"/>
-      <c r="AT70" s="11"/>
-      <c r="AU70" s="11"/>
+      <c r="AT70" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU70" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="AV70" s="12"/>
       <c r="AW70" s="11"/>
       <c r="AX70" s="11"/>
@@ -7783,14 +8370,14 @@
       <c r="C71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="41"/>
+      <c r="D71" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="35"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="12"/>
@@ -7798,57 +8385,67 @@
       <c r="N71" s="11"/>
       <c r="O71" s="14"/>
       <c r="P71" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q71" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R71" s="12"/>
       <c r="S71" s="7" t="s">
         <v>59</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="U71" s="12"/>
       <c r="V71" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="W71" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="X71" s="14"/>
       <c r="Y71" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Z71" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA71" s="11"/>
       <c r="AB71" s="15"/>
       <c r="AC71" s="11"/>
       <c r="AD71" s="12"/>
       <c r="AE71" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF71" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AG71" s="14"/>
-      <c r="AH71" s="11"/>
-      <c r="AI71" s="11"/>
       <c r="AJ71" s="12"/>
-      <c r="AK71" s="11"/>
-      <c r="AL71" s="11"/>
+      <c r="AK71" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL71" s="11" t="s">
+        <v>243</v>
+      </c>
       <c r="AM71" s="12"/>
       <c r="AN71" s="11"/>
       <c r="AO71" s="11"/>
       <c r="AP71" s="14"/>
-      <c r="AQ71" s="11"/>
-      <c r="AR71" s="11"/>
+      <c r="AQ71" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR71" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="AS71" s="12"/>
-      <c r="AT71" s="11"/>
-      <c r="AU71" s="11"/>
+      <c r="AT71" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU71" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="AV71" s="12"/>
       <c r="AW71" s="11"/>
       <c r="AX71" s="11"/>
@@ -7880,14 +8477,12 @@
       <c r="C72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="45"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="32"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="12"/>
@@ -7895,49 +8490,53 @@
       <c r="N72" s="11"/>
       <c r="O72" s="14"/>
       <c r="P72" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q72" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R72" s="12"/>
       <c r="S72" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="U72" s="12"/>
       <c r="V72" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="W72" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="X72" s="14"/>
       <c r="Y72" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Z72" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AA72" s="11"/>
       <c r="AB72" s="15" t="s">
         <v>59</v>
       </c>
       <c r="AC72" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AD72" s="12"/>
       <c r="AE72" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF72" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AG72" s="14"/>
-      <c r="AH72" s="11"/>
-      <c r="AI72" s="11"/>
+      <c r="AH72" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI72" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="AJ72" s="12"/>
       <c r="AK72" s="11"/>
       <c r="AL72" s="11"/>
@@ -7960,12 +8559,14 @@
       <c r="BC72" s="11"/>
       <c r="BD72" s="11"/>
       <c r="BE72" s="12"/>
-      <c r="BF72" s="11"/>
-      <c r="BG72" s="11"/>
-      <c r="BH72" s="13"/>
-      <c r="BI72" s="11"/>
-      <c r="BJ72" s="11"/>
-      <c r="BK72" s="12"/>
+      <c r="BF72" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="BG72" s="34"/>
+      <c r="BH72" s="34"/>
+      <c r="BI72" s="34"/>
+      <c r="BJ72" s="34"/>
+      <c r="BK72" s="35"/>
       <c r="BL72" s="11"/>
       <c r="BM72" s="11"/>
       <c r="BN72" s="11"/>
@@ -7981,14 +8582,12 @@
       <c r="C73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="45"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="32"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
       <c r="L73" s="12"/>
@@ -7996,10 +8595,10 @@
       <c r="N73" s="11"/>
       <c r="O73" s="14"/>
       <c r="P73" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q73" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R73" s="12"/>
       <c r="S73" s="11"/>
@@ -8029,7 +8628,6 @@
       <c r="AQ73" s="11"/>
       <c r="AR73" s="11"/>
       <c r="AS73" s="12"/>
-      <c r="AT73" s="11"/>
       <c r="AU73" s="11"/>
       <c r="AV73" s="12"/>
       <c r="AW73" s="11"/>
@@ -8132,14 +8730,12 @@
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="45"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="32"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="12"/>
@@ -8155,14 +8751,18 @@
       <c r="V75" s="11"/>
       <c r="W75" s="11"/>
       <c r="X75" s="14"/>
-      <c r="Y75" s="11"/>
-      <c r="Z75" s="11"/>
+      <c r="Y75" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z75" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="AA75" s="11"/>
       <c r="AB75" s="15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AC75" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AD75" s="12"/>
       <c r="AE75" s="11"/>
@@ -8213,14 +8813,14 @@
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
+      <c r="D76" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="12"/>
@@ -8232,24 +8832,24 @@
       <c r="R76" s="12"/>
       <c r="U76" s="12"/>
       <c r="V76" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="W76" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="X76" s="14"/>
       <c r="Y76" s="11" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Z76" s="11" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="AA76" s="11"/>
       <c r="AB76" s="15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AC76" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AD76" s="12"/>
       <c r="AE76" s="11"/>
@@ -8258,8 +8858,12 @@
       <c r="AH76" s="11"/>
       <c r="AI76" s="11"/>
       <c r="AJ76" s="12"/>
-      <c r="AK76" s="11"/>
-      <c r="AL76" s="11"/>
+      <c r="AK76" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL76" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="AM76" s="12"/>
       <c r="AN76" s="11"/>
       <c r="AO76" s="11"/>
@@ -8300,14 +8904,14 @@
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
+      <c r="D77" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
       <c r="L77" s="12"/>
@@ -8315,41 +8919,41 @@
       <c r="N77" s="11"/>
       <c r="O77" s="14"/>
       <c r="P77" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q77" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R77" s="12"/>
       <c r="S77" s="11"/>
       <c r="T77" s="11"/>
       <c r="U77" s="12"/>
       <c r="V77" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="W77" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="X77" s="14"/>
-      <c r="Y77" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z77" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
       <c r="AA77" s="11"/>
       <c r="AB77" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AC77" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AD77" s="12"/>
       <c r="AE77" s="11"/>
       <c r="AF77" s="11"/>
       <c r="AG77" s="14"/>
-      <c r="AH77" s="11"/>
-      <c r="AI77" s="11"/>
+      <c r="AH77" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI77" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="AJ77" s="12"/>
       <c r="AK77" s="11"/>
       <c r="AL77" s="11"/>
@@ -8393,14 +8997,14 @@
       <c r="C78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="41"/>
+      <c r="D78" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="35"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
       <c r="L78" s="12"/>
@@ -8408,28 +9012,24 @@
       <c r="N78" s="11"/>
       <c r="O78" s="14"/>
       <c r="P78" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q78" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R78" s="12"/>
       <c r="S78" s="11"/>
       <c r="T78" s="11"/>
       <c r="U78" s="12"/>
       <c r="V78" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="W78" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="X78" s="14"/>
-      <c r="Y78" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z78" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
       <c r="AA78" s="11"/>
       <c r="AB78" s="15"/>
       <c r="AC78" s="11"/>
@@ -8546,14 +9146,14 @@
       <c r="C80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
+      <c r="D80" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
       <c r="L80" s="12"/>
@@ -8623,14 +9223,14 @@
       <c r="C81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="41"/>
+      <c r="D81" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="35"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="12"/>
@@ -8646,12 +9246,8 @@
       <c r="V81" s="11"/>
       <c r="W81" s="11"/>
       <c r="X81" s="14"/>
-      <c r="Y81" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z81" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
       <c r="AA81" s="11"/>
       <c r="AB81" s="15"/>
       <c r="AC81" s="11"/>
@@ -8704,14 +9300,14 @@
       <c r="C82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="41"/>
+      <c r="D82" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="35"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="12"/>
@@ -8781,14 +9377,12 @@
       <c r="C83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="45"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="32"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="12"/>
@@ -8796,10 +9390,10 @@
       <c r="N83" s="11"/>
       <c r="O83" s="14"/>
       <c r="P83" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q83" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R83" s="12"/>
       <c r="S83" s="11"/>
@@ -9226,52 +9820,41 @@
       <c r="AB90" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="AK31:AP31"/>
-    <mergeCell ref="AK32:AP32"/>
-    <mergeCell ref="G66:L66"/>
-    <mergeCell ref="G67:L67"/>
-    <mergeCell ref="G60:L60"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="P47:X47"/>
-    <mergeCell ref="P48:X48"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="G54:L54"/>
-    <mergeCell ref="G55:L55"/>
-    <mergeCell ref="AZ21:BE21"/>
-    <mergeCell ref="AZ50:BE50"/>
-    <mergeCell ref="BF5:BK5"/>
-    <mergeCell ref="BF6:BK6"/>
-    <mergeCell ref="BF40:BK40"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D40:O40"/>
-    <mergeCell ref="D41:O41"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D32:O32"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="D46:I46"/>
+  <mergeCells count="100">
+    <mergeCell ref="BF72:BK72"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="AZ1:BQ1"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="S2:U3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="AT2:AV3"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="AQ1:AY1"/>
     <mergeCell ref="P26:X26"/>
     <mergeCell ref="P27:X27"/>
     <mergeCell ref="P36:X36"/>
@@ -9288,39 +9871,56 @@
     <mergeCell ref="D25:O25"/>
     <mergeCell ref="D16:O16"/>
     <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="AT2:AV3"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="P2:R3"/>
-    <mergeCell ref="S2:U3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BQ2"/>
-    <mergeCell ref="AZ1:BQ1"/>
-    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D40:O40"/>
+    <mergeCell ref="D41:O41"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="AZ21:BE21"/>
+    <mergeCell ref="AZ50:BE50"/>
+    <mergeCell ref="BF5:BK5"/>
+    <mergeCell ref="BF6:BK6"/>
+    <mergeCell ref="BF40:BK40"/>
+    <mergeCell ref="BF42:BK42"/>
+    <mergeCell ref="BF43:BK43"/>
+    <mergeCell ref="AK31:AP31"/>
+    <mergeCell ref="AK32:AP32"/>
+    <mergeCell ref="G66:L66"/>
+    <mergeCell ref="G67:L67"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="AK51:AP51"/>
+    <mergeCell ref="P47:X47"/>
+    <mergeCell ref="P48:X48"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D73:I73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Rozklad_2zaizd.xlsx
+++ b/Rozklad_2zaizd.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="20730" windowHeight="11520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="S29" authorId="0">
+    <comment ref="S29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S30" authorId="0">
+    <comment ref="S30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S59" authorId="0">
+    <comment ref="S59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="273">
   <si>
     <t>І</t>
   </si>
@@ -725,9 +725,6 @@
     <t>Геологія загальна та історична, доц Микита М.М. (іспит)</t>
   </si>
   <si>
-    <t>Геологія загальна та історична, доц. Микита М.М. з 10:00 344 2 пари</t>
-  </si>
-  <si>
     <t>Економіка та географія природокористування</t>
   </si>
   <si>
@@ -897,13 +894,19 @@
   </si>
   <si>
     <t>Державний земельний кадастр</t>
+  </si>
+  <si>
+    <t>Геологія загальна та історична, доц. Микита М.М. з 12:00 344 2 пари</t>
+  </si>
+  <si>
+    <t>Грунтознавство (залік)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,8 +927,14 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -941,6 +950,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,7 +1162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1230,6 +1251,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1284,16 +1317,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1356,7 +1401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1391,7 +1436,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1568,7 +1613,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1579,10 +1624,10 @@
   <dimension ref="A1:BW90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AU12" sqref="AU12:AU13"/>
+      <selection pane="bottomRight" activeCell="P58" sqref="P58:Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,277 +1711,277 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="43" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="43" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="43" t="s">
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="43" t="s">
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="43" t="s">
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="44"/>
-      <c r="BO1" s="44"/>
-      <c r="BP1" s="44"/>
-      <c r="BQ1" s="45"/>
+      <c r="BA1" s="48"/>
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="48"/>
+      <c r="BK1" s="48"/>
+      <c r="BL1" s="48"/>
+      <c r="BM1" s="48"/>
+      <c r="BN1" s="48"/>
+      <c r="BO1" s="48"/>
+      <c r="BP1" s="48"/>
+      <c r="BQ1" s="49"/>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="39" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="39" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="39" t="s">
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="41" t="s">
+      <c r="N2" s="43"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="39" t="s">
+      <c r="Q2" s="43"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="39" t="s">
+      <c r="T2" s="43"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="41" t="s">
+      <c r="W2" s="43"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="39" t="s">
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="39" t="s">
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="41" t="s">
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="39" t="s">
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="39" t="s">
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="41" t="s">
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="39" t="s">
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="39" t="s">
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="41" t="s">
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="39"/>
-      <c r="BB2" s="39"/>
-      <c r="BC2" s="39"/>
-      <c r="BD2" s="39"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="38" t="s">
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="39"/>
-      <c r="BH2" s="39"/>
-      <c r="BI2" s="39"/>
-      <c r="BJ2" s="39"/>
-      <c r="BK2" s="40"/>
-      <c r="BL2" s="39" t="s">
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="39"/>
-      <c r="BN2" s="39"/>
-      <c r="BO2" s="39"/>
-      <c r="BP2" s="39"/>
-      <c r="BQ2" s="42"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="43"/>
+      <c r="BO2" s="43"/>
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="46"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="D3" s="41"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="40"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="39"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="41" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="39"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="39" t="s">
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="39"/>
-      <c r="BE3" s="40"/>
-      <c r="BF3" s="38" t="s">
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="44"/>
+      <c r="BF3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="39"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="39" t="s">
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="51"/>
+      <c r="BI3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="39"/>
-      <c r="BK3" s="40"/>
-      <c r="BL3" s="39"/>
-      <c r="BM3" s="39"/>
-      <c r="BN3" s="47"/>
-      <c r="BO3" s="39" t="s">
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="44"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="51"/>
+      <c r="BO3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="BP3" s="39"/>
-      <c r="BQ3" s="42"/>
-      <c r="BR3" s="46"/>
-      <c r="BS3" s="46"/>
-      <c r="BT3" s="46"/>
-      <c r="BU3" s="46"/>
-      <c r="BV3" s="46"/>
-      <c r="BW3" s="46"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="46"/>
+      <c r="BR3" s="50"/>
+      <c r="BS3" s="50"/>
+      <c r="BT3" s="50"/>
+      <c r="BU3" s="50"/>
+      <c r="BV3" s="50"/>
+      <c r="BW3" s="50"/>
     </row>
     <row r="4" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2154,14 +2199,14 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
       <c r="M5" s="4" t="s">
@@ -2214,7 +2259,7 @@
       </c>
       <c r="AG5" s="6"/>
       <c r="AH5" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AI5" s="4" t="s">
         <v>188</v>
@@ -2231,7 +2276,7 @@
       </c>
       <c r="AP5" s="6"/>
       <c r="AQ5" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AR5" s="4" t="s">
         <v>179</v>
@@ -2251,14 +2296,14 @@
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="38" t="s">
+      <c r="BF5" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="BG5" s="39"/>
-      <c r="BH5" s="39"/>
-      <c r="BI5" s="39"/>
-      <c r="BJ5" s="39"/>
-      <c r="BK5" s="40"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="43"/>
+      <c r="BK5" s="44"/>
       <c r="BL5" s="11"/>
       <c r="BM5" s="11"/>
       <c r="BN5" s="13"/>
@@ -2274,14 +2319,14 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
@@ -2333,7 +2378,7 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AI6" s="4" t="s">
         <v>188</v>
@@ -2352,7 +2397,7 @@
       </c>
       <c r="AP6" s="6"/>
       <c r="AQ6" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AR6" s="4" t="s">
         <v>179</v>
@@ -2372,14 +2417,14 @@
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="5"/>
-      <c r="BF6" s="38" t="s">
+      <c r="BF6" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="BG6" s="39"/>
-      <c r="BH6" s="39"/>
-      <c r="BI6" s="39"/>
-      <c r="BJ6" s="39"/>
-      <c r="BK6" s="40"/>
+      <c r="BG6" s="43"/>
+      <c r="BH6" s="43"/>
+      <c r="BI6" s="43"/>
+      <c r="BJ6" s="43"/>
+      <c r="BK6" s="44"/>
       <c r="BL6" s="11"/>
       <c r="BM6" s="11"/>
       <c r="BN6" s="13"/>
@@ -2395,14 +2440,14 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
@@ -2462,7 +2507,7 @@
       <c r="AL7" s="4"/>
       <c r="AM7" s="5"/>
       <c r="AN7" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AO7" s="4" t="s">
         <v>144</v>
@@ -2506,20 +2551,20 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="46"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
@@ -2557,7 +2602,7 @@
       <c r="AL8" s="4"/>
       <c r="AM8" s="5"/>
       <c r="AN8" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AO8" s="11" t="s">
         <v>101</v>
@@ -2669,24 +2714,24 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="9" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="55" t="s">
         <v>114</v>
       </c>
       <c r="R10" s="12"/>
@@ -2729,21 +2774,21 @@
       <c r="AI10" s="11"/>
       <c r="AJ10" s="12"/>
       <c r="AK10" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL10" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="AL10" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="AM10" s="12"/>
       <c r="AN10" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AO10" s="11" t="s">
         <v>101</v>
       </c>
       <c r="AP10" s="14"/>
       <c r="AQ10" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AR10" s="11" t="s">
         <v>179</v>
@@ -2782,24 +2827,24 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="9" t="s">
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="55" t="s">
         <v>114</v>
       </c>
       <c r="R11" s="12"/>
@@ -2839,28 +2884,28 @@
       </c>
       <c r="AG11" s="14"/>
       <c r="AH11" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AI11" s="11" t="s">
         <v>173</v>
       </c>
       <c r="AJ11" s="12"/>
       <c r="AK11" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL11" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="AL11" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="AM11" s="12"/>
       <c r="AN11" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AO11" s="11" t="s">
         <v>101</v>
       </c>
       <c r="AP11" s="14"/>
       <c r="AQ11" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AR11" s="10" t="s">
         <v>179</v>
@@ -2901,14 +2946,14 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="12"/>
@@ -2926,10 +2971,10 @@
         <v>125</v>
       </c>
       <c r="R12" s="12"/>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="55" t="s">
         <v>114</v>
       </c>
       <c r="U12" s="12"/>
@@ -2962,7 +3007,7 @@
       </c>
       <c r="AG12" s="14"/>
       <c r="AH12" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AI12" s="11" t="s">
         <v>171</v>
@@ -2972,7 +3017,7 @@
       <c r="AL12" s="11"/>
       <c r="AM12" s="12"/>
       <c r="AN12" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO12" s="11" t="s">
         <v>210</v>
@@ -2982,7 +3027,7 @@
       <c r="AR12" s="11"/>
       <c r="AS12" s="12"/>
       <c r="AT12" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AU12" s="11" t="s">
         <v>137</v>
@@ -3020,14 +3065,14 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
@@ -3041,10 +3086,10 @@
         <v>125</v>
       </c>
       <c r="R13" s="12"/>
-      <c r="S13" s="11" t="s">
+      <c r="S13" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="55" t="s">
         <v>114</v>
       </c>
       <c r="U13" s="12"/>
@@ -3083,7 +3128,7 @@
       <c r="AL13" s="11"/>
       <c r="AM13" s="12"/>
       <c r="AN13" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO13" s="11" t="s">
         <v>210</v>
@@ -3093,7 +3138,7 @@
       <c r="AR13" s="11"/>
       <c r="AS13" s="12"/>
       <c r="AT13" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AU13" s="11" t="s">
         <v>137</v>
@@ -3121,7 +3166,7 @@
       <c r="BP13" s="11"/>
       <c r="BQ13" s="14"/>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" ht="60" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
         <v>75</v>
       </c>
@@ -3146,6 +3191,12 @@
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="14"/>
+      <c r="Y14" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z14" s="26" t="s">
+        <v>93</v>
+      </c>
       <c r="AA14" s="12"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
@@ -3221,7 +3272,7 @@
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="14"/>
-      <c r="Y15" s="27" t="s">
+      <c r="Y15" s="29" t="s">
         <v>161</v>
       </c>
       <c r="Z15" s="26" t="s">
@@ -3240,13 +3291,13 @@
       <c r="AI15" s="11"/>
       <c r="AJ15" s="12"/>
       <c r="AK15" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL15" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM15" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="AL15" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM15" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="AN15" s="11" t="s">
         <v>202</v>
@@ -3290,20 +3341,20 @@
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="41"/>
       <c r="P16" s="9" t="s">
         <v>58</v>
       </c>
@@ -3328,7 +3379,7 @@
       <c r="Y16" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="Z16" s="26" t="s">
+      <c r="Z16" s="11" t="s">
         <v>93</v>
       </c>
       <c r="AA16" s="12"/>
@@ -3352,30 +3403,30 @@
       <c r="AI16" s="11"/>
       <c r="AJ16" s="12"/>
       <c r="AK16" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL16" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM16" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="AL16" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM16" s="12" t="s">
-        <v>231</v>
-      </c>
       <c r="AN16" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AO16" s="11" t="s">
         <v>210</v>
       </c>
       <c r="AP16" s="14"/>
       <c r="AQ16" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AR16" s="11" t="s">
         <v>173</v>
       </c>
       <c r="AS16" s="12"/>
       <c r="AT16" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AU16" s="11" t="s">
         <v>183</v>
@@ -3411,20 +3462,20 @@
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="41"/>
       <c r="P17" s="9" t="s">
         <v>58</v>
       </c>
@@ -3446,8 +3497,8 @@
         <v>155</v>
       </c>
       <c r="X17" s="14"/>
-      <c r="Y17" s="29" t="s">
-        <v>161</v>
+      <c r="Y17" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="Z17" s="11" t="s">
         <v>93</v>
@@ -3468,35 +3519,35 @@
       </c>
       <c r="AG17" s="14"/>
       <c r="AH17" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>195</v>
       </c>
       <c r="AJ17" s="12"/>
       <c r="AK17" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL17" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="AL17" s="11" t="s">
-        <v>234</v>
       </c>
       <c r="AM17" s="12"/>
       <c r="AN17" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AO17" s="11" t="s">
         <v>210</v>
       </c>
       <c r="AP17" s="14"/>
       <c r="AQ17" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AR17" s="11" t="s">
         <v>173</v>
       </c>
       <c r="AS17" s="12"/>
       <c r="AT17" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AU17" s="11" t="s">
         <v>183</v>
@@ -3524,7 +3575,7 @@
       <c r="BP17" s="11"/>
       <c r="BQ17" s="14"/>
     </row>
-    <row r="18" spans="1:69" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -3553,12 +3604,6 @@
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="14"/>
-      <c r="Y18" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z18" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="AA18" s="12"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
@@ -3570,10 +3615,10 @@
       <c r="AI18" s="11"/>
       <c r="AJ18" s="12"/>
       <c r="AK18" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL18" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="AL18" s="11" t="s">
-        <v>234</v>
       </c>
       <c r="AM18" s="12"/>
       <c r="AN18" s="11"/>
@@ -3764,14 +3809,14 @@
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="12"/>
@@ -3823,17 +3868,17 @@
       </c>
       <c r="AG21" s="14"/>
       <c r="AH21" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI21" s="11" t="s">
         <v>195</v>
       </c>
       <c r="AJ21" s="12"/>
       <c r="AK21" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL21" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="AL21" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="AM21" s="12"/>
       <c r="AN21" s="11" t="s">
@@ -3844,7 +3889,7 @@
       </c>
       <c r="AP21" s="14"/>
       <c r="AQ21" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AR21" s="11" t="s">
         <v>179</v>
@@ -3856,14 +3901,14 @@
       <c r="AW21" s="11"/>
       <c r="AX21" s="11"/>
       <c r="AY21" s="14"/>
-      <c r="AZ21" s="33" t="s">
+      <c r="AZ21" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="BA21" s="34"/>
-      <c r="BB21" s="34"/>
-      <c r="BC21" s="34"/>
-      <c r="BD21" s="34"/>
-      <c r="BE21" s="35"/>
+      <c r="BA21" s="38"/>
+      <c r="BB21" s="38"/>
+      <c r="BC21" s="38"/>
+      <c r="BD21" s="38"/>
+      <c r="BE21" s="39"/>
       <c r="BF21" s="11"/>
       <c r="BG21" s="11"/>
       <c r="BH21" s="13"/>
@@ -3885,14 +3930,14 @@
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="12"/>
@@ -3944,17 +3989,17 @@
       </c>
       <c r="AG22" s="14"/>
       <c r="AH22" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI22" s="11" t="s">
         <v>195</v>
       </c>
       <c r="AJ22" s="12"/>
       <c r="AK22" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL22" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="AL22" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="AM22" s="12"/>
       <c r="AN22" s="11" t="s">
@@ -3965,7 +4010,7 @@
       </c>
       <c r="AP22" s="14"/>
       <c r="AQ22" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AR22" s="11" t="s">
         <v>179</v>
@@ -3977,12 +4022,6 @@
       <c r="AW22" s="11"/>
       <c r="AX22" s="11"/>
       <c r="AY22" s="14"/>
-      <c r="AZ22" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="BA22" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="BB22" s="13"/>
       <c r="BC22" s="11"/>
       <c r="BD22" s="11"/>
@@ -4048,7 +4087,7 @@
       <c r="AL23" s="11"/>
       <c r="AM23" s="12"/>
       <c r="AN23" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AO23" s="28" t="s">
         <v>144</v>
@@ -4063,12 +4102,6 @@
       <c r="AW23" s="11"/>
       <c r="AX23" s="11"/>
       <c r="AY23" s="14"/>
-      <c r="AZ23" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="BA23" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="BB23" s="13"/>
       <c r="BC23" s="11"/>
       <c r="BD23" s="11"/>
@@ -4164,20 +4197,20 @@
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="41"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="12"/>
@@ -4241,14 +4274,14 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="35"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="11" t="s">
         <v>91</v>
       </c>
@@ -4263,23 +4296,17 @@
         <v>63</v>
       </c>
       <c r="O26" s="14"/>
-      <c r="P26" s="33" t="s">
+      <c r="P26" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z26" s="11" t="s">
-        <v>114</v>
-      </c>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="41"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="15" t="s">
         <v>67</v>
@@ -4294,28 +4321,28 @@
       </c>
       <c r="AG26" s="14"/>
       <c r="AH26" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AI26" s="11" t="s">
         <v>171</v>
       </c>
       <c r="AJ26" s="12"/>
-      <c r="AK26" s="48" t="s">
+      <c r="AK26" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL26" s="30" t="s">
         <v>228</v>
-      </c>
-      <c r="AL26" s="48" t="s">
-        <v>229</v>
       </c>
       <c r="AM26" s="12"/>
       <c r="AN26" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AO26" s="11" t="s">
         <v>210</v>
       </c>
       <c r="AP26" s="14"/>
       <c r="AQ26" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AR26" s="11" t="s">
         <v>179</v>
@@ -4356,14 +4383,14 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="35"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="12"/>
@@ -4374,21 +4401,21 @@
         <v>63</v>
       </c>
       <c r="O27" s="14"/>
-      <c r="P27" s="33" t="s">
+      <c r="P27" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="9" t="s">
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="Z27" s="11" t="s">
+      <c r="Z27" s="55" t="s">
         <v>114</v>
       </c>
       <c r="AA27" s="12"/>
@@ -4407,28 +4434,28 @@
       </c>
       <c r="AG27" s="14"/>
       <c r="AH27" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AI27" s="11" t="s">
         <v>171</v>
       </c>
       <c r="AJ27" s="12"/>
-      <c r="AK27" s="48" t="s">
+      <c r="AK27" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL27" s="30" t="s">
         <v>228</v>
-      </c>
-      <c r="AL27" s="48" t="s">
-        <v>229</v>
       </c>
       <c r="AM27" s="12"/>
       <c r="AN27" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AO27" s="11" t="s">
         <v>210</v>
       </c>
       <c r="AP27" s="14"/>
       <c r="AQ27" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AR27" s="11" t="s">
         <v>179</v>
@@ -4459,7 +4486,7 @@
       <c r="BP27" s="11"/>
       <c r="BQ27" s="14"/>
     </row>
-    <row r="28" spans="1:69" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>3</v>
@@ -4488,8 +4515,12 @@
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="14"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="11"/>
+      <c r="Y28" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z28" s="55" t="s">
+        <v>114</v>
+      </c>
       <c r="AA28" s="12"/>
       <c r="AB28" s="11" t="s">
         <v>193</v>
@@ -4539,14 +4570,14 @@
       <c r="BQ28" s="14"/>
     </row>
     <row r="29" spans="1:69" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
+      <c r="D29" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="12"/>
@@ -4658,7 +4689,7 @@
       <c r="AO30" s="11"/>
       <c r="AP30" s="14"/>
       <c r="AQ30" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AR30" s="11" t="s">
         <v>195</v>
@@ -4697,20 +4728,20 @@
       <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="41"/>
       <c r="P31" s="9" t="s">
         <v>116</v>
       </c>
@@ -4754,22 +4785,22 @@
       </c>
       <c r="AG31" s="14"/>
       <c r="AH31" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AI31" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AJ31" s="12"/>
-      <c r="AK31" s="36" t="s">
+      <c r="AK31" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="AL31" s="34"/>
-      <c r="AM31" s="34"/>
-      <c r="AN31" s="34"/>
-      <c r="AO31" s="34"/>
-      <c r="AP31" s="37"/>
+      <c r="AL31" s="38"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="38"/>
+      <c r="AO31" s="38"/>
+      <c r="AP31" s="41"/>
       <c r="AQ31" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AR31" s="11" t="s">
         <v>195</v>
@@ -4806,20 +4837,20 @@
       <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="41"/>
       <c r="P32" s="9" t="s">
         <v>58</v>
       </c>
@@ -4833,10 +4864,10 @@
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
       <c r="X32" s="14"/>
-      <c r="Y32" s="9" t="s">
+      <c r="Y32" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="Z32" s="11" t="s">
+      <c r="Z32" s="55" t="s">
         <v>114</v>
       </c>
       <c r="AA32" s="12"/>
@@ -4857,14 +4888,14 @@
       <c r="AH32" s="9"/>
       <c r="AI32" s="11"/>
       <c r="AJ32" s="12"/>
-      <c r="AK32" s="36" t="s">
+      <c r="AK32" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="AL32" s="34"/>
-      <c r="AM32" s="34"/>
-      <c r="AN32" s="34"/>
-      <c r="AO32" s="34"/>
-      <c r="AP32" s="37"/>
+      <c r="AL32" s="38"/>
+      <c r="AM32" s="38"/>
+      <c r="AN32" s="38"/>
+      <c r="AO32" s="38"/>
+      <c r="AP32" s="41"/>
       <c r="AQ32" s="10" t="s">
         <v>102</v>
       </c>
@@ -4924,10 +4955,10 @@
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="14"/>
-      <c r="Y33" s="9" t="s">
+      <c r="Y33" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="Z33" s="11" t="s">
+      <c r="Z33" s="55" t="s">
         <v>114</v>
       </c>
       <c r="AA33" s="12"/>
@@ -4978,14 +5009,14 @@
       <c r="C34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="39"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="12"/>
@@ -5088,26 +5119,26 @@
       <c r="AF35" s="11"/>
       <c r="AG35" s="14"/>
       <c r="AH35" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI35" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="AI35" s="11" t="s">
-        <v>225</v>
       </c>
       <c r="AJ35" s="12"/>
       <c r="AK35" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL35" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="AL35" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="AM35" s="12"/>
       <c r="AN35" s="11"/>
       <c r="AO35" s="11"/>
       <c r="AP35" s="14"/>
-      <c r="AQ35" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="AR35" s="11" t="s">
+      <c r="AQ35" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="AR35" s="55" t="s">
         <v>114</v>
       </c>
       <c r="AS35" s="12"/>
@@ -5144,14 +5175,14 @@
       <c r="C36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="12"/>
@@ -5162,17 +5193,17 @@
         <v>63</v>
       </c>
       <c r="O36" s="14"/>
-      <c r="P36" s="33" t="s">
+      <c r="P36" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="37"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="41"/>
       <c r="Y36" s="9" t="s">
         <v>79</v>
       </c>
@@ -5193,7 +5224,7 @@
       </c>
       <c r="AG36" s="14"/>
       <c r="AH36" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AI36" s="11" t="s">
         <v>173</v>
@@ -5203,10 +5234,10 @@
       <c r="AN36" s="11"/>
       <c r="AO36" s="11"/>
       <c r="AP36" s="14"/>
-      <c r="AQ36" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="AR36" s="11" t="s">
+      <c r="AQ36" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="AR36" s="55" t="s">
         <v>114</v>
       </c>
       <c r="AS36" s="12"/>
@@ -5243,14 +5274,14 @@
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="12"/>
@@ -5294,7 +5325,7 @@
       </c>
       <c r="AG37" s="14"/>
       <c r="AH37" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AI37" s="11" t="s">
         <v>173</v>
@@ -5302,7 +5333,7 @@
       <c r="AJ37" s="12"/>
       <c r="AM37" s="12"/>
       <c r="AN37" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AO37" s="28" t="s">
         <v>144</v>
@@ -5317,8 +5348,8 @@
       <c r="AW37" s="11"/>
       <c r="AX37" s="11"/>
       <c r="AY37" s="14"/>
-      <c r="AZ37" s="9"/>
-      <c r="BA37" s="11"/>
+      <c r="AZ37" s="56"/>
+      <c r="BA37" s="58"/>
       <c r="BB37" s="13"/>
       <c r="BC37" s="11"/>
       <c r="BD37" s="11"/>
@@ -5393,7 +5424,7 @@
       <c r="AL38" s="11"/>
       <c r="AM38" s="12"/>
       <c r="AN38" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AO38" s="28" t="s">
         <v>144</v>
@@ -5408,8 +5439,8 @@
       <c r="AW38" s="11"/>
       <c r="AX38" s="11"/>
       <c r="AY38" s="14"/>
-      <c r="AZ38" s="9"/>
-      <c r="BA38" s="11"/>
+      <c r="AZ38" s="56"/>
+      <c r="BA38" s="58"/>
       <c r="BB38" s="13"/>
       <c r="BC38" s="11"/>
       <c r="BD38" s="11"/>
@@ -5505,20 +5536,20 @@
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="42"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="46"/>
       <c r="P40" s="9" t="s">
         <v>124</v>
       </c>
@@ -5563,23 +5594,23 @@
       <c r="AI40" s="11"/>
       <c r="AJ40" s="12"/>
       <c r="AK40" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL40" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="AL40" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="AM40" s="12"/>
       <c r="AN40" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AO40" s="11" t="s">
         <v>210</v>
       </c>
       <c r="AP40" s="14"/>
-      <c r="AQ40" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="AR40" s="11" t="s">
+      <c r="AQ40" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="AR40" s="55" t="s">
         <v>114</v>
       </c>
       <c r="AS40" s="12"/>
@@ -5595,14 +5626,14 @@
       <c r="BC40" s="11"/>
       <c r="BD40" s="11"/>
       <c r="BE40" s="12"/>
-      <c r="BF40" s="38" t="s">
+      <c r="BF40" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="BG40" s="39"/>
-      <c r="BH40" s="39"/>
-      <c r="BI40" s="39"/>
-      <c r="BJ40" s="39"/>
-      <c r="BK40" s="40"/>
+      <c r="BG40" s="43"/>
+      <c r="BH40" s="43"/>
+      <c r="BI40" s="43"/>
+      <c r="BJ40" s="43"/>
+      <c r="BK40" s="44"/>
       <c r="BL40" s="11"/>
       <c r="BM40" s="11"/>
       <c r="BN40" s="13"/>
@@ -5618,20 +5649,20 @@
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="46"/>
       <c r="P41" s="9" t="s">
         <v>124</v>
       </c>
@@ -5676,23 +5707,23 @@
       <c r="AI41" s="11"/>
       <c r="AJ41" s="12"/>
       <c r="AK41" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL41" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="AL41" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="AM41" s="12"/>
       <c r="AN41" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AO41" s="11" t="s">
         <v>210</v>
       </c>
       <c r="AP41" s="14"/>
-      <c r="AQ41" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="AR41" s="11" t="s">
+      <c r="AQ41" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="AR41" s="55" t="s">
         <v>114</v>
       </c>
       <c r="AS41" s="12"/>
@@ -5728,14 +5759,14 @@
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="35"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="12"/>
@@ -5746,10 +5777,10 @@
         <v>103</v>
       </c>
       <c r="O42" s="14"/>
-      <c r="P42" s="9" t="s">
+      <c r="P42" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="Q42" s="11" t="s">
+      <c r="Q42" s="55" t="s">
         <v>114</v>
       </c>
       <c r="R42" s="12"/>
@@ -5785,21 +5816,21 @@
       </c>
       <c r="AG42" s="14"/>
       <c r="AH42" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AI42" s="11" t="s">
         <v>121</v>
       </c>
       <c r="AJ42" s="12"/>
       <c r="AK42" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL42" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="AL42" s="11" t="s">
-        <v>239</v>
-      </c>
       <c r="AM42" s="12"/>
-      <c r="AN42" s="51" t="s">
-        <v>258</v>
+      <c r="AN42" s="33" t="s">
+        <v>257</v>
       </c>
       <c r="AO42" s="11" t="s">
         <v>210</v>
@@ -5822,14 +5853,14 @@
       <c r="BC42" s="11"/>
       <c r="BD42" s="11"/>
       <c r="BE42" s="12"/>
-      <c r="BF42" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="BG42" s="34"/>
-      <c r="BH42" s="34"/>
-      <c r="BI42" s="34"/>
-      <c r="BJ42" s="34"/>
-      <c r="BK42" s="35"/>
+      <c r="BF42" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="BG42" s="38"/>
+      <c r="BH42" s="38"/>
+      <c r="BI42" s="38"/>
+      <c r="BJ42" s="38"/>
+      <c r="BK42" s="39"/>
       <c r="BL42" s="11"/>
       <c r="BM42" s="11"/>
       <c r="BN42" s="13"/>
@@ -5845,14 +5876,14 @@
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="39"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="12"/>
@@ -5863,10 +5894,10 @@
         <v>103</v>
       </c>
       <c r="O43" s="14"/>
-      <c r="P43" s="9" t="s">
+      <c r="P43" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="55" t="s">
         <v>114</v>
       </c>
       <c r="R43" s="12"/>
@@ -5905,8 +5936,8 @@
       <c r="AI43" s="11"/>
       <c r="AJ43" s="12"/>
       <c r="AM43" s="12"/>
-      <c r="AN43" s="51" t="s">
-        <v>258</v>
+      <c r="AN43" s="33" t="s">
+        <v>257</v>
       </c>
       <c r="AO43" s="11" t="s">
         <v>210</v>
@@ -5929,14 +5960,14 @@
       <c r="BC43" s="11"/>
       <c r="BD43" s="11"/>
       <c r="BE43" s="12"/>
-      <c r="BF43" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="BG43" s="34"/>
-      <c r="BH43" s="34"/>
-      <c r="BI43" s="34"/>
-      <c r="BJ43" s="34"/>
-      <c r="BK43" s="35"/>
+      <c r="BF43" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="BG43" s="38"/>
+      <c r="BH43" s="38"/>
+      <c r="BI43" s="38"/>
+      <c r="BJ43" s="38"/>
+      <c r="BK43" s="39"/>
       <c r="BL43" s="11"/>
       <c r="BM43" s="11"/>
       <c r="BN43" s="13"/>
@@ -6022,14 +6053,14 @@
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="32"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="36"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="12"/>
@@ -6050,10 +6081,10 @@
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="12"/>
-      <c r="V45" s="49" t="s">
+      <c r="V45" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="W45" s="49" t="s">
+      <c r="W45" s="31" t="s">
         <v>160</v>
       </c>
       <c r="X45" s="14"/>
@@ -6081,8 +6112,8 @@
       <c r="AH45" s="9"/>
       <c r="AI45" s="11"/>
       <c r="AJ45" s="12"/>
-      <c r="AK45" s="50"/>
-      <c r="AL45" s="50"/>
+      <c r="AK45" s="32"/>
+      <c r="AL45" s="32"/>
       <c r="AM45" s="12"/>
       <c r="AN45" s="11"/>
       <c r="AO45" s="11"/>
@@ -6123,14 +6154,14 @@
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="32"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="36"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="12"/>
@@ -6151,10 +6182,10 @@
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
       <c r="U46" s="12"/>
-      <c r="V46" s="49" t="s">
+      <c r="V46" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="W46" s="49" t="s">
+      <c r="W46" s="31" t="s">
         <v>160</v>
       </c>
       <c r="X46" s="14"/>
@@ -6182,8 +6213,8 @@
       <c r="AH46" s="9"/>
       <c r="AI46" s="11"/>
       <c r="AJ46" s="12"/>
-      <c r="AK46" s="50"/>
-      <c r="AL46" s="50"/>
+      <c r="AK46" s="32"/>
+      <c r="AL46" s="32"/>
       <c r="AM46" s="12"/>
       <c r="AN46" s="11"/>
       <c r="AO46" s="11"/>
@@ -6228,38 +6259,38 @@
       <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="32"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="36"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="12"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="14"/>
-      <c r="P47" s="33" t="s">
+      <c r="P47" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="37"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="41"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="11"/>
       <c r="AA47" s="12"/>
-      <c r="AB47" s="48" t="s">
+      <c r="AB47" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="AC47" s="48" t="s">
+      <c r="AC47" s="30" t="s">
         <v>191</v>
       </c>
       <c r="AD47" s="12"/>
@@ -6271,17 +6302,17 @@
       </c>
       <c r="AG47" s="14"/>
       <c r="AH47" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AI47" s="11" t="s">
         <v>173</v>
       </c>
       <c r="AJ47" s="12"/>
-      <c r="AK47" s="50"/>
-      <c r="AL47" s="50"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32"/>
       <c r="AM47" s="12"/>
-      <c r="AN47" s="51" t="s">
-        <v>256</v>
+      <c r="AN47" s="33" t="s">
+        <v>255</v>
       </c>
       <c r="AO47" s="11" t="s">
         <v>210</v>
@@ -6323,31 +6354,31 @@
       <c r="C48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="32"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="36"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="12"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="14"/>
-      <c r="P48" s="33" t="s">
+      <c r="P48" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="37"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="41"/>
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
@@ -6358,21 +6389,21 @@
       <c r="AF48" s="11"/>
       <c r="AG48" s="14"/>
       <c r="AH48" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AI48" s="11" t="s">
         <v>173</v>
       </c>
       <c r="AJ48" s="12"/>
-      <c r="AK48" s="50" t="s">
-        <v>249</v>
+      <c r="AK48" s="32" t="s">
+        <v>248</v>
       </c>
       <c r="AL48" s="11" t="s">
         <v>160</v>
       </c>
       <c r="AM48" s="12"/>
       <c r="AN48" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AO48" s="11" t="s">
         <v>210</v>
@@ -6406,7 +6437,7 @@
       <c r="BP48" s="11"/>
       <c r="BQ48" s="14"/>
     </row>
-    <row r="49" spans="1:69" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:69" ht="75" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>75</v>
       </c>
@@ -6435,8 +6466,12 @@
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
       <c r="X49" s="14"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
+      <c r="Y49" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z49" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="AA49" s="11"/>
       <c r="AB49" s="15"/>
       <c r="AC49" s="11"/>
@@ -6506,8 +6541,12 @@
       <c r="N50" s="11"/>
       <c r="O50" s="14"/>
       <c r="R50" s="12"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
+      <c r="S50" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="T50" s="59" t="s">
+        <v>114</v>
+      </c>
       <c r="U50" s="12"/>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
@@ -6543,14 +6582,14 @@
       <c r="AW50" s="11"/>
       <c r="AX50" s="11"/>
       <c r="AY50" s="14"/>
-      <c r="AZ50" s="33" t="s">
+      <c r="AZ50" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="BA50" s="34"/>
-      <c r="BB50" s="34"/>
-      <c r="BC50" s="34"/>
-      <c r="BD50" s="34"/>
-      <c r="BE50" s="35"/>
+      <c r="BA50" s="38"/>
+      <c r="BB50" s="38"/>
+      <c r="BC50" s="38"/>
+      <c r="BD50" s="38"/>
+      <c r="BE50" s="39"/>
       <c r="BF50" s="11"/>
       <c r="BG50" s="11"/>
       <c r="BH50" s="13"/>
@@ -6575,14 +6614,14 @@
       <c r="D51" s="9"/>
       <c r="E51" s="11"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="36" t="s">
+      <c r="G51" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="35"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="39"/>
       <c r="M51" s="10" t="s">
         <v>89</v>
       </c>
@@ -6635,14 +6674,14 @@
       <c r="AH51" s="11"/>
       <c r="AI51" s="11"/>
       <c r="AJ51" s="12"/>
-      <c r="AK51" s="36" t="s">
+      <c r="AK51" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="AL51" s="34"/>
-      <c r="AM51" s="34"/>
-      <c r="AN51" s="34"/>
-      <c r="AO51" s="34"/>
-      <c r="AP51" s="37"/>
+      <c r="AL51" s="38"/>
+      <c r="AM51" s="38"/>
+      <c r="AN51" s="38"/>
+      <c r="AO51" s="38"/>
+      <c r="AP51" s="41"/>
       <c r="AQ51" s="11"/>
       <c r="AR51" s="11"/>
       <c r="AS51" s="12"/>
@@ -6676,14 +6715,14 @@
       <c r="D52" s="9"/>
       <c r="E52" s="11"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="36" t="s">
+      <c r="G52" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="35"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="39"/>
       <c r="M52" s="10" t="s">
         <v>89</v>
       </c>
@@ -6855,14 +6894,14 @@
       <c r="D54" s="9"/>
       <c r="E54" s="11"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="36" t="s">
+      <c r="G54" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="35"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="39"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="14"/>
@@ -6934,14 +6973,14 @@
       <c r="D55" s="9"/>
       <c r="E55" s="11"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="36" t="s">
+      <c r="G55" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="35"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="39"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="14"/>
@@ -7008,14 +7047,14 @@
       <c r="C56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
       <c r="M56" s="11" t="s">
         <v>105</v>
       </c>
@@ -7062,14 +7101,14 @@
       </c>
       <c r="AG56" s="14"/>
       <c r="AH56" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AI56" s="11" t="s">
         <v>173</v>
       </c>
       <c r="AJ56" s="12"/>
       <c r="AK56" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL56" s="11" t="s">
         <v>195</v>
@@ -7082,7 +7121,7 @@
       <c r="AR56" s="11"/>
       <c r="AS56" s="12"/>
       <c r="AT56" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AU56" s="11" t="s">
         <v>183</v>
@@ -7118,14 +7157,14 @@
       <c r="C57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
       <c r="M57" s="11" t="s">
         <v>105</v>
       </c>
@@ -7171,14 +7210,14 @@
       </c>
       <c r="AG57" s="14"/>
       <c r="AH57" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AI57" s="11" t="s">
         <v>173</v>
       </c>
       <c r="AJ57" s="12"/>
       <c r="AK57" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL57" s="11" t="s">
         <v>195</v>
@@ -7188,10 +7227,10 @@
       <c r="AO57" s="11"/>
       <c r="AP57" s="14"/>
       <c r="AQ57" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR57" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="AR57" s="11" t="s">
-        <v>268</v>
       </c>
       <c r="AS57" s="12"/>
       <c r="AT57" s="11"/>
@@ -7219,7 +7258,7 @@
       <c r="BP57" s="11"/>
       <c r="BQ57" s="14"/>
     </row>
-    <row r="58" spans="1:69" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:69" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>3</v>
@@ -7239,8 +7278,12 @@
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
       <c r="O58" s="14"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="11"/>
+      <c r="P58" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q58" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="R58" s="12"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
@@ -7271,10 +7314,10 @@
       <c r="AO58" s="11"/>
       <c r="AP58" s="14"/>
       <c r="AQ58" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR58" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="AR58" s="11" t="s">
-        <v>268</v>
       </c>
       <c r="AS58" s="12"/>
       <c r="AT58" s="11"/>
@@ -7394,14 +7437,14 @@
       <c r="D60" s="9"/>
       <c r="E60" s="11"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="36" t="s">
+      <c r="G60" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="35"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="39"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="14"/>
@@ -7427,7 +7470,7 @@
       <c r="AI60" s="11"/>
       <c r="AJ60" s="12"/>
       <c r="AK60" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL60" s="11" t="s">
         <v>160</v>
@@ -7445,8 +7488,12 @@
       <c r="AW60" s="11"/>
       <c r="AX60" s="11"/>
       <c r="AY60" s="14"/>
-      <c r="AZ60" s="11"/>
-      <c r="BA60" s="11"/>
+      <c r="AZ60" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA60" s="57" t="s">
+        <v>114</v>
+      </c>
       <c r="BB60" s="13"/>
       <c r="BC60" s="11"/>
       <c r="BD60" s="11"/>
@@ -7472,14 +7519,14 @@
       <c r="C61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="36" t="s">
+      <c r="G61" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="35"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="39"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="14"/>
@@ -7516,14 +7563,14 @@
       <c r="AF61" s="11"/>
       <c r="AG61" s="14"/>
       <c r="AH61" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AI61" s="11" t="s">
         <v>121</v>
       </c>
       <c r="AJ61" s="12"/>
       <c r="AK61" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AL61" s="11" t="s">
         <v>191</v>
@@ -7543,10 +7590,10 @@
       </c>
       <c r="AX61" s="11"/>
       <c r="AY61" s="14"/>
-      <c r="AZ61" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="BA61" s="10" t="s">
+      <c r="AZ61" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA61" s="53" t="s">
         <v>114</v>
       </c>
       <c r="BB61" s="13"/>
@@ -7574,14 +7621,14 @@
       <c r="C62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="35"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="39"/>
       <c r="K62" s="11"/>
       <c r="L62" s="12"/>
       <c r="M62" s="11"/>
@@ -7629,7 +7676,7 @@
       <c r="AI62" s="11"/>
       <c r="AJ62" s="12"/>
       <c r="AK62" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AL62" s="11" t="s">
         <v>191</v>
@@ -7639,10 +7686,10 @@
       <c r="AO62" s="11"/>
       <c r="AP62" s="14"/>
       <c r="AQ62" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR62" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="AR62" s="11" t="s">
-        <v>268</v>
       </c>
       <c r="AS62" s="12"/>
       <c r="AT62" s="11"/>
@@ -7651,8 +7698,12 @@
       <c r="AW62" s="11"/>
       <c r="AX62" s="11"/>
       <c r="AY62" s="14"/>
-      <c r="AZ62" s="11"/>
-      <c r="BA62" s="11"/>
+      <c r="AZ62" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="BA62" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="BB62" s="13"/>
       <c r="BC62" s="11"/>
       <c r="BD62" s="11"/>
@@ -7732,8 +7783,6 @@
       <c r="AW63" s="11"/>
       <c r="AX63" s="11"/>
       <c r="AY63" s="14"/>
-      <c r="AZ63" s="11"/>
-      <c r="BA63" s="11"/>
       <c r="BB63" s="13"/>
       <c r="BC63" s="11"/>
       <c r="BD63" s="11"/>
@@ -7855,12 +7904,8 @@
       <c r="P65" s="9"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="12"/>
-      <c r="S65" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T65" s="11" t="s">
-        <v>114</v>
-      </c>
+      <c r="S65" s="33"/>
+      <c r="T65" s="33"/>
       <c r="U65" s="12"/>
       <c r="V65" s="11"/>
       <c r="W65" s="11"/>
@@ -7886,7 +7931,7 @@
       <c r="AI65" s="11"/>
       <c r="AJ65" s="12"/>
       <c r="AK65" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL65" s="11" t="s">
         <v>191</v>
@@ -7937,12 +7982,12 @@
         <v>107</v>
       </c>
       <c r="F66" s="12"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="35"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="39"/>
       <c r="M66" s="11" t="s">
         <v>104</v>
       </c>
@@ -7971,12 +8016,6 @@
         <v>158</v>
       </c>
       <c r="X66" s="14"/>
-      <c r="Y66" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z66" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="AA66" s="11"/>
       <c r="AB66" s="11" t="s">
         <v>189</v>
@@ -7993,14 +8032,14 @@
       </c>
       <c r="AG66" s="14"/>
       <c r="AH66" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AI66" s="11" t="s">
         <v>195</v>
       </c>
       <c r="AJ66" s="12"/>
       <c r="AK66" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AL66" s="11" t="s">
         <v>183</v>
@@ -8010,10 +8049,10 @@
       <c r="AO66" s="11"/>
       <c r="AP66" s="14"/>
       <c r="AQ66" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AR66" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AS66" s="12"/>
       <c r="AT66" s="11"/>
@@ -8056,21 +8095,17 @@
         <v>107</v>
       </c>
       <c r="F67" s="12"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="35"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="39"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="14"/>
-      <c r="P67" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q67" s="11" t="s">
-        <v>114</v>
-      </c>
+      <c r="P67" s="56"/>
+      <c r="Q67" s="33"/>
       <c r="R67" s="12"/>
       <c r="U67" s="12"/>
       <c r="V67" s="11" t="s">
@@ -8091,7 +8126,7 @@
       <c r="AI67" s="11"/>
       <c r="AJ67" s="12"/>
       <c r="AK67" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AL67" s="11" t="s">
         <v>183</v>
@@ -8101,14 +8136,14 @@
       <c r="AO67" s="11"/>
       <c r="AP67" s="14"/>
       <c r="AQ67" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AR67" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AS67" s="12"/>
       <c r="AT67" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AU67" s="11" t="s">
         <v>137</v>
@@ -8334,7 +8369,7 @@
       <c r="AR70" s="11"/>
       <c r="AS70" s="12"/>
       <c r="AT70" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AU70" s="11" t="s">
         <v>137</v>
@@ -8370,14 +8405,14 @@
       <c r="C71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D71" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="35"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="39"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="12"/>
@@ -8424,24 +8459,24 @@
       <c r="AG71" s="14"/>
       <c r="AJ71" s="12"/>
       <c r="AK71" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AL71" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM71" s="12"/>
       <c r="AN71" s="11"/>
       <c r="AO71" s="11"/>
       <c r="AP71" s="14"/>
       <c r="AQ71" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AR71" s="11" t="s">
         <v>173</v>
       </c>
       <c r="AS71" s="12"/>
       <c r="AT71" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AU71" s="11" t="s">
         <v>137</v>
@@ -8477,12 +8512,12 @@
       <c r="C72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="30"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="32"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="36"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="12"/>
@@ -8532,7 +8567,7 @@
       </c>
       <c r="AG72" s="14"/>
       <c r="AH72" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI72" s="11" t="s">
         <v>173</v>
@@ -8559,14 +8594,14 @@
       <c r="BC72" s="11"/>
       <c r="BD72" s="11"/>
       <c r="BE72" s="12"/>
-      <c r="BF72" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="BG72" s="34"/>
-      <c r="BH72" s="34"/>
-      <c r="BI72" s="34"/>
-      <c r="BJ72" s="34"/>
-      <c r="BK72" s="35"/>
+      <c r="BF72" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="BG72" s="38"/>
+      <c r="BH72" s="38"/>
+      <c r="BI72" s="38"/>
+      <c r="BJ72" s="38"/>
+      <c r="BK72" s="39"/>
       <c r="BL72" s="11"/>
       <c r="BM72" s="11"/>
       <c r="BN72" s="11"/>
@@ -8582,12 +8617,12 @@
       <c r="C73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="30"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="32"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="36"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
       <c r="L73" s="12"/>
@@ -8730,12 +8765,12 @@
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="32"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="36"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="12"/>
@@ -8813,14 +8848,14 @@
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="12"/>
@@ -8859,7 +8894,7 @@
       <c r="AI76" s="11"/>
       <c r="AJ76" s="12"/>
       <c r="AK76" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AL76" s="11" t="s">
         <v>195</v>
@@ -8904,14 +8939,14 @@
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
       <c r="L77" s="12"/>
@@ -8949,7 +8984,7 @@
       <c r="AF77" s="11"/>
       <c r="AG77" s="14"/>
       <c r="AH77" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI77" s="11" t="s">
         <v>171</v>
@@ -8997,14 +9032,14 @@
       <c r="C78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D78" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="35"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="39"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
       <c r="L78" s="12"/>
@@ -9146,14 +9181,14 @@
       <c r="C80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
       <c r="L80" s="12"/>
@@ -9223,14 +9258,14 @@
       <c r="C81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="D81" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="35"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="39"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="12"/>
@@ -9300,14 +9335,14 @@
       <c r="C82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="35"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="39"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="12"/>
@@ -9377,12 +9412,12 @@
       <c r="C83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="30"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="32"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="36"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="12"/>
@@ -9826,6 +9861,7 @@
     <mergeCell ref="AZ2:BE2"/>
     <mergeCell ref="BF2:BK2"/>
     <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="BO3:BQ3"/>
     <mergeCell ref="AZ1:BQ1"/>
     <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="BU3:BW3"/>
@@ -9842,7 +9878,6 @@
     <mergeCell ref="BF3:BH3"/>
     <mergeCell ref="BI3:BK3"/>
     <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
     <mergeCell ref="BR3:BT3"/>
     <mergeCell ref="AK2:AM3"/>
     <mergeCell ref="AN2:AP3"/>
@@ -9854,6 +9889,8 @@
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="Y1:AG1"/>
     <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D48:I48"/>
     <mergeCell ref="AQ1:AY1"/>
     <mergeCell ref="P26:X26"/>
     <mergeCell ref="P27:X27"/>
@@ -9868,12 +9905,6 @@
     <mergeCell ref="D27:I27"/>
     <mergeCell ref="D8:O8"/>
     <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="G52:L52"/>
     <mergeCell ref="D42:I42"/>
     <mergeCell ref="D43:I43"/>
     <mergeCell ref="D12:I12"/>
@@ -9884,8 +9915,8 @@
     <mergeCell ref="D32:O32"/>
     <mergeCell ref="D36:I36"/>
     <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D16:O16"/>
     <mergeCell ref="D29:I29"/>
     <mergeCell ref="AZ21:BE21"/>
     <mergeCell ref="AZ50:BE50"/>
@@ -9896,18 +9927,19 @@
     <mergeCell ref="BF43:BK43"/>
     <mergeCell ref="AK31:AP31"/>
     <mergeCell ref="AK32:AP32"/>
-    <mergeCell ref="G66:L66"/>
-    <mergeCell ref="G67:L67"/>
-    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="P47:X47"/>
+    <mergeCell ref="P48:X48"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D10:O10"/>
     <mergeCell ref="G61:L61"/>
     <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="P47:X47"/>
-    <mergeCell ref="P48:X48"/>
     <mergeCell ref="D62:I62"/>
     <mergeCell ref="G54:L54"/>
     <mergeCell ref="G55:L55"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="G52:L52"/>
     <mergeCell ref="D83:I83"/>
     <mergeCell ref="D56:I56"/>
     <mergeCell ref="D57:I57"/>
@@ -9921,8 +9953,12 @@
     <mergeCell ref="D76:I76"/>
     <mergeCell ref="D72:I72"/>
     <mergeCell ref="D73:I73"/>
+    <mergeCell ref="G66:L66"/>
+    <mergeCell ref="G67:L67"/>
+    <mergeCell ref="G60:L60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Rozklad_2zaizd.xlsx
+++ b/Rozklad_2zaizd.xlsx
@@ -32,7 +32,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>з 10:00 3 пари</t>
         </r>
@@ -46,7 +47,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>з 10:00 3 пари</t>
         </r>
@@ -60,7 +62,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Автор:</t>
         </r>
@@ -69,7 +72,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 На 10:00 Іспит</t>
@@ -918,14 +922,16 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1263,60 +1269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1340,6 +1292,60 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1624,10 +1630,10 @@
   <dimension ref="A1:BW90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P58" sqref="P58:Q58"/>
+      <selection pane="bottomRight" activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,277 +1717,277 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="47" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="47" t="s">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="47" t="s">
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="47" t="s">
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="47" t="s">
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="48"/>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48"/>
-      <c r="BG1" s="48"/>
-      <c r="BH1" s="48"/>
-      <c r="BI1" s="48"/>
-      <c r="BJ1" s="48"/>
-      <c r="BK1" s="48"/>
-      <c r="BL1" s="48"/>
-      <c r="BM1" s="48"/>
-      <c r="BN1" s="48"/>
-      <c r="BO1" s="48"/>
-      <c r="BP1" s="48"/>
-      <c r="BQ1" s="49"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="51"/>
+      <c r="BL1" s="51"/>
+      <c r="BM1" s="51"/>
+      <c r="BN1" s="51"/>
+      <c r="BO1" s="51"/>
+      <c r="BP1" s="51"/>
+      <c r="BQ1" s="52"/>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="43" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="43" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="43" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="43"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="46"/>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="43" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="43" t="s">
+      <c r="T2" s="45"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="43"/>
+      <c r="W2" s="45"/>
       <c r="X2" s="46"/>
-      <c r="Y2" s="45" t="s">
+      <c r="Y2" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="43" t="s">
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="43" t="s">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="43"/>
+      <c r="AF2" s="45"/>
       <c r="AG2" s="46"/>
-      <c r="AH2" s="45" t="s">
+      <c r="AH2" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="43" t="s">
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="43" t="s">
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="43"/>
+      <c r="AO2" s="45"/>
       <c r="AP2" s="46"/>
-      <c r="AQ2" s="45" t="s">
+      <c r="AQ2" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="43" t="s">
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="43" t="s">
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="43"/>
+      <c r="AX2" s="45"/>
       <c r="AY2" s="46"/>
-      <c r="AZ2" s="45" t="s">
+      <c r="AZ2" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="42" t="s">
+      <c r="BA2" s="45"/>
+      <c r="BB2" s="45"/>
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="45"/>
+      <c r="BE2" s="48"/>
+      <c r="BF2" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="44"/>
-      <c r="BL2" s="43" t="s">
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="45"/>
+      <c r="BK2" s="48"/>
+      <c r="BL2" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="43"/>
-      <c r="BN2" s="43"/>
-      <c r="BO2" s="43"/>
-      <c r="BP2" s="43"/>
+      <c r="BM2" s="45"/>
+      <c r="BN2" s="45"/>
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="45"/>
       <c r="BQ2" s="46"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="D3" s="45"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
       <c r="O3" s="46"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
       <c r="X3" s="46"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
       <c r="AG3" s="46"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
       <c r="AP3" s="46"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="43"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="48"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
       <c r="AY3" s="46"/>
-      <c r="AZ3" s="45" t="s">
+      <c r="AZ3" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="51"/>
-      <c r="BC3" s="43" t="s">
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="53"/>
+      <c r="BC3" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="44"/>
-      <c r="BF3" s="42" t="s">
+      <c r="BD3" s="45"/>
+      <c r="BE3" s="48"/>
+      <c r="BF3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="51"/>
-      <c r="BI3" s="43" t="s">
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="53"/>
+      <c r="BI3" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="44"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="51"/>
-      <c r="BO3" s="43" t="s">
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="48"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="BP3" s="43"/>
+      <c r="BP3" s="45"/>
       <c r="BQ3" s="46"/>
-      <c r="BR3" s="50"/>
-      <c r="BS3" s="50"/>
-      <c r="BT3" s="50"/>
-      <c r="BU3" s="50"/>
-      <c r="BV3" s="50"/>
-      <c r="BW3" s="50"/>
+      <c r="BR3" s="54"/>
+      <c r="BS3" s="54"/>
+      <c r="BT3" s="54"/>
+      <c r="BU3" s="54"/>
+      <c r="BV3" s="54"/>
+      <c r="BW3" s="54"/>
     </row>
     <row r="4" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2199,14 +2205,14 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="48"/>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
       <c r="M5" s="4" t="s">
@@ -2296,14 +2302,14 @@
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="42" t="s">
+      <c r="BF5" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="44"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="48"/>
       <c r="BL5" s="11"/>
       <c r="BM5" s="11"/>
       <c r="BN5" s="13"/>
@@ -2319,14 +2325,14 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
@@ -2417,14 +2423,14 @@
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="5"/>
-      <c r="BF6" s="42" t="s">
+      <c r="BF6" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="BG6" s="43"/>
-      <c r="BH6" s="43"/>
-      <c r="BI6" s="43"/>
-      <c r="BJ6" s="43"/>
-      <c r="BK6" s="44"/>
+      <c r="BG6" s="45"/>
+      <c r="BH6" s="45"/>
+      <c r="BI6" s="45"/>
+      <c r="BJ6" s="45"/>
+      <c r="BK6" s="48"/>
       <c r="BL6" s="11"/>
       <c r="BM6" s="11"/>
       <c r="BN6" s="13"/>
@@ -2440,14 +2446,14 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
@@ -2551,19 +2557,19 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
       <c r="O8" s="46"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4"/>
@@ -2714,24 +2720,24 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="54" t="s">
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="Q10" s="55" t="s">
+      <c r="Q10" s="37" t="s">
         <v>114</v>
       </c>
       <c r="R10" s="12"/>
@@ -2827,24 +2833,24 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="54" t="s">
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="Q11" s="55" t="s">
+      <c r="Q11" s="37" t="s">
         <v>114</v>
       </c>
       <c r="R11" s="12"/>
@@ -2946,14 +2952,14 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="12"/>
@@ -2971,10 +2977,10 @@
         <v>125</v>
       </c>
       <c r="R12" s="12"/>
-      <c r="S12" s="55" t="s">
+      <c r="S12" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="T12" s="55" t="s">
+      <c r="T12" s="37" t="s">
         <v>114</v>
       </c>
       <c r="U12" s="12"/>
@@ -3065,14 +3071,14 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
@@ -3086,10 +3092,10 @@
         <v>125</v>
       </c>
       <c r="R13" s="12"/>
-      <c r="S13" s="55" t="s">
+      <c r="S13" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="T13" s="55" t="s">
+      <c r="T13" s="37" t="s">
         <v>114</v>
       </c>
       <c r="U13" s="12"/>
@@ -3341,20 +3347,20 @@
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="41"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="59"/>
       <c r="P16" s="9" t="s">
         <v>58</v>
       </c>
@@ -3462,20 +3468,20 @@
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="41"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="59"/>
       <c r="P17" s="9" t="s">
         <v>58</v>
       </c>
@@ -3809,14 +3815,14 @@
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="39"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="12"/>
@@ -3901,14 +3907,14 @@
       <c r="AW21" s="11"/>
       <c r="AX21" s="11"/>
       <c r="AY21" s="14"/>
-      <c r="AZ21" s="37" t="s">
+      <c r="AZ21" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="BA21" s="38"/>
-      <c r="BB21" s="38"/>
-      <c r="BC21" s="38"/>
-      <c r="BD21" s="38"/>
-      <c r="BE21" s="39"/>
+      <c r="BA21" s="43"/>
+      <c r="BB21" s="43"/>
+      <c r="BC21" s="43"/>
+      <c r="BD21" s="43"/>
+      <c r="BE21" s="44"/>
       <c r="BF21" s="11"/>
       <c r="BG21" s="11"/>
       <c r="BH21" s="13"/>
@@ -3930,14 +3936,14 @@
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="12"/>
@@ -4197,20 +4203,20 @@
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="41"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="59"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="12"/>
@@ -4274,14 +4280,14 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
       <c r="J26" s="11" t="s">
         <v>91</v>
       </c>
@@ -4296,17 +4302,17 @@
         <v>63</v>
       </c>
       <c r="O26" s="14"/>
-      <c r="P26" s="37" t="s">
+      <c r="P26" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="41"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="59"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="15" t="s">
         <v>67</v>
@@ -4383,14 +4389,14 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="12"/>
@@ -4401,21 +4407,21 @@
         <v>63</v>
       </c>
       <c r="O27" s="14"/>
-      <c r="P27" s="37" t="s">
+      <c r="P27" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="54" t="s">
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="Z27" s="55" t="s">
+      <c r="Z27" s="37" t="s">
         <v>114</v>
       </c>
       <c r="AA27" s="12"/>
@@ -4515,10 +4521,10 @@
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="14"/>
-      <c r="Y28" s="54" t="s">
+      <c r="Y28" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="Z28" s="55" t="s">
+      <c r="Z28" s="37" t="s">
         <v>114</v>
       </c>
       <c r="AA28" s="12"/>
@@ -4570,14 +4576,14 @@
       <c r="BQ28" s="14"/>
     </row>
     <row r="29" spans="1:69" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="12"/>
@@ -4728,20 +4734,20 @@
       <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="41"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="59"/>
       <c r="P31" s="9" t="s">
         <v>116</v>
       </c>
@@ -4791,14 +4797,14 @@
         <v>224</v>
       </c>
       <c r="AJ31" s="12"/>
-      <c r="AK31" s="40" t="s">
+      <c r="AK31" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AL31" s="38"/>
-      <c r="AM31" s="38"/>
-      <c r="AN31" s="38"/>
-      <c r="AO31" s="38"/>
-      <c r="AP31" s="41"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="43"/>
+      <c r="AO31" s="43"/>
+      <c r="AP31" s="59"/>
       <c r="AQ31" s="9" t="s">
         <v>262</v>
       </c>
@@ -4837,20 +4843,20 @@
       <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="41"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="59"/>
       <c r="P32" s="9" t="s">
         <v>58</v>
       </c>
@@ -4864,10 +4870,10 @@
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
       <c r="X32" s="14"/>
-      <c r="Y32" s="54" t="s">
+      <c r="Y32" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="Z32" s="55" t="s">
+      <c r="Z32" s="37" t="s">
         <v>114</v>
       </c>
       <c r="AA32" s="12"/>
@@ -4888,14 +4894,14 @@
       <c r="AH32" s="9"/>
       <c r="AI32" s="11"/>
       <c r="AJ32" s="12"/>
-      <c r="AK32" s="40" t="s">
+      <c r="AK32" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AL32" s="38"/>
-      <c r="AM32" s="38"/>
-      <c r="AN32" s="38"/>
-      <c r="AO32" s="38"/>
-      <c r="AP32" s="41"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="43"/>
+      <c r="AN32" s="43"/>
+      <c r="AO32" s="43"/>
+      <c r="AP32" s="59"/>
       <c r="AQ32" s="10" t="s">
         <v>102</v>
       </c>
@@ -4955,10 +4961,10 @@
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="14"/>
-      <c r="Y33" s="54" t="s">
+      <c r="Y33" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="Z33" s="55" t="s">
+      <c r="Z33" s="37" t="s">
         <v>114</v>
       </c>
       <c r="AA33" s="12"/>
@@ -5005,18 +5011,18 @@
       <c r="BP33" s="11"/>
       <c r="BQ33" s="14"/>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" ht="60" x14ac:dyDescent="0.25">
       <c r="C34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="39"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="12"/>
@@ -5050,8 +5056,12 @@
       <c r="AN34" s="11"/>
       <c r="AO34" s="11"/>
       <c r="AP34" s="14"/>
-      <c r="AQ34" s="9"/>
-      <c r="AR34" s="11"/>
+      <c r="AQ34" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AR34" s="37" t="s">
+        <v>114</v>
+      </c>
       <c r="AS34" s="12"/>
       <c r="AT34" s="11"/>
       <c r="AU34" s="11"/>
@@ -5135,10 +5145,10 @@
       <c r="AN35" s="11"/>
       <c r="AO35" s="11"/>
       <c r="AP35" s="14"/>
-      <c r="AQ35" s="54" t="s">
+      <c r="AQ35" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="AR35" s="55" t="s">
+      <c r="AR35" s="37" t="s">
         <v>114</v>
       </c>
       <c r="AS35" s="12"/>
@@ -5175,14 +5185,14 @@
       <c r="C36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="39"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="12"/>
@@ -5193,17 +5203,17 @@
         <v>63</v>
       </c>
       <c r="O36" s="14"/>
-      <c r="P36" s="37" t="s">
+      <c r="P36" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="41"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="59"/>
       <c r="Y36" s="9" t="s">
         <v>79</v>
       </c>
@@ -5234,12 +5244,6 @@
       <c r="AN36" s="11"/>
       <c r="AO36" s="11"/>
       <c r="AP36" s="14"/>
-      <c r="AQ36" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="AR36" s="55" t="s">
-        <v>114</v>
-      </c>
       <c r="AS36" s="12"/>
       <c r="AT36" s="11"/>
       <c r="AU36" s="11"/>
@@ -5274,14 +5278,14 @@
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="39"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="12"/>
@@ -5348,8 +5352,8 @@
       <c r="AW37" s="11"/>
       <c r="AX37" s="11"/>
       <c r="AY37" s="14"/>
-      <c r="AZ37" s="56"/>
-      <c r="BA37" s="58"/>
+      <c r="AZ37" s="38"/>
+      <c r="BA37" s="40"/>
       <c r="BB37" s="13"/>
       <c r="BC37" s="11"/>
       <c r="BD37" s="11"/>
@@ -5439,8 +5443,8 @@
       <c r="AW38" s="11"/>
       <c r="AX38" s="11"/>
       <c r="AY38" s="14"/>
-      <c r="AZ38" s="56"/>
-      <c r="BA38" s="58"/>
+      <c r="AZ38" s="38"/>
+      <c r="BA38" s="40"/>
       <c r="BB38" s="13"/>
       <c r="BC38" s="11"/>
       <c r="BD38" s="11"/>
@@ -5536,19 +5540,19 @@
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
       <c r="O40" s="46"/>
       <c r="P40" s="9" t="s">
         <v>124</v>
@@ -5607,10 +5611,10 @@
         <v>210</v>
       </c>
       <c r="AP40" s="14"/>
-      <c r="AQ40" s="54" t="s">
+      <c r="AQ40" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="AR40" s="55" t="s">
+      <c r="AR40" s="37" t="s">
         <v>114</v>
       </c>
       <c r="AS40" s="12"/>
@@ -5626,14 +5630,14 @@
       <c r="BC40" s="11"/>
       <c r="BD40" s="11"/>
       <c r="BE40" s="12"/>
-      <c r="BF40" s="42" t="s">
+      <c r="BF40" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="BG40" s="43"/>
-      <c r="BH40" s="43"/>
-      <c r="BI40" s="43"/>
-      <c r="BJ40" s="43"/>
-      <c r="BK40" s="44"/>
+      <c r="BG40" s="45"/>
+      <c r="BH40" s="45"/>
+      <c r="BI40" s="45"/>
+      <c r="BJ40" s="45"/>
+      <c r="BK40" s="48"/>
       <c r="BL40" s="11"/>
       <c r="BM40" s="11"/>
       <c r="BN40" s="13"/>
@@ -5649,19 +5653,19 @@
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
       <c r="O41" s="46"/>
       <c r="P41" s="9" t="s">
         <v>124</v>
@@ -5720,10 +5724,10 @@
         <v>210</v>
       </c>
       <c r="AP41" s="14"/>
-      <c r="AQ41" s="54" t="s">
+      <c r="AQ41" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="AR41" s="55" t="s">
+      <c r="AR41" s="37" t="s">
         <v>114</v>
       </c>
       <c r="AS41" s="12"/>
@@ -5759,14 +5763,14 @@
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="39"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="44"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="12"/>
@@ -5777,10 +5781,10 @@
         <v>103</v>
       </c>
       <c r="O42" s="14"/>
-      <c r="P42" s="54" t="s">
+      <c r="P42" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="Q42" s="55" t="s">
+      <c r="Q42" s="37" t="s">
         <v>114</v>
       </c>
       <c r="R42" s="12"/>
@@ -5853,14 +5857,14 @@
       <c r="BC42" s="11"/>
       <c r="BD42" s="11"/>
       <c r="BE42" s="12"/>
-      <c r="BF42" s="40" t="s">
+      <c r="BF42" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="BG42" s="38"/>
-      <c r="BH42" s="38"/>
-      <c r="BI42" s="38"/>
-      <c r="BJ42" s="38"/>
-      <c r="BK42" s="39"/>
+      <c r="BG42" s="43"/>
+      <c r="BH42" s="43"/>
+      <c r="BI42" s="43"/>
+      <c r="BJ42" s="43"/>
+      <c r="BK42" s="44"/>
       <c r="BL42" s="11"/>
       <c r="BM42" s="11"/>
       <c r="BN42" s="13"/>
@@ -5876,14 +5880,14 @@
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="39"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="44"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="12"/>
@@ -5894,10 +5898,10 @@
         <v>103</v>
       </c>
       <c r="O43" s="14"/>
-      <c r="P43" s="54" t="s">
+      <c r="P43" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="Q43" s="55" t="s">
+      <c r="Q43" s="37" t="s">
         <v>114</v>
       </c>
       <c r="R43" s="12"/>
@@ -5960,14 +5964,14 @@
       <c r="BC43" s="11"/>
       <c r="BD43" s="11"/>
       <c r="BE43" s="12"/>
-      <c r="BF43" s="40" t="s">
+      <c r="BF43" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="BG43" s="38"/>
-      <c r="BH43" s="38"/>
-      <c r="BI43" s="38"/>
-      <c r="BJ43" s="38"/>
-      <c r="BK43" s="39"/>
+      <c r="BG43" s="43"/>
+      <c r="BH43" s="43"/>
+      <c r="BI43" s="43"/>
+      <c r="BJ43" s="43"/>
+      <c r="BK43" s="44"/>
       <c r="BL43" s="11"/>
       <c r="BM43" s="11"/>
       <c r="BN43" s="13"/>
@@ -6053,14 +6057,14 @@
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="36"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="57"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="12"/>
@@ -6154,14 +6158,14 @@
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="36"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="57"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="12"/>
@@ -6259,31 +6263,31 @@
       <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="36"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="57"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="12"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="14"/>
-      <c r="P47" s="37" t="s">
+      <c r="P47" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="41"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="43"/>
+      <c r="X47" s="59"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="11"/>
       <c r="AA47" s="12"/>
@@ -6354,31 +6358,31 @@
       <c r="C48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="36"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="57"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="12"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="14"/>
-      <c r="P48" s="37" t="s">
+      <c r="P48" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="41"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="59"/>
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
@@ -6466,10 +6470,10 @@
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
       <c r="X49" s="14"/>
-      <c r="Y49" s="53" t="s">
+      <c r="Y49" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="Z49" s="53" t="s">
+      <c r="Z49" s="35" t="s">
         <v>114</v>
       </c>
       <c r="AA49" s="11"/>
@@ -6541,10 +6545,10 @@
       <c r="N50" s="11"/>
       <c r="O50" s="14"/>
       <c r="R50" s="12"/>
-      <c r="S50" s="59" t="s">
+      <c r="S50" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="T50" s="59" t="s">
+      <c r="T50" s="41" t="s">
         <v>114</v>
       </c>
       <c r="U50" s="12"/>
@@ -6582,14 +6586,14 @@
       <c r="AW50" s="11"/>
       <c r="AX50" s="11"/>
       <c r="AY50" s="14"/>
-      <c r="AZ50" s="37" t="s">
+      <c r="AZ50" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="BA50" s="38"/>
-      <c r="BB50" s="38"/>
-      <c r="BC50" s="38"/>
-      <c r="BD50" s="38"/>
-      <c r="BE50" s="39"/>
+      <c r="BA50" s="43"/>
+      <c r="BB50" s="43"/>
+      <c r="BC50" s="43"/>
+      <c r="BD50" s="43"/>
+      <c r="BE50" s="44"/>
       <c r="BF50" s="11"/>
       <c r="BG50" s="11"/>
       <c r="BH50" s="13"/>
@@ -6614,14 +6618,14 @@
       <c r="D51" s="9"/>
       <c r="E51" s="11"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="39"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="44"/>
       <c r="M51" s="10" t="s">
         <v>89</v>
       </c>
@@ -6674,14 +6678,14 @@
       <c r="AH51" s="11"/>
       <c r="AI51" s="11"/>
       <c r="AJ51" s="12"/>
-      <c r="AK51" s="40" t="s">
+      <c r="AK51" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="AL51" s="38"/>
-      <c r="AM51" s="38"/>
-      <c r="AN51" s="38"/>
-      <c r="AO51" s="38"/>
-      <c r="AP51" s="41"/>
+      <c r="AL51" s="43"/>
+      <c r="AM51" s="43"/>
+      <c r="AN51" s="43"/>
+      <c r="AO51" s="43"/>
+      <c r="AP51" s="59"/>
       <c r="AQ51" s="11"/>
       <c r="AR51" s="11"/>
       <c r="AS51" s="12"/>
@@ -6715,14 +6719,14 @@
       <c r="D52" s="9"/>
       <c r="E52" s="11"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="40" t="s">
+      <c r="G52" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="39"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="44"/>
       <c r="M52" s="10" t="s">
         <v>89</v>
       </c>
@@ -6894,14 +6898,14 @@
       <c r="D54" s="9"/>
       <c r="E54" s="11"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="40" t="s">
+      <c r="G54" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="39"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="44"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="14"/>
@@ -6973,14 +6977,14 @@
       <c r="D55" s="9"/>
       <c r="E55" s="11"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="40" t="s">
+      <c r="G55" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="39"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="44"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="14"/>
@@ -7047,14 +7051,14 @@
       <c r="C56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
       <c r="M56" s="11" t="s">
         <v>105</v>
       </c>
@@ -7157,14 +7161,14 @@
       <c r="C57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
       <c r="M57" s="11" t="s">
         <v>105</v>
       </c>
@@ -7278,10 +7282,10 @@
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
       <c r="O58" s="14"/>
-      <c r="P58" s="52" t="s">
+      <c r="P58" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="Q58" s="53" t="s">
+      <c r="Q58" s="35" t="s">
         <v>114</v>
       </c>
       <c r="R58" s="12"/>
@@ -7437,14 +7441,14 @@
       <c r="D60" s="9"/>
       <c r="E60" s="11"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="40" t="s">
+      <c r="G60" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="39"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="44"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="14"/>
@@ -7488,10 +7492,10 @@
       <c r="AW60" s="11"/>
       <c r="AX60" s="11"/>
       <c r="AY60" s="14"/>
-      <c r="AZ60" s="52" t="s">
+      <c r="AZ60" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="BA60" s="57" t="s">
+      <c r="BA60" s="39" t="s">
         <v>114</v>
       </c>
       <c r="BB60" s="13"/>
@@ -7519,14 +7523,14 @@
       <c r="C61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="40" t="s">
+      <c r="G61" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="39"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="44"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="14"/>
@@ -7590,10 +7594,10 @@
       </c>
       <c r="AX61" s="11"/>
       <c r="AY61" s="14"/>
-      <c r="AZ61" s="53" t="s">
+      <c r="AZ61" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="BA61" s="53" t="s">
+      <c r="BA61" s="35" t="s">
         <v>114</v>
       </c>
       <c r="BB61" s="13"/>
@@ -7621,14 +7625,14 @@
       <c r="C62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="37" t="s">
+      <c r="D62" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="39"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="44"/>
       <c r="K62" s="11"/>
       <c r="L62" s="12"/>
       <c r="M62" s="11"/>
@@ -7698,10 +7702,10 @@
       <c r="AW62" s="11"/>
       <c r="AX62" s="11"/>
       <c r="AY62" s="14"/>
-      <c r="AZ62" s="53" t="s">
+      <c r="AZ62" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="BA62" s="53" t="s">
+      <c r="BA62" s="35" t="s">
         <v>114</v>
       </c>
       <c r="BB62" s="13"/>
@@ -7982,12 +7986,12 @@
         <v>107</v>
       </c>
       <c r="F66" s="12"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="39"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="44"/>
       <c r="M66" s="11" t="s">
         <v>104</v>
       </c>
@@ -8095,16 +8099,16 @@
         <v>107</v>
       </c>
       <c r="F67" s="12"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="39"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="44"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="14"/>
-      <c r="P67" s="56"/>
+      <c r="P67" s="38"/>
       <c r="Q67" s="33"/>
       <c r="R67" s="12"/>
       <c r="U67" s="12"/>
@@ -8405,14 +8409,14 @@
       <c r="C71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="37" t="s">
+      <c r="D71" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="39"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="44"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="12"/>
@@ -8512,12 +8516,12 @@
       <c r="C72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="34"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="36"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="57"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="12"/>
@@ -8594,14 +8598,14 @@
       <c r="BC72" s="11"/>
       <c r="BD72" s="11"/>
       <c r="BE72" s="12"/>
-      <c r="BF72" s="40" t="s">
+      <c r="BF72" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="BG72" s="38"/>
-      <c r="BH72" s="38"/>
-      <c r="BI72" s="38"/>
-      <c r="BJ72" s="38"/>
-      <c r="BK72" s="39"/>
+      <c r="BG72" s="43"/>
+      <c r="BH72" s="43"/>
+      <c r="BI72" s="43"/>
+      <c r="BJ72" s="43"/>
+      <c r="BK72" s="44"/>
       <c r="BL72" s="11"/>
       <c r="BM72" s="11"/>
       <c r="BN72" s="11"/>
@@ -8617,12 +8621,12 @@
       <c r="C73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="34"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="36"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="57"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
       <c r="L73" s="12"/>
@@ -8765,12 +8769,12 @@
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="34"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="36"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="57"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="12"/>
@@ -8848,14 +8852,14 @@
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="34" t="s">
+      <c r="D76" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="12"/>
@@ -8939,14 +8943,14 @@
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="34" t="s">
+      <c r="D77" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
       <c r="L77" s="12"/>
@@ -9032,14 +9036,14 @@
       <c r="C78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="37" t="s">
+      <c r="D78" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="39"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="44"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
       <c r="L78" s="12"/>
@@ -9181,14 +9185,14 @@
       <c r="C80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="34" t="s">
+      <c r="D80" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
       <c r="L80" s="12"/>
@@ -9258,14 +9262,14 @@
       <c r="C81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="37" t="s">
+      <c r="D81" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="39"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="44"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="12"/>
@@ -9335,14 +9339,14 @@
       <c r="C82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="37" t="s">
+      <c r="D82" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="39"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="44"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="12"/>
@@ -9412,12 +9416,12 @@
       <c r="C83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="34"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="36"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="57"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="12"/>
@@ -9856,12 +9860,77 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="BF72:BK72"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BQ2"/>
-    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="G66:L66"/>
+    <mergeCell ref="G67:L67"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="AK51:AP51"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="AK31:AP31"/>
+    <mergeCell ref="AK32:AP32"/>
+    <mergeCell ref="P47:X47"/>
+    <mergeCell ref="P48:X48"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D40:O40"/>
+    <mergeCell ref="D41:O41"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="AQ1:AY1"/>
+    <mergeCell ref="P26:X26"/>
+    <mergeCell ref="P27:X27"/>
+    <mergeCell ref="P36:X36"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="AT2:AV3"/>
     <mergeCell ref="AZ1:BQ1"/>
     <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="BU3:BW3"/>
@@ -9878,46 +9947,12 @@
     <mergeCell ref="BF3:BH3"/>
     <mergeCell ref="BI3:BK3"/>
     <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="AT2:AV3"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="P26:X26"/>
-    <mergeCell ref="P27:X27"/>
-    <mergeCell ref="P36:X36"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D40:O40"/>
-    <mergeCell ref="D41:O41"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D32:O32"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="BF72:BK72"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="BO3:BQ3"/>
     <mergeCell ref="AZ21:BE21"/>
     <mergeCell ref="AZ50:BE50"/>
     <mergeCell ref="BF5:BK5"/>
@@ -9925,37 +9960,6 @@
     <mergeCell ref="BF40:BK40"/>
     <mergeCell ref="BF42:BK42"/>
     <mergeCell ref="BF43:BK43"/>
-    <mergeCell ref="AK31:AP31"/>
-    <mergeCell ref="AK32:AP32"/>
-    <mergeCell ref="P47:X47"/>
-    <mergeCell ref="P48:X48"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="G54:L54"/>
-    <mergeCell ref="G55:L55"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="G66:L66"/>
-    <mergeCell ref="G67:L67"/>
-    <mergeCell ref="G60:L60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Rozklad_2zaizd.xlsx
+++ b/Rozklad_2zaizd.xlsx
@@ -1168,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1293,45 +1293,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1344,8 +1305,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,10 +1633,10 @@
   <dimension ref="A1:BW90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z28" sqref="Z28"/>
+      <selection pane="bottomRight" activeCell="P58" sqref="P58:Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,277 +1720,277 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="50" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="50" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="50" t="s">
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="50" t="s">
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="50" t="s">
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="51"/>
-      <c r="BL1" s="51"/>
-      <c r="BM1" s="51"/>
-      <c r="BN1" s="51"/>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="51"/>
-      <c r="BQ1" s="52"/>
+      <c r="BA1" s="54"/>
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
+      <c r="BJ1" s="54"/>
+      <c r="BK1" s="54"/>
+      <c r="BL1" s="54"/>
+      <c r="BM1" s="54"/>
+      <c r="BN1" s="54"/>
+      <c r="BO1" s="54"/>
+      <c r="BP1" s="54"/>
+      <c r="BQ1" s="55"/>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="45" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="45" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="45" t="s">
+      <c r="K2" s="51"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47" t="s">
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="45" t="s">
+      <c r="Q2" s="51"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="45"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="45" t="s">
+      <c r="T2" s="51"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="45"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47" t="s">
+      <c r="W2" s="51"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="45" t="s">
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="45" t="s">
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="47" t="s">
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="45" t="s">
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="45" t="s">
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="47" t="s">
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="45" t="s">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="45" t="s">
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="47" t="s">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="45"/>
-      <c r="BE2" s="48"/>
-      <c r="BF2" s="49" t="s">
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="45"/>
-      <c r="BH2" s="45"/>
-      <c r="BI2" s="45"/>
-      <c r="BJ2" s="45"/>
-      <c r="BK2" s="48"/>
-      <c r="BL2" s="45" t="s">
+      <c r="BG2" s="51"/>
+      <c r="BH2" s="51"/>
+      <c r="BI2" s="51"/>
+      <c r="BJ2" s="51"/>
+      <c r="BK2" s="56"/>
+      <c r="BL2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="45"/>
-      <c r="BN2" s="45"/>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="46"/>
+      <c r="BM2" s="51"/>
+      <c r="BN2" s="51"/>
+      <c r="BO2" s="51"/>
+      <c r="BP2" s="51"/>
+      <c r="BQ2" s="52"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="D3" s="47"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="48"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="47" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="53"/>
-      <c r="BC3" s="45" t="s">
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="58"/>
+      <c r="BC3" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="45"/>
-      <c r="BE3" s="48"/>
-      <c r="BF3" s="49" t="s">
+      <c r="BD3" s="51"/>
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="53"/>
-      <c r="BI3" s="45" t="s">
+      <c r="BG3" s="51"/>
+      <c r="BH3" s="58"/>
+      <c r="BI3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="48"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="53"/>
-      <c r="BO3" s="45" t="s">
+      <c r="BJ3" s="51"/>
+      <c r="BK3" s="56"/>
+      <c r="BL3" s="51"/>
+      <c r="BM3" s="51"/>
+      <c r="BN3" s="58"/>
+      <c r="BO3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="BP3" s="45"/>
-      <c r="BQ3" s="46"/>
-      <c r="BR3" s="54"/>
-      <c r="BS3" s="54"/>
-      <c r="BT3" s="54"/>
-      <c r="BU3" s="54"/>
-      <c r="BV3" s="54"/>
-      <c r="BW3" s="54"/>
+      <c r="BP3" s="51"/>
+      <c r="BQ3" s="52"/>
+      <c r="BR3" s="57"/>
+      <c r="BS3" s="57"/>
+      <c r="BT3" s="57"/>
+      <c r="BU3" s="57"/>
+      <c r="BV3" s="57"/>
+      <c r="BW3" s="57"/>
     </row>
     <row r="4" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2205,14 +2208,14 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="48"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="56"/>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
       <c r="M5" s="4" t="s">
@@ -2302,14 +2305,14 @@
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="49" t="s">
+      <c r="BF5" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="48"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="56"/>
       <c r="BL5" s="11"/>
       <c r="BM5" s="11"/>
       <c r="BN5" s="13"/>
@@ -2325,14 +2328,14 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="48"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
@@ -2423,14 +2426,14 @@
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="5"/>
-      <c r="BF6" s="49" t="s">
+      <c r="BF6" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="BG6" s="45"/>
-      <c r="BH6" s="45"/>
-      <c r="BI6" s="45"/>
-      <c r="BJ6" s="45"/>
-      <c r="BK6" s="48"/>
+      <c r="BG6" s="51"/>
+      <c r="BH6" s="51"/>
+      <c r="BI6" s="51"/>
+      <c r="BJ6" s="51"/>
+      <c r="BK6" s="56"/>
       <c r="BL6" s="11"/>
       <c r="BM6" s="11"/>
       <c r="BN6" s="13"/>
@@ -2446,14 +2449,14 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="48"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
@@ -2557,20 +2560,20 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="52"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
@@ -2720,20 +2723,20 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="59"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="49"/>
       <c r="P10" s="36" t="s">
         <v>113</v>
       </c>
@@ -2833,20 +2836,20 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="59"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="49"/>
       <c r="P11" s="36" t="s">
         <v>113</v>
       </c>
@@ -2952,14 +2955,14 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="12"/>
@@ -3071,14 +3074,14 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
@@ -3347,20 +3350,20 @@
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="59"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="49"/>
       <c r="P16" s="9" t="s">
         <v>58</v>
       </c>
@@ -3468,20 +3471,20 @@
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="59"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="49"/>
       <c r="P17" s="9" t="s">
         <v>58</v>
       </c>
@@ -3815,14 +3818,14 @@
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="12"/>
@@ -3907,14 +3910,14 @@
       <c r="AW21" s="11"/>
       <c r="AX21" s="11"/>
       <c r="AY21" s="14"/>
-      <c r="AZ21" s="58" t="s">
+      <c r="AZ21" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="BA21" s="43"/>
-      <c r="BB21" s="43"/>
-      <c r="BC21" s="43"/>
-      <c r="BD21" s="43"/>
-      <c r="BE21" s="44"/>
+      <c r="BA21" s="46"/>
+      <c r="BB21" s="46"/>
+      <c r="BC21" s="46"/>
+      <c r="BD21" s="46"/>
+      <c r="BE21" s="47"/>
       <c r="BF21" s="11"/>
       <c r="BG21" s="11"/>
       <c r="BH21" s="13"/>
@@ -3936,14 +3939,14 @@
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="12"/>
@@ -4203,20 +4206,20 @@
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="59"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="49"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="12"/>
@@ -4280,14 +4283,14 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
       <c r="J26" s="11" t="s">
         <v>91</v>
       </c>
@@ -4302,17 +4305,17 @@
         <v>63</v>
       </c>
       <c r="O26" s="14"/>
-      <c r="P26" s="58" t="s">
+      <c r="P26" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="59"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="49"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="15" t="s">
         <v>67</v>
@@ -4389,14 +4392,14 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="12"/>
@@ -4407,17 +4410,17 @@
         <v>63</v>
       </c>
       <c r="O27" s="14"/>
-      <c r="P27" s="58" t="s">
+      <c r="P27" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="59"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="49"/>
       <c r="Y27" s="36" t="s">
         <v>165</v>
       </c>
@@ -4576,14 +4579,14 @@
       <c r="BQ28" s="14"/>
     </row>
     <row r="29" spans="1:69" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="12"/>
@@ -4649,7 +4652,7 @@
       <c r="BP29" s="11"/>
       <c r="BQ29" s="14"/>
     </row>
-    <row r="30" spans="1:69" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -4665,8 +4668,12 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="14"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="11"/>
+      <c r="P30" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q30" s="35" t="s">
+        <v>114</v>
+      </c>
       <c r="R30" s="12"/>
       <c r="S30" s="11" t="s">
         <v>72</v>
@@ -4734,20 +4741,20 @@
       <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="59"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="49"/>
       <c r="P31" s="9" t="s">
         <v>116</v>
       </c>
@@ -4797,14 +4804,14 @@
         <v>224</v>
       </c>
       <c r="AJ31" s="12"/>
-      <c r="AK31" s="42" t="s">
+      <c r="AK31" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="AL31" s="43"/>
-      <c r="AM31" s="43"/>
-      <c r="AN31" s="43"/>
-      <c r="AO31" s="43"/>
-      <c r="AP31" s="59"/>
+      <c r="AL31" s="46"/>
+      <c r="AM31" s="46"/>
+      <c r="AN31" s="46"/>
+      <c r="AO31" s="46"/>
+      <c r="AP31" s="49"/>
       <c r="AQ31" s="9" t="s">
         <v>262</v>
       </c>
@@ -4843,20 +4850,20 @@
       <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="59"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="49"/>
       <c r="P32" s="9" t="s">
         <v>58</v>
       </c>
@@ -4894,14 +4901,14 @@
       <c r="AH32" s="9"/>
       <c r="AI32" s="11"/>
       <c r="AJ32" s="12"/>
-      <c r="AK32" s="42" t="s">
+      <c r="AK32" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="AL32" s="43"/>
-      <c r="AM32" s="43"/>
-      <c r="AN32" s="43"/>
-      <c r="AO32" s="43"/>
-      <c r="AP32" s="59"/>
+      <c r="AL32" s="46"/>
+      <c r="AM32" s="46"/>
+      <c r="AN32" s="46"/>
+      <c r="AO32" s="46"/>
+      <c r="AP32" s="49"/>
       <c r="AQ32" s="10" t="s">
         <v>102</v>
       </c>
@@ -5015,14 +5022,14 @@
       <c r="C34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="12"/>
@@ -5185,14 +5192,14 @@
       <c r="C36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="58" t="s">
+      <c r="D36" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="47"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="12"/>
@@ -5203,17 +5210,17 @@
         <v>63</v>
       </c>
       <c r="O36" s="14"/>
-      <c r="P36" s="58" t="s">
+      <c r="P36" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="59"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="49"/>
       <c r="Y36" s="9" t="s">
         <v>79</v>
       </c>
@@ -5278,14 +5285,14 @@
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="47"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="12"/>
@@ -5540,20 +5547,20 @@
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="46"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="52"/>
       <c r="P40" s="9" t="s">
         <v>124</v>
       </c>
@@ -5630,14 +5637,14 @@
       <c r="BC40" s="11"/>
       <c r="BD40" s="11"/>
       <c r="BE40" s="12"/>
-      <c r="BF40" s="49" t="s">
+      <c r="BF40" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="BG40" s="45"/>
-      <c r="BH40" s="45"/>
-      <c r="BI40" s="45"/>
-      <c r="BJ40" s="45"/>
-      <c r="BK40" s="48"/>
+      <c r="BG40" s="51"/>
+      <c r="BH40" s="51"/>
+      <c r="BI40" s="51"/>
+      <c r="BJ40" s="51"/>
+      <c r="BK40" s="56"/>
       <c r="BL40" s="11"/>
       <c r="BM40" s="11"/>
       <c r="BN40" s="13"/>
@@ -5653,20 +5660,20 @@
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="46"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="52"/>
       <c r="P41" s="9" t="s">
         <v>124</v>
       </c>
@@ -5763,14 +5770,14 @@
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="44"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="47"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="12"/>
@@ -5857,14 +5864,14 @@
       <c r="BC42" s="11"/>
       <c r="BD42" s="11"/>
       <c r="BE42" s="12"/>
-      <c r="BF42" s="42" t="s">
+      <c r="BF42" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="BG42" s="43"/>
-      <c r="BH42" s="43"/>
-      <c r="BI42" s="43"/>
-      <c r="BJ42" s="43"/>
-      <c r="BK42" s="44"/>
+      <c r="BG42" s="46"/>
+      <c r="BH42" s="46"/>
+      <c r="BI42" s="46"/>
+      <c r="BJ42" s="46"/>
+      <c r="BK42" s="47"/>
       <c r="BL42" s="11"/>
       <c r="BM42" s="11"/>
       <c r="BN42" s="13"/>
@@ -5880,14 +5887,14 @@
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="D43" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="44"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="47"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="12"/>
@@ -5899,7 +5906,7 @@
       </c>
       <c r="O43" s="14"/>
       <c r="P43" s="36" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q43" s="37" t="s">
         <v>114</v>
@@ -5964,14 +5971,14 @@
       <c r="BC43" s="11"/>
       <c r="BD43" s="11"/>
       <c r="BE43" s="12"/>
-      <c r="BF43" s="42" t="s">
+      <c r="BF43" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="BG43" s="43"/>
-      <c r="BH43" s="43"/>
-      <c r="BI43" s="43"/>
-      <c r="BJ43" s="43"/>
-      <c r="BK43" s="44"/>
+      <c r="BG43" s="46"/>
+      <c r="BH43" s="46"/>
+      <c r="BI43" s="46"/>
+      <c r="BJ43" s="46"/>
+      <c r="BK43" s="47"/>
       <c r="BL43" s="11"/>
       <c r="BM43" s="11"/>
       <c r="BN43" s="13"/>
@@ -6057,14 +6064,14 @@
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="57"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="44"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="12"/>
@@ -6158,14 +6165,14 @@
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="57"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="44"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="12"/>
@@ -6263,31 +6270,31 @@
       <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="57"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="44"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="12"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="14"/>
-      <c r="P47" s="58" t="s">
+      <c r="P47" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="59"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="49"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="11"/>
       <c r="AA47" s="12"/>
@@ -6358,31 +6365,31 @@
       <c r="C48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="57"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="44"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="12"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="14"/>
-      <c r="P48" s="58" t="s">
+      <c r="P48" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="43"/>
-      <c r="X48" s="59"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="49"/>
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
@@ -6586,14 +6593,14 @@
       <c r="AW50" s="11"/>
       <c r="AX50" s="11"/>
       <c r="AY50" s="14"/>
-      <c r="AZ50" s="58" t="s">
+      <c r="AZ50" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="BA50" s="43"/>
-      <c r="BB50" s="43"/>
-      <c r="BC50" s="43"/>
-      <c r="BD50" s="43"/>
-      <c r="BE50" s="44"/>
+      <c r="BA50" s="46"/>
+      <c r="BB50" s="46"/>
+      <c r="BC50" s="46"/>
+      <c r="BD50" s="46"/>
+      <c r="BE50" s="47"/>
       <c r="BF50" s="11"/>
       <c r="BG50" s="11"/>
       <c r="BH50" s="13"/>
@@ -6618,14 +6625,14 @@
       <c r="D51" s="9"/>
       <c r="E51" s="11"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="42" t="s">
+      <c r="G51" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="44"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="47"/>
       <c r="M51" s="10" t="s">
         <v>89</v>
       </c>
@@ -6678,14 +6685,14 @@
       <c r="AH51" s="11"/>
       <c r="AI51" s="11"/>
       <c r="AJ51" s="12"/>
-      <c r="AK51" s="42" t="s">
+      <c r="AK51" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="AL51" s="43"/>
-      <c r="AM51" s="43"/>
-      <c r="AN51" s="43"/>
-      <c r="AO51" s="43"/>
-      <c r="AP51" s="59"/>
+      <c r="AL51" s="46"/>
+      <c r="AM51" s="46"/>
+      <c r="AN51" s="46"/>
+      <c r="AO51" s="46"/>
+      <c r="AP51" s="49"/>
       <c r="AQ51" s="11"/>
       <c r="AR51" s="11"/>
       <c r="AS51" s="12"/>
@@ -6719,14 +6726,14 @@
       <c r="D52" s="9"/>
       <c r="E52" s="11"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="42" t="s">
+      <c r="G52" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="44"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="47"/>
       <c r="M52" s="10" t="s">
         <v>89</v>
       </c>
@@ -6898,14 +6905,14 @@
       <c r="D54" s="9"/>
       <c r="E54" s="11"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="44"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="47"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="14"/>
@@ -6977,14 +6984,14 @@
       <c r="D55" s="9"/>
       <c r="E55" s="11"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="42" t="s">
+      <c r="G55" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="44"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="47"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="14"/>
@@ -7051,14 +7058,14 @@
       <c r="C56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
       <c r="M56" s="11" t="s">
         <v>105</v>
       </c>
@@ -7161,14 +7168,14 @@
       <c r="C57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
       <c r="M57" s="11" t="s">
         <v>105</v>
       </c>
@@ -7282,12 +7289,8 @@
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
       <c r="O58" s="14"/>
-      <c r="P58" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q58" s="35" t="s">
-        <v>114</v>
-      </c>
+      <c r="P58" s="60"/>
+      <c r="Q58" s="32"/>
       <c r="R58" s="12"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
@@ -7441,14 +7444,14 @@
       <c r="D60" s="9"/>
       <c r="E60" s="11"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="42" t="s">
+      <c r="G60" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="44"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="47"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="14"/>
@@ -7523,14 +7526,14 @@
       <c r="C61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="42" t="s">
+      <c r="G61" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="44"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="47"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="14"/>
@@ -7625,14 +7628,14 @@
       <c r="C62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="58" t="s">
+      <c r="D62" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="44"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="47"/>
       <c r="K62" s="11"/>
       <c r="L62" s="12"/>
       <c r="M62" s="11"/>
@@ -7986,12 +7989,12 @@
         <v>107</v>
       </c>
       <c r="F66" s="12"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="44"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="47"/>
       <c r="M66" s="11" t="s">
         <v>104</v>
       </c>
@@ -8099,12 +8102,12 @@
         <v>107</v>
       </c>
       <c r="F67" s="12"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="44"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="47"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="14"/>
@@ -8409,14 +8412,14 @@
       <c r="C71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="58" t="s">
+      <c r="D71" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="44"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="47"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="12"/>
@@ -8516,12 +8519,12 @@
       <c r="C72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="55"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="57"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="44"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="12"/>
@@ -8598,14 +8601,14 @@
       <c r="BC72" s="11"/>
       <c r="BD72" s="11"/>
       <c r="BE72" s="12"/>
-      <c r="BF72" s="42" t="s">
+      <c r="BF72" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="BG72" s="43"/>
-      <c r="BH72" s="43"/>
-      <c r="BI72" s="43"/>
-      <c r="BJ72" s="43"/>
-      <c r="BK72" s="44"/>
+      <c r="BG72" s="46"/>
+      <c r="BH72" s="46"/>
+      <c r="BI72" s="46"/>
+      <c r="BJ72" s="46"/>
+      <c r="BK72" s="47"/>
       <c r="BL72" s="11"/>
       <c r="BM72" s="11"/>
       <c r="BN72" s="11"/>
@@ -8621,12 +8624,12 @@
       <c r="C73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="55"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="57"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="44"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
       <c r="L73" s="12"/>
@@ -8769,12 +8772,12 @@
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="55"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="57"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="44"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="12"/>
@@ -8852,14 +8855,14 @@
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="55" t="s">
+      <c r="D76" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="12"/>
@@ -8943,14 +8946,14 @@
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="55" t="s">
+      <c r="D77" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
       <c r="L77" s="12"/>
@@ -9036,14 +9039,14 @@
       <c r="C78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="58" t="s">
+      <c r="D78" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="44"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="47"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
       <c r="L78" s="12"/>
@@ -9185,14 +9188,14 @@
       <c r="C80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="55" t="s">
+      <c r="D80" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
       <c r="L80" s="12"/>
@@ -9262,14 +9265,14 @@
       <c r="C81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="58" t="s">
+      <c r="D81" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="44"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="47"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="12"/>
@@ -9339,14 +9342,14 @@
       <c r="C82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="58" t="s">
+      <c r="D82" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="44"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="47"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="12"/>
@@ -9416,12 +9419,12 @@
       <c r="C83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="55"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="57"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="44"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="12"/>
@@ -9860,6 +9863,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="BF72:BK72"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="AZ21:BE21"/>
+    <mergeCell ref="AZ50:BE50"/>
+    <mergeCell ref="BF5:BK5"/>
+    <mergeCell ref="BF6:BK6"/>
+    <mergeCell ref="BF40:BK40"/>
+    <mergeCell ref="BF42:BK42"/>
+    <mergeCell ref="BF43:BK43"/>
+    <mergeCell ref="AZ1:BQ1"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="S2:U3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="AT2:AV3"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="AQ1:AY1"/>
+    <mergeCell ref="P26:X26"/>
+    <mergeCell ref="P27:X27"/>
+    <mergeCell ref="P36:X36"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D40:O40"/>
+    <mergeCell ref="D41:O41"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="AK51:AP51"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="AK31:AP31"/>
+    <mergeCell ref="AK32:AP32"/>
+    <mergeCell ref="P47:X47"/>
+    <mergeCell ref="P48:X48"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D43:I43"/>
     <mergeCell ref="D83:I83"/>
     <mergeCell ref="D56:I56"/>
     <mergeCell ref="D57:I57"/>
@@ -9876,90 +9963,6 @@
     <mergeCell ref="G66:L66"/>
     <mergeCell ref="G67:L67"/>
     <mergeCell ref="G60:L60"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="G54:L54"/>
-    <mergeCell ref="G55:L55"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="AK31:AP31"/>
-    <mergeCell ref="AK32:AP32"/>
-    <mergeCell ref="P47:X47"/>
-    <mergeCell ref="P48:X48"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D40:O40"/>
-    <mergeCell ref="D41:O41"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D32:O32"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="P26:X26"/>
-    <mergeCell ref="P27:X27"/>
-    <mergeCell ref="P36:X36"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="AT2:AV3"/>
-    <mergeCell ref="AZ1:BQ1"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="P2:R3"/>
-    <mergeCell ref="S2:U3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BF72:BK72"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BQ2"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="AZ21:BE21"/>
-    <mergeCell ref="AZ50:BE50"/>
-    <mergeCell ref="BF5:BK5"/>
-    <mergeCell ref="BF6:BK6"/>
-    <mergeCell ref="BF40:BK40"/>
-    <mergeCell ref="BF42:BK42"/>
-    <mergeCell ref="BF43:BK43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Rozklad_2zaizd.xlsx
+++ b/Rozklad_2zaizd.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="S29" authorId="0" shapeId="0">
+    <comment ref="S29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S30" authorId="0" shapeId="0">
+    <comment ref="S30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S59" authorId="0" shapeId="0">
+    <comment ref="S59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="274">
   <si>
     <t>І</t>
   </si>
@@ -904,12 +904,15 @@
   </si>
   <si>
     <t>Грунтознавство (залік)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1168,7 +1171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1293,16 +1296,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1311,20 +1308,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1335,19 +1335,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1410,7 +1428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1445,7 +1463,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1622,7 +1640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1633,10 +1651,10 @@
   <dimension ref="A1:BW90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AL27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P58" sqref="P58:Q58"/>
+      <selection pane="bottomRight" activeCell="BF36" sqref="BF36:BK37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,9 +1695,9 @@
     <col min="34" max="34" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14" style="10" customWidth="1"/>
     <col min="38" max="38" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.85546875" style="10" customWidth="1"/>
     <col min="40" max="40" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="5" style="10" bestFit="1" customWidth="1"/>
@@ -1720,277 +1738,277 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="53" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="53" t="s">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="53" t="s">
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="53" t="s">
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="53" t="s">
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="54"/>
-      <c r="BB1" s="54"/>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="54"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="54"/>
-      <c r="BH1" s="54"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="54"/>
-      <c r="BK1" s="54"/>
-      <c r="BL1" s="54"/>
-      <c r="BM1" s="54"/>
-      <c r="BN1" s="54"/>
-      <c r="BO1" s="54"/>
-      <c r="BP1" s="54"/>
-      <c r="BQ1" s="55"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="53"/>
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="53"/>
+      <c r="BG1" s="53"/>
+      <c r="BH1" s="53"/>
+      <c r="BI1" s="53"/>
+      <c r="BJ1" s="53"/>
+      <c r="BK1" s="53"/>
+      <c r="BL1" s="53"/>
+      <c r="BM1" s="53"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="54"/>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="51" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="51" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="51" t="s">
+      <c r="K2" s="46"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="50" t="s">
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="51" t="s">
+      <c r="Q2" s="46"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="51"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="51" t="s">
+      <c r="T2" s="46"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="51"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="50" t="s">
+      <c r="W2" s="46"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="51" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="51" t="s">
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="50" t="s">
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="51" t="s">
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="51" t="s">
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="50" t="s">
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="51" t="s">
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="50" t="s">
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="56"/>
-      <c r="BF2" s="59" t="s">
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
-      <c r="BJ2" s="51"/>
-      <c r="BK2" s="56"/>
-      <c r="BL2" s="51" t="s">
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="51"/>
-      <c r="BN2" s="51"/>
-      <c r="BO2" s="51"/>
-      <c r="BP2" s="51"/>
-      <c r="BQ2" s="52"/>
+      <c r="BM2" s="46"/>
+      <c r="BN2" s="46"/>
+      <c r="BO2" s="46"/>
+      <c r="BP2" s="46"/>
+      <c r="BQ2" s="47"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="50" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="51"/>
-      <c r="BB3" s="58"/>
-      <c r="BC3" s="51" t="s">
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="55"/>
+      <c r="BC3" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="51"/>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="59" t="s">
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="49"/>
+      <c r="BF3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="51"/>
-      <c r="BH3" s="58"/>
-      <c r="BI3" s="51" t="s">
+      <c r="BG3" s="46"/>
+      <c r="BH3" s="55"/>
+      <c r="BI3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="51"/>
-      <c r="BK3" s="56"/>
-      <c r="BL3" s="51"/>
-      <c r="BM3" s="51"/>
-      <c r="BN3" s="58"/>
-      <c r="BO3" s="51" t="s">
+      <c r="BJ3" s="46"/>
+      <c r="BK3" s="49"/>
+      <c r="BL3" s="46"/>
+      <c r="BM3" s="46"/>
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="BP3" s="51"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="57"/>
-      <c r="BS3" s="57"/>
-      <c r="BT3" s="57"/>
-      <c r="BU3" s="57"/>
-      <c r="BV3" s="57"/>
-      <c r="BW3" s="57"/>
+      <c r="BP3" s="46"/>
+      <c r="BQ3" s="47"/>
+      <c r="BR3" s="56"/>
+      <c r="BS3" s="56"/>
+      <c r="BT3" s="56"/>
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="56"/>
     </row>
     <row r="4" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2208,14 +2226,14 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="56"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="49"/>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
       <c r="M5" s="4" t="s">
@@ -2305,14 +2323,14 @@
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="59" t="s">
+      <c r="BF5" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="BG5" s="51"/>
-      <c r="BH5" s="51"/>
-      <c r="BI5" s="51"/>
-      <c r="BJ5" s="51"/>
-      <c r="BK5" s="56"/>
+      <c r="BG5" s="46"/>
+      <c r="BH5" s="46"/>
+      <c r="BI5" s="46"/>
+      <c r="BJ5" s="46"/>
+      <c r="BK5" s="49"/>
       <c r="BL5" s="11"/>
       <c r="BM5" s="11"/>
       <c r="BN5" s="13"/>
@@ -2328,14 +2346,14 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="56"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
@@ -2426,14 +2444,14 @@
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="5"/>
-      <c r="BF6" s="59" t="s">
+      <c r="BF6" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="BG6" s="51"/>
-      <c r="BH6" s="51"/>
-      <c r="BI6" s="51"/>
-      <c r="BJ6" s="51"/>
-      <c r="BK6" s="56"/>
+      <c r="BG6" s="46"/>
+      <c r="BH6" s="46"/>
+      <c r="BI6" s="46"/>
+      <c r="BJ6" s="46"/>
+      <c r="BK6" s="49"/>
       <c r="BL6" s="11"/>
       <c r="BM6" s="11"/>
       <c r="BN6" s="13"/>
@@ -2449,14 +2467,14 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="56"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
@@ -2560,20 +2578,20 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="47"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
@@ -2723,20 +2741,20 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="49"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="60"/>
       <c r="P10" s="36" t="s">
         <v>113</v>
       </c>
@@ -2836,20 +2854,20 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="49"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="60"/>
       <c r="P11" s="36" t="s">
         <v>113</v>
       </c>
@@ -2955,14 +2973,14 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="12"/>
@@ -3074,14 +3092,14 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
@@ -3350,20 +3368,20 @@
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="49"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="60"/>
       <c r="P16" s="9" t="s">
         <v>58</v>
       </c>
@@ -3471,20 +3489,20 @@
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="49"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="60"/>
       <c r="P17" s="9" t="s">
         <v>58</v>
       </c>
@@ -3818,14 +3836,14 @@
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="12"/>
@@ -3910,14 +3928,14 @@
       <c r="AW21" s="11"/>
       <c r="AX21" s="11"/>
       <c r="AY21" s="14"/>
-      <c r="AZ21" s="45" t="s">
+      <c r="AZ21" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="BA21" s="46"/>
-      <c r="BB21" s="46"/>
-      <c r="BC21" s="46"/>
-      <c r="BD21" s="46"/>
-      <c r="BE21" s="47"/>
+      <c r="BA21" s="44"/>
+      <c r="BB21" s="44"/>
+      <c r="BC21" s="44"/>
+      <c r="BD21" s="44"/>
+      <c r="BE21" s="45"/>
       <c r="BF21" s="11"/>
       <c r="BG21" s="11"/>
       <c r="BH21" s="13"/>
@@ -3939,14 +3957,14 @@
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="12"/>
@@ -4206,20 +4224,20 @@
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="49"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="60"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="12"/>
@@ -4283,14 +4301,14 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="11" t="s">
         <v>91</v>
       </c>
@@ -4305,17 +4323,17 @@
         <v>63</v>
       </c>
       <c r="O26" s="14"/>
-      <c r="P26" s="45" t="s">
+      <c r="P26" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="49"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="60"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="15" t="s">
         <v>67</v>
@@ -4392,14 +4410,14 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="12"/>
@@ -4410,17 +4428,17 @@
         <v>63</v>
       </c>
       <c r="O27" s="14"/>
-      <c r="P27" s="45" t="s">
+      <c r="P27" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="49"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="60"/>
       <c r="Y27" s="36" t="s">
         <v>165</v>
       </c>
@@ -4579,14 +4597,14 @@
       <c r="BQ28" s="14"/>
     </row>
     <row r="29" spans="1:69" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="12"/>
@@ -4741,20 +4759,20 @@
       <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="49"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="60"/>
       <c r="P31" s="9" t="s">
         <v>116</v>
       </c>
@@ -4804,14 +4822,14 @@
         <v>224</v>
       </c>
       <c r="AJ31" s="12"/>
-      <c r="AK31" s="48" t="s">
+      <c r="AK31" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="AL31" s="46"/>
-      <c r="AM31" s="46"/>
-      <c r="AN31" s="46"/>
-      <c r="AO31" s="46"/>
-      <c r="AP31" s="49"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="44"/>
+      <c r="AP31" s="60"/>
       <c r="AQ31" s="9" t="s">
         <v>262</v>
       </c>
@@ -4850,20 +4868,20 @@
       <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="49"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="60"/>
       <c r="P32" s="9" t="s">
         <v>58</v>
       </c>
@@ -4901,14 +4919,14 @@
       <c r="AH32" s="9"/>
       <c r="AI32" s="11"/>
       <c r="AJ32" s="12"/>
-      <c r="AK32" s="48" t="s">
+      <c r="AK32" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="AL32" s="46"/>
-      <c r="AM32" s="46"/>
-      <c r="AN32" s="46"/>
-      <c r="AO32" s="46"/>
-      <c r="AP32" s="49"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="60"/>
       <c r="AQ32" s="10" t="s">
         <v>102</v>
       </c>
@@ -5022,14 +5040,14 @@
       <c r="C34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="12"/>
@@ -5142,13 +5160,13 @@
         <v>224</v>
       </c>
       <c r="AJ35" s="12"/>
-      <c r="AK35" s="10" t="s">
+      <c r="AK35" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="AL35" s="10" t="s">
+      <c r="AL35" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="AM35" s="12"/>
+      <c r="AM35" s="64"/>
       <c r="AN35" s="11"/>
       <c r="AO35" s="11"/>
       <c r="AP35" s="14"/>
@@ -5192,14 +5210,14 @@
       <c r="C36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="12"/>
@@ -5210,17 +5228,17 @@
         <v>63</v>
       </c>
       <c r="O36" s="14"/>
-      <c r="P36" s="45" t="s">
+      <c r="P36" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="49"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="60"/>
       <c r="Y36" s="9" t="s">
         <v>79</v>
       </c>
@@ -5264,12 +5282,14 @@
       <c r="BC36" s="11"/>
       <c r="BD36" s="11"/>
       <c r="BE36" s="12"/>
-      <c r="BF36" s="11"/>
-      <c r="BG36" s="11"/>
-      <c r="BH36" s="13"/>
-      <c r="BI36" s="11"/>
-      <c r="BJ36" s="11"/>
-      <c r="BK36" s="12"/>
+      <c r="BF36" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="BG36" s="62"/>
+      <c r="BH36" s="62"/>
+      <c r="BI36" s="62"/>
+      <c r="BJ36" s="62"/>
+      <c r="BK36" s="63"/>
       <c r="BL36" s="11"/>
       <c r="BM36" s="11"/>
       <c r="BN36" s="13"/>
@@ -5285,14 +5305,14 @@
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="D37" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="47"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="12"/>
@@ -5365,12 +5385,14 @@
       <c r="BC37" s="11"/>
       <c r="BD37" s="11"/>
       <c r="BE37" s="12"/>
-      <c r="BF37" s="11"/>
-      <c r="BG37" s="11"/>
-      <c r="BH37" s="13"/>
-      <c r="BI37" s="11"/>
-      <c r="BJ37" s="11"/>
-      <c r="BK37" s="12"/>
+      <c r="BF37" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="BG37" s="62"/>
+      <c r="BH37" s="62"/>
+      <c r="BI37" s="62"/>
+      <c r="BJ37" s="62"/>
+      <c r="BK37" s="63"/>
       <c r="BL37" s="11"/>
       <c r="BM37" s="11"/>
       <c r="BN37" s="13"/>
@@ -5547,20 +5569,20 @@
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="52"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="47"/>
       <c r="P40" s="9" t="s">
         <v>124</v>
       </c>
@@ -5637,14 +5659,14 @@
       <c r="BC40" s="11"/>
       <c r="BD40" s="11"/>
       <c r="BE40" s="12"/>
-      <c r="BF40" s="59" t="s">
+      <c r="BF40" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="BG40" s="51"/>
-      <c r="BH40" s="51"/>
-      <c r="BI40" s="51"/>
-      <c r="BJ40" s="51"/>
-      <c r="BK40" s="56"/>
+      <c r="BG40" s="46"/>
+      <c r="BH40" s="46"/>
+      <c r="BI40" s="46"/>
+      <c r="BJ40" s="46"/>
+      <c r="BK40" s="49"/>
       <c r="BL40" s="11"/>
       <c r="BM40" s="11"/>
       <c r="BN40" s="13"/>
@@ -5660,20 +5682,20 @@
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="52"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="47"/>
       <c r="P41" s="9" t="s">
         <v>124</v>
       </c>
@@ -5770,14 +5792,14 @@
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="47"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="12"/>
@@ -5864,14 +5886,6 @@
       <c r="BC42" s="11"/>
       <c r="BD42" s="11"/>
       <c r="BE42" s="12"/>
-      <c r="BF42" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="BG42" s="46"/>
-      <c r="BH42" s="46"/>
-      <c r="BI42" s="46"/>
-      <c r="BJ42" s="46"/>
-      <c r="BK42" s="47"/>
       <c r="BL42" s="11"/>
       <c r="BM42" s="11"/>
       <c r="BN42" s="13"/>
@@ -5887,14 +5901,14 @@
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="47"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="45"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="12"/>
@@ -5971,14 +5985,6 @@
       <c r="BC43" s="11"/>
       <c r="BD43" s="11"/>
       <c r="BE43" s="12"/>
-      <c r="BF43" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="BG43" s="46"/>
-      <c r="BH43" s="46"/>
-      <c r="BI43" s="46"/>
-      <c r="BJ43" s="46"/>
-      <c r="BK43" s="47"/>
       <c r="BL43" s="11"/>
       <c r="BM43" s="11"/>
       <c r="BN43" s="13"/>
@@ -6064,14 +6070,14 @@
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="12"/>
@@ -6165,14 +6171,14 @@
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="44"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="59"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="12"/>
@@ -6270,31 +6276,31 @@
       <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="59"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="12"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="14"/>
-      <c r="P47" s="45" t="s">
+      <c r="P47" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
-      <c r="X47" s="49"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="60"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="11"/>
       <c r="AA47" s="12"/>
@@ -6365,31 +6371,31 @@
       <c r="C48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="44"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="59"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="12"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="14"/>
-      <c r="P48" s="45" t="s">
+      <c r="P48" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="49"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="60"/>
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
@@ -6593,14 +6599,14 @@
       <c r="AW50" s="11"/>
       <c r="AX50" s="11"/>
       <c r="AY50" s="14"/>
-      <c r="AZ50" s="45" t="s">
+      <c r="AZ50" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="BA50" s="46"/>
-      <c r="BB50" s="46"/>
-      <c r="BC50" s="46"/>
-      <c r="BD50" s="46"/>
-      <c r="BE50" s="47"/>
+      <c r="BA50" s="44"/>
+      <c r="BB50" s="44"/>
+      <c r="BC50" s="44"/>
+      <c r="BD50" s="44"/>
+      <c r="BE50" s="45"/>
       <c r="BF50" s="11"/>
       <c r="BG50" s="11"/>
       <c r="BH50" s="13"/>
@@ -6625,14 +6631,14 @@
       <c r="D51" s="9"/>
       <c r="E51" s="11"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="48" t="s">
+      <c r="G51" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="47"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="45"/>
       <c r="M51" s="10" t="s">
         <v>89</v>
       </c>
@@ -6685,14 +6691,14 @@
       <c r="AH51" s="11"/>
       <c r="AI51" s="11"/>
       <c r="AJ51" s="12"/>
-      <c r="AK51" s="48" t="s">
+      <c r="AK51" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="AL51" s="46"/>
-      <c r="AM51" s="46"/>
-      <c r="AN51" s="46"/>
-      <c r="AO51" s="46"/>
-      <c r="AP51" s="49"/>
+      <c r="AL51" s="44"/>
+      <c r="AM51" s="44"/>
+      <c r="AN51" s="44"/>
+      <c r="AO51" s="44"/>
+      <c r="AP51" s="60"/>
       <c r="AQ51" s="11"/>
       <c r="AR51" s="11"/>
       <c r="AS51" s="12"/>
@@ -6726,14 +6732,14 @@
       <c r="D52" s="9"/>
       <c r="E52" s="11"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="48" t="s">
+      <c r="G52" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="47"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="45"/>
       <c r="M52" s="10" t="s">
         <v>89</v>
       </c>
@@ -6905,14 +6911,14 @@
       <c r="D54" s="9"/>
       <c r="E54" s="11"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="48" t="s">
+      <c r="G54" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="47"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="45"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="14"/>
@@ -6984,14 +6990,14 @@
       <c r="D55" s="9"/>
       <c r="E55" s="11"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="48" t="s">
+      <c r="G55" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="47"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="45"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="14"/>
@@ -7058,14 +7064,14 @@
       <c r="C56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
       <c r="M56" s="11" t="s">
         <v>105</v>
       </c>
@@ -7168,14 +7174,14 @@
       <c r="C57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
       <c r="M57" s="11" t="s">
         <v>105</v>
       </c>
@@ -7289,7 +7295,7 @@
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
       <c r="O58" s="14"/>
-      <c r="P58" s="60"/>
+      <c r="P58" s="42"/>
       <c r="Q58" s="32"/>
       <c r="R58" s="12"/>
       <c r="S58" s="11"/>
@@ -7444,14 +7450,14 @@
       <c r="D60" s="9"/>
       <c r="E60" s="11"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="48" t="s">
+      <c r="G60" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="47"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="45"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="14"/>
@@ -7526,14 +7532,14 @@
       <c r="C61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="48" t="s">
+      <c r="G61" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="47"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="45"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="14"/>
@@ -7628,14 +7634,14 @@
       <c r="C62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="47"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="45"/>
       <c r="K62" s="11"/>
       <c r="L62" s="12"/>
       <c r="M62" s="11"/>
@@ -7989,12 +7995,12 @@
         <v>107</v>
       </c>
       <c r="F66" s="12"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="47"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="45"/>
       <c r="M66" s="11" t="s">
         <v>104</v>
       </c>
@@ -8102,12 +8108,12 @@
         <v>107</v>
       </c>
       <c r="F67" s="12"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="47"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="45"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="14"/>
@@ -8366,9 +8372,13 @@
       <c r="AH70" s="11"/>
       <c r="AI70" s="11"/>
       <c r="AJ70" s="12"/>
-      <c r="AK70" s="11"/>
-      <c r="AL70" s="11"/>
-      <c r="AM70" s="12"/>
+      <c r="AK70" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL70" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM70" s="64"/>
       <c r="AN70" s="11"/>
       <c r="AO70" s="11"/>
       <c r="AP70" s="14"/>
@@ -8412,14 +8422,14 @@
       <c r="C71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="45" t="s">
+      <c r="D71" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="47"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="45"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="12"/>
@@ -8465,12 +8475,6 @@
       </c>
       <c r="AG71" s="14"/>
       <c r="AJ71" s="12"/>
-      <c r="AK71" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="AL71" s="11" t="s">
-        <v>242</v>
-      </c>
       <c r="AM71" s="12"/>
       <c r="AN71" s="11"/>
       <c r="AO71" s="11"/>
@@ -8498,12 +8502,14 @@
       <c r="BC71" s="11"/>
       <c r="BD71" s="11"/>
       <c r="BE71" s="12"/>
-      <c r="BF71" s="11"/>
-      <c r="BG71" s="11"/>
-      <c r="BH71" s="13"/>
-      <c r="BI71" s="11"/>
-      <c r="BJ71" s="11"/>
-      <c r="BK71" s="12"/>
+      <c r="BF71" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="BG71" s="62"/>
+      <c r="BH71" s="62"/>
+      <c r="BI71" s="62"/>
+      <c r="BJ71" s="62"/>
+      <c r="BK71" s="63"/>
       <c r="BL71" s="11"/>
       <c r="BM71" s="11"/>
       <c r="BN71" s="11"/>
@@ -8519,12 +8525,12 @@
       <c r="C72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="42"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="44"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="59"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="12"/>
@@ -8601,14 +8607,6 @@
       <c r="BC72" s="11"/>
       <c r="BD72" s="11"/>
       <c r="BE72" s="12"/>
-      <c r="BF72" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="BG72" s="46"/>
-      <c r="BH72" s="46"/>
-      <c r="BI72" s="46"/>
-      <c r="BJ72" s="46"/>
-      <c r="BK72" s="47"/>
       <c r="BL72" s="11"/>
       <c r="BM72" s="11"/>
       <c r="BN72" s="11"/>
@@ -8624,12 +8622,12 @@
       <c r="C73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="42"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="44"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="59"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
       <c r="L73" s="12"/>
@@ -8772,12 +8770,12 @@
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="42"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="44"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="59"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="12"/>
@@ -8855,14 +8853,14 @@
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="42" t="s">
+      <c r="D76" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="58"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="12"/>
@@ -8946,14 +8944,14 @@
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="42" t="s">
+      <c r="D77" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="58"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
       <c r="L77" s="12"/>
@@ -9039,14 +9037,14 @@
       <c r="C78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="45" t="s">
+      <c r="D78" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="47"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="45"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
       <c r="L78" s="12"/>
@@ -9188,14 +9186,14 @@
       <c r="C80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="42" t="s">
+      <c r="D80" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
       <c r="L80" s="12"/>
@@ -9265,14 +9263,14 @@
       <c r="C81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="D81" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="47"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="45"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="12"/>
@@ -9342,14 +9340,14 @@
       <c r="C82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="45" t="s">
+      <c r="D82" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="47"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="45"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="12"/>
@@ -9419,12 +9417,12 @@
       <c r="C83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="42"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="44"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="59"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="12"/>
@@ -9863,19 +9861,77 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="BF72:BK72"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BQ2"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="AZ21:BE21"/>
-    <mergeCell ref="AZ50:BE50"/>
-    <mergeCell ref="BF5:BK5"/>
-    <mergeCell ref="BF6:BK6"/>
-    <mergeCell ref="BF40:BK40"/>
-    <mergeCell ref="BF42:BK42"/>
-    <mergeCell ref="BF43:BK43"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="G66:L66"/>
+    <mergeCell ref="G67:L67"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="AK51:AP51"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="AK31:AP31"/>
+    <mergeCell ref="AK32:AP32"/>
+    <mergeCell ref="P47:X47"/>
+    <mergeCell ref="P48:X48"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D40:O40"/>
+    <mergeCell ref="D41:O41"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="AQ1:AY1"/>
+    <mergeCell ref="P26:X26"/>
+    <mergeCell ref="P27:X27"/>
+    <mergeCell ref="P36:X36"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="AT2:AV3"/>
     <mergeCell ref="AZ1:BQ1"/>
     <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="BU3:BW3"/>
@@ -9892,77 +9948,19 @@
     <mergeCell ref="BF3:BH3"/>
     <mergeCell ref="BI3:BK3"/>
     <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="AT2:AV3"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="P26:X26"/>
-    <mergeCell ref="P27:X27"/>
-    <mergeCell ref="P36:X36"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D40:O40"/>
-    <mergeCell ref="D41:O41"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D32:O32"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="G54:L54"/>
-    <mergeCell ref="G55:L55"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="AK31:AP31"/>
-    <mergeCell ref="AK32:AP32"/>
-    <mergeCell ref="P47:X47"/>
-    <mergeCell ref="P48:X48"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="G66:L66"/>
-    <mergeCell ref="G67:L67"/>
-    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="BF71:BK71"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="AZ21:BE21"/>
+    <mergeCell ref="AZ50:BE50"/>
+    <mergeCell ref="BF5:BK5"/>
+    <mergeCell ref="BF6:BK6"/>
+    <mergeCell ref="BF40:BK40"/>
+    <mergeCell ref="BF36:BK36"/>
+    <mergeCell ref="BF37:BK37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Rozklad_2zaizd.xlsx
+++ b/Rozklad_2zaizd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,31 @@
     <author>Автор</author>
   </authors>
   <commentList>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Марухнич Т.Б. не може
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S29" authorId="0">
       <text>
         <r>
@@ -85,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="282">
   <si>
     <t>І</t>
   </si>
@@ -907,13 +932,37 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Основи містобудування</t>
+  </si>
+  <si>
+    <t>Основи містобудування (залік)</t>
+  </si>
+  <si>
+    <t>доц. Кухта М.І.</t>
+  </si>
+  <si>
+    <t>Геоботаніка</t>
+  </si>
+  <si>
+    <t>Регулювання продуктивності лісів (кп)</t>
+  </si>
+  <si>
+    <t>проф. Гриник Г.Г.</t>
+  </si>
+  <si>
+    <t>проф. Фелбаба-Клушина Л.М.</t>
+  </si>
+  <si>
+    <t>біо. Факл. 130</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,6 +990,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1299,13 +1361,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1324,6 +1392,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1353,20 +1427,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1651,10 +1713,10 @@
   <dimension ref="A1:BW90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AL27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AT10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BF36" sqref="BF36:BK37"/>
+      <selection pane="bottomRight" activeCell="BN14" sqref="BN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,277 +1800,277 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="52" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="52" t="s">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="52" t="s">
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="52" t="s">
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="52" t="s">
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="53"/>
-      <c r="BB1" s="53"/>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="53"/>
-      <c r="BG1" s="53"/>
-      <c r="BH1" s="53"/>
-      <c r="BI1" s="53"/>
-      <c r="BJ1" s="53"/>
-      <c r="BK1" s="53"/>
-      <c r="BL1" s="53"/>
-      <c r="BM1" s="53"/>
-      <c r="BN1" s="53"/>
-      <c r="BO1" s="53"/>
-      <c r="BP1" s="53"/>
-      <c r="BQ1" s="54"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57"/>
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="58"/>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="46" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="46" t="s">
+      <c r="H2" s="48"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="46" t="s">
+      <c r="K2" s="48"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="46" t="s">
+      <c r="Q2" s="48"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="46"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="46" t="s">
+      <c r="T2" s="48"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="48" t="s">
+      <c r="W2" s="48"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="46" t="s">
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="46" t="s">
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48" t="s">
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="46" t="s">
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="46" t="s">
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="48" t="s">
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="46" t="s">
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="46" t="s">
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="48" t="s">
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46"/>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="50" t="s">
+      <c r="BA2" s="48"/>
+      <c r="BB2" s="48"/>
+      <c r="BC2" s="48"/>
+      <c r="BD2" s="48"/>
+      <c r="BE2" s="51"/>
+      <c r="BF2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="46"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="46"/>
-      <c r="BK2" s="49"/>
-      <c r="BL2" s="46" t="s">
+      <c r="BG2" s="48"/>
+      <c r="BH2" s="48"/>
+      <c r="BI2" s="48"/>
+      <c r="BJ2" s="48"/>
+      <c r="BK2" s="51"/>
+      <c r="BL2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="46"/>
-      <c r="BN2" s="46"/>
-      <c r="BO2" s="46"/>
-      <c r="BP2" s="46"/>
-      <c r="BQ2" s="47"/>
+      <c r="BM2" s="48"/>
+      <c r="BN2" s="48"/>
+      <c r="BO2" s="48"/>
+      <c r="BP2" s="48"/>
+      <c r="BQ2" s="49"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="D3" s="48"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="48" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="51"/>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="55"/>
-      <c r="BC3" s="46" t="s">
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="50" t="s">
+      <c r="BD3" s="48"/>
+      <c r="BE3" s="51"/>
+      <c r="BF3" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="46"/>
-      <c r="BH3" s="55"/>
-      <c r="BI3" s="46" t="s">
+      <c r="BG3" s="48"/>
+      <c r="BH3" s="59"/>
+      <c r="BI3" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="46"/>
-      <c r="BK3" s="49"/>
-      <c r="BL3" s="46"/>
-      <c r="BM3" s="46"/>
-      <c r="BN3" s="55"/>
-      <c r="BO3" s="46" t="s">
+      <c r="BJ3" s="48"/>
+      <c r="BK3" s="51"/>
+      <c r="BL3" s="48"/>
+      <c r="BM3" s="48"/>
+      <c r="BN3" s="59"/>
+      <c r="BO3" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="BP3" s="46"/>
-      <c r="BQ3" s="47"/>
-      <c r="BR3" s="56"/>
-      <c r="BS3" s="56"/>
-      <c r="BT3" s="56"/>
-      <c r="BU3" s="56"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="56"/>
+      <c r="BP3" s="48"/>
+      <c r="BQ3" s="49"/>
+      <c r="BR3" s="60"/>
+      <c r="BS3" s="60"/>
+      <c r="BT3" s="60"/>
+      <c r="BU3" s="60"/>
+      <c r="BV3" s="60"/>
+      <c r="BW3" s="60"/>
     </row>
     <row r="4" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2226,14 +2288,14 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="49"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="51"/>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
       <c r="M5" s="4" t="s">
@@ -2323,14 +2385,14 @@
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="50" t="s">
+      <c r="BF5" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
-      <c r="BJ5" s="46"/>
-      <c r="BK5" s="49"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="48"/>
+      <c r="BK5" s="51"/>
       <c r="BL5" s="11"/>
       <c r="BM5" s="11"/>
       <c r="BN5" s="13"/>
@@ -2346,14 +2408,14 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="49"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
@@ -2444,14 +2506,14 @@
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="5"/>
-      <c r="BF6" s="50" t="s">
+      <c r="BF6" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="BG6" s="46"/>
-      <c r="BH6" s="46"/>
-      <c r="BI6" s="46"/>
-      <c r="BJ6" s="46"/>
-      <c r="BK6" s="49"/>
+      <c r="BG6" s="48"/>
+      <c r="BH6" s="48"/>
+      <c r="BI6" s="48"/>
+      <c r="BJ6" s="48"/>
+      <c r="BK6" s="51"/>
       <c r="BL6" s="11"/>
       <c r="BM6" s="11"/>
       <c r="BN6" s="13"/>
@@ -2467,14 +2529,14 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="49"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
@@ -2578,20 +2640,20 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="49"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
@@ -2741,20 +2803,20 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="60"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="64"/>
       <c r="P10" s="36" t="s">
         <v>113</v>
       </c>
@@ -2854,20 +2916,20 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="60"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="64"/>
       <c r="P11" s="36" t="s">
         <v>113</v>
       </c>
@@ -2973,14 +3035,14 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="12"/>
@@ -3092,14 +3154,14 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
@@ -3368,20 +3430,20 @@
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="60"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="64"/>
       <c r="P16" s="9" t="s">
         <v>58</v>
       </c>
@@ -3489,20 +3551,20 @@
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="60"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="64"/>
       <c r="P17" s="9" t="s">
         <v>58</v>
       </c>
@@ -3806,9 +3868,15 @@
       <c r="AT20" s="11"/>
       <c r="AU20" s="11"/>
       <c r="AV20" s="12"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
-      <c r="AY20" s="14"/>
+      <c r="AW20" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX20" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY20" s="12" t="s">
+        <v>230</v>
+      </c>
       <c r="AZ20" s="9"/>
       <c r="BA20" s="11"/>
       <c r="BB20" s="13"/>
@@ -3836,14 +3904,14 @@
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="12"/>
@@ -3925,17 +3993,23 @@
       <c r="AT21" s="11"/>
       <c r="AU21" s="11"/>
       <c r="AV21" s="12"/>
-      <c r="AW21" s="11"/>
-      <c r="AX21" s="11"/>
-      <c r="AY21" s="14"/>
-      <c r="AZ21" s="51" t="s">
+      <c r="AW21" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX21" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY21" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ21" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="BA21" s="44"/>
-      <c r="BB21" s="44"/>
-      <c r="BC21" s="44"/>
-      <c r="BD21" s="44"/>
-      <c r="BE21" s="45"/>
+      <c r="BA21" s="54"/>
+      <c r="BB21" s="54"/>
+      <c r="BC21" s="54"/>
+      <c r="BD21" s="54"/>
+      <c r="BE21" s="55"/>
       <c r="BF21" s="11"/>
       <c r="BG21" s="11"/>
       <c r="BH21" s="13"/>
@@ -3957,14 +4031,14 @@
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="12"/>
@@ -4224,20 +4298,20 @@
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="60"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="64"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="12"/>
@@ -4271,9 +4345,15 @@
       <c r="AT25" s="11"/>
       <c r="AU25" s="11"/>
       <c r="AV25" s="12"/>
-      <c r="AW25" s="11"/>
-      <c r="AX25" s="11"/>
-      <c r="AY25" s="14"/>
+      <c r="AW25" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX25" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY25" s="12" t="s">
+        <v>230</v>
+      </c>
       <c r="AZ25" s="9"/>
       <c r="BA25" s="11"/>
       <c r="BB25" s="13"/>
@@ -4301,14 +4381,14 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="11" t="s">
         <v>91</v>
       </c>
@@ -4323,22 +4403,24 @@
         <v>63</v>
       </c>
       <c r="O26" s="14"/>
-      <c r="P26" s="51" t="s">
+      <c r="P26" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="60"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="64"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AC26" s="11"/>
+      <c r="AC26" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11" t="s">
         <v>156</v>
@@ -4381,7 +4463,9 @@
       <c r="AW26" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AX26" s="11"/>
+      <c r="AX26" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="AY26" s="14"/>
       <c r="AZ26" s="9"/>
       <c r="BA26" s="11"/>
@@ -4410,14 +4494,14 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="12"/>
@@ -4428,17 +4512,17 @@
         <v>63</v>
       </c>
       <c r="O27" s="14"/>
-      <c r="P27" s="51" t="s">
+      <c r="P27" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="60"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="64"/>
       <c r="Y27" s="36" t="s">
         <v>165</v>
       </c>
@@ -4597,14 +4681,14 @@
       <c r="BQ28" s="14"/>
     </row>
     <row r="29" spans="1:69" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="12"/>
@@ -4759,20 +4843,20 @@
       <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="60"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="64"/>
       <c r="P31" s="9" t="s">
         <v>116</v>
       </c>
@@ -4822,14 +4906,14 @@
         <v>224</v>
       </c>
       <c r="AJ31" s="12"/>
-      <c r="AK31" s="43" t="s">
+      <c r="AK31" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="44"/>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="60"/>
+      <c r="AL31" s="54"/>
+      <c r="AM31" s="54"/>
+      <c r="AN31" s="54"/>
+      <c r="AO31" s="54"/>
+      <c r="AP31" s="64"/>
       <c r="AQ31" s="9" t="s">
         <v>262</v>
       </c>
@@ -4868,20 +4952,20 @@
       <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="60"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="64"/>
       <c r="P32" s="9" t="s">
         <v>58</v>
       </c>
@@ -4919,14 +5003,14 @@
       <c r="AH32" s="9"/>
       <c r="AI32" s="11"/>
       <c r="AJ32" s="12"/>
-      <c r="AK32" s="43" t="s">
+      <c r="AK32" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="AL32" s="44"/>
-      <c r="AM32" s="44"/>
-      <c r="AN32" s="44"/>
-      <c r="AO32" s="44"/>
-      <c r="AP32" s="60"/>
+      <c r="AL32" s="54"/>
+      <c r="AM32" s="54"/>
+      <c r="AN32" s="54"/>
+      <c r="AO32" s="54"/>
+      <c r="AP32" s="64"/>
       <c r="AQ32" s="10" t="s">
         <v>102</v>
       </c>
@@ -5040,14 +5124,14 @@
       <c r="C34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="45"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="12"/>
@@ -5160,13 +5244,13 @@
         <v>224</v>
       </c>
       <c r="AJ35" s="12"/>
-      <c r="AK35" s="65" t="s">
+      <c r="AK35" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="AL35" s="65" t="s">
+      <c r="AL35" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="AM35" s="64"/>
+      <c r="AM35" s="43"/>
       <c r="AN35" s="11"/>
       <c r="AO35" s="11"/>
       <c r="AP35" s="14"/>
@@ -5210,14 +5294,14 @@
       <c r="C36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="12"/>
@@ -5228,17 +5312,17 @@
         <v>63</v>
       </c>
       <c r="O36" s="14"/>
-      <c r="P36" s="51" t="s">
+      <c r="P36" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="60"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="64"/>
       <c r="Y36" s="9" t="s">
         <v>79</v>
       </c>
@@ -5282,14 +5366,14 @@
       <c r="BC36" s="11"/>
       <c r="BD36" s="11"/>
       <c r="BE36" s="12"/>
-      <c r="BF36" s="61" t="s">
+      <c r="BF36" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="BG36" s="62"/>
-      <c r="BH36" s="62"/>
-      <c r="BI36" s="62"/>
-      <c r="BJ36" s="62"/>
-      <c r="BK36" s="63"/>
+      <c r="BG36" s="46"/>
+      <c r="BH36" s="46"/>
+      <c r="BI36" s="46"/>
+      <c r="BJ36" s="46"/>
+      <c r="BK36" s="47"/>
       <c r="BL36" s="11"/>
       <c r="BM36" s="11"/>
       <c r="BN36" s="13"/>
@@ -5305,14 +5389,14 @@
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="45"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="12"/>
@@ -5385,14 +5469,14 @@
       <c r="BC37" s="11"/>
       <c r="BD37" s="11"/>
       <c r="BE37" s="12"/>
-      <c r="BF37" s="61" t="s">
+      <c r="BF37" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="BG37" s="62"/>
-      <c r="BH37" s="62"/>
-      <c r="BI37" s="62"/>
-      <c r="BJ37" s="62"/>
-      <c r="BK37" s="63"/>
+      <c r="BG37" s="46"/>
+      <c r="BH37" s="46"/>
+      <c r="BI37" s="46"/>
+      <c r="BJ37" s="46"/>
+      <c r="BK37" s="47"/>
       <c r="BL37" s="11"/>
       <c r="BM37" s="11"/>
       <c r="BN37" s="13"/>
@@ -5569,20 +5653,20 @@
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="47"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="49"/>
       <c r="P40" s="9" t="s">
         <v>124</v>
       </c>
@@ -5659,14 +5743,14 @@
       <c r="BC40" s="11"/>
       <c r="BD40" s="11"/>
       <c r="BE40" s="12"/>
-      <c r="BF40" s="50" t="s">
+      <c r="BF40" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="BG40" s="46"/>
-      <c r="BH40" s="46"/>
-      <c r="BI40" s="46"/>
-      <c r="BJ40" s="46"/>
-      <c r="BK40" s="49"/>
+      <c r="BG40" s="48"/>
+      <c r="BH40" s="48"/>
+      <c r="BI40" s="48"/>
+      <c r="BJ40" s="48"/>
+      <c r="BK40" s="51"/>
       <c r="BL40" s="11"/>
       <c r="BM40" s="11"/>
       <c r="BN40" s="13"/>
@@ -5682,20 +5766,20 @@
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="47"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="49"/>
       <c r="P41" s="9" t="s">
         <v>124</v>
       </c>
@@ -5792,14 +5876,14 @@
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="45"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="55"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="12"/>
@@ -5901,14 +5985,14 @@
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="45"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="55"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="12"/>
@@ -6070,14 +6154,14 @@
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="59"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="63"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="12"/>
@@ -6171,14 +6255,14 @@
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="59"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="63"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="12"/>
@@ -6276,31 +6360,31 @@
       <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="59"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="63"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="12"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="14"/>
-      <c r="P47" s="51" t="s">
+      <c r="P47" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
-      <c r="X47" s="60"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="54"/>
+      <c r="X47" s="64"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="11"/>
       <c r="AA47" s="12"/>
@@ -6371,31 +6455,31 @@
       <c r="C48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="59"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="63"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="12"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="14"/>
-      <c r="P48" s="51" t="s">
+      <c r="P48" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="60"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="54"/>
+      <c r="W48" s="54"/>
+      <c r="X48" s="64"/>
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
@@ -6596,17 +6680,23 @@
       <c r="AT50" s="11"/>
       <c r="AU50" s="11"/>
       <c r="AV50" s="12"/>
-      <c r="AW50" s="11"/>
-      <c r="AX50" s="11"/>
-      <c r="AY50" s="14"/>
-      <c r="AZ50" s="51" t="s">
+      <c r="AW50" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX50" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY50" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ50" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="BA50" s="44"/>
-      <c r="BB50" s="44"/>
-      <c r="BC50" s="44"/>
-      <c r="BD50" s="44"/>
-      <c r="BE50" s="45"/>
+      <c r="BA50" s="54"/>
+      <c r="BB50" s="54"/>
+      <c r="BC50" s="54"/>
+      <c r="BD50" s="54"/>
+      <c r="BE50" s="55"/>
       <c r="BF50" s="11"/>
       <c r="BG50" s="11"/>
       <c r="BH50" s="13"/>
@@ -6616,9 +6706,15 @@
       <c r="BL50" s="11"/>
       <c r="BM50" s="11"/>
       <c r="BN50" s="11"/>
-      <c r="BO50" s="19"/>
-      <c r="BP50" s="11"/>
-      <c r="BQ50" s="14"/>
+      <c r="BO50" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="BP50" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="BQ50" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="51" spans="1:69" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -6631,14 +6727,14 @@
       <c r="D51" s="9"/>
       <c r="E51" s="11"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="43" t="s">
+      <c r="G51" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="45"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="55"/>
       <c r="M51" s="10" t="s">
         <v>89</v>
       </c>
@@ -6691,14 +6787,14 @@
       <c r="AH51" s="11"/>
       <c r="AI51" s="11"/>
       <c r="AJ51" s="12"/>
-      <c r="AK51" s="43" t="s">
+      <c r="AK51" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AL51" s="44"/>
-      <c r="AM51" s="44"/>
-      <c r="AN51" s="44"/>
-      <c r="AO51" s="44"/>
-      <c r="AP51" s="60"/>
+      <c r="AL51" s="54"/>
+      <c r="AM51" s="54"/>
+      <c r="AN51" s="54"/>
+      <c r="AO51" s="54"/>
+      <c r="AP51" s="64"/>
       <c r="AQ51" s="11"/>
       <c r="AR51" s="11"/>
       <c r="AS51" s="12"/>
@@ -6717,9 +6813,15 @@
       <c r="BL51" s="11"/>
       <c r="BM51" s="11"/>
       <c r="BN51" s="11"/>
-      <c r="BO51" s="19"/>
-      <c r="BP51" s="11"/>
-      <c r="BQ51" s="14"/>
+      <c r="BO51" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="BP51" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="BQ51" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="52" spans="1:69" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
@@ -6732,14 +6834,14 @@
       <c r="D52" s="9"/>
       <c r="E52" s="11"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="43" t="s">
+      <c r="G52" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="45"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="55"/>
       <c r="M52" s="10" t="s">
         <v>89</v>
       </c>
@@ -6818,9 +6920,15 @@
       <c r="BL52" s="11"/>
       <c r="BM52" s="11"/>
       <c r="BN52" s="11"/>
-      <c r="BO52" s="19"/>
-      <c r="BP52" s="11"/>
-      <c r="BQ52" s="14"/>
+      <c r="BO52" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="BP52" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="BQ52" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="53" spans="1:69" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -6897,9 +7005,6 @@
       <c r="BL53" s="11"/>
       <c r="BM53" s="11"/>
       <c r="BN53" s="11"/>
-      <c r="BO53" s="19"/>
-      <c r="BP53" s="11"/>
-      <c r="BQ53" s="14"/>
     </row>
     <row r="54" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B54" s="10">
@@ -6911,14 +7016,14 @@
       <c r="D54" s="9"/>
       <c r="E54" s="11"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="45"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="55"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="14"/>
@@ -6990,14 +7095,14 @@
       <c r="D55" s="9"/>
       <c r="E55" s="11"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="43" t="s">
+      <c r="G55" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="45"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="55"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="14"/>
@@ -7064,14 +7169,14 @@
       <c r="C56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="57" t="s">
+      <c r="D56" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
       <c r="M56" s="11" t="s">
         <v>105</v>
       </c>
@@ -7174,14 +7279,14 @@
       <c r="C57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="57" t="s">
+      <c r="D57" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
       <c r="M57" s="11" t="s">
         <v>105</v>
       </c>
@@ -7450,14 +7555,14 @@
       <c r="D60" s="9"/>
       <c r="E60" s="11"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="45"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="55"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="14"/>
@@ -7532,14 +7637,14 @@
       <c r="C61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="43" t="s">
+      <c r="G61" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="45"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="55"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="14"/>
@@ -7570,7 +7675,9 @@
       <c r="AB61" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AC61" s="11"/>
+      <c r="AC61" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="AD61" s="11"/>
       <c r="AE61" s="11"/>
       <c r="AF61" s="11"/>
@@ -7601,7 +7708,9 @@
       <c r="AW61" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AX61" s="11"/>
+      <c r="AX61" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="AY61" s="14"/>
       <c r="AZ61" s="35" t="s">
         <v>259</v>
@@ -7622,8 +7731,12 @@
       <c r="BL61" s="11"/>
       <c r="BM61" s="11"/>
       <c r="BN61" s="11"/>
-      <c r="BO61" s="19"/>
-      <c r="BP61" s="11"/>
+      <c r="BO61" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="BP61" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="BQ61" s="14"/>
     </row>
     <row r="62" spans="1:69" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7634,14 +7747,14 @@
       <c r="C62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="45"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="55"/>
       <c r="K62" s="11"/>
       <c r="L62" s="12"/>
       <c r="M62" s="11"/>
@@ -7730,8 +7843,12 @@
       <c r="BL62" s="11"/>
       <c r="BM62" s="11"/>
       <c r="BN62" s="11"/>
-      <c r="BO62" s="19"/>
-      <c r="BP62" s="11"/>
+      <c r="BO62" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="BP62" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="BQ62" s="14"/>
     </row>
     <row r="63" spans="1:69" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7995,12 +8112,12 @@
         <v>107</v>
       </c>
       <c r="F66" s="12"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="45"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="55"/>
       <c r="M66" s="11" t="s">
         <v>104</v>
       </c>
@@ -8089,8 +8206,12 @@
       <c r="BL66" s="11"/>
       <c r="BM66" s="11"/>
       <c r="BN66" s="11"/>
-      <c r="BO66" s="19"/>
-      <c r="BP66" s="11"/>
+      <c r="BO66" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="BP66" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="BQ66" s="14"/>
     </row>
     <row r="67" spans="1:69" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -8108,12 +8229,12 @@
         <v>107</v>
       </c>
       <c r="F67" s="12"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-      <c r="L67" s="45"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="55"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="14"/>
@@ -8180,8 +8301,12 @@
       <c r="BL67" s="11"/>
       <c r="BM67" s="11"/>
       <c r="BN67" s="11"/>
-      <c r="BO67" s="19"/>
-      <c r="BP67" s="11"/>
+      <c r="BO67" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="BP67" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="BQ67" s="14"/>
     </row>
     <row r="68" spans="1:69" x14ac:dyDescent="0.25">
@@ -8378,7 +8503,7 @@
       <c r="AL70" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="AM70" s="64"/>
+      <c r="AM70" s="43"/>
       <c r="AN70" s="11"/>
       <c r="AO70" s="11"/>
       <c r="AP70" s="14"/>
@@ -8422,14 +8547,14 @@
       <c r="C71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="51" t="s">
+      <c r="D71" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="45"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="55"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="12"/>
@@ -8502,14 +8627,14 @@
       <c r="BC71" s="11"/>
       <c r="BD71" s="11"/>
       <c r="BE71" s="12"/>
-      <c r="BF71" s="61" t="s">
+      <c r="BF71" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="BG71" s="62"/>
-      <c r="BH71" s="62"/>
-      <c r="BI71" s="62"/>
-      <c r="BJ71" s="62"/>
-      <c r="BK71" s="63"/>
+      <c r="BG71" s="46"/>
+      <c r="BH71" s="46"/>
+      <c r="BI71" s="46"/>
+      <c r="BJ71" s="46"/>
+      <c r="BK71" s="47"/>
       <c r="BL71" s="11"/>
       <c r="BM71" s="11"/>
       <c r="BN71" s="11"/>
@@ -8525,12 +8650,12 @@
       <c r="C72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="57"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="59"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="63"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="12"/>
@@ -8622,12 +8747,12 @@
       <c r="C73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="57"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="59"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="63"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
       <c r="L73" s="12"/>
@@ -8770,12 +8895,12 @@
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="57"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="59"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="63"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="12"/>
@@ -8853,14 +8978,14 @@
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="57" t="s">
+      <c r="D76" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="12"/>
@@ -8944,14 +9069,14 @@
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="57" t="s">
+      <c r="D77" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="58"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
       <c r="L77" s="12"/>
@@ -9037,14 +9162,14 @@
       <c r="C78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="51" t="s">
+      <c r="D78" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="45"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
       <c r="L78" s="12"/>
@@ -9186,14 +9311,14 @@
       <c r="C80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="57" t="s">
+      <c r="D80" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
       <c r="L80" s="12"/>
@@ -9263,14 +9388,14 @@
       <c r="C81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="51" t="s">
+      <c r="D81" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="45"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="55"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="12"/>
@@ -9340,14 +9465,14 @@
       <c r="C82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="51" t="s">
+      <c r="D82" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="45"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="55"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="12"/>
@@ -9417,12 +9542,12 @@
       <c r="C83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="57"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="59"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="63"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="12"/>

--- a/Rozklad_2zaizd.xlsx
+++ b/Rozklad_2zaizd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20730" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20730" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="355">
   <si>
     <t>І</t>
   </si>
@@ -478,9 +478,6 @@
     <t>доц. Фекета І.Ю.</t>
   </si>
   <si>
-    <t>Екологія людини (залік)</t>
-  </si>
-  <si>
     <t>Біогеографія</t>
   </si>
   <si>
@@ -1169,6 +1166,15 @@
   </si>
   <si>
     <t>Державний контроль за використ. прир. Ресурсів, ст. викл. Марухнич Т.Б.</t>
+  </si>
+  <si>
+    <t>екологія людини</t>
+  </si>
+  <si>
+    <t>Екологія людини, залік</t>
+  </si>
+  <si>
+    <t>фекета</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1224,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1228,6 +1234,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,7 +1446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1511,7 +1529,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1519,6 +1546,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1529,65 +1607,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1861,7 +1909,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1872,10 +1920,10 @@
   <dimension ref="A1:BW90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T67" sqref="T67"/>
+      <selection pane="bottomRight" activeCell="P66" sqref="P66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,277 +2007,277 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="44" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="44" t="s">
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="44" t="s">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="44" t="s">
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="44" t="s">
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45"/>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="45"/>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="45"/>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45"/>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="45"/>
-      <c r="BP1" s="45"/>
-      <c r="BQ1" s="46"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
+      <c r="BQ1" s="38"/>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="39" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="39" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="39" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="41" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="39" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="39" t="s">
+      <c r="T2" s="44"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="41" t="s">
+      <c r="W2" s="44"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="39" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="39" t="s">
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="41" t="s">
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="39" t="s">
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="39" t="s">
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41" t="s">
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="39" t="s">
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="39" t="s">
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="41" t="s">
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="39"/>
-      <c r="BB2" s="39"/>
-      <c r="BC2" s="39"/>
-      <c r="BD2" s="39"/>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="43" t="s">
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="47"/>
+      <c r="BF2" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="39"/>
-      <c r="BH2" s="39"/>
-      <c r="BI2" s="39"/>
-      <c r="BJ2" s="39"/>
-      <c r="BK2" s="42"/>
-      <c r="BL2" s="39" t="s">
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="47"/>
+      <c r="BL2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="39"/>
-      <c r="BN2" s="39"/>
-      <c r="BO2" s="39"/>
-      <c r="BP2" s="39"/>
-      <c r="BQ2" s="40"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="44"/>
+      <c r="BP2" s="44"/>
+      <c r="BQ2" s="48"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="D3" s="41"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="39"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="41" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="48"/>
+      <c r="AZ3" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="39"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="39" t="s">
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="39"/>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="43" t="s">
+      <c r="BD3" s="44"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="39"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="39" t="s">
+      <c r="BG3" s="44"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="39"/>
-      <c r="BK3" s="42"/>
-      <c r="BL3" s="39"/>
-      <c r="BM3" s="39"/>
-      <c r="BN3" s="47"/>
-      <c r="BO3" s="39" t="s">
+      <c r="BJ3" s="44"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="44"/>
+      <c r="BM3" s="44"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="BP3" s="39"/>
-      <c r="BQ3" s="40"/>
-      <c r="BR3" s="48"/>
-      <c r="BS3" s="48"/>
-      <c r="BT3" s="48"/>
-      <c r="BU3" s="48"/>
-      <c r="BV3" s="48"/>
-      <c r="BW3" s="48"/>
+      <c r="BP3" s="44"/>
+      <c r="BQ3" s="48"/>
+      <c r="BR3" s="46"/>
+      <c r="BS3" s="46"/>
+      <c r="BT3" s="46"/>
+      <c r="BU3" s="46"/>
+      <c r="BV3" s="46"/>
+      <c r="BW3" s="46"/>
     </row>
     <row r="4" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2447,14 +2495,14 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="9"/>
       <c r="K5" s="2"/>
       <c r="L5" s="14"/>
@@ -2476,28 +2524,28 @@
         <v>59</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U5" s="14"/>
       <c r="V5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="X5" s="15"/>
       <c r="Y5" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>93</v>
       </c>
       <c r="AA5" s="14"/>
       <c r="AB5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD5" s="14"/>
       <c r="AE5" s="2" t="s">
@@ -2508,27 +2556,27 @@
       </c>
       <c r="AG5" s="15"/>
       <c r="AH5" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AJ5" s="14"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="14"/>
       <c r="AN5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO5" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="AP5" s="15"/>
       <c r="AQ5" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS5" s="14"/>
       <c r="AT5" s="8" t="s">
@@ -2537,36 +2585,36 @@
       <c r="AU5" s="2"/>
       <c r="AV5" s="14"/>
       <c r="AW5" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AX5" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AY5" s="15"/>
-      <c r="AZ5" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="BA5" s="35"/>
-      <c r="BB5" s="35"/>
-      <c r="BC5" s="35"/>
-      <c r="BD5" s="35"/>
-      <c r="BE5" s="36"/>
-      <c r="BF5" s="34" t="s">
+      <c r="AZ5" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="BA5" s="40"/>
+      <c r="BB5" s="40"/>
+      <c r="BC5" s="40"/>
+      <c r="BD5" s="40"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="BG5" s="35"/>
-      <c r="BH5" s="35"/>
-      <c r="BI5" s="35"/>
-      <c r="BJ5" s="35"/>
-      <c r="BK5" s="36"/>
+      <c r="BG5" s="40"/>
+      <c r="BH5" s="40"/>
+      <c r="BI5" s="40"/>
+      <c r="BJ5" s="40"/>
+      <c r="BK5" s="41"/>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
       <c r="BN5" s="17"/>
       <c r="BO5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="BP5" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="BP5" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="BQ5" s="11"/>
     </row>
@@ -2578,14 +2626,14 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="14"/>
@@ -2607,28 +2655,28 @@
         <v>59</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U6" s="14"/>
       <c r="V6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="X6" s="15"/>
       <c r="Y6" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>93</v>
       </c>
       <c r="AA6" s="14"/>
       <c r="AB6" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD6" s="14"/>
       <c r="AE6" s="2" t="s">
@@ -2637,10 +2685,10 @@
       <c r="AF6" s="2"/>
       <c r="AG6" s="15"/>
       <c r="AH6" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AJ6" s="14"/>
       <c r="AK6" s="2" t="s">
@@ -2649,17 +2697,17 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="14"/>
       <c r="AN6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO6" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="AP6" s="15"/>
       <c r="AQ6" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS6" s="14"/>
       <c r="AT6" s="8" t="s">
@@ -2668,36 +2716,36 @@
       <c r="AU6" s="2"/>
       <c r="AV6" s="14"/>
       <c r="AW6" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AX6" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AY6" s="15"/>
-      <c r="AZ6" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="BA6" s="35"/>
-      <c r="BB6" s="35"/>
-      <c r="BC6" s="35"/>
-      <c r="BD6" s="35"/>
-      <c r="BE6" s="36"/>
-      <c r="BF6" s="34" t="s">
+      <c r="AZ6" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="BA6" s="40"/>
+      <c r="BB6" s="40"/>
+      <c r="BC6" s="40"/>
+      <c r="BD6" s="40"/>
+      <c r="BE6" s="41"/>
+      <c r="BF6" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="BG6" s="35"/>
-      <c r="BH6" s="35"/>
-      <c r="BI6" s="35"/>
-      <c r="BJ6" s="35"/>
-      <c r="BK6" s="36"/>
+      <c r="BG6" s="40"/>
+      <c r="BH6" s="40"/>
+      <c r="BI6" s="40"/>
+      <c r="BJ6" s="40"/>
+      <c r="BK6" s="41"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
       <c r="BN6" s="17"/>
       <c r="BO6" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="BP6" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="BP6" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="BQ6" s="11"/>
     </row>
@@ -2709,14 +2757,14 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="14"/>
@@ -2727,39 +2775,33 @@
         <v>101</v>
       </c>
       <c r="O7" s="15"/>
-      <c r="P7" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="R7" s="14"/>
       <c r="S7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="U7" s="14"/>
       <c r="V7" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X7" s="15"/>
       <c r="Y7" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>93</v>
       </c>
       <c r="AA7" s="14"/>
       <c r="AB7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD7" s="14"/>
       <c r="AE7" s="2" t="s">
@@ -2776,10 +2818,10 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="14"/>
       <c r="AN7" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AP7" s="15"/>
       <c r="AQ7" s="13"/>
@@ -2793,22 +2835,22 @@
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
       <c r="AY7" s="15"/>
-      <c r="AZ7" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="BA7" s="35"/>
-      <c r="BB7" s="35"/>
-      <c r="BC7" s="35"/>
-      <c r="BD7" s="35"/>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="BG7" s="35"/>
-      <c r="BH7" s="35"/>
-      <c r="BI7" s="35"/>
-      <c r="BJ7" s="35"/>
-      <c r="BK7" s="36"/>
+      <c r="AZ7" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="BA7" s="40"/>
+      <c r="BB7" s="40"/>
+      <c r="BC7" s="40"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="41"/>
+      <c r="BF7" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="BG7" s="40"/>
+      <c r="BH7" s="40"/>
+      <c r="BI7" s="40"/>
+      <c r="BJ7" s="40"/>
+      <c r="BK7" s="41"/>
       <c r="BL7" s="7"/>
       <c r="BM7" s="7"/>
       <c r="BN7" s="17"/>
@@ -2822,20 +2864,20 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="53"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="42"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="14"/>
@@ -2843,24 +2885,24 @@
       <c r="T8" s="2"/>
       <c r="U8" s="14"/>
       <c r="V8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>93</v>
       </c>
       <c r="AA8" s="14"/>
       <c r="AB8" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD8" s="14"/>
       <c r="AE8" s="2"/>
@@ -2873,7 +2915,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="14"/>
       <c r="AN8" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AO8" s="7" t="s">
         <v>101</v>
@@ -2888,22 +2930,22 @@
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
       <c r="AY8" s="15"/>
-      <c r="AZ8" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="BA8" s="35"/>
-      <c r="BB8" s="35"/>
-      <c r="BC8" s="35"/>
-      <c r="BD8" s="35"/>
-      <c r="BE8" s="36"/>
-      <c r="BF8" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="BG8" s="35"/>
-      <c r="BH8" s="35"/>
-      <c r="BI8" s="35"/>
-      <c r="BJ8" s="35"/>
-      <c r="BK8" s="36"/>
+      <c r="AZ8" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="BA8" s="40"/>
+      <c r="BB8" s="40"/>
+      <c r="BC8" s="40"/>
+      <c r="BD8" s="40"/>
+      <c r="BE8" s="41"/>
+      <c r="BF8" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="BG8" s="40"/>
+      <c r="BH8" s="40"/>
+      <c r="BI8" s="40"/>
+      <c r="BJ8" s="40"/>
+      <c r="BK8" s="41"/>
       <c r="BL8" s="7"/>
       <c r="BM8" s="7"/>
       <c r="BN8" s="17"/>
@@ -2989,20 +3031,20 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="52"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="35"/>
       <c r="P10" s="8" t="s">
         <v>113</v>
       </c>
@@ -3011,62 +3053,62 @@
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T10" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="U10" s="10"/>
       <c r="V10" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W10" s="7" t="s">
         <v>103</v>
       </c>
       <c r="X10" s="11"/>
       <c r="Y10" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z10" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="AA10" s="10"/>
       <c r="AB10" s="7" t="s">
         <v>59</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD10" s="10"/>
       <c r="AE10" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF10" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG10" s="11"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL10" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="AL10" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="AM10" s="10"/>
       <c r="AN10" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AO10" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AR10" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS10" s="10"/>
       <c r="AT10" s="8" t="s">
@@ -3075,36 +3117,36 @@
       <c r="AU10" s="7"/>
       <c r="AV10" s="10"/>
       <c r="AW10" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AX10" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY10" s="11"/>
-      <c r="AZ10" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="BA10" s="29"/>
-      <c r="BB10" s="29"/>
-      <c r="BC10" s="29"/>
-      <c r="BD10" s="29"/>
-      <c r="BE10" s="30"/>
-      <c r="BF10" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="BG10" s="35"/>
-      <c r="BH10" s="35"/>
-      <c r="BI10" s="35"/>
-      <c r="BJ10" s="35"/>
-      <c r="BK10" s="36"/>
+      <c r="AZ10" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="BA10" s="32"/>
+      <c r="BB10" s="32"/>
+      <c r="BC10" s="32"/>
+      <c r="BD10" s="32"/>
+      <c r="BE10" s="33"/>
+      <c r="BF10" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="BG10" s="40"/>
+      <c r="BH10" s="40"/>
+      <c r="BI10" s="40"/>
+      <c r="BJ10" s="40"/>
+      <c r="BK10" s="41"/>
       <c r="BL10" s="7"/>
       <c r="BM10" s="7"/>
       <c r="BN10" s="17"/>
       <c r="BO10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="BP10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="BP10" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="BQ10" s="11"/>
     </row>
@@ -3116,20 +3158,20 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="52"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="35"/>
       <c r="P11" s="8" t="s">
         <v>113</v>
       </c>
@@ -3138,66 +3180,66 @@
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="U11" s="10"/>
       <c r="V11" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W11" s="7" t="s">
         <v>103</v>
       </c>
       <c r="X11" s="11"/>
       <c r="Y11" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="AA11" s="10"/>
       <c r="AB11" s="7" t="s">
         <v>59</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD11" s="10"/>
       <c r="AE11" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF11" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG11" s="11"/>
       <c r="AH11" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI11" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL11" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="AL11" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="AM11" s="10"/>
       <c r="AN11" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AO11" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AR11" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS11" s="10"/>
       <c r="AT11" s="8" t="s">
@@ -3206,36 +3248,36 @@
       <c r="AU11" s="7"/>
       <c r="AV11" s="10"/>
       <c r="AW11" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AX11" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY11" s="11"/>
-      <c r="AZ11" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="BA11" s="29"/>
-      <c r="BB11" s="29"/>
-      <c r="BC11" s="29"/>
-      <c r="BD11" s="29"/>
-      <c r="BE11" s="30"/>
-      <c r="BF11" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="BG11" s="35"/>
-      <c r="BH11" s="35"/>
-      <c r="BI11" s="35"/>
-      <c r="BJ11" s="35"/>
-      <c r="BK11" s="36"/>
+      <c r="AZ11" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA11" s="32"/>
+      <c r="BB11" s="32"/>
+      <c r="BC11" s="32"/>
+      <c r="BD11" s="32"/>
+      <c r="BE11" s="33"/>
+      <c r="BF11" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="BG11" s="40"/>
+      <c r="BH11" s="40"/>
+      <c r="BI11" s="40"/>
+      <c r="BJ11" s="40"/>
+      <c r="BK11" s="41"/>
       <c r="BL11" s="7"/>
       <c r="BM11" s="7"/>
       <c r="BN11" s="17"/>
       <c r="BO11" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="BP11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="BP11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="BQ11" s="11"/>
     </row>
@@ -3247,14 +3289,14 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="10"/>
@@ -3266,38 +3308,38 @@
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="R12" s="10"/>
       <c r="S12" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T12" s="7" t="s">
         <v>114</v>
       </c>
       <c r="U12" s="10"/>
       <c r="V12" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X12" s="11"/>
       <c r="Y12" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z12" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Z12" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD12" s="10"/>
       <c r="AE12" s="7" t="s">
@@ -3308,55 +3350,55 @@
       </c>
       <c r="AG12" s="11"/>
       <c r="AH12" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AI12" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="10"/>
       <c r="AN12" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AO12" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="8"/>
       <c r="AR12" s="7"/>
       <c r="AS12" s="10"/>
       <c r="AT12" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AU12" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AV12" s="10"/>
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
       <c r="AY12" s="11"/>
-      <c r="AZ12" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="BA12" s="35"/>
-      <c r="BB12" s="35"/>
-      <c r="BC12" s="35"/>
-      <c r="BD12" s="35"/>
-      <c r="BE12" s="36"/>
+      <c r="AZ12" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="BA12" s="40"/>
+      <c r="BB12" s="40"/>
+      <c r="BC12" s="40"/>
+      <c r="BD12" s="40"/>
+      <c r="BE12" s="41"/>
       <c r="BF12" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="BG12" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="BG12" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="BH12" s="7"/>
       <c r="BI12" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="BJ12" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="BJ12" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
@@ -3376,14 +3418,14 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="10"/>
@@ -3391,45 +3433,45 @@
       <c r="N13" s="7"/>
       <c r="O13" s="11"/>
       <c r="P13" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="R13" s="10"/>
       <c r="S13" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T13" s="7" t="s">
         <v>114</v>
       </c>
       <c r="U13" s="10"/>
       <c r="V13" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X13" s="11"/>
       <c r="Y13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD13" s="10"/>
       <c r="AE13" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF13" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG13" s="11"/>
       <c r="AH13" s="8"/>
@@ -3439,45 +3481,45 @@
       <c r="AL13" s="7"/>
       <c r="AM13" s="10"/>
       <c r="AN13" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AO13" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="8"/>
       <c r="AR13" s="7"/>
       <c r="AS13" s="10"/>
       <c r="AT13" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AU13" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AV13" s="10"/>
       <c r="AW13" s="7"/>
       <c r="AX13" s="7"/>
       <c r="AY13" s="11"/>
-      <c r="AZ13" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="BA13" s="35"/>
-      <c r="BB13" s="35"/>
-      <c r="BC13" s="35"/>
-      <c r="BD13" s="35"/>
-      <c r="BE13" s="36"/>
+      <c r="AZ13" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="BA13" s="40"/>
+      <c r="BB13" s="40"/>
+      <c r="BC13" s="40"/>
+      <c r="BD13" s="40"/>
+      <c r="BE13" s="41"/>
       <c r="BF13" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="BG13" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="BG13" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="BH13" s="12"/>
       <c r="BI13" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="BJ13" s="12" t="s">
         <v>344</v>
-      </c>
-      <c r="BJ13" s="12" t="s">
-        <v>345</v>
       </c>
       <c r="BK13" s="7"/>
       <c r="BL13" s="7"/>
@@ -3515,7 +3557,7 @@
       <c r="W14" s="7"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z14" s="2" t="s">
         <v>93</v>
@@ -3528,13 +3570,13 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="11"/>
       <c r="AH14" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI14" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AJ14" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
@@ -3592,8 +3634,12 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="7"/>
+      <c r="P15" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q15" s="55" t="s">
+        <v>121</v>
+      </c>
       <c r="R15" s="10"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -3602,7 +3648,7 @@
       <c r="W15" s="7"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z15" s="2" t="s">
         <v>93</v>
@@ -3620,19 +3666,19 @@
       <c r="AI15" s="7"/>
       <c r="AJ15" s="10"/>
       <c r="AK15" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL15" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM15" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="AL15" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="AM15" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="AN15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO15" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="AO15" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="AP15" s="11"/>
       <c r="AQ15" s="9"/>
@@ -3650,12 +3696,12 @@
       <c r="BC15" s="7"/>
       <c r="BD15" s="7"/>
       <c r="BE15" s="10"/>
-      <c r="BF15" s="28"/>
-      <c r="BG15" s="29"/>
-      <c r="BH15" s="29"/>
-      <c r="BI15" s="29"/>
-      <c r="BJ15" s="29"/>
-      <c r="BK15" s="30"/>
+      <c r="BF15" s="34"/>
+      <c r="BG15" s="32"/>
+      <c r="BH15" s="32"/>
+      <c r="BI15" s="32"/>
+      <c r="BJ15" s="32"/>
+      <c r="BK15" s="33"/>
       <c r="BL15" s="7"/>
       <c r="BM15" s="7"/>
       <c r="BN15" s="17"/>
@@ -3671,20 +3717,20 @@
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="52"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="35"/>
       <c r="P16" s="8" t="s">
         <v>58</v>
       </c>
@@ -3693,38 +3739,38 @@
       </c>
       <c r="R16" s="10"/>
       <c r="S16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="T16" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="U16" s="10"/>
       <c r="V16" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X16" s="11"/>
       <c r="Y16" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z16" s="7" t="s">
         <v>93</v>
       </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC16" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="AC16" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="AD16" s="10"/>
       <c r="AE16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="AF16" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="AG16" s="11"/>
       <c r="AH16" s="8" t="s">
@@ -3733,66 +3779,66 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="10"/>
       <c r="AK16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM16" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="AL16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="AM16" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="AN16" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO16" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP16" s="11"/>
       <c r="AQ16" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AR16" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS16" s="10"/>
       <c r="AT16" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AU16" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AV16" s="10"/>
       <c r="AW16" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX16" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AY16" s="11"/>
-      <c r="AZ16" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="BA16" s="29"/>
-      <c r="BB16" s="29"/>
-      <c r="BC16" s="29"/>
-      <c r="BD16" s="29"/>
-      <c r="BE16" s="30"/>
-      <c r="BF16" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="BG16" s="29"/>
-      <c r="BH16" s="29"/>
-      <c r="BI16" s="29"/>
-      <c r="BJ16" s="29"/>
-      <c r="BK16" s="30"/>
+      <c r="AZ16" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="BA16" s="32"/>
+      <c r="BB16" s="32"/>
+      <c r="BC16" s="32"/>
+      <c r="BD16" s="32"/>
+      <c r="BE16" s="33"/>
+      <c r="BF16" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="BG16" s="32"/>
+      <c r="BH16" s="32"/>
+      <c r="BI16" s="32"/>
+      <c r="BJ16" s="32"/>
+      <c r="BK16" s="33"/>
       <c r="BL16" s="7"/>
       <c r="BM16" s="7"/>
       <c r="BN16" s="17"/>
       <c r="BO16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="BP16" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="BP16" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="BQ16" s="11"/>
     </row>
@@ -3804,20 +3850,20 @@
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="52"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="35"/>
       <c r="P17" s="8" t="s">
         <v>58</v>
       </c>
@@ -3826,104 +3872,104 @@
       </c>
       <c r="R17" s="10"/>
       <c r="S17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="T17" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="U17" s="10"/>
       <c r="V17" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X17" s="11"/>
       <c r="Y17" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z17" s="7" t="s">
         <v>93</v>
       </c>
       <c r="AA17" s="10"/>
       <c r="AB17" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD17" s="10"/>
       <c r="AE17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="AF17" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="AG17" s="11"/>
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
       <c r="AJ17" s="10"/>
       <c r="AK17" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL17" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="AL17" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="AM17" s="10"/>
       <c r="AN17" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO17" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP17" s="11"/>
       <c r="AQ17" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AR17" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS17" s="10"/>
       <c r="AT17" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AU17" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AV17" s="10"/>
       <c r="AW17" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX17" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AY17" s="11"/>
-      <c r="AZ17" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="BA17" s="29"/>
-      <c r="BB17" s="29"/>
-      <c r="BC17" s="29"/>
-      <c r="BD17" s="29"/>
-      <c r="BE17" s="30"/>
+      <c r="AZ17" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA17" s="32"/>
+      <c r="BB17" s="32"/>
+      <c r="BC17" s="32"/>
+      <c r="BD17" s="32"/>
+      <c r="BE17" s="33"/>
       <c r="BF17" s="7"/>
       <c r="BG17" s="7"/>
       <c r="BH17" s="17"/>
       <c r="BI17" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BJ17" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BK17" s="10"/>
       <c r="BL17" s="7"/>
       <c r="BM17" s="7"/>
       <c r="BN17" s="17"/>
       <c r="BO17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="BP17" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="BP17" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="BQ17" s="11"/>
     </row>
@@ -3947,8 +3993,12 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="11"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="7"/>
+      <c r="P18" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q18" s="55" t="s">
+        <v>121</v>
+      </c>
       <c r="R18" s="10"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -3969,10 +4019,10 @@
       <c r="AI18" s="7"/>
       <c r="AJ18" s="10"/>
       <c r="AK18" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL18" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="AL18" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="AM18" s="10"/>
       <c r="AN18" s="7"/>
@@ -3993,14 +4043,14 @@
       <c r="BC18" s="7"/>
       <c r="BD18" s="7"/>
       <c r="BE18" s="10"/>
-      <c r="BF18" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="BG18" s="29"/>
-      <c r="BH18" s="29"/>
-      <c r="BI18" s="29"/>
-      <c r="BJ18" s="29"/>
-      <c r="BK18" s="30"/>
+      <c r="BF18" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="BG18" s="32"/>
+      <c r="BH18" s="32"/>
+      <c r="BI18" s="32"/>
+      <c r="BJ18" s="32"/>
+      <c r="BK18" s="33"/>
       <c r="BL18" s="7"/>
       <c r="BM18" s="7"/>
       <c r="BN18" s="17"/>
@@ -4066,14 +4116,14 @@
       <c r="BC19" s="7"/>
       <c r="BD19" s="7"/>
       <c r="BE19" s="10"/>
-      <c r="BF19" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="BG19" s="32"/>
-      <c r="BH19" s="32"/>
-      <c r="BI19" s="32"/>
-      <c r="BJ19" s="32"/>
-      <c r="BK19" s="33"/>
+      <c r="BF19" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="BG19" s="52"/>
+      <c r="BH19" s="52"/>
+      <c r="BI19" s="52"/>
+      <c r="BJ19" s="52"/>
+      <c r="BK19" s="53"/>
       <c r="BL19" s="7"/>
       <c r="BM19" s="7"/>
       <c r="BN19" s="17"/>
@@ -4081,7 +4131,7 @@
       <c r="BP19" s="7"/>
       <c r="BQ19" s="11"/>
     </row>
-    <row r="20" spans="1:69" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -4120,9 +4170,13 @@
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="10"/>
+      <c r="Y20" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z20" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA20" s="57"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="10"/>
@@ -4130,10 +4184,10 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="11"/>
       <c r="AH20" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI20" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AJ20" s="10"/>
       <c r="AK20" s="7"/>
@@ -4149,13 +4203,13 @@
       <c r="AU20" s="7"/>
       <c r="AV20" s="10"/>
       <c r="AW20" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX20" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AY20" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AZ20" s="8"/>
       <c r="BA20" s="7"/>
@@ -4163,14 +4217,14 @@
       <c r="BC20" s="7"/>
       <c r="BD20" s="7"/>
       <c r="BE20" s="10"/>
-      <c r="BF20" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="BG20" s="29"/>
-      <c r="BH20" s="29"/>
-      <c r="BI20" s="29"/>
-      <c r="BJ20" s="29"/>
-      <c r="BK20" s="30"/>
+      <c r="BF20" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="BG20" s="32"/>
+      <c r="BH20" s="32"/>
+      <c r="BI20" s="32"/>
+      <c r="BJ20" s="32"/>
+      <c r="BK20" s="33"/>
       <c r="BL20" s="7"/>
       <c r="BM20" s="7"/>
       <c r="BN20" s="17"/>
@@ -4186,14 +4240,14 @@
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="10"/>
@@ -4205,24 +4259,24 @@
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q21" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="R21" s="10"/>
       <c r="S21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="U21" s="10"/>
       <c r="V21" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X21" s="11"/>
       <c r="Y21" s="8" t="s">
@@ -4231,87 +4285,87 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="10"/>
       <c r="AB21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC21" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="AC21" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="AD21" s="10"/>
       <c r="AE21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF21" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="AF21" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="AG21" s="11"/>
       <c r="AH21" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI21" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AJ21" s="10"/>
       <c r="AK21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL21" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="AL21" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="AM21" s="10"/>
       <c r="AN21" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO21" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="AO21" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="AP21" s="11"/>
       <c r="AQ21" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AR21" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS21" s="10"/>
       <c r="AT21" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AU21" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AV21" s="10"/>
       <c r="AW21" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX21" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AY21" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="AZ21" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="AZ21" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="BA21" s="29"/>
-      <c r="BB21" s="29"/>
-      <c r="BC21" s="29"/>
-      <c r="BD21" s="29"/>
-      <c r="BE21" s="30"/>
-      <c r="BF21" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="BG21" s="29"/>
-      <c r="BH21" s="29"/>
-      <c r="BI21" s="29"/>
-      <c r="BJ21" s="29"/>
-      <c r="BK21" s="30"/>
+      <c r="BA21" s="32"/>
+      <c r="BB21" s="32"/>
+      <c r="BC21" s="32"/>
+      <c r="BD21" s="32"/>
+      <c r="BE21" s="33"/>
+      <c r="BF21" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="BG21" s="32"/>
+      <c r="BH21" s="32"/>
+      <c r="BI21" s="32"/>
+      <c r="BJ21" s="32"/>
+      <c r="BK21" s="33"/>
       <c r="BL21" s="7"/>
       <c r="BM21" s="7"/>
       <c r="BN21" s="17"/>
       <c r="BO21" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="BP21" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="BP21" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="BQ21" s="11"/>
     </row>
@@ -4323,14 +4377,14 @@
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="10"/>
@@ -4338,21 +4392,21 @@
       <c r="N22" s="9"/>
       <c r="O22" s="11"/>
       <c r="P22" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q22" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="R22" s="10"/>
       <c r="S22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="T22" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="U22" s="10"/>
       <c r="V22" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W22" s="7" t="s">
         <v>106</v>
@@ -4364,74 +4418,74 @@
       <c r="Z22" s="7"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC22" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="AC22" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="AD22" s="10"/>
       <c r="AE22" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF22" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG22" s="11"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="10"/>
       <c r="AK22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL22" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="AL22" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="AM22" s="10"/>
       <c r="AN22" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO22" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="AO22" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="AP22" s="11"/>
       <c r="AQ22" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AR22" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS22" s="10"/>
       <c r="AT22" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU22" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AV22" s="10"/>
       <c r="AW22" s="7"/>
       <c r="AX22" s="7"/>
       <c r="AY22" s="11"/>
-      <c r="AZ22" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="BA22" s="29"/>
-      <c r="BB22" s="29"/>
-      <c r="BC22" s="29"/>
-      <c r="BD22" s="29"/>
-      <c r="BE22" s="30"/>
-      <c r="BF22" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="BG22" s="29"/>
-      <c r="BH22" s="29"/>
-      <c r="BI22" s="29"/>
-      <c r="BJ22" s="29"/>
-      <c r="BK22" s="30"/>
+      <c r="AZ22" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="BA22" s="32"/>
+      <c r="BB22" s="32"/>
+      <c r="BC22" s="32"/>
+      <c r="BD22" s="32"/>
+      <c r="BE22" s="33"/>
+      <c r="BF22" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="BG22" s="32"/>
+      <c r="BH22" s="32"/>
+      <c r="BI22" s="32"/>
+      <c r="BJ22" s="32"/>
+      <c r="BK22" s="33"/>
       <c r="BL22" s="7"/>
       <c r="BM22" s="7"/>
       <c r="BN22" s="17"/>
       <c r="BO22" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BP22" s="7" t="s">
         <v>101</v>
@@ -4465,7 +4519,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="10"/>
       <c r="V23" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W23" s="7" t="s">
         <v>106</v>
@@ -4487,10 +4541,10 @@
       <c r="AL23" s="7"/>
       <c r="AM23" s="10"/>
       <c r="AN23" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AO23" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AP23" s="11"/>
       <c r="AQ23" s="8"/>
@@ -4502,14 +4556,14 @@
       <c r="AW23" s="7"/>
       <c r="AX23" s="7"/>
       <c r="AY23" s="11"/>
-      <c r="AZ23" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="BA23" s="29"/>
-      <c r="BB23" s="29"/>
-      <c r="BC23" s="29"/>
-      <c r="BD23" s="29"/>
-      <c r="BE23" s="30"/>
+      <c r="AZ23" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA23" s="32"/>
+      <c r="BB23" s="32"/>
+      <c r="BC23" s="32"/>
+      <c r="BD23" s="32"/>
+      <c r="BE23" s="33"/>
       <c r="BF23" s="7"/>
       <c r="BG23" s="7"/>
       <c r="BH23" s="17"/>
@@ -4520,7 +4574,7 @@
       <c r="BM23" s="7"/>
       <c r="BN23" s="17"/>
       <c r="BO23" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BP23" s="7" t="s">
         <v>101</v>
@@ -4556,10 +4610,10 @@
       <c r="Z24" s="7"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD24" s="10"/>
       <c r="AE24" s="7"/>
@@ -4589,14 +4643,14 @@
       <c r="BC24" s="7"/>
       <c r="BD24" s="7"/>
       <c r="BE24" s="10"/>
-      <c r="BF24" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="BG24" s="29"/>
-      <c r="BH24" s="29"/>
-      <c r="BI24" s="29"/>
-      <c r="BJ24" s="29"/>
-      <c r="BK24" s="30"/>
+      <c r="BF24" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="BG24" s="32"/>
+      <c r="BH24" s="32"/>
+      <c r="BI24" s="32"/>
+      <c r="BJ24" s="32"/>
+      <c r="BK24" s="33"/>
       <c r="BL24" s="7"/>
       <c r="BM24" s="7"/>
       <c r="BN24" s="17"/>
@@ -4614,20 +4668,20 @@
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="52"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="35"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="10"/>
@@ -4641,10 +4695,10 @@
       <c r="Z25" s="7"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC25" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD25" s="10"/>
       <c r="AE25" s="7"/>
@@ -4666,13 +4720,13 @@
       <c r="AU25" s="7"/>
       <c r="AV25" s="10"/>
       <c r="AW25" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AX25" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AY25" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AZ25" s="8"/>
       <c r="BA25" s="7"/>
@@ -4680,14 +4734,14 @@
       <c r="BC25" s="7"/>
       <c r="BD25" s="7"/>
       <c r="BE25" s="10"/>
-      <c r="BF25" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="BG25" s="29"/>
-      <c r="BH25" s="29"/>
-      <c r="BI25" s="29"/>
-      <c r="BJ25" s="29"/>
-      <c r="BK25" s="30"/>
+      <c r="BF25" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="BG25" s="32"/>
+      <c r="BH25" s="32"/>
+      <c r="BI25" s="32"/>
+      <c r="BJ25" s="32"/>
+      <c r="BK25" s="33"/>
       <c r="BL25" s="7"/>
       <c r="BM25" s="7"/>
       <c r="BN25" s="17"/>
@@ -4703,14 +4757,14 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="33"/>
       <c r="J26" s="7" t="s">
         <v>91</v>
       </c>
@@ -4725,17 +4779,17 @@
         <v>63</v>
       </c>
       <c r="O26" s="11"/>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="52"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="35"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="10"/>
@@ -4743,82 +4797,82 @@
         <v>67</v>
       </c>
       <c r="AC26" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF26" s="7" t="s">
         <v>106</v>
       </c>
       <c r="AG26" s="11"/>
       <c r="AH26" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AI26" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AJ26" s="10"/>
       <c r="AK26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL26" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="AL26" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="AM26" s="10"/>
       <c r="AN26" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO26" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP26" s="11"/>
       <c r="AQ26" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AR26" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS26" s="10"/>
       <c r="AT26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="AU26" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="AU26" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="AV26" s="10"/>
       <c r="AW26" s="12" t="s">
         <v>67</v>
       </c>
       <c r="AX26" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AY26" s="11"/>
-      <c r="AZ26" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="BA26" s="29"/>
-      <c r="BB26" s="29"/>
-      <c r="BC26" s="29"/>
-      <c r="BD26" s="29"/>
-      <c r="BE26" s="30"/>
-      <c r="BF26" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="BG26" s="29"/>
-      <c r="BH26" s="29"/>
-      <c r="BI26" s="29"/>
-      <c r="BJ26" s="29"/>
-      <c r="BK26" s="30"/>
+      <c r="AZ26" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="BA26" s="32"/>
+      <c r="BB26" s="32"/>
+      <c r="BC26" s="32"/>
+      <c r="BD26" s="32"/>
+      <c r="BE26" s="33"/>
+      <c r="BF26" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="BG26" s="32"/>
+      <c r="BH26" s="32"/>
+      <c r="BI26" s="32"/>
+      <c r="BJ26" s="32"/>
+      <c r="BK26" s="33"/>
       <c r="BL26" s="7"/>
       <c r="BM26" s="7"/>
       <c r="BN26" s="17"/>
       <c r="BO26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="BP26" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="BP26" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="BQ26" s="11"/>
     </row>
@@ -4830,14 +4884,14 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="33"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="10"/>
@@ -4848,19 +4902,19 @@
         <v>63</v>
       </c>
       <c r="O27" s="11"/>
-      <c r="P27" s="38" t="s">
+      <c r="P27" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="52"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="35"/>
       <c r="Y27" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z27" s="7" t="s">
         <v>114</v>
@@ -4870,74 +4924,74 @@
       <c r="AC27" s="9"/>
       <c r="AD27" s="10"/>
       <c r="AE27" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF27" s="7" t="s">
         <v>106</v>
       </c>
       <c r="AG27" s="11"/>
       <c r="AH27" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AI27" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AJ27" s="10"/>
       <c r="AK27" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL27" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="AL27" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="AM27" s="10"/>
       <c r="AN27" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO27" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP27" s="11"/>
       <c r="AQ27" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AR27" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS27" s="10"/>
       <c r="AT27" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="AU27" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="AU27" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="AV27" s="10"/>
       <c r="AW27" s="7"/>
       <c r="AX27" s="7"/>
       <c r="AY27" s="11"/>
-      <c r="AZ27" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="BA27" s="29"/>
-      <c r="BB27" s="29"/>
-      <c r="BC27" s="29"/>
-      <c r="BD27" s="29"/>
-      <c r="BE27" s="30"/>
-      <c r="BF27" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="BG27" s="29"/>
-      <c r="BH27" s="29"/>
-      <c r="BI27" s="29"/>
-      <c r="BJ27" s="29"/>
-      <c r="BK27" s="30"/>
+      <c r="AZ27" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA27" s="32"/>
+      <c r="BB27" s="32"/>
+      <c r="BC27" s="32"/>
+      <c r="BD27" s="32"/>
+      <c r="BE27" s="33"/>
+      <c r="BF27" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="BG27" s="32"/>
+      <c r="BH27" s="32"/>
+      <c r="BI27" s="32"/>
+      <c r="BJ27" s="32"/>
+      <c r="BK27" s="33"/>
       <c r="BL27" s="7"/>
       <c r="BM27" s="7"/>
       <c r="BN27" s="17"/>
       <c r="BO27" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="BP27" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="BP27" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="BQ27" s="11"/>
     </row>
@@ -4971,7 +5025,7 @@
       <c r="W28" s="7"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z28" s="7" t="s">
         <v>114</v>
@@ -5021,14 +5075,14 @@
       <c r="BQ28" s="11"/>
     </row>
     <row r="29" spans="1:69" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
+      <c r="D29" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="10"/>
@@ -5094,7 +5148,7 @@
       <c r="BP29" s="7"/>
       <c r="BQ29" s="11"/>
     </row>
-    <row r="30" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -5133,14 +5187,18 @@
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="11"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="10"/>
+      <c r="Y30" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z30" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA30" s="57"/>
       <c r="AB30" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD30" s="10"/>
       <c r="AE30" s="7"/>
@@ -5191,20 +5249,20 @@
       <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="52"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="35"/>
       <c r="P31" s="8" t="s">
         <v>116</v>
       </c>
@@ -5213,21 +5271,21 @@
       </c>
       <c r="R31" s="10"/>
       <c r="S31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="T31" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="T31" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="U31" s="10"/>
       <c r="V31" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W31" s="7" t="s">
         <v>103</v>
       </c>
       <c r="X31" s="11"/>
       <c r="Y31" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z31" s="7" t="s">
         <v>93</v>
@@ -5237,60 +5295,60 @@
       <c r="AC31" s="9"/>
       <c r="AD31" s="10"/>
       <c r="AE31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF31" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="AF31" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="AG31" s="11"/>
       <c r="AH31" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AI31" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AJ31" s="10"/>
-      <c r="AK31" s="28" t="s">
+      <c r="AK31" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AL31" s="29"/>
-      <c r="AM31" s="29"/>
-      <c r="AN31" s="29"/>
-      <c r="AO31" s="29"/>
-      <c r="AP31" s="52"/>
+      <c r="AL31" s="32"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="32"/>
+      <c r="AP31" s="35"/>
       <c r="AQ31" s="9"/>
       <c r="AR31" s="9"/>
       <c r="AS31" s="10"/>
       <c r="AT31" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AU31" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AV31" s="9"/>
       <c r="AW31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX31" s="9" t="s">
         <v>101</v>
       </c>
       <c r="AY31" s="9"/>
-      <c r="AZ31" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="BA31" s="29"/>
-      <c r="BB31" s="29"/>
-      <c r="BC31" s="29"/>
-      <c r="BD31" s="29"/>
-      <c r="BE31" s="30"/>
-      <c r="BF31" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="BG31" s="29"/>
-      <c r="BH31" s="29"/>
-      <c r="BI31" s="29"/>
-      <c r="BJ31" s="29"/>
-      <c r="BK31" s="30"/>
+      <c r="AZ31" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="BA31" s="32"/>
+      <c r="BB31" s="32"/>
+      <c r="BC31" s="32"/>
+      <c r="BD31" s="32"/>
+      <c r="BE31" s="33"/>
+      <c r="BF31" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="BG31" s="32"/>
+      <c r="BH31" s="32"/>
+      <c r="BI31" s="32"/>
+      <c r="BJ31" s="32"/>
+      <c r="BK31" s="33"/>
       <c r="BL31" s="7"/>
       <c r="BM31" s="7"/>
       <c r="BN31" s="17"/>
@@ -5310,20 +5368,20 @@
       <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="52"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="35"/>
       <c r="P32" s="8" t="s">
         <v>58</v>
       </c>
@@ -5338,37 +5396,41 @@
       <c r="W32" s="7"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z32" s="7" t="s">
         <v>114</v>
       </c>
       <c r="AA32" s="10"/>
       <c r="AB32" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC32" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD32" s="10"/>
       <c r="AE32" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF32" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG32" s="11"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="7"/>
+      <c r="AH32" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI32" s="56" t="s">
+        <v>121</v>
+      </c>
       <c r="AJ32" s="10"/>
-      <c r="AK32" s="28" t="s">
+      <c r="AK32" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AL32" s="29"/>
-      <c r="AM32" s="29"/>
-      <c r="AN32" s="29"/>
-      <c r="AO32" s="29"/>
-      <c r="AP32" s="52"/>
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="32"/>
+      <c r="AP32" s="35"/>
       <c r="AQ32" s="9" t="s">
         <v>102</v>
       </c>
@@ -5377,41 +5439,41 @@
       </c>
       <c r="AS32" s="10"/>
       <c r="AT32" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU32" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AV32" s="9"/>
       <c r="AW32" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AX32" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY32" s="9"/>
       <c r="AZ32" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BA32" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BB32" s="17"/>
       <c r="BC32" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BD32" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BE32" s="10"/>
-      <c r="BF32" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="BG32" s="29"/>
-      <c r="BH32" s="29"/>
-      <c r="BI32" s="29"/>
-      <c r="BJ32" s="29"/>
-      <c r="BK32" s="30"/>
+      <c r="BF32" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="BG32" s="32"/>
+      <c r="BH32" s="32"/>
+      <c r="BI32" s="32"/>
+      <c r="BJ32" s="32"/>
+      <c r="BK32" s="33"/>
       <c r="BL32" s="7"/>
       <c r="BM32" s="7"/>
       <c r="BN32" s="17"/>
@@ -5453,7 +5515,7 @@
       <c r="W33" s="7"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z33" s="7" t="s">
         <v>114</v>
@@ -5481,10 +5543,10 @@
       <c r="AU33" s="7"/>
       <c r="AV33" s="10"/>
       <c r="AW33" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AX33" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY33" s="11"/>
       <c r="AZ33" s="8"/>
@@ -5510,14 +5572,14 @@
       <c r="C34" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="10"/>
@@ -5552,7 +5614,7 @@
       <c r="AO34" s="7"/>
       <c r="AP34" s="11"/>
       <c r="AQ34" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AR34" s="7" t="s">
         <v>114</v>
@@ -5570,25 +5632,25 @@
       <c r="BC34" s="7"/>
       <c r="BD34" s="7"/>
       <c r="BE34" s="10"/>
-      <c r="BF34" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="BG34" s="29"/>
-      <c r="BH34" s="29"/>
-      <c r="BI34" s="29"/>
-      <c r="BJ34" s="29"/>
-      <c r="BK34" s="30"/>
+      <c r="BF34" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="BG34" s="32"/>
+      <c r="BH34" s="32"/>
+      <c r="BI34" s="32"/>
+      <c r="BJ34" s="32"/>
+      <c r="BK34" s="33"/>
       <c r="BL34" s="7"/>
       <c r="BM34" s="7"/>
       <c r="BN34" s="17"/>
       <c r="BO34" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BP34" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BQ34" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:69" ht="90" x14ac:dyDescent="0.25">
@@ -5632,34 +5694,34 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="11"/>
       <c r="AH35" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI35" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="AI35" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="AJ35" s="10"/>
       <c r="AK35" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL35" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="AL35" s="9" t="s">
-        <v>242</v>
       </c>
       <c r="AM35" s="10"/>
       <c r="AN35" s="7"/>
       <c r="AO35" s="7"/>
       <c r="AP35" s="11"/>
       <c r="AQ35" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AR35" s="7" t="s">
         <v>114</v>
       </c>
       <c r="AS35" s="10"/>
       <c r="AT35" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AU35" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AV35" s="10"/>
       <c r="AW35" s="7"/>
@@ -5671,25 +5733,25 @@
       <c r="BC35" s="7"/>
       <c r="BD35" s="7"/>
       <c r="BE35" s="10"/>
-      <c r="BF35" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="BG35" s="29"/>
-      <c r="BH35" s="29"/>
-      <c r="BI35" s="29"/>
-      <c r="BJ35" s="29"/>
-      <c r="BK35" s="30"/>
+      <c r="BF35" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="BG35" s="32"/>
+      <c r="BH35" s="32"/>
+      <c r="BI35" s="32"/>
+      <c r="BJ35" s="32"/>
+      <c r="BK35" s="33"/>
       <c r="BL35" s="7"/>
       <c r="BM35" s="7"/>
       <c r="BN35" s="17"/>
       <c r="BO35" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BP35" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BQ35" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:69" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5700,14 +5762,14 @@
       <c r="C36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="10"/>
@@ -5718,41 +5780,41 @@
         <v>63</v>
       </c>
       <c r="O36" s="11"/>
-      <c r="P36" s="38" t="s">
+      <c r="P36" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="52"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="35"/>
       <c r="Y36" s="8" t="s">
         <v>79</v>
       </c>
       <c r="Z36" s="7"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC36" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="AC36" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="AD36" s="10"/>
       <c r="AE36" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF36" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="AF36" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="AG36" s="11"/>
       <c r="AH36" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AI36" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AJ36" s="10"/>
       <c r="AK36" s="9"/>
@@ -5765,35 +5827,35 @@
       <c r="AR36" s="9"/>
       <c r="AS36" s="10"/>
       <c r="AT36" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AU36" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AV36" s="10"/>
       <c r="AW36" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AX36" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AY36" s="11"/>
-      <c r="AZ36" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="BA36" s="29"/>
-      <c r="BB36" s="29"/>
-      <c r="BC36" s="29"/>
-      <c r="BD36" s="29"/>
-      <c r="BE36" s="30"/>
-      <c r="BF36" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="BG36" s="29"/>
-      <c r="BH36" s="29"/>
-      <c r="BI36" s="29"/>
-      <c r="BJ36" s="29"/>
-      <c r="BK36" s="30"/>
+      <c r="AZ36" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="BA36" s="32"/>
+      <c r="BB36" s="32"/>
+      <c r="BC36" s="32"/>
+      <c r="BD36" s="32"/>
+      <c r="BE36" s="33"/>
+      <c r="BF36" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="BG36" s="32"/>
+      <c r="BH36" s="32"/>
+      <c r="BI36" s="32"/>
+      <c r="BJ36" s="32"/>
+      <c r="BK36" s="33"/>
       <c r="BL36" s="7"/>
       <c r="BM36" s="7"/>
       <c r="BN36" s="17"/>
@@ -5809,14 +5871,14 @@
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="30"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="10"/>
@@ -5824,58 +5886,58 @@
       <c r="N37" s="9"/>
       <c r="O37" s="11"/>
       <c r="P37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="R37" s="10"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="10"/>
       <c r="V37" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W37" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X37" s="11"/>
       <c r="Y37" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA37" s="10"/>
       <c r="AB37" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC37" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="AC37" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="AD37" s="10"/>
       <c r="AE37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF37" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="AF37" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="AG37" s="11"/>
       <c r="AH37" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AI37" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AJ37" s="10"/>
       <c r="AK37" s="9"/>
       <c r="AL37" s="9"/>
       <c r="AM37" s="10"/>
       <c r="AN37" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AO37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AP37" s="11"/>
       <c r="AQ37" s="8"/>
@@ -5885,28 +5947,28 @@
       <c r="AU37" s="7"/>
       <c r="AV37" s="10"/>
       <c r="AW37" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AX37" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AY37" s="11"/>
-      <c r="AZ37" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="BA37" s="29"/>
-      <c r="BB37" s="29"/>
-      <c r="BC37" s="29"/>
-      <c r="BD37" s="29"/>
-      <c r="BE37" s="30"/>
-      <c r="BF37" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="BG37" s="29"/>
-      <c r="BH37" s="29"/>
-      <c r="BI37" s="29"/>
-      <c r="BJ37" s="29"/>
-      <c r="BK37" s="30"/>
+      <c r="AZ37" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="BA37" s="32"/>
+      <c r="BB37" s="32"/>
+      <c r="BC37" s="32"/>
+      <c r="BD37" s="32"/>
+      <c r="BE37" s="33"/>
+      <c r="BF37" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="BG37" s="32"/>
+      <c r="BH37" s="32"/>
+      <c r="BI37" s="32"/>
+      <c r="BJ37" s="32"/>
+      <c r="BK37" s="33"/>
       <c r="BL37" s="7"/>
       <c r="BM37" s="7"/>
       <c r="BN37" s="17"/>
@@ -5935,10 +5997,10 @@
       <c r="N38" s="7"/>
       <c r="O38" s="11"/>
       <c r="P38" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="R38" s="10"/>
       <c r="S38" s="7"/>
@@ -5948,20 +6010,20 @@
       <c r="W38" s="7"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z38" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA38" s="10"/>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
       <c r="AD38" s="10"/>
       <c r="AE38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF38" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="AF38" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="AG38" s="11"/>
       <c r="AH38" s="8"/>
@@ -5971,10 +6033,10 @@
       <c r="AL38" s="7"/>
       <c r="AM38" s="10"/>
       <c r="AN38" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AO38" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AP38" s="11"/>
       <c r="AQ38" s="8"/>
@@ -6083,25 +6145,25 @@
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="53"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="42"/>
       <c r="P40" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="R40" s="10"/>
       <c r="S40" s="7" t="s">
@@ -6117,17 +6179,17 @@
       <c r="W40" s="7"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z40" s="7" t="s">
         <v>121</v>
       </c>
       <c r="AA40" s="10"/>
       <c r="AB40" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC40" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="AC40" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="AD40" s="10"/>
       <c r="AE40" s="7" t="s">
@@ -6141,62 +6203,62 @@
       <c r="AI40" s="7"/>
       <c r="AJ40" s="10"/>
       <c r="AK40" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL40" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="AL40" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="AM40" s="10"/>
       <c r="AN40" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AO40" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP40" s="11"/>
       <c r="AQ40" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AR40" s="7" t="s">
         <v>114</v>
       </c>
       <c r="AS40" s="10"/>
       <c r="AT40" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AU40" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AV40" s="10"/>
       <c r="AW40" s="9"/>
       <c r="AX40" s="9"/>
       <c r="AY40" s="11"/>
       <c r="AZ40" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BA40" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BB40" s="17"/>
       <c r="BC40" s="7"/>
       <c r="BD40" s="7"/>
       <c r="BE40" s="10"/>
-      <c r="BF40" s="34" t="s">
+      <c r="BF40" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="BG40" s="35"/>
-      <c r="BH40" s="35"/>
-      <c r="BI40" s="35"/>
-      <c r="BJ40" s="35"/>
-      <c r="BK40" s="36"/>
+      <c r="BG40" s="40"/>
+      <c r="BH40" s="40"/>
+      <c r="BI40" s="40"/>
+      <c r="BJ40" s="40"/>
+      <c r="BK40" s="41"/>
       <c r="BL40" s="7"/>
       <c r="BM40" s="7"/>
       <c r="BN40" s="17"/>
       <c r="BO40" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BP40" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BQ40" s="11"/>
     </row>
@@ -6208,25 +6270,25 @@
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="53"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="42"/>
       <c r="P41" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="R41" s="10"/>
       <c r="S41" s="7" t="s">
@@ -6242,17 +6304,17 @@
       <c r="W41" s="7"/>
       <c r="X41" s="11"/>
       <c r="Y41" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z41" s="7" t="s">
         <v>121</v>
       </c>
       <c r="AA41" s="10"/>
       <c r="AB41" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC41" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="AC41" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="AD41" s="10"/>
       <c r="AE41" s="7" t="s">
@@ -6266,48 +6328,48 @@
       <c r="AI41" s="7"/>
       <c r="AJ41" s="10"/>
       <c r="AK41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL41" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="AL41" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="AM41" s="10"/>
       <c r="AN41" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AO41" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP41" s="11"/>
       <c r="AQ41" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AR41" s="7" t="s">
         <v>114</v>
       </c>
       <c r="AS41" s="10"/>
       <c r="AT41" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU41" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AV41" s="10"/>
       <c r="AW41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="AX41" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="AX41" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="AY41" s="11"/>
-      <c r="AZ41" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="BA41" s="35"/>
-      <c r="BB41" s="35"/>
-      <c r="BC41" s="35"/>
-      <c r="BD41" s="35"/>
-      <c r="BE41" s="36"/>
+      <c r="AZ41" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="BA41" s="40"/>
+      <c r="BB41" s="40"/>
+      <c r="BC41" s="40"/>
+      <c r="BD41" s="40"/>
+      <c r="BE41" s="41"/>
       <c r="BF41" s="9"/>
       <c r="BG41" s="7"/>
       <c r="BH41" s="17"/>
@@ -6318,10 +6380,10 @@
       <c r="BM41" s="7"/>
       <c r="BN41" s="17"/>
       <c r="BO41" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BP41" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BQ41" s="11"/>
     </row>
@@ -6333,14 +6395,14 @@
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="30"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="33"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="10"/>
@@ -6362,52 +6424,52 @@
       <c r="T42" s="7"/>
       <c r="U42" s="10"/>
       <c r="V42" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="W42" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="W42" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="X42" s="11"/>
       <c r="Y42" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z42" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Z42" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="AA42" s="10"/>
       <c r="AB42" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC42" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="AC42" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="AD42" s="10"/>
       <c r="AE42" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF42" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG42" s="11"/>
       <c r="AH42" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AI42" s="7" t="s">
         <v>121</v>
       </c>
       <c r="AJ42" s="10"/>
       <c r="AK42" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL42" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="AL42" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="AM42" s="10"/>
       <c r="AN42" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AO42" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP42" s="11"/>
       <c r="AQ42" s="8"/>
@@ -6417,42 +6479,42 @@
       <c r="AU42" s="7"/>
       <c r="AV42" s="10"/>
       <c r="AW42" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AX42" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AY42" s="11"/>
       <c r="AZ42" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BA42" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BB42" s="17"/>
       <c r="BC42" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BD42" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BE42" s="10"/>
-      <c r="BF42" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="BG42" s="35"/>
-      <c r="BH42" s="35"/>
-      <c r="BI42" s="35"/>
-      <c r="BJ42" s="35"/>
-      <c r="BK42" s="36"/>
+      <c r="BF42" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="BG42" s="40"/>
+      <c r="BH42" s="40"/>
+      <c r="BI42" s="40"/>
+      <c r="BJ42" s="40"/>
+      <c r="BK42" s="41"/>
       <c r="BL42" s="7"/>
       <c r="BM42" s="7"/>
       <c r="BN42" s="17"/>
       <c r="BO42" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BP42" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BQ42" s="11"/>
     </row>
@@ -6464,14 +6526,14 @@
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="10"/>
@@ -6493,31 +6555,31 @@
       <c r="T43" s="7"/>
       <c r="U43" s="10"/>
       <c r="V43" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="W43" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="W43" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="X43" s="11"/>
       <c r="Y43" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z43" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Z43" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="AA43" s="10"/>
       <c r="AB43" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC43" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="AC43" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="AD43" s="10"/>
       <c r="AE43" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF43" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG43" s="11"/>
       <c r="AH43" s="8"/>
@@ -6527,10 +6589,10 @@
       <c r="AL43" s="9"/>
       <c r="AM43" s="10"/>
       <c r="AN43" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AO43" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP43" s="11"/>
       <c r="AQ43" s="8"/>
@@ -6540,34 +6602,34 @@
       <c r="AU43" s="7"/>
       <c r="AV43" s="10"/>
       <c r="AW43" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AX43" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AY43" s="11"/>
       <c r="AZ43" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BA43" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BB43" s="17"/>
       <c r="BC43" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BD43" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BE43" s="10"/>
-      <c r="BF43" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="BG43" s="35"/>
-      <c r="BH43" s="35"/>
-      <c r="BI43" s="35"/>
-      <c r="BJ43" s="35"/>
-      <c r="BK43" s="36"/>
+      <c r="BF43" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="BG43" s="40"/>
+      <c r="BH43" s="40"/>
+      <c r="BI43" s="40"/>
+      <c r="BJ43" s="40"/>
+      <c r="BK43" s="41"/>
       <c r="BL43" s="7"/>
       <c r="BM43" s="7"/>
       <c r="BN43" s="17"/>
@@ -6653,14 +6715,14 @@
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="51"/>
+      <c r="D45" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="30"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="10"/>
@@ -6682,31 +6744,31 @@
       <c r="T45" s="7"/>
       <c r="U45" s="10"/>
       <c r="V45" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W45" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X45" s="11"/>
       <c r="Y45" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z45" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Z45" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="AA45" s="10"/>
       <c r="AB45" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC45" s="7" t="s">
         <v>92</v>
       </c>
       <c r="AD45" s="10"/>
       <c r="AE45" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF45" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG45" s="11"/>
       <c r="AH45" s="8"/>
@@ -6719,10 +6781,10 @@
       <c r="AO45" s="7"/>
       <c r="AP45" s="11"/>
       <c r="AQ45" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AR45" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AS45" s="10"/>
       <c r="AT45" s="9"/>
@@ -6735,28 +6797,28 @@
       <c r="BA45" s="7"/>
       <c r="BB45" s="17"/>
       <c r="BC45" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BD45" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BE45" s="10"/>
-      <c r="BF45" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="BG45" s="29"/>
-      <c r="BH45" s="29"/>
-      <c r="BI45" s="29"/>
-      <c r="BJ45" s="29"/>
-      <c r="BK45" s="30"/>
+      <c r="BF45" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="BG45" s="32"/>
+      <c r="BH45" s="32"/>
+      <c r="BI45" s="32"/>
+      <c r="BJ45" s="32"/>
+      <c r="BK45" s="33"/>
       <c r="BL45" s="7"/>
       <c r="BM45" s="7"/>
       <c r="BN45" s="17"/>
       <c r="BO45" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BP45" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BQ45" s="11"/>
     </row>
@@ -6768,14 +6830,14 @@
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="51"/>
+      <c r="D46" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="10"/>
@@ -6797,31 +6859,31 @@
       <c r="T46" s="7"/>
       <c r="U46" s="10"/>
       <c r="V46" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W46" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X46" s="11"/>
       <c r="Y46" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z46" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Z46" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="AA46" s="10"/>
       <c r="AB46" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC46" s="7" t="s">
         <v>92</v>
       </c>
       <c r="AD46" s="10"/>
       <c r="AE46" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF46" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG46" s="11"/>
       <c r="AH46" s="8"/>
@@ -6834,10 +6896,10 @@
       <c r="AO46" s="7"/>
       <c r="AP46" s="11"/>
       <c r="AQ46" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AR46" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AS46" s="10"/>
       <c r="AT46" s="8" t="s">
@@ -6848,22 +6910,22 @@
       <c r="AW46" s="7"/>
       <c r="AX46" s="7"/>
       <c r="AY46" s="11"/>
-      <c r="AZ46" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="BA46" s="35"/>
-      <c r="BB46" s="35"/>
-      <c r="BC46" s="35"/>
-      <c r="BD46" s="35"/>
-      <c r="BE46" s="36"/>
-      <c r="BF46" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="BG46" s="29"/>
-      <c r="BH46" s="29"/>
-      <c r="BI46" s="29"/>
-      <c r="BJ46" s="29"/>
-      <c r="BK46" s="30"/>
+      <c r="AZ46" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="BA46" s="40"/>
+      <c r="BB46" s="40"/>
+      <c r="BC46" s="40"/>
+      <c r="BD46" s="40"/>
+      <c r="BE46" s="41"/>
+      <c r="BF46" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="BG46" s="32"/>
+      <c r="BH46" s="32"/>
+      <c r="BI46" s="32"/>
+      <c r="BJ46" s="32"/>
+      <c r="BK46" s="33"/>
       <c r="BL46" s="7"/>
       <c r="BM46" s="7"/>
       <c r="BN46" s="17"/>
@@ -6881,63 +6943,63 @@
       <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="51"/>
+      <c r="D47" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="30"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="10"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="11"/>
-      <c r="P47" s="38" t="s">
+      <c r="P47" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="52"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="35"/>
       <c r="Y47" s="8"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="10"/>
       <c r="AB47" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC47" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="AC47" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="AD47" s="10"/>
       <c r="AE47" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF47" s="7" t="s">
         <v>106</v>
       </c>
       <c r="AG47" s="11"/>
       <c r="AH47" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI47" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AJ47" s="10"/>
       <c r="AK47" s="7"/>
       <c r="AL47" s="7"/>
       <c r="AM47" s="10"/>
       <c r="AN47" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AO47" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP47" s="11"/>
       <c r="AQ47" s="8"/>
@@ -6950,31 +7012,31 @@
       <c r="AX47" s="7"/>
       <c r="AY47" s="11"/>
       <c r="AZ47" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BA47" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BB47" s="17"/>
       <c r="BC47" s="7"/>
       <c r="BD47" s="7"/>
       <c r="BE47" s="10"/>
-      <c r="BF47" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="BG47" s="29"/>
-      <c r="BH47" s="29"/>
-      <c r="BI47" s="29"/>
-      <c r="BJ47" s="29"/>
-      <c r="BK47" s="30"/>
+      <c r="BF47" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG47" s="32"/>
+      <c r="BH47" s="32"/>
+      <c r="BI47" s="32"/>
+      <c r="BJ47" s="32"/>
+      <c r="BK47" s="33"/>
       <c r="BL47" s="7"/>
       <c r="BM47" s="7"/>
       <c r="BN47" s="7"/>
       <c r="BO47" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BP47" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BQ47" s="11"/>
     </row>
@@ -6986,31 +7048,31 @@
       <c r="C48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="51"/>
+      <c r="D48" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="30"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="10"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="11"/>
-      <c r="P48" s="38" t="s">
+      <c r="P48" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="52"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="35"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
@@ -7021,24 +7083,24 @@
       <c r="AF48" s="7"/>
       <c r="AG48" s="11"/>
       <c r="AH48" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI48" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AJ48" s="10"/>
       <c r="AK48" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL48" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AM48" s="10"/>
       <c r="AN48" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AO48" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP48" s="11"/>
       <c r="AQ48" s="7"/>
@@ -7051,35 +7113,35 @@
       <c r="AX48" s="7"/>
       <c r="AY48" s="11"/>
       <c r="AZ48" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BA48" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BB48" s="17"/>
       <c r="BC48" s="19"/>
       <c r="BD48" s="7"/>
       <c r="BE48" s="10"/>
-      <c r="BF48" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="BG48" s="29"/>
-      <c r="BH48" s="29"/>
-      <c r="BI48" s="29"/>
-      <c r="BJ48" s="29"/>
-      <c r="BK48" s="30"/>
+      <c r="BF48" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG48" s="32"/>
+      <c r="BH48" s="32"/>
+      <c r="BI48" s="32"/>
+      <c r="BJ48" s="32"/>
+      <c r="BK48" s="33"/>
       <c r="BL48" s="7"/>
       <c r="BM48" s="7"/>
       <c r="BN48" s="7"/>
       <c r="BO48" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BP48" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BQ48" s="11"/>
     </row>
-    <row r="49" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:69" ht="90" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>75</v>
       </c>
@@ -7109,7 +7171,7 @@
       <c r="W49" s="7"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z49" s="7" t="s">
         <v>114</v>
@@ -7121,8 +7183,12 @@
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="11"/>
-      <c r="AH49" s="7"/>
-      <c r="AI49" s="7"/>
+      <c r="AH49" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI49" s="56" t="s">
+        <v>121</v>
+      </c>
       <c r="AJ49" s="10"/>
       <c r="AK49" s="7"/>
       <c r="AL49" s="7"/>
@@ -7186,7 +7252,7 @@
       <c r="Q50" s="9"/>
       <c r="R50" s="10"/>
       <c r="S50" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T50" s="21" t="s">
         <v>114</v>
@@ -7195,10 +7261,10 @@
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
       <c r="X50" s="11"/>
-      <c r="Y50" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z50" s="7" t="s">
+      <c r="Y50" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z50" s="56" t="s">
         <v>121</v>
       </c>
       <c r="AA50" s="7"/>
@@ -7224,41 +7290,41 @@
       <c r="AU50" s="7"/>
       <c r="AV50" s="10"/>
       <c r="AW50" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AX50" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AY50" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="AZ50" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="AZ50" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="BA50" s="29"/>
-      <c r="BB50" s="29"/>
-      <c r="BC50" s="29"/>
-      <c r="BD50" s="29"/>
-      <c r="BE50" s="30"/>
-      <c r="BF50" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="BG50" s="29"/>
-      <c r="BH50" s="29"/>
-      <c r="BI50" s="29"/>
-      <c r="BJ50" s="29"/>
-      <c r="BK50" s="30"/>
+      <c r="BA50" s="32"/>
+      <c r="BB50" s="32"/>
+      <c r="BC50" s="32"/>
+      <c r="BD50" s="32"/>
+      <c r="BE50" s="33"/>
+      <c r="BF50" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="BG50" s="32"/>
+      <c r="BH50" s="32"/>
+      <c r="BI50" s="32"/>
+      <c r="BJ50" s="32"/>
+      <c r="BK50" s="33"/>
       <c r="BL50" s="7"/>
       <c r="BM50" s="7"/>
       <c r="BN50" s="7"/>
       <c r="BO50" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BP50" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="BQ50" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="BQ50" s="11" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:69" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7272,14 +7338,14 @@
       <c r="D51" s="8"/>
       <c r="E51" s="7"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="28" t="s">
+      <c r="G51" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="30"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="33"/>
       <c r="M51" s="9" t="s">
         <v>89</v>
       </c>
@@ -7287,39 +7353,39 @@
         <v>90</v>
       </c>
       <c r="O51" s="11"/>
-      <c r="P51" s="8" t="s">
+      <c r="P51" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="Q51" s="7" t="s">
+      <c r="Q51" s="56" t="s">
         <v>121</v>
       </c>
       <c r="R51" s="10"/>
       <c r="S51" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T51" s="7" t="s">
         <v>103</v>
       </c>
       <c r="U51" s="10"/>
       <c r="V51" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W51" s="7" t="s">
         <v>106</v>
       </c>
       <c r="X51" s="11"/>
       <c r="Y51" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z51" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA51" s="7"/>
       <c r="AB51" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC51" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="AC51" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="AD51" s="10"/>
       <c r="AE51" s="2" t="s">
@@ -7332,60 +7398,60 @@
       <c r="AH51" s="7"/>
       <c r="AI51" s="7"/>
       <c r="AJ51" s="10"/>
-      <c r="AK51" s="28" t="s">
+      <c r="AK51" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="AL51" s="29"/>
-      <c r="AM51" s="29"/>
-      <c r="AN51" s="29"/>
-      <c r="AO51" s="29"/>
-      <c r="AP51" s="52"/>
+      <c r="AL51" s="32"/>
+      <c r="AM51" s="32"/>
+      <c r="AN51" s="32"/>
+      <c r="AO51" s="32"/>
+      <c r="AP51" s="35"/>
       <c r="AQ51" s="7"/>
       <c r="AR51" s="7"/>
       <c r="AS51" s="10"/>
       <c r="AT51" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AU51" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AV51" s="9"/>
       <c r="AW51" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AX51" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY51" s="9"/>
       <c r="AZ51" s="7"/>
       <c r="BA51" s="7"/>
       <c r="BB51" s="17"/>
       <c r="BC51" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BD51" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BE51" s="10"/>
-      <c r="BF51" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="BG51" s="29"/>
-      <c r="BH51" s="29"/>
-      <c r="BI51" s="29"/>
-      <c r="BJ51" s="29"/>
-      <c r="BK51" s="30"/>
+      <c r="BF51" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="BG51" s="32"/>
+      <c r="BH51" s="32"/>
+      <c r="BI51" s="32"/>
+      <c r="BJ51" s="32"/>
+      <c r="BK51" s="33"/>
       <c r="BL51" s="7"/>
       <c r="BM51" s="7"/>
       <c r="BN51" s="7"/>
       <c r="BO51" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BP51" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="BQ51" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="BQ51" s="11" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:69" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7399,14 +7465,14 @@
       <c r="D52" s="8"/>
       <c r="E52" s="7"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="28" t="s">
+      <c r="G52" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="30"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="33"/>
       <c r="M52" s="9" t="s">
         <v>89</v>
       </c>
@@ -7414,39 +7480,39 @@
         <v>90</v>
       </c>
       <c r="O52" s="11"/>
-      <c r="P52" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q52" s="9" t="s">
+      <c r="P52" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q52" s="55" t="s">
         <v>121</v>
       </c>
       <c r="R52" s="10"/>
       <c r="S52" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T52" s="7" t="s">
         <v>103</v>
       </c>
       <c r="U52" s="10"/>
       <c r="V52" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W52" s="7" t="s">
         <v>106</v>
       </c>
       <c r="X52" s="11"/>
       <c r="Y52" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z52" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA52" s="7"/>
       <c r="AB52" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC52" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="AC52" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="AD52" s="10"/>
       <c r="AE52" s="7"/>
@@ -7465,48 +7531,48 @@
       <c r="AR52" s="7"/>
       <c r="AS52" s="10"/>
       <c r="AT52" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU52" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AV52" s="10"/>
       <c r="AW52" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AX52" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY52" s="11"/>
       <c r="AZ52" s="7"/>
       <c r="BA52" s="7"/>
       <c r="BB52" s="17"/>
       <c r="BC52" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BD52" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BE52" s="10"/>
-      <c r="BF52" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="BG52" s="29"/>
-      <c r="BH52" s="29"/>
-      <c r="BI52" s="29"/>
-      <c r="BJ52" s="29"/>
-      <c r="BK52" s="30"/>
+      <c r="BF52" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="BG52" s="32"/>
+      <c r="BH52" s="32"/>
+      <c r="BI52" s="32"/>
+      <c r="BJ52" s="32"/>
+      <c r="BK52" s="33"/>
       <c r="BL52" s="7"/>
       <c r="BM52" s="7"/>
       <c r="BN52" s="7"/>
       <c r="BO52" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BP52" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="BQ52" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="BQ52" s="11" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:69" ht="45" x14ac:dyDescent="0.25">
@@ -7529,9 +7595,6 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
       <c r="O53" s="11"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="10"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="10"/>
@@ -7575,14 +7638,14 @@
       <c r="BC53" s="7"/>
       <c r="BD53" s="7"/>
       <c r="BE53" s="10"/>
-      <c r="BF53" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="BG53" s="29"/>
-      <c r="BH53" s="29"/>
-      <c r="BI53" s="29"/>
-      <c r="BJ53" s="29"/>
-      <c r="BK53" s="30"/>
+      <c r="BF53" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="BG53" s="32"/>
+      <c r="BH53" s="32"/>
+      <c r="BI53" s="32"/>
+      <c r="BJ53" s="32"/>
+      <c r="BK53" s="33"/>
       <c r="BL53" s="7"/>
       <c r="BM53" s="7"/>
       <c r="BN53" s="7"/>
@@ -7600,14 +7663,14 @@
       <c r="D54" s="8"/>
       <c r="E54" s="7"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="28" t="s">
+      <c r="G54" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="30"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="33"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="11"/>
@@ -7663,13 +7726,13 @@
       <c r="BM54" s="7"/>
       <c r="BN54" s="7"/>
       <c r="BO54" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BP54" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BQ54" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:69" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7685,20 +7748,24 @@
       <c r="D55" s="8"/>
       <c r="E55" s="7"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="28" t="s">
+      <c r="G55" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="30"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="33"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="11"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="10"/>
+      <c r="P55" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q55" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="R55" s="57"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="10"/>
@@ -7742,17 +7809,17 @@
       <c r="BG55" s="7"/>
       <c r="BH55" s="17"/>
       <c r="BI55" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BJ55" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BK55" s="10"/>
       <c r="BL55" s="7"/>
       <c r="BM55" s="7"/>
       <c r="BN55" s="7"/>
       <c r="BO55" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BP55" s="7" t="s">
         <v>101</v>
@@ -7767,14 +7834,14 @@
       <c r="C56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
@@ -7785,56 +7852,56 @@
         <v>106</v>
       </c>
       <c r="O56" s="11"/>
-      <c r="P56" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q56" s="7" t="s">
+      <c r="P56" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q56" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="R56" s="10"/>
+      <c r="R56" s="57"/>
       <c r="S56" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T56" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U56" s="10"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z56" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA56" s="7"/>
       <c r="AB56" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC56" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="AC56" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="AD56" s="10"/>
       <c r="AE56" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF56" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG56" s="11"/>
       <c r="AH56" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AI56" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AJ56" s="10"/>
       <c r="AK56" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL56" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AM56" s="10"/>
       <c r="AN56" s="7"/>
@@ -7844,38 +7911,38 @@
       <c r="AR56" s="7"/>
       <c r="AS56" s="10"/>
       <c r="AT56" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AU56" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AV56" s="10"/>
       <c r="AW56" s="7"/>
       <c r="AX56" s="7"/>
       <c r="AY56" s="11"/>
-      <c r="AZ56" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="BA56" s="29"/>
-      <c r="BB56" s="29"/>
-      <c r="BC56" s="29"/>
-      <c r="BD56" s="29"/>
-      <c r="BE56" s="30"/>
+      <c r="AZ56" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="BA56" s="32"/>
+      <c r="BB56" s="32"/>
+      <c r="BC56" s="32"/>
+      <c r="BD56" s="32"/>
+      <c r="BE56" s="33"/>
       <c r="BF56" s="7"/>
       <c r="BG56" s="7"/>
       <c r="BH56" s="17"/>
       <c r="BI56" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BJ56" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BK56" s="10"/>
       <c r="BL56" s="7"/>
       <c r="BM56" s="7"/>
       <c r="BN56" s="7"/>
       <c r="BO56" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BP56" s="7" t="s">
         <v>101</v>
@@ -7890,14 +7957,14 @@
       <c r="C57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -7908,102 +7975,102 @@
         <v>106</v>
       </c>
       <c r="O57" s="11"/>
-      <c r="P57" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q57" s="7" t="s">
+      <c r="P57" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q57" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="R57" s="10"/>
+      <c r="R57" s="57"/>
       <c r="S57" s="9"/>
       <c r="T57" s="7"/>
       <c r="U57" s="10"/>
       <c r="V57" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W57" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X57" s="11"/>
       <c r="Y57" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z57" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC57" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="AC57" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="AD57" s="10"/>
       <c r="AE57" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF57" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG57" s="11"/>
       <c r="AH57" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AI57" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AJ57" s="10"/>
       <c r="AK57" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL57" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AM57" s="10"/>
       <c r="AN57" s="7"/>
       <c r="AO57" s="7"/>
       <c r="AP57" s="11"/>
       <c r="AQ57" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR57" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="AR57" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="AS57" s="10"/>
       <c r="AT57" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU57" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AV57" s="10"/>
       <c r="AW57" s="7"/>
       <c r="AX57" s="7"/>
       <c r="AY57" s="11"/>
-      <c r="AZ57" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="BA57" s="29"/>
-      <c r="BB57" s="29"/>
-      <c r="BC57" s="29"/>
-      <c r="BD57" s="29"/>
-      <c r="BE57" s="30"/>
-      <c r="BF57" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="BG57" s="29"/>
-      <c r="BH57" s="29"/>
-      <c r="BI57" s="29"/>
-      <c r="BJ57" s="29"/>
-      <c r="BK57" s="30"/>
+      <c r="AZ57" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="BA57" s="32"/>
+      <c r="BB57" s="32"/>
+      <c r="BC57" s="32"/>
+      <c r="BD57" s="32"/>
+      <c r="BE57" s="33"/>
+      <c r="BF57" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="BG57" s="32"/>
+      <c r="BH57" s="32"/>
+      <c r="BI57" s="32"/>
+      <c r="BJ57" s="32"/>
+      <c r="BK57" s="33"/>
       <c r="BL57" s="7"/>
       <c r="BM57" s="7"/>
       <c r="BN57" s="7"/>
       <c r="BO57" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BP57" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BQ57" s="11"/>
     </row>
@@ -8034,10 +8101,10 @@
       <c r="T58" s="7"/>
       <c r="U58" s="10"/>
       <c r="V58" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W58" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X58" s="11"/>
       <c r="Y58" s="7"/>
@@ -8059,10 +8126,10 @@
       <c r="AO58" s="7"/>
       <c r="AP58" s="11"/>
       <c r="AQ58" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR58" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="AR58" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="AS58" s="10"/>
       <c r="AT58" s="7"/>
@@ -8077,14 +8144,14 @@
       <c r="BC58" s="7"/>
       <c r="BD58" s="7"/>
       <c r="BE58" s="10"/>
-      <c r="BF58" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="BG58" s="29"/>
-      <c r="BH58" s="29"/>
-      <c r="BI58" s="29"/>
-      <c r="BJ58" s="29"/>
-      <c r="BK58" s="30"/>
+      <c r="BF58" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="BG58" s="32"/>
+      <c r="BH58" s="32"/>
+      <c r="BI58" s="32"/>
+      <c r="BJ58" s="32"/>
+      <c r="BK58" s="33"/>
       <c r="BL58" s="7"/>
       <c r="BM58" s="7"/>
       <c r="BN58" s="7"/>
@@ -8112,8 +8179,8 @@
         <v>107</v>
       </c>
       <c r="O59" s="11"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="7"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
       <c r="R59" s="10"/>
       <c r="S59" s="7" t="s">
         <v>77</v>
@@ -8184,14 +8251,14 @@
       <c r="D60" s="8"/>
       <c r="E60" s="7"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="28" t="s">
+      <c r="G60" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="30"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="33"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
       <c r="O60" s="11"/>
@@ -8217,10 +8284,10 @@
       <c r="AI60" s="7"/>
       <c r="AJ60" s="10"/>
       <c r="AK60" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL60" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AM60" s="10"/>
       <c r="AN60" s="7"/>
@@ -8236,7 +8303,7 @@
       <c r="AX60" s="7"/>
       <c r="AY60" s="11"/>
       <c r="AZ60" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BA60" s="9" t="s">
         <v>114</v>
@@ -8245,14 +8312,14 @@
       <c r="BC60" s="7"/>
       <c r="BD60" s="7"/>
       <c r="BE60" s="10"/>
-      <c r="BF60" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="BG60" s="29"/>
-      <c r="BH60" s="29"/>
-      <c r="BI60" s="29"/>
-      <c r="BJ60" s="29"/>
-      <c r="BK60" s="30"/>
+      <c r="BF60" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG60" s="32"/>
+      <c r="BH60" s="32"/>
+      <c r="BI60" s="32"/>
+      <c r="BJ60" s="32"/>
+      <c r="BK60" s="33"/>
       <c r="BL60" s="7"/>
       <c r="BM60" s="7"/>
       <c r="BN60" s="7"/>
@@ -8271,14 +8338,14 @@
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="28" t="s">
+      <c r="G61" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="30"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="33"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="11"/>
@@ -8293,41 +8360,41 @@
       <c r="T61" s="7"/>
       <c r="U61" s="10"/>
       <c r="V61" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="W61" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="W61" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="X61" s="11"/>
       <c r="Y61" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z61" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA61" s="7"/>
       <c r="AB61" s="12" t="s">
         <v>68</v>
       </c>
       <c r="AC61" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD61" s="7"/>
       <c r="AE61" s="7"/>
       <c r="AF61" s="7"/>
       <c r="AG61" s="11"/>
       <c r="AH61" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AI61" s="7" t="s">
         <v>121</v>
       </c>
       <c r="AJ61" s="10"/>
       <c r="AK61" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AL61" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AM61" s="10"/>
       <c r="AN61" s="7"/>
@@ -8337,49 +8404,49 @@
       <c r="AR61" s="7"/>
       <c r="AS61" s="10"/>
       <c r="AT61" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="AU61" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="AU61" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="AV61" s="10"/>
       <c r="AW61" s="12" t="s">
         <v>68</v>
       </c>
       <c r="AX61" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AY61" s="11"/>
       <c r="AZ61" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BA61" s="7" t="s">
         <v>114</v>
       </c>
       <c r="BB61" s="17"/>
       <c r="BC61" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BD61" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BE61" s="10"/>
-      <c r="BF61" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="BG61" s="29"/>
-      <c r="BH61" s="29"/>
-      <c r="BI61" s="29"/>
-      <c r="BJ61" s="29"/>
-      <c r="BK61" s="30"/>
+      <c r="BF61" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG61" s="32"/>
+      <c r="BH61" s="32"/>
+      <c r="BI61" s="32"/>
+      <c r="BJ61" s="32"/>
+      <c r="BK61" s="33"/>
       <c r="BL61" s="7"/>
       <c r="BM61" s="7"/>
       <c r="BN61" s="7"/>
       <c r="BO61" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="BP61" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="BP61" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="BQ61" s="11"/>
     </row>
@@ -8391,14 +8458,14 @@
       <c r="C62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="30"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="33"/>
       <c r="J62" s="9"/>
       <c r="K62" s="7"/>
       <c r="L62" s="10"/>
@@ -8406,38 +8473,38 @@
       <c r="N62" s="7"/>
       <c r="O62" s="11"/>
       <c r="P62" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q62" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="R62" s="10"/>
       <c r="S62" s="7"/>
       <c r="T62" s="7"/>
       <c r="U62" s="10"/>
       <c r="V62" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="W62" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="W62" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="X62" s="11"/>
       <c r="Y62" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z62" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA62" s="7"/>
       <c r="AB62" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AC62" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AD62" s="10"/>
       <c r="AE62" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF62" s="7" t="s">
         <v>106</v>
@@ -8447,38 +8514,38 @@
       <c r="AI62" s="7"/>
       <c r="AJ62" s="10"/>
       <c r="AK62" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AL62" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AM62" s="10"/>
       <c r="AN62" s="7"/>
       <c r="AO62" s="7"/>
       <c r="AP62" s="11"/>
       <c r="AQ62" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR62" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="AR62" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="AS62" s="10"/>
       <c r="AT62" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AU62" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AV62" s="10"/>
       <c r="AW62" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AX62" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY62" s="11"/>
       <c r="AZ62" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BA62" s="7" t="s">
         <v>114</v>
@@ -8487,22 +8554,22 @@
       <c r="BC62" s="7"/>
       <c r="BD62" s="7"/>
       <c r="BE62" s="10"/>
-      <c r="BF62" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="BG62" s="29"/>
-      <c r="BH62" s="29"/>
-      <c r="BI62" s="29"/>
-      <c r="BJ62" s="29"/>
-      <c r="BK62" s="30"/>
+      <c r="BF62" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="BG62" s="32"/>
+      <c r="BH62" s="32"/>
+      <c r="BI62" s="32"/>
+      <c r="BJ62" s="32"/>
+      <c r="BK62" s="33"/>
       <c r="BL62" s="7"/>
       <c r="BM62" s="7"/>
       <c r="BN62" s="7"/>
       <c r="BO62" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="BP62" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="BP62" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="BQ62" s="11"/>
     </row>
@@ -8535,18 +8602,11 @@
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
       <c r="X63" s="11"/>
-      <c r="Y63" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z63" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA63" s="7"/>
       <c r="AB63" s="12"/>
       <c r="AC63" s="7"/>
       <c r="AD63" s="10"/>
       <c r="AE63" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF63" s="7" t="s">
         <v>106</v>
@@ -8568,10 +8628,10 @@
       <c r="AU63" s="7"/>
       <c r="AV63" s="10"/>
       <c r="AW63" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AX63" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY63" s="11"/>
       <c r="AZ63" s="9"/>
@@ -8580,14 +8640,14 @@
       <c r="BC63" s="7"/>
       <c r="BD63" s="7"/>
       <c r="BE63" s="10"/>
-      <c r="BF63" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="BG63" s="29"/>
-      <c r="BH63" s="29"/>
-      <c r="BI63" s="29"/>
-      <c r="BJ63" s="29"/>
-      <c r="BK63" s="30"/>
+      <c r="BF63" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="BG63" s="32"/>
+      <c r="BH63" s="32"/>
+      <c r="BI63" s="32"/>
+      <c r="BJ63" s="32"/>
+      <c r="BK63" s="33"/>
       <c r="BL63" s="7"/>
       <c r="BM63" s="7"/>
       <c r="BN63" s="7"/>
@@ -8595,16 +8655,10 @@
       <c r="BP63" s="7"/>
       <c r="BQ63" s="11"/>
     </row>
-    <row r="64" spans="1:69" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:69" ht="105" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="10"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="10"/>
@@ -8624,9 +8678,13 @@
       <c r="V64" s="7"/>
       <c r="W64" s="7"/>
       <c r="X64" s="11"/>
-      <c r="Y64" s="7"/>
-      <c r="Z64" s="7"/>
-      <c r="AA64" s="7"/>
+      <c r="Y64" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z64" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA64" s="56"/>
       <c r="AB64" s="12"/>
       <c r="AC64" s="7"/>
       <c r="AD64" s="10"/>
@@ -8680,12 +8738,14 @@
       <c r="C65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="10"/>
+      <c r="D65" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="63"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="10"/>
@@ -8696,8 +8756,8 @@
         <v>107</v>
       </c>
       <c r="O65" s="11"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="7"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
       <c r="R65" s="10"/>
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
@@ -8709,27 +8769,27 @@
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
       <c r="AB65" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC65" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="AC65" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="AD65" s="10"/>
       <c r="AE65" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF65" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG65" s="11"/>
       <c r="AH65" s="7"/>
       <c r="AI65" s="7"/>
       <c r="AJ65" s="10"/>
       <c r="AK65" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AL65" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AM65" s="10"/>
       <c r="AN65" s="7"/>
@@ -8744,14 +8804,14 @@
       <c r="AW65" s="7"/>
       <c r="AX65" s="7"/>
       <c r="AY65" s="11"/>
-      <c r="AZ65" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="BA65" s="29"/>
-      <c r="BB65" s="29"/>
-      <c r="BC65" s="29"/>
-      <c r="BD65" s="29"/>
-      <c r="BE65" s="30"/>
+      <c r="AZ65" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="BA65" s="32"/>
+      <c r="BB65" s="32"/>
+      <c r="BC65" s="32"/>
+      <c r="BD65" s="32"/>
+      <c r="BE65" s="33"/>
       <c r="BF65" s="9"/>
       <c r="BG65" s="7"/>
       <c r="BH65" s="17"/>
@@ -8780,12 +8840,12 @@
         <v>107</v>
       </c>
       <c r="F66" s="10"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="30"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="33"/>
       <c r="M66" s="7" t="s">
         <v>104</v>
       </c>
@@ -8801,65 +8861,62 @@
       </c>
       <c r="R66" s="10"/>
       <c r="S66" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T66" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="T66" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="U66" s="10"/>
       <c r="V66" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="W66" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="W66" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="X66" s="11"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-      <c r="AA66" s="7"/>
       <c r="AB66" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC66" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AD66" s="10"/>
       <c r="AE66" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF66" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG66" s="11"/>
       <c r="AH66" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI66" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AJ66" s="10"/>
       <c r="AK66" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL66" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM66" s="10"/>
       <c r="AN66" s="7"/>
       <c r="AO66" s="7"/>
       <c r="AP66" s="11"/>
       <c r="AQ66" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AR66" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AS66" s="10"/>
       <c r="AT66" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AU66" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AV66" s="10"/>
       <c r="AW66" s="7"/>
@@ -8872,27 +8929,27 @@
       <c r="BD66" s="7"/>
       <c r="BE66" s="10"/>
       <c r="BF66" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="BG66" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BH66" s="7"/>
       <c r="BI66" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="BJ66" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="BJ66" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="BK66" s="7"/>
       <c r="BL66" s="7"/>
       <c r="BM66" s="7"/>
       <c r="BN66" s="7"/>
       <c r="BO66" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="BP66" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="BP66" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="BQ66" s="11"/>
     </row>
@@ -8911,23 +8968,27 @@
         <v>107</v>
       </c>
       <c r="F67" s="10"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="30"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="33"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
       <c r="O67" s="11"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="10"/>
+      <c r="P67" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q67" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="R67" s="60"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
       <c r="U67" s="10"/>
       <c r="V67" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W67" s="7" t="s">
         <v>103</v>
@@ -8946,34 +9007,34 @@
       <c r="AI67" s="7"/>
       <c r="AJ67" s="10"/>
       <c r="AK67" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL67" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM67" s="10"/>
       <c r="AN67" s="7"/>
       <c r="AO67" s="7"/>
       <c r="AP67" s="11"/>
       <c r="AQ67" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AR67" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AS67" s="10"/>
       <c r="AT67" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AU67" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AV67" s="10"/>
       <c r="AW67" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AX67" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AY67" s="11"/>
       <c r="AZ67" s="7"/>
@@ -8982,22 +9043,22 @@
       <c r="BC67" s="7"/>
       <c r="BD67" s="7"/>
       <c r="BE67" s="10"/>
-      <c r="BF67" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="BG67" s="35"/>
-      <c r="BH67" s="35"/>
-      <c r="BI67" s="35"/>
-      <c r="BJ67" s="35"/>
-      <c r="BK67" s="36"/>
+      <c r="BF67" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="BG67" s="40"/>
+      <c r="BH67" s="40"/>
+      <c r="BI67" s="40"/>
+      <c r="BJ67" s="40"/>
+      <c r="BK67" s="41"/>
       <c r="BL67" s="7"/>
       <c r="BM67" s="7"/>
       <c r="BN67" s="7"/>
       <c r="BO67" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="BP67" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="BP67" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="BQ67" s="11"/>
     </row>
@@ -9021,8 +9082,8 @@
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
       <c r="O68" s="11"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="7"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
       <c r="R68" s="10"/>
       <c r="S68" s="7"/>
       <c r="T68" s="7"/>
@@ -9144,13 +9205,13 @@
       <c r="BM69" s="7"/>
       <c r="BN69" s="7"/>
       <c r="BO69" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="BP69" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="BP69" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="BQ69" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:69" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -9163,12 +9224,14 @@
       <c r="C70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="10"/>
+      <c r="D70" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="63"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="10"/>
@@ -9201,10 +9264,10 @@
       <c r="AI70" s="7"/>
       <c r="AJ70" s="10"/>
       <c r="AK70" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AL70" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AM70" s="10"/>
       <c r="AN70" s="7"/>
@@ -9214,10 +9277,10 @@
       <c r="AR70" s="7"/>
       <c r="AS70" s="10"/>
       <c r="AT70" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AU70" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AV70" s="10"/>
       <c r="AW70" s="7"/>
@@ -9250,56 +9313,52 @@
       <c r="C71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="D71" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="30"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="33"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="10"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
       <c r="O71" s="11"/>
-      <c r="P71" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q71" s="9" t="s">
-        <v>121</v>
-      </c>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
       <c r="R71" s="10"/>
       <c r="S71" s="2" t="s">
         <v>59</v>
       </c>
       <c r="T71" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U71" s="10"/>
       <c r="V71" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W71" s="9" t="s">
         <v>106</v>
       </c>
       <c r="X71" s="11"/>
       <c r="Y71" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z71" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="Z71" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="AA71" s="7"/>
       <c r="AB71" s="12"/>
       <c r="AC71" s="7"/>
       <c r="AD71" s="10"/>
       <c r="AE71" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF71" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="AF71" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="AG71" s="11"/>
       <c r="AH71" s="9"/>
@@ -9312,17 +9371,17 @@
       <c r="AO71" s="7"/>
       <c r="AP71" s="11"/>
       <c r="AQ71" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AR71" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS71" s="10"/>
       <c r="AT71" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AU71" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AV71" s="10"/>
       <c r="AW71" s="7"/>
@@ -9334,22 +9393,22 @@
       <c r="BC71" s="7"/>
       <c r="BD71" s="7"/>
       <c r="BE71" s="10"/>
-      <c r="BF71" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="BG71" s="29"/>
-      <c r="BH71" s="29"/>
-      <c r="BI71" s="29"/>
-      <c r="BJ71" s="29"/>
-      <c r="BK71" s="30"/>
+      <c r="BF71" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="BG71" s="32"/>
+      <c r="BH71" s="32"/>
+      <c r="BI71" s="32"/>
+      <c r="BJ71" s="32"/>
+      <c r="BK71" s="33"/>
       <c r="BL71" s="7"/>
       <c r="BM71" s="7"/>
       <c r="BN71" s="7"/>
       <c r="BO71" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="BP71" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="BP71" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="BQ71" s="11"/>
     </row>
@@ -9361,65 +9420,61 @@
       <c r="C72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="49"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="51"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="30"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="10"/>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
       <c r="O72" s="11"/>
-      <c r="P72" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="7"/>
       <c r="R72" s="10"/>
       <c r="S72" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T72" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U72" s="10"/>
       <c r="V72" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="W72" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="W72" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="X72" s="11"/>
       <c r="Y72" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z72" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA72" s="7"/>
       <c r="AB72" s="12" t="s">
         <v>59</v>
       </c>
       <c r="AC72" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD72" s="10"/>
       <c r="AE72" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF72" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="AF72" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="AG72" s="11"/>
       <c r="AH72" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AI72" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AJ72" s="10"/>
       <c r="AK72" s="7"/>
@@ -9437,30 +9492,30 @@
       <c r="AW72" s="7"/>
       <c r="AX72" s="7"/>
       <c r="AY72" s="11"/>
-      <c r="AZ72" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="BA72" s="35"/>
-      <c r="BB72" s="35"/>
-      <c r="BC72" s="35"/>
-      <c r="BD72" s="35"/>
-      <c r="BE72" s="36"/>
-      <c r="BF72" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="BG72" s="29"/>
-      <c r="BH72" s="29"/>
-      <c r="BI72" s="29"/>
-      <c r="BJ72" s="29"/>
-      <c r="BK72" s="30"/>
+      <c r="AZ72" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="BA72" s="40"/>
+      <c r="BB72" s="40"/>
+      <c r="BC72" s="40"/>
+      <c r="BD72" s="40"/>
+      <c r="BE72" s="41"/>
+      <c r="BF72" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="BG72" s="32"/>
+      <c r="BH72" s="32"/>
+      <c r="BI72" s="32"/>
+      <c r="BJ72" s="32"/>
+      <c r="BK72" s="33"/>
       <c r="BL72" s="7"/>
       <c r="BM72" s="7"/>
       <c r="BN72" s="7"/>
       <c r="BO72" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="BP72" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="BP72" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="BQ72" s="11"/>
     </row>
@@ -9472,12 +9527,12 @@
       <c r="C73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="49"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="51"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="30"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="10"/>
@@ -9485,10 +9540,10 @@
       <c r="N73" s="7"/>
       <c r="O73" s="11"/>
       <c r="P73" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R73" s="10"/>
       <c r="S73" s="7"/>
@@ -9530,14 +9585,14 @@
       <c r="BC73" s="7"/>
       <c r="BD73" s="7"/>
       <c r="BE73" s="10"/>
-      <c r="BF73" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="BG73" s="29"/>
-      <c r="BH73" s="29"/>
-      <c r="BI73" s="29"/>
-      <c r="BJ73" s="29"/>
-      <c r="BK73" s="30"/>
+      <c r="BF73" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="BG73" s="32"/>
+      <c r="BH73" s="32"/>
+      <c r="BI73" s="32"/>
+      <c r="BJ73" s="32"/>
+      <c r="BK73" s="33"/>
       <c r="BL73" s="7"/>
       <c r="BM73" s="7"/>
       <c r="BN73" s="7"/>
@@ -9623,12 +9678,12 @@
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="49"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="51"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="30"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="10"/>
@@ -9645,17 +9700,17 @@
       <c r="W75" s="7"/>
       <c r="X75" s="11"/>
       <c r="Y75" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z75" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Z75" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="AA75" s="7"/>
       <c r="AB75" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AC75" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AD75" s="10"/>
       <c r="AE75" s="7"/>
@@ -9677,10 +9732,10 @@
       <c r="AU75" s="7"/>
       <c r="AV75" s="10"/>
       <c r="AW75" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AX75" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AY75" s="11"/>
       <c r="AZ75" s="7"/>
@@ -9689,22 +9744,22 @@
       <c r="BC75" s="7"/>
       <c r="BD75" s="7"/>
       <c r="BE75" s="10"/>
-      <c r="BF75" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="BG75" s="29"/>
-      <c r="BH75" s="29"/>
-      <c r="BI75" s="29"/>
-      <c r="BJ75" s="29"/>
-      <c r="BK75" s="30"/>
+      <c r="BF75" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="BG75" s="32"/>
+      <c r="BH75" s="32"/>
+      <c r="BI75" s="32"/>
+      <c r="BJ75" s="32"/>
+      <c r="BK75" s="33"/>
       <c r="BL75" s="7"/>
       <c r="BM75" s="7"/>
       <c r="BN75" s="7"/>
       <c r="BO75" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="BP75" s="9" t="s">
         <v>305</v>
-      </c>
-      <c r="BP75" s="9" t="s">
-        <v>306</v>
       </c>
       <c r="BQ75" s="11"/>
     </row>
@@ -9716,14 +9771,14 @@
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="49" t="s">
+      <c r="D76" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="10"/>
@@ -9737,24 +9792,24 @@
       <c r="T76" s="9"/>
       <c r="U76" s="10"/>
       <c r="V76" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="W76" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="W76" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="X76" s="11"/>
       <c r="Y76" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z76" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Z76" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="AA76" s="7"/>
       <c r="AB76" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AC76" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AD76" s="10"/>
       <c r="AE76" s="7"/>
@@ -9764,10 +9819,10 @@
       <c r="AI76" s="7"/>
       <c r="AJ76" s="10"/>
       <c r="AK76" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL76" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AM76" s="10"/>
       <c r="AN76" s="7"/>
@@ -9780,10 +9835,10 @@
       <c r="AU76" s="7"/>
       <c r="AV76" s="10"/>
       <c r="AW76" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AX76" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AY76" s="11"/>
       <c r="AZ76" s="7"/>
@@ -9792,22 +9847,22 @@
       <c r="BC76" s="7"/>
       <c r="BD76" s="7"/>
       <c r="BE76" s="10"/>
-      <c r="BF76" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="BG76" s="29"/>
-      <c r="BH76" s="29"/>
-      <c r="BI76" s="29"/>
-      <c r="BJ76" s="29"/>
-      <c r="BK76" s="30"/>
+      <c r="BF76" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="BG76" s="32"/>
+      <c r="BH76" s="32"/>
+      <c r="BI76" s="32"/>
+      <c r="BJ76" s="32"/>
+      <c r="BK76" s="33"/>
       <c r="BL76" s="7"/>
       <c r="BM76" s="7"/>
       <c r="BN76" s="7"/>
       <c r="BO76" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="BP76" s="9" t="s">
         <v>305</v>
-      </c>
-      <c r="BP76" s="9" t="s">
-        <v>306</v>
       </c>
       <c r="BQ76" s="11"/>
     </row>
@@ -9819,14 +9874,14 @@
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="49" t="s">
+      <c r="D77" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="10"/>
@@ -9844,30 +9899,30 @@
       <c r="T77" s="7"/>
       <c r="U77" s="10"/>
       <c r="V77" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W77" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X77" s="11"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
       <c r="AA77" s="7"/>
       <c r="AB77" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC77" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="AC77" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="AD77" s="10"/>
       <c r="AE77" s="7"/>
       <c r="AF77" s="7"/>
       <c r="AG77" s="11"/>
       <c r="AH77" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AI77" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AJ77" s="10"/>
       <c r="AK77" s="7"/>
@@ -9886,31 +9941,31 @@
       <c r="AX77" s="7"/>
       <c r="AY77" s="11"/>
       <c r="AZ77" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BA77" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BB77" s="17"/>
       <c r="BC77" s="7"/>
       <c r="BD77" s="7"/>
       <c r="BE77" s="10"/>
-      <c r="BF77" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="BG77" s="29"/>
-      <c r="BH77" s="29"/>
-      <c r="BI77" s="29"/>
-      <c r="BJ77" s="29"/>
-      <c r="BK77" s="30"/>
+      <c r="BF77" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="BG77" s="32"/>
+      <c r="BH77" s="32"/>
+      <c r="BI77" s="32"/>
+      <c r="BJ77" s="32"/>
+      <c r="BK77" s="33"/>
       <c r="BL77" s="7"/>
       <c r="BM77" s="7"/>
       <c r="BN77" s="7"/>
       <c r="BO77" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="BP77" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="BP77" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="BQ77" s="11"/>
     </row>
@@ -9922,14 +9977,14 @@
       <c r="C78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="38" t="s">
+      <c r="D78" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="30"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="33"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="10"/>
@@ -9937,20 +9992,20 @@
       <c r="N78" s="7"/>
       <c r="O78" s="11"/>
       <c r="P78" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R78" s="10"/>
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
       <c r="U78" s="10"/>
       <c r="V78" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W78" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X78" s="11"/>
       <c r="Y78" s="7"/>
@@ -9996,10 +10051,10 @@
       <c r="BM78" s="7"/>
       <c r="BN78" s="7"/>
       <c r="BO78" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="BP78" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="BP78" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="BQ78" s="11"/>
     </row>
@@ -10081,14 +10136,14 @@
       <c r="C80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="49" t="s">
+      <c r="D80" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E80" s="50"/>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50"/>
-      <c r="H80" s="50"/>
-      <c r="I80" s="50"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="10"/>
@@ -10137,22 +10192,22 @@
       <c r="BC80" s="7"/>
       <c r="BD80" s="7"/>
       <c r="BE80" s="10"/>
-      <c r="BF80" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="BG80" s="29"/>
-      <c r="BH80" s="29"/>
-      <c r="BI80" s="29"/>
-      <c r="BJ80" s="29"/>
-      <c r="BK80" s="30"/>
+      <c r="BF80" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="BG80" s="32"/>
+      <c r="BH80" s="32"/>
+      <c r="BI80" s="32"/>
+      <c r="BJ80" s="32"/>
+      <c r="BK80" s="33"/>
       <c r="BL80" s="7"/>
       <c r="BM80" s="7"/>
       <c r="BN80" s="7"/>
       <c r="BO80" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="BP80" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="BP80" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="BQ80" s="11"/>
     </row>
@@ -10164,14 +10219,12 @@
       <c r="C81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="30"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="33"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="10"/>
@@ -10224,20 +10277,20 @@
       <c r="BG81" s="7"/>
       <c r="BH81" s="17"/>
       <c r="BI81" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BJ81" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BK81" s="10"/>
       <c r="BL81" s="7"/>
       <c r="BM81" s="7"/>
       <c r="BN81" s="7"/>
       <c r="BO81" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BP81" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BQ81" s="11"/>
     </row>
@@ -10249,14 +10302,12 @@
       <c r="C82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="30"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="33"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="10"/>
@@ -10309,24 +10360,24 @@
       <c r="BG82" s="7"/>
       <c r="BH82" s="17"/>
       <c r="BI82" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BJ82" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BK82" s="10"/>
       <c r="BL82" s="7"/>
       <c r="BM82" s="7"/>
       <c r="BN82" s="7"/>
       <c r="BO82" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BP82" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BQ82" s="11"/>
     </row>
-    <row r="83" spans="1:69" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>3</v>
@@ -10334,24 +10385,20 @@
       <c r="C83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="49"/>
-      <c r="E83" s="50"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="51"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="30"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="10"/>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
       <c r="O83" s="11"/>
-      <c r="P83" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q83" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="7"/>
       <c r="R83" s="10"/>
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
@@ -10392,14 +10439,14 @@
       <c r="BC83" s="7"/>
       <c r="BD83" s="7"/>
       <c r="BE83" s="10"/>
-      <c r="BF83" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="BG83" s="29"/>
-      <c r="BH83" s="29"/>
-      <c r="BI83" s="29"/>
-      <c r="BJ83" s="29"/>
-      <c r="BK83" s="30"/>
+      <c r="BF83" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="BG83" s="32"/>
+      <c r="BH83" s="32"/>
+      <c r="BI83" s="32"/>
+      <c r="BJ83" s="32"/>
+      <c r="BK83" s="33"/>
       <c r="BL83" s="7"/>
       <c r="BM83" s="7"/>
       <c r="BN83" s="7"/>
@@ -10789,70 +10836,85 @@
       <c r="AB90" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="G66:L66"/>
-    <mergeCell ref="G67:L67"/>
-    <mergeCell ref="G60:L60"/>
-    <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="G54:L54"/>
-    <mergeCell ref="G55:L55"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="AK31:AP31"/>
-    <mergeCell ref="AK32:AP32"/>
-    <mergeCell ref="P47:X47"/>
-    <mergeCell ref="P48:X48"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D32:O32"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="P26:X26"/>
-    <mergeCell ref="P27:X27"/>
-    <mergeCell ref="P36:X36"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D40:O40"/>
-    <mergeCell ref="D41:O41"/>
-    <mergeCell ref="D31:O31"/>
+  <mergeCells count="168">
+    <mergeCell ref="BF83:BK83"/>
+    <mergeCell ref="BF18:BK18"/>
+    <mergeCell ref="BF73:BK73"/>
+    <mergeCell ref="BF72:BK72"/>
+    <mergeCell ref="BF57:BK57"/>
+    <mergeCell ref="BF58:BK58"/>
+    <mergeCell ref="BF63:BK63"/>
+    <mergeCell ref="BF53:BK53"/>
+    <mergeCell ref="BF34:BK34"/>
+    <mergeCell ref="BF50:BK50"/>
+    <mergeCell ref="BF20:BK20"/>
+    <mergeCell ref="BF19:BK19"/>
+    <mergeCell ref="BF25:BK25"/>
+    <mergeCell ref="BF80:BK80"/>
+    <mergeCell ref="BF24:BK24"/>
+    <mergeCell ref="BF77:BK77"/>
+    <mergeCell ref="BF75:BK75"/>
+    <mergeCell ref="BF76:BK76"/>
+    <mergeCell ref="BF35:BK35"/>
+    <mergeCell ref="BF36:BK36"/>
+    <mergeCell ref="BF67:BK67"/>
+    <mergeCell ref="BF51:BK51"/>
+    <mergeCell ref="BF62:BK62"/>
+    <mergeCell ref="BF71:BK71"/>
+    <mergeCell ref="BF61:BK61"/>
+    <mergeCell ref="BF60:BK60"/>
+    <mergeCell ref="BF31:BK31"/>
+    <mergeCell ref="BF32:BK32"/>
+    <mergeCell ref="BF45:BK45"/>
+    <mergeCell ref="BF46:BK46"/>
+    <mergeCell ref="BF47:BK47"/>
+    <mergeCell ref="BF43:BK43"/>
+    <mergeCell ref="BF16:BK16"/>
+    <mergeCell ref="BF21:BK21"/>
+    <mergeCell ref="BF22:BK22"/>
+    <mergeCell ref="BF26:BK26"/>
+    <mergeCell ref="BF27:BK27"/>
+    <mergeCell ref="BF52:BK52"/>
+    <mergeCell ref="AZ72:BE72"/>
+    <mergeCell ref="AZ10:BE10"/>
+    <mergeCell ref="AZ11:BE11"/>
+    <mergeCell ref="AZ16:BE16"/>
+    <mergeCell ref="AZ17:BE17"/>
+    <mergeCell ref="AZ22:BE22"/>
+    <mergeCell ref="AZ23:BE23"/>
+    <mergeCell ref="AZ26:BE26"/>
+    <mergeCell ref="AZ27:BE27"/>
+    <mergeCell ref="AZ31:BE31"/>
+    <mergeCell ref="AZ65:BE65"/>
+    <mergeCell ref="AZ46:BE46"/>
+    <mergeCell ref="AZ56:BE56"/>
+    <mergeCell ref="AZ57:BE57"/>
+    <mergeCell ref="AZ12:BE12"/>
+    <mergeCell ref="AZ13:BE13"/>
+    <mergeCell ref="AZ41:BE41"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="AZ21:BE21"/>
+    <mergeCell ref="AZ50:BE50"/>
+    <mergeCell ref="BF5:BK5"/>
+    <mergeCell ref="BF6:BK6"/>
+    <mergeCell ref="BF40:BK40"/>
+    <mergeCell ref="BF37:BK37"/>
+    <mergeCell ref="AZ36:BE36"/>
+    <mergeCell ref="AZ37:BE37"/>
+    <mergeCell ref="AZ7:BE7"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="AZ6:BE6"/>
+    <mergeCell ref="AZ8:BE8"/>
+    <mergeCell ref="BF7:BK7"/>
+    <mergeCell ref="BF42:BK42"/>
+    <mergeCell ref="BF8:BK8"/>
+    <mergeCell ref="BF10:BK10"/>
+    <mergeCell ref="BF11:BK11"/>
+    <mergeCell ref="BF15:BK15"/>
+    <mergeCell ref="BF48:BK48"/>
     <mergeCell ref="AZ1:BQ1"/>
     <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="BU3:BW3"/>
@@ -10877,85 +10939,72 @@
     <mergeCell ref="AE2:AG3"/>
     <mergeCell ref="AH2:AJ3"/>
     <mergeCell ref="D1:O1"/>
+    <mergeCell ref="AQ1:AY1"/>
+    <mergeCell ref="P26:X26"/>
+    <mergeCell ref="P27:X27"/>
+    <mergeCell ref="P36:X36"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D31:O31"/>
     <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BQ2"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="AZ21:BE21"/>
-    <mergeCell ref="AZ50:BE50"/>
-    <mergeCell ref="BF5:BK5"/>
-    <mergeCell ref="BF6:BK6"/>
-    <mergeCell ref="BF40:BK40"/>
-    <mergeCell ref="BF37:BK37"/>
-    <mergeCell ref="AZ36:BE36"/>
-    <mergeCell ref="AZ37:BE37"/>
-    <mergeCell ref="AZ7:BE7"/>
-    <mergeCell ref="AZ72:BE72"/>
-    <mergeCell ref="AZ10:BE10"/>
-    <mergeCell ref="AZ11:BE11"/>
-    <mergeCell ref="AZ16:BE16"/>
-    <mergeCell ref="AZ17:BE17"/>
-    <mergeCell ref="AZ22:BE22"/>
-    <mergeCell ref="AZ23:BE23"/>
-    <mergeCell ref="AZ26:BE26"/>
-    <mergeCell ref="AZ27:BE27"/>
-    <mergeCell ref="AZ31:BE31"/>
-    <mergeCell ref="AZ65:BE65"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="AZ6:BE6"/>
-    <mergeCell ref="AZ46:BE46"/>
-    <mergeCell ref="AZ56:BE56"/>
-    <mergeCell ref="AZ57:BE57"/>
-    <mergeCell ref="AZ8:BE8"/>
-    <mergeCell ref="AZ12:BE12"/>
-    <mergeCell ref="AZ13:BE13"/>
-    <mergeCell ref="AZ41:BE41"/>
-    <mergeCell ref="BF7:BK7"/>
-    <mergeCell ref="BF42:BK42"/>
-    <mergeCell ref="BF8:BK8"/>
-    <mergeCell ref="BF10:BK10"/>
-    <mergeCell ref="BF11:BK11"/>
-    <mergeCell ref="BF15:BK15"/>
-    <mergeCell ref="BF48:BK48"/>
-    <mergeCell ref="BF61:BK61"/>
-    <mergeCell ref="BF60:BK60"/>
-    <mergeCell ref="BF31:BK31"/>
-    <mergeCell ref="BF32:BK32"/>
-    <mergeCell ref="BF45:BK45"/>
-    <mergeCell ref="BF46:BK46"/>
-    <mergeCell ref="BF47:BK47"/>
-    <mergeCell ref="BF43:BK43"/>
-    <mergeCell ref="BF16:BK16"/>
-    <mergeCell ref="BF21:BK21"/>
-    <mergeCell ref="BF22:BK22"/>
-    <mergeCell ref="BF26:BK26"/>
-    <mergeCell ref="BF27:BK27"/>
-    <mergeCell ref="BF52:BK52"/>
-    <mergeCell ref="BF83:BK83"/>
-    <mergeCell ref="BF18:BK18"/>
-    <mergeCell ref="BF73:BK73"/>
-    <mergeCell ref="BF72:BK72"/>
-    <mergeCell ref="BF57:BK57"/>
-    <mergeCell ref="BF58:BK58"/>
-    <mergeCell ref="BF63:BK63"/>
-    <mergeCell ref="BF53:BK53"/>
-    <mergeCell ref="BF34:BK34"/>
-    <mergeCell ref="BF50:BK50"/>
-    <mergeCell ref="BF20:BK20"/>
-    <mergeCell ref="BF19:BK19"/>
-    <mergeCell ref="BF25:BK25"/>
-    <mergeCell ref="BF80:BK80"/>
-    <mergeCell ref="BF24:BK24"/>
-    <mergeCell ref="BF77:BK77"/>
-    <mergeCell ref="BF75:BK75"/>
-    <mergeCell ref="BF76:BK76"/>
-    <mergeCell ref="BF35:BK35"/>
-    <mergeCell ref="BF36:BK36"/>
-    <mergeCell ref="BF67:BK67"/>
-    <mergeCell ref="BF51:BK51"/>
-    <mergeCell ref="BF62:BK62"/>
-    <mergeCell ref="BF71:BK71"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="D40:O40"/>
+    <mergeCell ref="D41:O41"/>
+    <mergeCell ref="AK51:AP51"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="AK31:AP31"/>
+    <mergeCell ref="AK32:AP32"/>
+    <mergeCell ref="P47:X47"/>
+    <mergeCell ref="P48:X48"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="G66:L66"/>
+    <mergeCell ref="G67:L67"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="D70:I70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Rozklad_2zaizd.xlsx
+++ b/Rozklad_2zaizd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20730" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="359">
   <si>
     <t>І</t>
   </si>
@@ -1175,6 +1175,18 @@
   </si>
   <si>
     <t>фекета</t>
+  </si>
+  <si>
+    <t>географія ПРП України</t>
+  </si>
+  <si>
+    <t>Законодавчі основи землевпорядкування та кадастру (залік)</t>
+  </si>
+  <si>
+    <t>Електронні геодезичні прилади (залік)</t>
+  </si>
+  <si>
+    <t>Географія і ПРП Закарпаття (захист курсової роботи), проф. Поп С.С.</t>
   </si>
 </sst>
 </file>
@@ -1529,6 +1541,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1550,6 +1583,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1568,16 +1610,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1587,9 +1632,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1605,36 +1647,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1920,10 +1932,10 @@
   <dimension ref="A1:BW90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AK4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P66" sqref="P66"/>
+      <selection pane="bottomRight" activeCell="AK66" sqref="AK66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,277 +2019,277 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="36" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="36" t="s">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="36" t="s">
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="36" t="s">
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="36" t="s">
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="37"/>
-      <c r="BL1" s="37"/>
-      <c r="BM1" s="37"/>
-      <c r="BN1" s="37"/>
-      <c r="BO1" s="37"/>
-      <c r="BP1" s="37"/>
-      <c r="BQ1" s="38"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="47"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
+      <c r="BJ1" s="47"/>
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="47"/>
+      <c r="BO1" s="47"/>
+      <c r="BP1" s="47"/>
+      <c r="BQ1" s="48"/>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="44" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="44" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="44" t="s">
+      <c r="K2" s="53"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="43" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="44" t="s">
+      <c r="Q2" s="53"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="44" t="s">
+      <c r="T2" s="53"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="43" t="s">
+      <c r="W2" s="53"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="44" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="44" t="s">
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="43" t="s">
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="44" t="s">
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="44" t="s">
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="43" t="s">
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="44" t="s">
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="44" t="s">
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="43" t="s">
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="44"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="49" t="s">
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="44"/>
-      <c r="BK2" s="47"/>
-      <c r="BL2" s="44" t="s">
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="53"/>
+      <c r="BK2" s="58"/>
+      <c r="BL2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="44"/>
-      <c r="BN2" s="44"/>
-      <c r="BO2" s="44"/>
-      <c r="BP2" s="44"/>
-      <c r="BQ2" s="48"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="53"/>
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="54"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="43" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="53"/>
+      <c r="AU3" s="53"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="44" t="s">
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="44"/>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="49" t="s">
+      <c r="BD3" s="53"/>
+      <c r="BE3" s="58"/>
+      <c r="BF3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="44"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="44" t="s">
+      <c r="BG3" s="53"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="44"/>
-      <c r="BM3" s="44"/>
-      <c r="BN3" s="45"/>
-      <c r="BO3" s="44" t="s">
+      <c r="BJ3" s="53"/>
+      <c r="BK3" s="58"/>
+      <c r="BL3" s="53"/>
+      <c r="BM3" s="53"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="BP3" s="44"/>
-      <c r="BQ3" s="48"/>
-      <c r="BR3" s="46"/>
-      <c r="BS3" s="46"/>
-      <c r="BT3" s="46"/>
-      <c r="BU3" s="46"/>
-      <c r="BV3" s="46"/>
-      <c r="BW3" s="46"/>
+      <c r="BP3" s="53"/>
+      <c r="BQ3" s="54"/>
+      <c r="BR3" s="57"/>
+      <c r="BS3" s="57"/>
+      <c r="BT3" s="57"/>
+      <c r="BU3" s="57"/>
+      <c r="BV3" s="57"/>
+      <c r="BW3" s="57"/>
     </row>
     <row r="4" spans="1:75" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2495,14 +2507,14 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="9"/>
       <c r="K5" s="2"/>
       <c r="L5" s="14"/>
@@ -2591,22 +2603,22 @@
         <v>282</v>
       </c>
       <c r="AY5" s="15"/>
-      <c r="AZ5" s="39" t="s">
+      <c r="AZ5" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="BA5" s="40"/>
-      <c r="BB5" s="40"/>
-      <c r="BC5" s="40"/>
-      <c r="BD5" s="40"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="50" t="s">
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="BG5" s="40"/>
-      <c r="BH5" s="40"/>
-      <c r="BI5" s="40"/>
-      <c r="BJ5" s="40"/>
-      <c r="BK5" s="41"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="52"/>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
       <c r="BN5" s="17"/>
@@ -2626,14 +2638,14 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="14"/>
@@ -2722,22 +2734,22 @@
         <v>282</v>
       </c>
       <c r="AY6" s="15"/>
-      <c r="AZ6" s="39" t="s">
+      <c r="AZ6" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="BA6" s="40"/>
-      <c r="BB6" s="40"/>
-      <c r="BC6" s="40"/>
-      <c r="BD6" s="40"/>
-      <c r="BE6" s="41"/>
-      <c r="BF6" s="50" t="s">
+      <c r="BA6" s="50"/>
+      <c r="BB6" s="50"/>
+      <c r="BC6" s="50"/>
+      <c r="BD6" s="50"/>
+      <c r="BE6" s="52"/>
+      <c r="BF6" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="BG6" s="40"/>
-      <c r="BH6" s="40"/>
-      <c r="BI6" s="40"/>
-      <c r="BJ6" s="40"/>
-      <c r="BK6" s="41"/>
+      <c r="BG6" s="50"/>
+      <c r="BH6" s="50"/>
+      <c r="BI6" s="50"/>
+      <c r="BJ6" s="50"/>
+      <c r="BK6" s="52"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
       <c r="BN6" s="17"/>
@@ -2757,14 +2769,14 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="14"/>
@@ -2835,22 +2847,22 @@
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
       <c r="AY7" s="15"/>
-      <c r="AZ7" s="39" t="s">
+      <c r="AZ7" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="BA7" s="40"/>
-      <c r="BB7" s="40"/>
-      <c r="BC7" s="40"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="41"/>
-      <c r="BF7" s="50" t="s">
+      <c r="BA7" s="50"/>
+      <c r="BB7" s="50"/>
+      <c r="BC7" s="50"/>
+      <c r="BD7" s="50"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="BG7" s="40"/>
-      <c r="BH7" s="40"/>
-      <c r="BI7" s="40"/>
-      <c r="BJ7" s="40"/>
-      <c r="BK7" s="41"/>
+      <c r="BG7" s="50"/>
+      <c r="BH7" s="50"/>
+      <c r="BI7" s="50"/>
+      <c r="BJ7" s="50"/>
+      <c r="BK7" s="52"/>
       <c r="BL7" s="7"/>
       <c r="BM7" s="7"/>
       <c r="BN7" s="17"/>
@@ -2864,20 +2876,20 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="42"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="51"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="14"/>
@@ -2930,22 +2942,22 @@
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
       <c r="AY8" s="15"/>
-      <c r="AZ8" s="39" t="s">
+      <c r="AZ8" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="BA8" s="40"/>
-      <c r="BB8" s="40"/>
-      <c r="BC8" s="40"/>
-      <c r="BD8" s="40"/>
-      <c r="BE8" s="41"/>
-      <c r="BF8" s="50" t="s">
+      <c r="BA8" s="50"/>
+      <c r="BB8" s="50"/>
+      <c r="BC8" s="50"/>
+      <c r="BD8" s="50"/>
+      <c r="BE8" s="52"/>
+      <c r="BF8" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="BG8" s="40"/>
-      <c r="BH8" s="40"/>
-      <c r="BI8" s="40"/>
-      <c r="BJ8" s="40"/>
-      <c r="BK8" s="41"/>
+      <c r="BG8" s="50"/>
+      <c r="BH8" s="50"/>
+      <c r="BI8" s="50"/>
+      <c r="BJ8" s="50"/>
+      <c r="BK8" s="52"/>
       <c r="BL8" s="7"/>
       <c r="BM8" s="7"/>
       <c r="BN8" s="17"/>
@@ -3031,20 +3043,20 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="35"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="45"/>
       <c r="P10" s="8" t="s">
         <v>113</v>
       </c>
@@ -3097,12 +3109,6 @@
         <v>234</v>
       </c>
       <c r="AM10" s="10"/>
-      <c r="AN10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AO10" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="8" t="s">
         <v>263</v>
@@ -3123,22 +3129,22 @@
         <v>209</v>
       </c>
       <c r="AY10" s="11"/>
-      <c r="AZ10" s="31" t="s">
+      <c r="AZ10" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="BA10" s="32"/>
-      <c r="BB10" s="32"/>
-      <c r="BC10" s="32"/>
-      <c r="BD10" s="32"/>
-      <c r="BE10" s="33"/>
-      <c r="BF10" s="50" t="s">
+      <c r="BA10" s="39"/>
+      <c r="BB10" s="39"/>
+      <c r="BC10" s="39"/>
+      <c r="BD10" s="39"/>
+      <c r="BE10" s="40"/>
+      <c r="BF10" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="BG10" s="40"/>
-      <c r="BH10" s="40"/>
-      <c r="BI10" s="40"/>
-      <c r="BJ10" s="40"/>
-      <c r="BK10" s="41"/>
+      <c r="BG10" s="50"/>
+      <c r="BH10" s="50"/>
+      <c r="BI10" s="50"/>
+      <c r="BJ10" s="50"/>
+      <c r="BK10" s="52"/>
       <c r="BL10" s="7"/>
       <c r="BM10" s="7"/>
       <c r="BN10" s="17"/>
@@ -3158,20 +3164,20 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="35"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="45"/>
       <c r="P11" s="8" t="s">
         <v>113</v>
       </c>
@@ -3228,12 +3234,6 @@
         <v>234</v>
       </c>
       <c r="AM11" s="10"/>
-      <c r="AN11" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="AO11" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="9" t="s">
         <v>264</v>
@@ -3254,22 +3254,22 @@
         <v>209</v>
       </c>
       <c r="AY11" s="11"/>
-      <c r="AZ11" s="31" t="s">
+      <c r="AZ11" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="BA11" s="32"/>
-      <c r="BB11" s="32"/>
-      <c r="BC11" s="32"/>
-      <c r="BD11" s="32"/>
-      <c r="BE11" s="33"/>
-      <c r="BF11" s="50" t="s">
+      <c r="BA11" s="39"/>
+      <c r="BB11" s="39"/>
+      <c r="BC11" s="39"/>
+      <c r="BD11" s="39"/>
+      <c r="BE11" s="40"/>
+      <c r="BF11" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="BG11" s="40"/>
-      <c r="BH11" s="40"/>
-      <c r="BI11" s="40"/>
-      <c r="BJ11" s="40"/>
-      <c r="BK11" s="41"/>
+      <c r="BG11" s="50"/>
+      <c r="BH11" s="50"/>
+      <c r="BI11" s="50"/>
+      <c r="BJ11" s="50"/>
+      <c r="BK11" s="52"/>
       <c r="BL11" s="7"/>
       <c r="BM11" s="7"/>
       <c r="BN11" s="17"/>
@@ -3289,24 +3289,17 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O12" s="11"/>
       <c r="P12" s="9" t="s">
         <v>123</v>
       </c>
@@ -3379,14 +3372,14 @@
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
       <c r="AY12" s="11"/>
-      <c r="AZ12" s="39" t="s">
+      <c r="AZ12" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="BA12" s="40"/>
-      <c r="BB12" s="40"/>
-      <c r="BC12" s="40"/>
-      <c r="BD12" s="40"/>
-      <c r="BE12" s="41"/>
+      <c r="BA12" s="50"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="50"/>
+      <c r="BD12" s="50"/>
+      <c r="BE12" s="52"/>
       <c r="BF12" s="12" t="s">
         <v>337</v>
       </c>
@@ -3418,14 +3411,14 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="10"/>
@@ -3500,14 +3493,14 @@
       <c r="AW13" s="7"/>
       <c r="AX13" s="7"/>
       <c r="AY13" s="11"/>
-      <c r="AZ13" s="39" t="s">
+      <c r="AZ13" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="BA13" s="40"/>
-      <c r="BB13" s="40"/>
-      <c r="BC13" s="40"/>
-      <c r="BD13" s="40"/>
-      <c r="BE13" s="41"/>
+      <c r="BA13" s="50"/>
+      <c r="BB13" s="50"/>
+      <c r="BC13" s="50"/>
+      <c r="BD13" s="50"/>
+      <c r="BE13" s="52"/>
       <c r="BF13" s="12" t="s">
         <v>337</v>
       </c>
@@ -3634,10 +3627,10 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="55" t="s">
+      <c r="P15" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="Q15" s="55" t="s">
+      <c r="Q15" s="29" t="s">
         <v>121</v>
       </c>
       <c r="R15" s="10"/>
@@ -3696,12 +3689,12 @@
       <c r="BC15" s="7"/>
       <c r="BD15" s="7"/>
       <c r="BE15" s="10"/>
-      <c r="BF15" s="34"/>
-      <c r="BG15" s="32"/>
-      <c r="BH15" s="32"/>
-      <c r="BI15" s="32"/>
-      <c r="BJ15" s="32"/>
-      <c r="BK15" s="33"/>
+      <c r="BF15" s="41"/>
+      <c r="BG15" s="39"/>
+      <c r="BH15" s="39"/>
+      <c r="BI15" s="39"/>
+      <c r="BJ15" s="39"/>
+      <c r="BK15" s="40"/>
       <c r="BL15" s="7"/>
       <c r="BM15" s="7"/>
       <c r="BN15" s="17"/>
@@ -3717,20 +3710,20 @@
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="35"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="45"/>
       <c r="P16" s="8" t="s">
         <v>58</v>
       </c>
@@ -3815,22 +3808,22 @@
         <v>101</v>
       </c>
       <c r="AY16" s="11"/>
-      <c r="AZ16" s="31" t="s">
+      <c r="AZ16" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="BA16" s="32"/>
-      <c r="BB16" s="32"/>
-      <c r="BC16" s="32"/>
-      <c r="BD16" s="32"/>
-      <c r="BE16" s="33"/>
-      <c r="BF16" s="34" t="s">
+      <c r="BA16" s="39"/>
+      <c r="BB16" s="39"/>
+      <c r="BC16" s="39"/>
+      <c r="BD16" s="39"/>
+      <c r="BE16" s="40"/>
+      <c r="BF16" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="BG16" s="32"/>
-      <c r="BH16" s="32"/>
-      <c r="BI16" s="32"/>
-      <c r="BJ16" s="32"/>
-      <c r="BK16" s="33"/>
+      <c r="BG16" s="39"/>
+      <c r="BH16" s="39"/>
+      <c r="BI16" s="39"/>
+      <c r="BJ16" s="39"/>
+      <c r="BK16" s="40"/>
       <c r="BL16" s="7"/>
       <c r="BM16" s="7"/>
       <c r="BN16" s="17"/>
@@ -3850,20 +3843,20 @@
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="35"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="45"/>
       <c r="P17" s="8" t="s">
         <v>58</v>
       </c>
@@ -3944,14 +3937,14 @@
         <v>101</v>
       </c>
       <c r="AY17" s="11"/>
-      <c r="AZ17" s="31" t="s">
+      <c r="AZ17" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="BA17" s="32"/>
-      <c r="BB17" s="32"/>
-      <c r="BC17" s="32"/>
-      <c r="BD17" s="32"/>
-      <c r="BE17" s="33"/>
+      <c r="BA17" s="39"/>
+      <c r="BB17" s="39"/>
+      <c r="BC17" s="39"/>
+      <c r="BD17" s="39"/>
+      <c r="BE17" s="40"/>
       <c r="BF17" s="7"/>
       <c r="BG17" s="7"/>
       <c r="BH17" s="17"/>
@@ -3993,10 +3986,10 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="11"/>
-      <c r="P18" s="54" t="s">
+      <c r="P18" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="Q18" s="55" t="s">
+      <c r="Q18" s="29" t="s">
         <v>121</v>
       </c>
       <c r="R18" s="10"/>
@@ -4043,14 +4036,14 @@
       <c r="BC18" s="7"/>
       <c r="BD18" s="7"/>
       <c r="BE18" s="10"/>
-      <c r="BF18" s="34" t="s">
+      <c r="BF18" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="BG18" s="32"/>
-      <c r="BH18" s="32"/>
-      <c r="BI18" s="32"/>
-      <c r="BJ18" s="32"/>
-      <c r="BK18" s="33"/>
+      <c r="BG18" s="39"/>
+      <c r="BH18" s="39"/>
+      <c r="BI18" s="39"/>
+      <c r="BJ18" s="39"/>
+      <c r="BK18" s="40"/>
       <c r="BL18" s="7"/>
       <c r="BM18" s="7"/>
       <c r="BN18" s="17"/>
@@ -4116,14 +4109,14 @@
       <c r="BC19" s="7"/>
       <c r="BD19" s="7"/>
       <c r="BE19" s="10"/>
-      <c r="BF19" s="51" t="s">
+      <c r="BF19" s="61" t="s">
         <v>349</v>
       </c>
-      <c r="BG19" s="52"/>
-      <c r="BH19" s="52"/>
-      <c r="BI19" s="52"/>
-      <c r="BJ19" s="52"/>
-      <c r="BK19" s="53"/>
+      <c r="BG19" s="62"/>
+      <c r="BH19" s="62"/>
+      <c r="BI19" s="62"/>
+      <c r="BJ19" s="62"/>
+      <c r="BK19" s="63"/>
       <c r="BL19" s="7"/>
       <c r="BM19" s="7"/>
       <c r="BN19" s="17"/>
@@ -4170,13 +4163,13 @@
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="56" t="s">
+      <c r="Y20" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="Z20" s="55" t="s">
+      <c r="Z20" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="AA20" s="57"/>
+      <c r="AA20" s="31"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="10"/>
@@ -4217,14 +4210,14 @@
       <c r="BC20" s="7"/>
       <c r="BD20" s="7"/>
       <c r="BE20" s="10"/>
-      <c r="BF20" s="34" t="s">
+      <c r="BF20" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="BG20" s="32"/>
-      <c r="BH20" s="32"/>
-      <c r="BI20" s="32"/>
-      <c r="BJ20" s="32"/>
-      <c r="BK20" s="33"/>
+      <c r="BG20" s="39"/>
+      <c r="BH20" s="39"/>
+      <c r="BI20" s="39"/>
+      <c r="BJ20" s="39"/>
+      <c r="BK20" s="40"/>
       <c r="BL20" s="7"/>
       <c r="BM20" s="7"/>
       <c r="BN20" s="17"/>
@@ -4240,14 +4233,14 @@
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="10"/>
@@ -4342,22 +4335,22 @@
       <c r="AY21" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="AZ21" s="31" t="s">
+      <c r="AZ21" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="BA21" s="32"/>
-      <c r="BB21" s="32"/>
-      <c r="BC21" s="32"/>
-      <c r="BD21" s="32"/>
-      <c r="BE21" s="33"/>
-      <c r="BF21" s="34" t="s">
+      <c r="BA21" s="39"/>
+      <c r="BB21" s="39"/>
+      <c r="BC21" s="39"/>
+      <c r="BD21" s="39"/>
+      <c r="BE21" s="40"/>
+      <c r="BF21" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="BG21" s="32"/>
-      <c r="BH21" s="32"/>
-      <c r="BI21" s="32"/>
-      <c r="BJ21" s="32"/>
-      <c r="BK21" s="33"/>
+      <c r="BG21" s="39"/>
+      <c r="BH21" s="39"/>
+      <c r="BI21" s="39"/>
+      <c r="BJ21" s="39"/>
+      <c r="BK21" s="40"/>
       <c r="BL21" s="7"/>
       <c r="BM21" s="7"/>
       <c r="BN21" s="17"/>
@@ -4377,14 +4370,14 @@
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="10"/>
@@ -4465,22 +4458,22 @@
       <c r="AW22" s="7"/>
       <c r="AX22" s="7"/>
       <c r="AY22" s="11"/>
-      <c r="AZ22" s="31" t="s">
+      <c r="AZ22" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="BA22" s="32"/>
-      <c r="BB22" s="32"/>
-      <c r="BC22" s="32"/>
-      <c r="BD22" s="32"/>
-      <c r="BE22" s="33"/>
-      <c r="BF22" s="34" t="s">
+      <c r="BA22" s="39"/>
+      <c r="BB22" s="39"/>
+      <c r="BC22" s="39"/>
+      <c r="BD22" s="39"/>
+      <c r="BE22" s="40"/>
+      <c r="BF22" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="BG22" s="32"/>
-      <c r="BH22" s="32"/>
-      <c r="BI22" s="32"/>
-      <c r="BJ22" s="32"/>
-      <c r="BK22" s="33"/>
+      <c r="BG22" s="39"/>
+      <c r="BH22" s="39"/>
+      <c r="BI22" s="39"/>
+      <c r="BJ22" s="39"/>
+      <c r="BK22" s="40"/>
       <c r="BL22" s="7"/>
       <c r="BM22" s="7"/>
       <c r="BN22" s="17"/>
@@ -4556,14 +4549,14 @@
       <c r="AW23" s="7"/>
       <c r="AX23" s="7"/>
       <c r="AY23" s="11"/>
-      <c r="AZ23" s="31" t="s">
+      <c r="AZ23" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="BA23" s="32"/>
-      <c r="BB23" s="32"/>
-      <c r="BC23" s="32"/>
-      <c r="BD23" s="32"/>
-      <c r="BE23" s="33"/>
+      <c r="BA23" s="39"/>
+      <c r="BB23" s="39"/>
+      <c r="BC23" s="39"/>
+      <c r="BD23" s="39"/>
+      <c r="BE23" s="40"/>
       <c r="BF23" s="7"/>
       <c r="BG23" s="7"/>
       <c r="BH23" s="17"/>
@@ -4643,14 +4636,14 @@
       <c r="BC24" s="7"/>
       <c r="BD24" s="7"/>
       <c r="BE24" s="10"/>
-      <c r="BF24" s="34" t="s">
+      <c r="BF24" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="BG24" s="32"/>
-      <c r="BH24" s="32"/>
-      <c r="BI24" s="32"/>
-      <c r="BJ24" s="32"/>
-      <c r="BK24" s="33"/>
+      <c r="BG24" s="39"/>
+      <c r="BH24" s="39"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="39"/>
+      <c r="BK24" s="40"/>
       <c r="BL24" s="7"/>
       <c r="BM24" s="7"/>
       <c r="BN24" s="17"/>
@@ -4668,20 +4661,20 @@
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="35"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="45"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="10"/>
@@ -4734,14 +4727,14 @@
       <c r="BC25" s="7"/>
       <c r="BD25" s="7"/>
       <c r="BE25" s="10"/>
-      <c r="BF25" s="34" t="s">
+      <c r="BF25" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="BG25" s="32"/>
-      <c r="BH25" s="32"/>
-      <c r="BI25" s="32"/>
-      <c r="BJ25" s="32"/>
-      <c r="BK25" s="33"/>
+      <c r="BG25" s="39"/>
+      <c r="BH25" s="39"/>
+      <c r="BI25" s="39"/>
+      <c r="BJ25" s="39"/>
+      <c r="BK25" s="40"/>
       <c r="BL25" s="7"/>
       <c r="BM25" s="7"/>
       <c r="BN25" s="17"/>
@@ -4757,14 +4750,14 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
       <c r="J26" s="7" t="s">
         <v>91</v>
       </c>
@@ -4779,17 +4772,17 @@
         <v>63</v>
       </c>
       <c r="O26" s="11"/>
-      <c r="P26" s="31" t="s">
+      <c r="P26" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="35"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="45"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="10"/>
@@ -4849,22 +4842,22 @@
         <v>274</v>
       </c>
       <c r="AY26" s="11"/>
-      <c r="AZ26" s="31" t="s">
+      <c r="AZ26" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="BA26" s="32"/>
-      <c r="BB26" s="32"/>
-      <c r="BC26" s="32"/>
-      <c r="BD26" s="32"/>
-      <c r="BE26" s="33"/>
-      <c r="BF26" s="34" t="s">
+      <c r="BA26" s="39"/>
+      <c r="BB26" s="39"/>
+      <c r="BC26" s="39"/>
+      <c r="BD26" s="39"/>
+      <c r="BE26" s="40"/>
+      <c r="BF26" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="BG26" s="32"/>
-      <c r="BH26" s="32"/>
-      <c r="BI26" s="32"/>
-      <c r="BJ26" s="32"/>
-      <c r="BK26" s="33"/>
+      <c r="BG26" s="39"/>
+      <c r="BH26" s="39"/>
+      <c r="BI26" s="39"/>
+      <c r="BJ26" s="39"/>
+      <c r="BK26" s="40"/>
       <c r="BL26" s="7"/>
       <c r="BM26" s="7"/>
       <c r="BN26" s="17"/>
@@ -4884,14 +4877,14 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="10"/>
@@ -4902,17 +4895,17 @@
         <v>63</v>
       </c>
       <c r="O27" s="11"/>
-      <c r="P27" s="31" t="s">
+      <c r="P27" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="35"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="45"/>
       <c r="Y27" s="8" t="s">
         <v>164</v>
       </c>
@@ -4968,22 +4961,22 @@
       <c r="AW27" s="7"/>
       <c r="AX27" s="7"/>
       <c r="AY27" s="11"/>
-      <c r="AZ27" s="31" t="s">
+      <c r="AZ27" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="BA27" s="32"/>
-      <c r="BB27" s="32"/>
-      <c r="BC27" s="32"/>
-      <c r="BD27" s="32"/>
-      <c r="BE27" s="33"/>
-      <c r="BF27" s="34" t="s">
+      <c r="BA27" s="39"/>
+      <c r="BB27" s="39"/>
+      <c r="BC27" s="39"/>
+      <c r="BD27" s="39"/>
+      <c r="BE27" s="40"/>
+      <c r="BF27" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="BG27" s="32"/>
-      <c r="BH27" s="32"/>
-      <c r="BI27" s="32"/>
-      <c r="BJ27" s="32"/>
-      <c r="BK27" s="33"/>
+      <c r="BG27" s="39"/>
+      <c r="BH27" s="39"/>
+      <c r="BI27" s="39"/>
+      <c r="BJ27" s="39"/>
+      <c r="BK27" s="40"/>
       <c r="BL27" s="7"/>
       <c r="BM27" s="7"/>
       <c r="BN27" s="17"/>
@@ -5075,14 +5068,14 @@
       <c r="BQ28" s="11"/>
     </row>
     <row r="29" spans="1:69" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="10"/>
@@ -5167,8 +5160,12 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
+      <c r="M30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="O30" s="11"/>
       <c r="P30" s="8" t="s">
         <v>113</v>
@@ -5187,13 +5184,13 @@
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="11"/>
-      <c r="Y30" s="56" t="s">
+      <c r="Y30" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="Z30" s="55" t="s">
+      <c r="Z30" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="AA30" s="57"/>
+      <c r="AA30" s="31"/>
       <c r="AB30" s="7" t="s">
         <v>133</v>
       </c>
@@ -5249,20 +5246,20 @@
       <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="35"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="45"/>
       <c r="P31" s="8" t="s">
         <v>116</v>
       </c>
@@ -5308,14 +5305,14 @@
         <v>223</v>
       </c>
       <c r="AJ31" s="10"/>
-      <c r="AK31" s="34" t="s">
+      <c r="AK31" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="35"/>
+      <c r="AL31" s="39"/>
+      <c r="AM31" s="39"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="45"/>
       <c r="AQ31" s="9"/>
       <c r="AR31" s="9"/>
       <c r="AS31" s="10"/>
@@ -5333,22 +5330,22 @@
         <v>101</v>
       </c>
       <c r="AY31" s="9"/>
-      <c r="AZ31" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="BA31" s="32"/>
-      <c r="BB31" s="32"/>
-      <c r="BC31" s="32"/>
-      <c r="BD31" s="32"/>
-      <c r="BE31" s="33"/>
-      <c r="BF31" s="34" t="s">
+      <c r="AZ31" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="BA31" s="39"/>
+      <c r="BB31" s="39"/>
+      <c r="BC31" s="39"/>
+      <c r="BD31" s="39"/>
+      <c r="BE31" s="40"/>
+      <c r="BF31" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="BG31" s="32"/>
-      <c r="BH31" s="32"/>
-      <c r="BI31" s="32"/>
-      <c r="BJ31" s="32"/>
-      <c r="BK31" s="33"/>
+      <c r="BG31" s="39"/>
+      <c r="BH31" s="39"/>
+      <c r="BI31" s="39"/>
+      <c r="BJ31" s="39"/>
+      <c r="BK31" s="40"/>
       <c r="BL31" s="7"/>
       <c r="BM31" s="7"/>
       <c r="BN31" s="17"/>
@@ -5368,20 +5365,20 @@
       <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="35"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="45"/>
       <c r="P32" s="8" t="s">
         <v>58</v>
       </c>
@@ -5416,21 +5413,21 @@
         <v>205</v>
       </c>
       <c r="AG32" s="11"/>
-      <c r="AH32" s="54" t="s">
+      <c r="AH32" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="AI32" s="56" t="s">
+      <c r="AI32" s="30" t="s">
         <v>121</v>
       </c>
       <c r="AJ32" s="10"/>
-      <c r="AK32" s="34" t="s">
+      <c r="AK32" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
-      <c r="AP32" s="35"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="45"/>
       <c r="AQ32" s="9" t="s">
         <v>102</v>
       </c>
@@ -5466,14 +5463,14 @@
         <v>170</v>
       </c>
       <c r="BE32" s="10"/>
-      <c r="BF32" s="34" t="s">
+      <c r="BF32" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="BG32" s="32"/>
-      <c r="BH32" s="32"/>
-      <c r="BI32" s="32"/>
-      <c r="BJ32" s="32"/>
-      <c r="BK32" s="33"/>
+      <c r="BG32" s="39"/>
+      <c r="BH32" s="39"/>
+      <c r="BI32" s="39"/>
+      <c r="BJ32" s="39"/>
+      <c r="BK32" s="40"/>
       <c r="BL32" s="7"/>
       <c r="BM32" s="7"/>
       <c r="BN32" s="17"/>
@@ -5572,14 +5569,14 @@
       <c r="C34" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="40"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="10"/>
@@ -5632,14 +5629,14 @@
       <c r="BC34" s="7"/>
       <c r="BD34" s="7"/>
       <c r="BE34" s="10"/>
-      <c r="BF34" s="34" t="s">
+      <c r="BF34" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="BG34" s="32"/>
-      <c r="BH34" s="32"/>
-      <c r="BI34" s="32"/>
-      <c r="BJ34" s="32"/>
-      <c r="BK34" s="33"/>
+      <c r="BG34" s="39"/>
+      <c r="BH34" s="39"/>
+      <c r="BI34" s="39"/>
+      <c r="BJ34" s="39"/>
+      <c r="BK34" s="40"/>
       <c r="BL34" s="7"/>
       <c r="BM34" s="7"/>
       <c r="BN34" s="17"/>
@@ -5733,14 +5730,14 @@
       <c r="BC35" s="7"/>
       <c r="BD35" s="7"/>
       <c r="BE35" s="10"/>
-      <c r="BF35" s="34" t="s">
+      <c r="BF35" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="BG35" s="32"/>
-      <c r="BH35" s="32"/>
-      <c r="BI35" s="32"/>
-      <c r="BJ35" s="32"/>
-      <c r="BK35" s="33"/>
+      <c r="BG35" s="39"/>
+      <c r="BH35" s="39"/>
+      <c r="BI35" s="39"/>
+      <c r="BJ35" s="39"/>
+      <c r="BK35" s="40"/>
       <c r="BL35" s="7"/>
       <c r="BM35" s="7"/>
       <c r="BN35" s="17"/>
@@ -5762,14 +5759,14 @@
       <c r="C36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="40"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="10"/>
@@ -5780,17 +5777,17 @@
         <v>63</v>
       </c>
       <c r="O36" s="11"/>
-      <c r="P36" s="31" t="s">
+      <c r="P36" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="35"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="45"/>
       <c r="Y36" s="8" t="s">
         <v>79</v>
       </c>
@@ -5840,22 +5837,22 @@
         <v>282</v>
       </c>
       <c r="AY36" s="11"/>
-      <c r="AZ36" s="31" t="s">
+      <c r="AZ36" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="BA36" s="32"/>
-      <c r="BB36" s="32"/>
-      <c r="BC36" s="32"/>
-      <c r="BD36" s="32"/>
-      <c r="BE36" s="33"/>
-      <c r="BF36" s="34" t="s">
+      <c r="BA36" s="39"/>
+      <c r="BB36" s="39"/>
+      <c r="BC36" s="39"/>
+      <c r="BD36" s="39"/>
+      <c r="BE36" s="40"/>
+      <c r="BF36" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="BG36" s="32"/>
-      <c r="BH36" s="32"/>
-      <c r="BI36" s="32"/>
-      <c r="BJ36" s="32"/>
-      <c r="BK36" s="33"/>
+      <c r="BG36" s="39"/>
+      <c r="BH36" s="39"/>
+      <c r="BI36" s="39"/>
+      <c r="BJ36" s="39"/>
+      <c r="BK36" s="40"/>
       <c r="BL36" s="7"/>
       <c r="BM36" s="7"/>
       <c r="BN36" s="17"/>
@@ -5871,14 +5868,14 @@
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="40"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="10"/>
@@ -5953,22 +5950,22 @@
         <v>282</v>
       </c>
       <c r="AY37" s="11"/>
-      <c r="AZ37" s="31" t="s">
+      <c r="AZ37" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="BA37" s="32"/>
-      <c r="BB37" s="32"/>
-      <c r="BC37" s="32"/>
-      <c r="BD37" s="32"/>
-      <c r="BE37" s="33"/>
-      <c r="BF37" s="34" t="s">
+      <c r="BA37" s="39"/>
+      <c r="BB37" s="39"/>
+      <c r="BC37" s="39"/>
+      <c r="BD37" s="39"/>
+      <c r="BE37" s="40"/>
+      <c r="BF37" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="BG37" s="32"/>
-      <c r="BH37" s="32"/>
-      <c r="BI37" s="32"/>
-      <c r="BJ37" s="32"/>
-      <c r="BK37" s="33"/>
+      <c r="BG37" s="39"/>
+      <c r="BH37" s="39"/>
+      <c r="BI37" s="39"/>
+      <c r="BJ37" s="39"/>
+      <c r="BK37" s="40"/>
       <c r="BL37" s="7"/>
       <c r="BM37" s="7"/>
       <c r="BN37" s="17"/>
@@ -6145,20 +6142,20 @@
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="42"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="51"/>
       <c r="P40" s="8" t="s">
         <v>123</v>
       </c>
@@ -6243,14 +6240,14 @@
       <c r="BC40" s="7"/>
       <c r="BD40" s="7"/>
       <c r="BE40" s="10"/>
-      <c r="BF40" s="50" t="s">
+      <c r="BF40" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="BG40" s="40"/>
-      <c r="BH40" s="40"/>
-      <c r="BI40" s="40"/>
-      <c r="BJ40" s="40"/>
-      <c r="BK40" s="41"/>
+      <c r="BG40" s="50"/>
+      <c r="BH40" s="50"/>
+      <c r="BI40" s="50"/>
+      <c r="BJ40" s="50"/>
+      <c r="BK40" s="52"/>
       <c r="BL40" s="7"/>
       <c r="BM40" s="7"/>
       <c r="BN40" s="17"/>
@@ -6270,20 +6267,20 @@
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="42"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="51"/>
       <c r="P41" s="8" t="s">
         <v>123</v>
       </c>
@@ -6362,14 +6359,14 @@
         <v>289</v>
       </c>
       <c r="AY41" s="11"/>
-      <c r="AZ41" s="39" t="s">
+      <c r="AZ41" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="BA41" s="40"/>
-      <c r="BB41" s="40"/>
-      <c r="BC41" s="40"/>
-      <c r="BD41" s="40"/>
-      <c r="BE41" s="41"/>
+      <c r="BA41" s="50"/>
+      <c r="BB41" s="50"/>
+      <c r="BC41" s="50"/>
+      <c r="BD41" s="50"/>
+      <c r="BE41" s="52"/>
       <c r="BF41" s="9"/>
       <c r="BG41" s="7"/>
       <c r="BH41" s="17"/>
@@ -6395,14 +6392,14 @@
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="40"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="10"/>
@@ -6499,14 +6496,14 @@
         <v>170</v>
       </c>
       <c r="BE42" s="10"/>
-      <c r="BF42" s="50" t="s">
+      <c r="BF42" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="BG42" s="40"/>
-      <c r="BH42" s="40"/>
-      <c r="BI42" s="40"/>
-      <c r="BJ42" s="40"/>
-      <c r="BK42" s="41"/>
+      <c r="BG42" s="50"/>
+      <c r="BH42" s="50"/>
+      <c r="BI42" s="50"/>
+      <c r="BJ42" s="50"/>
+      <c r="BK42" s="52"/>
       <c r="BL42" s="7"/>
       <c r="BM42" s="7"/>
       <c r="BN42" s="17"/>
@@ -6526,14 +6523,14 @@
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="40"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="10"/>
@@ -6622,14 +6619,14 @@
         <v>170</v>
       </c>
       <c r="BE43" s="10"/>
-      <c r="BF43" s="50" t="s">
+      <c r="BF43" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="BG43" s="40"/>
-      <c r="BH43" s="40"/>
-      <c r="BI43" s="40"/>
-      <c r="BJ43" s="40"/>
-      <c r="BK43" s="41"/>
+      <c r="BG43" s="50"/>
+      <c r="BH43" s="50"/>
+      <c r="BI43" s="50"/>
+      <c r="BJ43" s="50"/>
+      <c r="BK43" s="52"/>
       <c r="BL43" s="7"/>
       <c r="BM43" s="7"/>
       <c r="BN43" s="17"/>
@@ -6715,14 +6712,14 @@
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="30"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="37"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="10"/>
@@ -6803,14 +6800,14 @@
         <v>172</v>
       </c>
       <c r="BE45" s="10"/>
-      <c r="BF45" s="34" t="s">
+      <c r="BF45" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="BG45" s="32"/>
-      <c r="BH45" s="32"/>
-      <c r="BI45" s="32"/>
-      <c r="BJ45" s="32"/>
-      <c r="BK45" s="33"/>
+      <c r="BG45" s="39"/>
+      <c r="BH45" s="39"/>
+      <c r="BI45" s="39"/>
+      <c r="BJ45" s="39"/>
+      <c r="BK45" s="40"/>
       <c r="BL45" s="7"/>
       <c r="BM45" s="7"/>
       <c r="BN45" s="17"/>
@@ -6830,14 +6827,14 @@
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="37"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="10"/>
@@ -6910,22 +6907,22 @@
       <c r="AW46" s="7"/>
       <c r="AX46" s="7"/>
       <c r="AY46" s="11"/>
-      <c r="AZ46" s="39" t="s">
+      <c r="AZ46" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="BA46" s="40"/>
-      <c r="BB46" s="40"/>
-      <c r="BC46" s="40"/>
-      <c r="BD46" s="40"/>
-      <c r="BE46" s="41"/>
-      <c r="BF46" s="34" t="s">
+      <c r="BA46" s="50"/>
+      <c r="BB46" s="50"/>
+      <c r="BC46" s="50"/>
+      <c r="BD46" s="50"/>
+      <c r="BE46" s="52"/>
+      <c r="BF46" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="BG46" s="32"/>
-      <c r="BH46" s="32"/>
-      <c r="BI46" s="32"/>
-      <c r="BJ46" s="32"/>
-      <c r="BK46" s="33"/>
+      <c r="BG46" s="39"/>
+      <c r="BH46" s="39"/>
+      <c r="BI46" s="39"/>
+      <c r="BJ46" s="39"/>
+      <c r="BK46" s="40"/>
       <c r="BL46" s="7"/>
       <c r="BM46" s="7"/>
       <c r="BN46" s="17"/>
@@ -6943,31 +6940,31 @@
       <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="30"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="37"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="10"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="11"/>
-      <c r="P47" s="31" t="s">
+      <c r="P47" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="35"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="45"/>
       <c r="Y47" s="8"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="10"/>
@@ -7021,14 +7018,14 @@
       <c r="BC47" s="7"/>
       <c r="BD47" s="7"/>
       <c r="BE47" s="10"/>
-      <c r="BF47" s="34" t="s">
+      <c r="BF47" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="BG47" s="32"/>
-      <c r="BH47" s="32"/>
-      <c r="BI47" s="32"/>
-      <c r="BJ47" s="32"/>
-      <c r="BK47" s="33"/>
+      <c r="BG47" s="39"/>
+      <c r="BH47" s="39"/>
+      <c r="BI47" s="39"/>
+      <c r="BJ47" s="39"/>
+      <c r="BK47" s="40"/>
       <c r="BL47" s="7"/>
       <c r="BM47" s="7"/>
       <c r="BN47" s="7"/>
@@ -7048,31 +7045,31 @@
       <c r="C48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="30"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="37"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="10"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="11"/>
-      <c r="P48" s="31" t="s">
+      <c r="P48" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
-      <c r="V48" s="32"/>
-      <c r="W48" s="32"/>
-      <c r="X48" s="35"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="45"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
@@ -7122,14 +7119,14 @@
       <c r="BC48" s="19"/>
       <c r="BD48" s="7"/>
       <c r="BE48" s="10"/>
-      <c r="BF48" s="34" t="s">
+      <c r="BF48" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="BG48" s="32"/>
-      <c r="BH48" s="32"/>
-      <c r="BI48" s="32"/>
-      <c r="BJ48" s="32"/>
-      <c r="BK48" s="33"/>
+      <c r="BG48" s="39"/>
+      <c r="BH48" s="39"/>
+      <c r="BI48" s="39"/>
+      <c r="BJ48" s="39"/>
+      <c r="BK48" s="40"/>
       <c r="BL48" s="7"/>
       <c r="BM48" s="7"/>
       <c r="BN48" s="7"/>
@@ -7183,10 +7180,10 @@
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="11"/>
-      <c r="AH49" s="54" t="s">
+      <c r="AH49" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="AI49" s="56" t="s">
+      <c r="AI49" s="30" t="s">
         <v>121</v>
       </c>
       <c r="AJ49" s="10"/>
@@ -7261,10 +7258,10 @@
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
       <c r="X50" s="11"/>
-      <c r="Y50" s="56" t="s">
+      <c r="Y50" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="Z50" s="56" t="s">
+      <c r="Z50" s="30" t="s">
         <v>121</v>
       </c>
       <c r="AA50" s="7"/>
@@ -7274,8 +7271,12 @@
       <c r="AE50" s="7"/>
       <c r="AF50" s="7"/>
       <c r="AG50" s="11"/>
-      <c r="AH50" s="7"/>
-      <c r="AI50" s="7"/>
+      <c r="AH50" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI50" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="AJ50" s="10"/>
       <c r="AK50" s="7"/>
       <c r="AL50" s="7"/>
@@ -7298,22 +7299,22 @@
       <c r="AY50" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="AZ50" s="31" t="s">
+      <c r="AZ50" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="BA50" s="32"/>
-      <c r="BB50" s="32"/>
-      <c r="BC50" s="32"/>
-      <c r="BD50" s="32"/>
-      <c r="BE50" s="33"/>
-      <c r="BF50" s="34" t="s">
+      <c r="BA50" s="39"/>
+      <c r="BB50" s="39"/>
+      <c r="BC50" s="39"/>
+      <c r="BD50" s="39"/>
+      <c r="BE50" s="40"/>
+      <c r="BF50" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="BG50" s="32"/>
-      <c r="BH50" s="32"/>
-      <c r="BI50" s="32"/>
-      <c r="BJ50" s="32"/>
-      <c r="BK50" s="33"/>
+      <c r="BG50" s="39"/>
+      <c r="BH50" s="39"/>
+      <c r="BI50" s="39"/>
+      <c r="BJ50" s="39"/>
+      <c r="BK50" s="40"/>
       <c r="BL50" s="7"/>
       <c r="BM50" s="7"/>
       <c r="BN50" s="7"/>
@@ -7338,14 +7339,14 @@
       <c r="D51" s="8"/>
       <c r="E51" s="7"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="34" t="s">
+      <c r="G51" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="33"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="40"/>
       <c r="M51" s="9" t="s">
         <v>89</v>
       </c>
@@ -7353,10 +7354,10 @@
         <v>90</v>
       </c>
       <c r="O51" s="11"/>
-      <c r="P51" s="54" t="s">
+      <c r="P51" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="Q51" s="56" t="s">
+      <c r="Q51" s="30" t="s">
         <v>121</v>
       </c>
       <c r="R51" s="10"/>
@@ -7395,17 +7396,21 @@
         <v>70</v>
       </c>
       <c r="AG51" s="11"/>
-      <c r="AH51" s="7"/>
-      <c r="AI51" s="7"/>
+      <c r="AH51" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI51" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="AJ51" s="10"/>
-      <c r="AK51" s="34" t="s">
+      <c r="AK51" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="AL51" s="32"/>
-      <c r="AM51" s="32"/>
-      <c r="AN51" s="32"/>
-      <c r="AO51" s="32"/>
-      <c r="AP51" s="35"/>
+      <c r="AL51" s="39"/>
+      <c r="AM51" s="39"/>
+      <c r="AN51" s="39"/>
+      <c r="AO51" s="39"/>
+      <c r="AP51" s="45"/>
       <c r="AQ51" s="7"/>
       <c r="AR51" s="7"/>
       <c r="AS51" s="10"/>
@@ -7433,14 +7438,14 @@
         <v>172</v>
       </c>
       <c r="BE51" s="10"/>
-      <c r="BF51" s="34" t="s">
+      <c r="BF51" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BG51" s="32"/>
-      <c r="BH51" s="32"/>
-      <c r="BI51" s="32"/>
-      <c r="BJ51" s="32"/>
-      <c r="BK51" s="33"/>
+      <c r="BG51" s="39"/>
+      <c r="BH51" s="39"/>
+      <c r="BI51" s="39"/>
+      <c r="BJ51" s="39"/>
+      <c r="BK51" s="40"/>
       <c r="BL51" s="7"/>
       <c r="BM51" s="7"/>
       <c r="BN51" s="7"/>
@@ -7465,14 +7470,14 @@
       <c r="D52" s="8"/>
       <c r="E52" s="7"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="34" t="s">
+      <c r="G52" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="33"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="40"/>
       <c r="M52" s="9" t="s">
         <v>89</v>
       </c>
@@ -7480,10 +7485,10 @@
         <v>90</v>
       </c>
       <c r="O52" s="11"/>
-      <c r="P52" s="55" t="s">
+      <c r="P52" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="Q52" s="55" t="s">
+      <c r="Q52" s="29" t="s">
         <v>121</v>
       </c>
       <c r="R52" s="10"/>
@@ -7554,14 +7559,14 @@
         <v>172</v>
       </c>
       <c r="BE52" s="10"/>
-      <c r="BF52" s="34" t="s">
+      <c r="BF52" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BG52" s="32"/>
-      <c r="BH52" s="32"/>
-      <c r="BI52" s="32"/>
-      <c r="BJ52" s="32"/>
-      <c r="BK52" s="33"/>
+      <c r="BG52" s="39"/>
+      <c r="BH52" s="39"/>
+      <c r="BI52" s="39"/>
+      <c r="BJ52" s="39"/>
+      <c r="BK52" s="40"/>
       <c r="BL52" s="7"/>
       <c r="BM52" s="7"/>
       <c r="BN52" s="7"/>
@@ -7638,14 +7643,14 @@
       <c r="BC53" s="7"/>
       <c r="BD53" s="7"/>
       <c r="BE53" s="10"/>
-      <c r="BF53" s="34" t="s">
+      <c r="BF53" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="BG53" s="32"/>
-      <c r="BH53" s="32"/>
-      <c r="BI53" s="32"/>
-      <c r="BJ53" s="32"/>
-      <c r="BK53" s="33"/>
+      <c r="BG53" s="39"/>
+      <c r="BH53" s="39"/>
+      <c r="BI53" s="39"/>
+      <c r="BJ53" s="39"/>
+      <c r="BK53" s="40"/>
       <c r="BL53" s="7"/>
       <c r="BM53" s="7"/>
       <c r="BN53" s="7"/>
@@ -7663,14 +7668,14 @@
       <c r="D54" s="8"/>
       <c r="E54" s="7"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="33"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="40"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="11"/>
@@ -7748,24 +7753,24 @@
       <c r="D55" s="8"/>
       <c r="E55" s="7"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="34" t="s">
+      <c r="G55" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="33"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="40"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="11"/>
-      <c r="P55" s="54" t="s">
+      <c r="P55" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="Q55" s="56" t="s">
+      <c r="Q55" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="R55" s="57"/>
+      <c r="R55" s="31"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="10"/>
@@ -7834,14 +7839,14 @@
       <c r="C56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
@@ -7852,13 +7857,13 @@
         <v>106</v>
       </c>
       <c r="O56" s="11"/>
-      <c r="P56" s="54" t="s">
+      <c r="P56" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="Q56" s="56" t="s">
+      <c r="Q56" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="R56" s="57"/>
+      <c r="R56" s="31"/>
       <c r="S56" s="7" t="s">
         <v>140</v>
       </c>
@@ -7904,8 +7909,12 @@
         <v>194</v>
       </c>
       <c r="AM56" s="10"/>
-      <c r="AN56" s="7"/>
-      <c r="AO56" s="7"/>
+      <c r="AN56" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO56" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AP56" s="11"/>
       <c r="AQ56" s="7"/>
       <c r="AR56" s="7"/>
@@ -7920,14 +7929,14 @@
       <c r="AW56" s="7"/>
       <c r="AX56" s="7"/>
       <c r="AY56" s="11"/>
-      <c r="AZ56" s="31" t="s">
+      <c r="AZ56" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="BA56" s="32"/>
-      <c r="BB56" s="32"/>
-      <c r="BC56" s="32"/>
-      <c r="BD56" s="32"/>
-      <c r="BE56" s="33"/>
+      <c r="BA56" s="39"/>
+      <c r="BB56" s="39"/>
+      <c r="BC56" s="39"/>
+      <c r="BD56" s="39"/>
+      <c r="BE56" s="40"/>
       <c r="BF56" s="7"/>
       <c r="BG56" s="7"/>
       <c r="BH56" s="17"/>
@@ -7957,14 +7966,14 @@
       <c r="C57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -7975,13 +7984,13 @@
         <v>106</v>
       </c>
       <c r="O57" s="11"/>
-      <c r="P57" s="54" t="s">
+      <c r="P57" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="Q57" s="56" t="s">
+      <c r="Q57" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="R57" s="57"/>
+      <c r="R57" s="31"/>
       <c r="S57" s="9"/>
       <c r="T57" s="7"/>
       <c r="U57" s="10"/>
@@ -8027,8 +8036,12 @@
         <v>194</v>
       </c>
       <c r="AM57" s="10"/>
-      <c r="AN57" s="7"/>
-      <c r="AO57" s="7"/>
+      <c r="AN57" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO57" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="AP57" s="11"/>
       <c r="AQ57" s="7" t="s">
         <v>265</v>
@@ -8047,22 +8060,22 @@
       <c r="AW57" s="7"/>
       <c r="AX57" s="7"/>
       <c r="AY57" s="11"/>
-      <c r="AZ57" s="31" t="s">
+      <c r="AZ57" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="BA57" s="32"/>
-      <c r="BB57" s="32"/>
-      <c r="BC57" s="32"/>
-      <c r="BD57" s="32"/>
-      <c r="BE57" s="33"/>
-      <c r="BF57" s="34" t="s">
+      <c r="BA57" s="39"/>
+      <c r="BB57" s="39"/>
+      <c r="BC57" s="39"/>
+      <c r="BD57" s="39"/>
+      <c r="BE57" s="40"/>
+      <c r="BF57" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="BG57" s="32"/>
-      <c r="BH57" s="32"/>
-      <c r="BI57" s="32"/>
-      <c r="BJ57" s="32"/>
-      <c r="BK57" s="33"/>
+      <c r="BG57" s="39"/>
+      <c r="BH57" s="39"/>
+      <c r="BI57" s="39"/>
+      <c r="BJ57" s="39"/>
+      <c r="BK57" s="40"/>
       <c r="BL57" s="7"/>
       <c r="BM57" s="7"/>
       <c r="BN57" s="7"/>
@@ -8144,14 +8157,14 @@
       <c r="BC58" s="7"/>
       <c r="BD58" s="7"/>
       <c r="BE58" s="10"/>
-      <c r="BF58" s="34" t="s">
+      <c r="BF58" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="BG58" s="32"/>
-      <c r="BH58" s="32"/>
-      <c r="BI58" s="32"/>
-      <c r="BJ58" s="32"/>
-      <c r="BK58" s="33"/>
+      <c r="BG58" s="39"/>
+      <c r="BH58" s="39"/>
+      <c r="BI58" s="39"/>
+      <c r="BJ58" s="39"/>
+      <c r="BK58" s="40"/>
       <c r="BL58" s="7"/>
       <c r="BM58" s="7"/>
       <c r="BN58" s="7"/>
@@ -8251,19 +8264,23 @@
       <c r="D60" s="8"/>
       <c r="E60" s="7"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="33"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="40"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
       <c r="O60" s="11"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="7"/>
+      <c r="P60" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="R60" s="10"/>
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
@@ -8280,8 +8297,12 @@
       <c r="AE60" s="7"/>
       <c r="AF60" s="7"/>
       <c r="AG60" s="11"/>
-      <c r="AH60" s="7"/>
-      <c r="AI60" s="7"/>
+      <c r="AH60" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI60" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="AJ60" s="10"/>
       <c r="AK60" s="7" t="s">
         <v>247</v>
@@ -8312,14 +8333,14 @@
       <c r="BC60" s="7"/>
       <c r="BD60" s="7"/>
       <c r="BE60" s="10"/>
-      <c r="BF60" s="34" t="s">
+      <c r="BF60" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="BG60" s="32"/>
-      <c r="BH60" s="32"/>
-      <c r="BI60" s="32"/>
-      <c r="BJ60" s="32"/>
-      <c r="BK60" s="33"/>
+      <c r="BG60" s="39"/>
+      <c r="BH60" s="39"/>
+      <c r="BI60" s="39"/>
+      <c r="BJ60" s="39"/>
+      <c r="BK60" s="40"/>
       <c r="BL60" s="7"/>
       <c r="BM60" s="7"/>
       <c r="BN60" s="7"/>
@@ -8338,19 +8359,19 @@
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="34" t="s">
+      <c r="G61" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="33"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="40"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="11"/>
       <c r="P61" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q61" s="7" t="s">
         <v>115</v>
@@ -8383,12 +8404,8 @@
       <c r="AE61" s="7"/>
       <c r="AF61" s="7"/>
       <c r="AG61" s="11"/>
-      <c r="AH61" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="AI61" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
       <c r="AJ61" s="10"/>
       <c r="AK61" s="7" t="s">
         <v>245</v>
@@ -8431,14 +8448,14 @@
         <v>172</v>
       </c>
       <c r="BE61" s="10"/>
-      <c r="BF61" s="34" t="s">
+      <c r="BF61" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="BG61" s="32"/>
-      <c r="BH61" s="32"/>
-      <c r="BI61" s="32"/>
-      <c r="BJ61" s="32"/>
-      <c r="BK61" s="33"/>
+      <c r="BG61" s="39"/>
+      <c r="BH61" s="39"/>
+      <c r="BI61" s="39"/>
+      <c r="BJ61" s="39"/>
+      <c r="BK61" s="40"/>
       <c r="BL61" s="7"/>
       <c r="BM61" s="7"/>
       <c r="BN61" s="7"/>
@@ -8458,14 +8475,14 @@
       <c r="C62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="33"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="40"/>
       <c r="J62" s="9"/>
       <c r="K62" s="7"/>
       <c r="L62" s="10"/>
@@ -8554,14 +8571,14 @@
       <c r="BC62" s="7"/>
       <c r="BD62" s="7"/>
       <c r="BE62" s="10"/>
-      <c r="BF62" s="34" t="s">
+      <c r="BF62" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="BG62" s="32"/>
-      <c r="BH62" s="32"/>
-      <c r="BI62" s="32"/>
-      <c r="BJ62" s="32"/>
-      <c r="BK62" s="33"/>
+      <c r="BG62" s="39"/>
+      <c r="BH62" s="39"/>
+      <c r="BI62" s="39"/>
+      <c r="BJ62" s="39"/>
+      <c r="BK62" s="40"/>
       <c r="BL62" s="7"/>
       <c r="BM62" s="7"/>
       <c r="BN62" s="7"/>
@@ -8640,14 +8657,14 @@
       <c r="BC63" s="7"/>
       <c r="BD63" s="7"/>
       <c r="BE63" s="10"/>
-      <c r="BF63" s="34" t="s">
+      <c r="BF63" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="BG63" s="32"/>
-      <c r="BH63" s="32"/>
-      <c r="BI63" s="32"/>
-      <c r="BJ63" s="32"/>
-      <c r="BK63" s="33"/>
+      <c r="BG63" s="39"/>
+      <c r="BH63" s="39"/>
+      <c r="BI63" s="39"/>
+      <c r="BJ63" s="39"/>
+      <c r="BK63" s="40"/>
       <c r="BL63" s="7"/>
       <c r="BM63" s="7"/>
       <c r="BN63" s="7"/>
@@ -8678,13 +8695,13 @@
       <c r="V64" s="7"/>
       <c r="W64" s="7"/>
       <c r="X64" s="11"/>
-      <c r="Y64" s="56" t="s">
+      <c r="Y64" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="Z64" s="56" t="s">
+      <c r="Z64" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AA64" s="56"/>
+      <c r="AA64" s="30"/>
       <c r="AB64" s="12"/>
       <c r="AC64" s="7"/>
       <c r="AD64" s="10"/>
@@ -8738,14 +8755,14 @@
       <c r="C65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="61" t="s">
+      <c r="D65" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="63"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="44"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="10"/>
@@ -8804,14 +8821,14 @@
       <c r="AW65" s="7"/>
       <c r="AX65" s="7"/>
       <c r="AY65" s="11"/>
-      <c r="AZ65" s="31" t="s">
+      <c r="AZ65" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="BA65" s="32"/>
-      <c r="BB65" s="32"/>
-      <c r="BC65" s="32"/>
-      <c r="BD65" s="32"/>
-      <c r="BE65" s="33"/>
+      <c r="BA65" s="39"/>
+      <c r="BB65" s="39"/>
+      <c r="BC65" s="39"/>
+      <c r="BD65" s="39"/>
+      <c r="BE65" s="40"/>
       <c r="BF65" s="9"/>
       <c r="BG65" s="7"/>
       <c r="BH65" s="17"/>
@@ -8840,12 +8857,12 @@
         <v>107</v>
       </c>
       <c r="F66" s="10"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="33"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="40"/>
       <c r="M66" s="7" t="s">
         <v>104</v>
       </c>
@@ -8853,13 +8870,6 @@
         <v>103</v>
       </c>
       <c r="O66" s="11"/>
-      <c r="P66" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R66" s="10"/>
       <c r="S66" s="7" t="s">
         <v>135</v>
       </c>
@@ -8968,22 +8978,22 @@
         <v>107</v>
       </c>
       <c r="F67" s="10"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="33"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="40"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
       <c r="O67" s="11"/>
-      <c r="P67" s="58" t="s">
+      <c r="P67" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="Q67" s="59" t="s">
+      <c r="Q67" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="R67" s="60"/>
+      <c r="R67" s="34"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
       <c r="U67" s="10"/>
@@ -9043,14 +9053,14 @@
       <c r="BC67" s="7"/>
       <c r="BD67" s="7"/>
       <c r="BE67" s="10"/>
-      <c r="BF67" s="50" t="s">
+      <c r="BF67" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="BG67" s="40"/>
-      <c r="BH67" s="40"/>
-      <c r="BI67" s="40"/>
-      <c r="BJ67" s="40"/>
-      <c r="BK67" s="41"/>
+      <c r="BG67" s="50"/>
+      <c r="BH67" s="50"/>
+      <c r="BI67" s="50"/>
+      <c r="BJ67" s="50"/>
+      <c r="BK67" s="52"/>
       <c r="BL67" s="7"/>
       <c r="BM67" s="7"/>
       <c r="BN67" s="7"/>
@@ -9103,8 +9113,12 @@
       <c r="AH68" s="7"/>
       <c r="AI68" s="7"/>
       <c r="AJ68" s="10"/>
-      <c r="AK68" s="7"/>
-      <c r="AL68" s="7"/>
+      <c r="AK68" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="AL68" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="AM68" s="10"/>
       <c r="AN68" s="7"/>
       <c r="AO68" s="7"/>
@@ -9189,12 +9203,14 @@
       <c r="AW69" s="7"/>
       <c r="AX69" s="7"/>
       <c r="AY69" s="11"/>
-      <c r="AZ69" s="7"/>
-      <c r="BA69" s="7"/>
-      <c r="BB69" s="17"/>
-      <c r="BC69" s="7"/>
-      <c r="BD69" s="7"/>
-      <c r="BE69" s="10"/>
+      <c r="AZ69" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="BA69" s="50"/>
+      <c r="BB69" s="50"/>
+      <c r="BC69" s="50"/>
+      <c r="BD69" s="50"/>
+      <c r="BE69" s="52"/>
       <c r="BF69" s="7"/>
       <c r="BG69" s="7"/>
       <c r="BH69" s="17"/>
@@ -9224,14 +9240,14 @@
       <c r="C70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="61" t="s">
+      <c r="D70" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="63"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="44"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="10"/>
@@ -9313,14 +9329,14 @@
       <c r="C71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="33"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="40"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="10"/>
@@ -9393,14 +9409,14 @@
       <c r="BC71" s="7"/>
       <c r="BD71" s="7"/>
       <c r="BE71" s="10"/>
-      <c r="BF71" s="34" t="s">
+      <c r="BF71" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="BG71" s="32"/>
-      <c r="BH71" s="32"/>
-      <c r="BI71" s="32"/>
-      <c r="BJ71" s="32"/>
-      <c r="BK71" s="33"/>
+      <c r="BG71" s="39"/>
+      <c r="BH71" s="39"/>
+      <c r="BI71" s="39"/>
+      <c r="BJ71" s="39"/>
+      <c r="BK71" s="40"/>
       <c r="BL71" s="7"/>
       <c r="BM71" s="7"/>
       <c r="BN71" s="7"/>
@@ -9420,12 +9436,12 @@
       <c r="C72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="30"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="37"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="10"/>
@@ -9492,22 +9508,14 @@
       <c r="AW72" s="7"/>
       <c r="AX72" s="7"/>
       <c r="AY72" s="11"/>
-      <c r="AZ72" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="BA72" s="40"/>
-      <c r="BB72" s="40"/>
-      <c r="BC72" s="40"/>
-      <c r="BD72" s="40"/>
-      <c r="BE72" s="41"/>
-      <c r="BF72" s="34" t="s">
+      <c r="BF72" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="BG72" s="32"/>
-      <c r="BH72" s="32"/>
-      <c r="BI72" s="32"/>
-      <c r="BJ72" s="32"/>
-      <c r="BK72" s="33"/>
+      <c r="BG72" s="39"/>
+      <c r="BH72" s="39"/>
+      <c r="BI72" s="39"/>
+      <c r="BJ72" s="39"/>
+      <c r="BK72" s="40"/>
       <c r="BL72" s="7"/>
       <c r="BM72" s="7"/>
       <c r="BN72" s="7"/>
@@ -9527,12 +9535,12 @@
       <c r="C73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="30"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="37"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="10"/>
@@ -9585,14 +9593,14 @@
       <c r="BC73" s="7"/>
       <c r="BD73" s="7"/>
       <c r="BE73" s="10"/>
-      <c r="BF73" s="34" t="s">
+      <c r="BF73" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="BG73" s="32"/>
-      <c r="BH73" s="32"/>
-      <c r="BI73" s="32"/>
-      <c r="BJ73" s="32"/>
-      <c r="BK73" s="33"/>
+      <c r="BG73" s="39"/>
+      <c r="BH73" s="39"/>
+      <c r="BI73" s="39"/>
+      <c r="BJ73" s="39"/>
+      <c r="BK73" s="40"/>
       <c r="BL73" s="7"/>
       <c r="BM73" s="7"/>
       <c r="BN73" s="7"/>
@@ -9678,12 +9686,12 @@
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="30"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="37"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="10"/>
@@ -9744,14 +9752,14 @@
       <c r="BC75" s="7"/>
       <c r="BD75" s="7"/>
       <c r="BE75" s="10"/>
-      <c r="BF75" s="34" t="s">
+      <c r="BF75" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="BG75" s="32"/>
-      <c r="BH75" s="32"/>
-      <c r="BI75" s="32"/>
-      <c r="BJ75" s="32"/>
-      <c r="BK75" s="33"/>
+      <c r="BG75" s="39"/>
+      <c r="BH75" s="39"/>
+      <c r="BI75" s="39"/>
+      <c r="BJ75" s="39"/>
+      <c r="BK75" s="40"/>
       <c r="BL75" s="7"/>
       <c r="BM75" s="7"/>
       <c r="BN75" s="7"/>
@@ -9771,14 +9779,14 @@
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="10"/>
@@ -9847,14 +9855,14 @@
       <c r="BC76" s="7"/>
       <c r="BD76" s="7"/>
       <c r="BE76" s="10"/>
-      <c r="BF76" s="34" t="s">
+      <c r="BF76" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="BG76" s="32"/>
-      <c r="BH76" s="32"/>
-      <c r="BI76" s="32"/>
-      <c r="BJ76" s="32"/>
-      <c r="BK76" s="33"/>
+      <c r="BG76" s="39"/>
+      <c r="BH76" s="39"/>
+      <c r="BI76" s="39"/>
+      <c r="BJ76" s="39"/>
+      <c r="BK76" s="40"/>
       <c r="BL76" s="7"/>
       <c r="BM76" s="7"/>
       <c r="BN76" s="7"/>
@@ -9874,14 +9882,14 @@
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="10"/>
@@ -9950,14 +9958,14 @@
       <c r="BC77" s="7"/>
       <c r="BD77" s="7"/>
       <c r="BE77" s="10"/>
-      <c r="BF77" s="34" t="s">
+      <c r="BF77" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="BG77" s="32"/>
-      <c r="BH77" s="32"/>
-      <c r="BI77" s="32"/>
-      <c r="BJ77" s="32"/>
-      <c r="BK77" s="33"/>
+      <c r="BG77" s="39"/>
+      <c r="BH77" s="39"/>
+      <c r="BI77" s="39"/>
+      <c r="BJ77" s="39"/>
+      <c r="BK77" s="40"/>
       <c r="BL77" s="7"/>
       <c r="BM77" s="7"/>
       <c r="BN77" s="7"/>
@@ -9977,14 +9985,14 @@
       <c r="C78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="33"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="40"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="10"/>
@@ -10136,14 +10144,14 @@
       <c r="C80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="28" t="s">
+      <c r="D80" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="10"/>
@@ -10192,14 +10200,14 @@
       <c r="BC80" s="7"/>
       <c r="BD80" s="7"/>
       <c r="BE80" s="10"/>
-      <c r="BF80" s="34" t="s">
+      <c r="BF80" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="BG80" s="32"/>
-      <c r="BH80" s="32"/>
-      <c r="BI80" s="32"/>
-      <c r="BJ80" s="32"/>
-      <c r="BK80" s="33"/>
+      <c r="BG80" s="39"/>
+      <c r="BH80" s="39"/>
+      <c r="BI80" s="39"/>
+      <c r="BJ80" s="39"/>
+      <c r="BK80" s="40"/>
       <c r="BL80" s="7"/>
       <c r="BM80" s="7"/>
       <c r="BN80" s="7"/>
@@ -10219,12 +10227,12 @@
       <c r="C81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="31"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="33"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="40"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="10"/>
@@ -10243,8 +10251,12 @@
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="7"/>
-      <c r="AB81" s="12"/>
-      <c r="AC81" s="7"/>
+      <c r="AB81" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC81" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="AD81" s="10"/>
       <c r="AE81" s="7"/>
       <c r="AF81" s="7"/>
@@ -10252,18 +10264,12 @@
       <c r="AH81" s="7"/>
       <c r="AI81" s="7"/>
       <c r="AJ81" s="10"/>
-      <c r="AK81" s="7"/>
-      <c r="AL81" s="7"/>
-      <c r="AM81" s="10"/>
       <c r="AN81" s="7"/>
       <c r="AO81" s="7"/>
       <c r="AP81" s="11"/>
       <c r="AQ81" s="7"/>
       <c r="AR81" s="7"/>
       <c r="AS81" s="10"/>
-      <c r="AT81" s="7"/>
-      <c r="AU81" s="7"/>
-      <c r="AV81" s="10"/>
       <c r="AW81" s="7"/>
       <c r="AX81" s="7"/>
       <c r="AY81" s="11"/>
@@ -10302,12 +10308,12 @@
       <c r="C82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="31"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="33"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="40"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="10"/>
@@ -10385,12 +10391,12 @@
       <c r="C83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="30"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="37"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="10"/>
@@ -10439,14 +10445,14 @@
       <c r="BC83" s="7"/>
       <c r="BD83" s="7"/>
       <c r="BE83" s="10"/>
-      <c r="BF83" s="34" t="s">
+      <c r="BF83" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="BG83" s="32"/>
-      <c r="BH83" s="32"/>
-      <c r="BI83" s="32"/>
-      <c r="BJ83" s="32"/>
-      <c r="BK83" s="33"/>
+      <c r="BG83" s="39"/>
+      <c r="BH83" s="39"/>
+      <c r="BI83" s="39"/>
+      <c r="BJ83" s="39"/>
+      <c r="BK83" s="40"/>
       <c r="BL83" s="7"/>
       <c r="BM83" s="7"/>
       <c r="BN83" s="7"/>
@@ -10875,7 +10881,7 @@
     <mergeCell ref="BF26:BK26"/>
     <mergeCell ref="BF27:BK27"/>
     <mergeCell ref="BF52:BK52"/>
-    <mergeCell ref="AZ72:BE72"/>
+    <mergeCell ref="AZ69:BE69"/>
     <mergeCell ref="AZ10:BE10"/>
     <mergeCell ref="AZ11:BE11"/>
     <mergeCell ref="AZ16:BE16"/>
@@ -10892,10 +10898,6 @@
     <mergeCell ref="AZ12:BE12"/>
     <mergeCell ref="AZ13:BE13"/>
     <mergeCell ref="AZ41:BE41"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BQ2"/>
-    <mergeCell ref="BO3:BQ3"/>
     <mergeCell ref="AZ21:BE21"/>
     <mergeCell ref="AZ50:BE50"/>
     <mergeCell ref="BF5:BK5"/>
@@ -10915,6 +10917,22 @@
     <mergeCell ref="BF11:BK11"/>
     <mergeCell ref="BF15:BK15"/>
     <mergeCell ref="BF48:BK48"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="AT2:AV3"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D10:O10"/>
     <mergeCell ref="AZ1:BQ1"/>
     <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="BU3:BW3"/>
@@ -10933,12 +10951,14 @@
     <mergeCell ref="BL3:BN3"/>
     <mergeCell ref="BR3:BT3"/>
     <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="AT2:AV3"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="D40:O40"/>
+    <mergeCell ref="D41:O41"/>
+    <mergeCell ref="AK51:AP51"/>
     <mergeCell ref="AQ1:AY1"/>
     <mergeCell ref="P26:X26"/>
     <mergeCell ref="P27:X27"/>
@@ -10955,23 +10975,6 @@
     <mergeCell ref="D11:O11"/>
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="D40:O40"/>
-    <mergeCell ref="D41:O41"/>
-    <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="D62:I62"/>
     <mergeCell ref="G54:L54"/>
     <mergeCell ref="G55:L55"/>
     <mergeCell ref="G51:L51"/>
@@ -10987,6 +10990,7 @@
     <mergeCell ref="D32:O32"/>
     <mergeCell ref="D36:I36"/>
     <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D31:O31"/>
     <mergeCell ref="D83:I83"/>
     <mergeCell ref="D56:I56"/>
     <mergeCell ref="D57:I57"/>
@@ -11005,6 +11009,8 @@
     <mergeCell ref="G60:L60"/>
     <mergeCell ref="D65:I65"/>
     <mergeCell ref="D70:I70"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="G61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
